--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6390" windowWidth="19215" windowHeight="1125" tabRatio="574"/>
+    <workbookView xWindow="-15" yWindow="6390" windowWidth="19215" windowHeight="1170" tabRatio="574"/>
   </bookViews>
   <sheets>
     <sheet name="Extrem Trading" sheetId="5" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="DB" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Extrem Trading'!$A$5:$L$272</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Extrem Trading'!$A$1:$M$271</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="54">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -155,9 +155,6 @@
     <t>JMUG</t>
   </si>
   <si>
-    <t>OverAll Progress</t>
-  </si>
-  <si>
     <t>NHD</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   <si>
     <t>UWTI</t>
   </si>
+  <si>
+    <t>Daily Progress</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +193,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,27 +232,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -348,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -382,26 +367,20 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -410,23 +389,6 @@
     <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -435,32 +397,38 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -763,23 +731,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M272"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="N117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="N57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I127" sqref="I127:I131"/>
+      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -792,70 +760,70 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="48">
+      <c r="L1" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="42">
         <v>-5000</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="48">
+      <c r="L2" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="42">
         <v>-2030.1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="82">
-        <f>SUM(I6:I272)</f>
-        <v>4878.2800000000479</v>
+      <c r="I4" s="54">
+        <f>SUM(I6:I271)</f>
+        <v>4663.3800000000501</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -875,10 +843,10 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="44" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -897,281 +865,281 @@
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+    <row r="6" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>41950</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="67">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="45">
         <v>12.9</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="45">
         <v>13.02</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="31">
         <f t="shared" ref="G6:G69" si="0">IF(D6&gt;0,(D6*E6)+K6,0)</f>
         <v>12909.99</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="29">
         <f t="shared" ref="H6:H69" si="1">IF(F6&gt;0,(D6*F6)-K6,0)</f>
         <v>13010.01</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="31">
         <f t="shared" ref="I6:I29" si="2">IF(F6&gt;0,H6-G6,0)</f>
         <v>100.02000000000044</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="29">
         <f t="shared" ref="J6:J29" si="3">IF(F6&gt;0,F6-E6,0)</f>
         <v>0.11999999999999922</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="31">
         <v>9.99</v>
       </c>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>41950</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="67">
         <v>1000</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="46">
         <v>13.3</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="35">
+      <c r="F7" s="46"/>
+      <c r="G7" s="31">
         <f t="shared" si="0"/>
         <v>13309.99</v>
       </c>
-      <c r="H7" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
+      <c r="H7" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="31">
         <v>9.99</v>
       </c>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>41955</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="37">
         <v>1000</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="47">
         <v>12.83</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="40">
+      <c r="F8" s="47"/>
+      <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>12839.99</v>
       </c>
-      <c r="H8" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="40">
+      <c r="H8" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="35">
         <v>9.99</v>
       </c>
-      <c r="M8" s="43"/>
-    </row>
-    <row r="9" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33" t="s">
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="67">
         <v>800</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="46">
         <v>12.15</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="35">
+      <c r="F9" s="46"/>
+      <c r="G9" s="31">
         <f t="shared" si="0"/>
         <v>9729.99</v>
       </c>
-      <c r="H9" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
+      <c r="H9" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="31">
         <v>9.99</v>
       </c>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
         <v>41974</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="67">
         <v>1000</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="46">
         <v>12.44</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="35">
+      <c r="F10" s="46"/>
+      <c r="G10" s="31">
         <f t="shared" si="0"/>
         <v>12444.99</v>
       </c>
-      <c r="H10" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
+      <c r="H10" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="35">
-        <v>4.99</v>
-      </c>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34" t="s">
+      <c r="K10" s="31">
+        <v>4.99</v>
+      </c>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="67">
         <v>1000</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="46">
         <v>12.42</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="35">
+      <c r="F11" s="46"/>
+      <c r="G11" s="31">
         <f t="shared" si="0"/>
         <v>12424.99</v>
       </c>
-      <c r="H11" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="35">
+      <c r="H11" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="35">
-        <v>4.99</v>
-      </c>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
+      <c r="K11" s="31">
+        <v>4.99</v>
+      </c>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="67">
         <v>1000</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="46">
         <v>11.9</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="35">
+      <c r="F12" s="46"/>
+      <c r="G12" s="31">
         <f t="shared" si="0"/>
         <v>11904.99</v>
       </c>
-      <c r="H12" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="35">
+      <c r="H12" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="35">
-        <v>4.99</v>
-      </c>
-      <c r="M12" s="37"/>
+      <c r="K12" s="31">
+        <v>4.99</v>
+      </c>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41975</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="68">
         <v>1000</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="48">
         <v>9.61</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="48">
         <v>9.7100000000000009</v>
       </c>
       <c r="G13" s="1">
@@ -1201,16 +1169,16 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="68">
         <v>2000</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="48">
         <v>3.78</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="48">
         <v>3.52</v>
       </c>
       <c r="G14" s="1">
@@ -1236,16 +1204,16 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="68">
         <v>1000</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="48">
         <v>3.45</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="48">
         <v>3.46</v>
       </c>
       <c r="G15" s="1">
@@ -1273,16 +1241,16 @@
         <v>41976</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="68">
         <v>1000</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="48">
         <v>3.75</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="48">
         <v>3.78</v>
       </c>
       <c r="G16" s="1">
@@ -1308,16 +1276,16 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="68">
         <v>1000</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="48">
         <v>3.94</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="48">
         <v>3.99</v>
       </c>
       <c r="G17" s="1">
@@ -1343,16 +1311,16 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="68">
         <v>1000</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="48">
         <v>3.98</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="48">
         <v>4.07</v>
       </c>
       <c r="G18" s="1">
@@ -1380,16 +1348,16 @@
         <v>41977</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="68">
         <v>1000</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="48">
         <v>3.75</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="48">
         <v>3.81</v>
       </c>
       <c r="G19" s="1">
@@ -1415,16 +1383,16 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="68">
         <v>1000</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="48">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="48">
         <v>8.44</v>
       </c>
       <c r="G20" s="1">
@@ -1450,16 +1418,16 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="68">
         <v>1000</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="48">
         <v>8.33</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="48">
         <v>8.42</v>
       </c>
       <c r="G21" s="1">
@@ -1485,16 +1453,16 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="68">
         <v>1500</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="48">
         <v>3.41</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="48">
         <v>3.42</v>
       </c>
       <c r="G22" s="1">
@@ -1522,16 +1490,16 @@
         <v>41978</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="68">
         <v>1000</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="48">
         <v>8.32</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="48">
         <v>8.64</v>
       </c>
       <c r="G23" s="1">
@@ -1557,16 +1525,16 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="68">
         <v>1000</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="48">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="48">
         <v>8.9600000000000009</v>
       </c>
       <c r="G24" s="1">
@@ -1592,16 +1560,16 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="68">
         <v>1000</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="48">
         <v>8.99</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="48">
         <v>9</v>
       </c>
       <c r="G25" s="1">
@@ -1627,16 +1595,16 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="68">
         <v>1000</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="48">
         <v>8.9499999999999993</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="48">
         <v>9</v>
       </c>
       <c r="G26" s="1">
@@ -1662,16 +1630,16 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="68">
         <v>1000</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="48">
         <v>7.43</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="48">
         <v>7.18</v>
       </c>
       <c r="G27" s="1">
@@ -1697,16 +1665,16 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="68">
         <v>1000</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="48">
         <v>7.01</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="48">
         <v>7.07</v>
       </c>
       <c r="G28" s="1">
@@ -1732,16 +1700,16 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="68">
         <v>1000</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="48">
         <v>3.05</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="48">
         <v>3.12</v>
       </c>
       <c r="G29" s="1">
@@ -1767,16 +1735,16 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="68">
         <v>1500</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="48">
         <v>3.07</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="48">
         <v>3.11</v>
       </c>
       <c r="G30" s="1">
@@ -1804,16 +1772,16 @@
         <v>41979</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="68">
         <v>1000</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="48">
         <v>7.12</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="48">
         <v>7.48</v>
       </c>
       <c r="G31" s="1">
@@ -1839,16 +1807,16 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="68">
         <v>1000</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="48">
         <v>7.47</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="48">
         <v>7.61</v>
       </c>
       <c r="G32" s="1">
@@ -1874,16 +1842,16 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="68">
         <v>1000</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="48">
         <v>8.27</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="48">
         <v>8.2899999999999991</v>
       </c>
       <c r="G33" s="1">
@@ -1907,55 +1875,56 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="69">
         <v>1500</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="48">
         <v>3.05</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="48">
         <v>3.14</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="26">
         <f t="shared" si="0"/>
         <v>4579.99</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="27">
         <f t="shared" si="1"/>
         <v>4705.01</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="40">
         <f t="shared" si="4"/>
         <v>125.02000000000044</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="27">
         <f t="shared" si="5"/>
         <v>9.0000000000000302E-2</v>
       </c>
-      <c r="K34" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K34" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L34" s="60"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41982</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="68">
         <v>1500</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="49">
         <v>3.22</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="49">
         <v>3.61</v>
       </c>
       <c r="G35" s="1">
@@ -1981,16 +1950,16 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="68">
         <v>1000</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="48">
         <v>8.17</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="48">
         <v>8.4</v>
       </c>
       <c r="G36" s="1">
@@ -2016,16 +1985,16 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="68">
         <v>1500</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="48">
         <v>3.69</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="48">
         <v>3.75</v>
       </c>
       <c r="G37" s="1">
@@ -2051,16 +2020,16 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="68">
         <v>1500</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="48">
         <v>3.77</v>
       </c>
-      <c r="F38" s="71">
+      <c r="F38" s="48">
         <v>3.69</v>
       </c>
       <c r="G38" s="1">
@@ -2086,16 +2055,16 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="25">
+      <c r="C39" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="68">
         <v>1000</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="48">
         <v>7.44</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39" s="48">
         <v>7.48</v>
       </c>
       <c r="G39" s="1">
@@ -2121,16 +2090,16 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="68">
         <v>1500</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="48">
         <v>3.6</v>
       </c>
-      <c r="F40" s="71">
+      <c r="F40" s="48">
         <v>3.66</v>
       </c>
       <c r="G40" s="1">
@@ -2154,55 +2123,56 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="28">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="69">
         <v>1000</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="48">
         <v>7.37</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="48">
         <v>7.42</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="26">
         <f t="shared" si="0"/>
         <v>7374.99</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="27">
         <f t="shared" si="1"/>
         <v>7415.01</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="40">
         <f t="shared" si="4"/>
         <v>40.020000000000437</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="27">
         <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="K41" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K41" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L41" s="60"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41983</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="68">
         <v>1000</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="49">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F42" s="72">
+      <c r="F42" s="49">
         <v>8.44</v>
       </c>
       <c r="G42" s="1">
@@ -2225,55 +2195,57 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56" t="s">
+    <row r="43" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="B43" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="70">
         <v>1000</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="49">
         <v>5.91</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="58">
+      <c r="F43" s="49">
+        <v>6.06</v>
+      </c>
+      <c r="G43" s="56">
         <f t="shared" si="0"/>
         <v>5914.99</v>
       </c>
-      <c r="H43" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="58">
+      <c r="H43" s="57">
+        <f t="shared" si="1"/>
+        <v>6055.01</v>
+      </c>
+      <c r="I43" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="59">
+        <v>140.02000000000044</v>
+      </c>
+      <c r="J43" s="57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="58">
-        <v>4.99</v>
-      </c>
-      <c r="M43" s="61"/>
+        <v>0.14999999999999947</v>
+      </c>
+      <c r="K43" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="M43" s="59"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="68">
         <v>1500</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="48">
         <v>3.46</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F44" s="48">
         <v>3.36</v>
       </c>
       <c r="G44" s="1">
@@ -2299,16 +2271,16 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="68">
         <v>1000</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="48">
         <v>8.59</v>
       </c>
-      <c r="F45" s="74">
+      <c r="F45" s="50">
         <v>8.67</v>
       </c>
       <c r="G45" s="1">
@@ -2334,16 +2306,16 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="68">
         <v>1000</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="48">
         <v>7.21</v>
       </c>
-      <c r="F46" s="74">
+      <c r="F46" s="50">
         <v>7.29</v>
       </c>
       <c r="G46" s="1">
@@ -2369,16 +2341,16 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="68">
         <v>1500</v>
       </c>
-      <c r="E47" s="74">
+      <c r="E47" s="50">
         <v>3.46</v>
       </c>
-      <c r="F47" s="71">
+      <c r="F47" s="48">
         <v>2.91</v>
       </c>
       <c r="G47" s="1">
@@ -2404,16 +2376,16 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="68">
         <v>900</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="48">
         <v>3.21</v>
       </c>
-      <c r="F48" s="71">
+      <c r="F48" s="48">
         <v>3.25</v>
       </c>
       <c r="G48" s="1">
@@ -2437,55 +2409,56 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="28" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="69">
         <v>900</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="48">
         <v>3.23</v>
       </c>
-      <c r="F49" s="71">
+      <c r="F49" s="48">
         <v>3.28</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="26">
         <f t="shared" si="0"/>
         <v>2911.99</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="27">
         <f t="shared" si="1"/>
         <v>2947.01</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="40">
         <f t="shared" si="4"/>
         <v>35.020000000000437</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="27">
         <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="K49" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K49" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L49" s="60"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>41984</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="68">
         <v>1000</v>
       </c>
-      <c r="E50" s="72">
+      <c r="E50" s="49">
         <v>8.58</v>
       </c>
-      <c r="F50" s="75">
+      <c r="F50" s="51">
         <v>8.82</v>
       </c>
       <c r="G50" s="1">
@@ -2511,16 +2484,16 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="68">
         <v>1000</v>
       </c>
-      <c r="E51" s="71">
+      <c r="E51" s="48">
         <v>3</v>
       </c>
-      <c r="F51" s="71">
+      <c r="F51" s="48">
         <v>3.05</v>
       </c>
       <c r="G51" s="1">
@@ -2546,16 +2519,16 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="68">
         <v>1000</v>
       </c>
-      <c r="E52" s="71">
+      <c r="E52" s="48">
         <v>3.15</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="48">
         <v>3.05</v>
       </c>
       <c r="G52" s="1">
@@ -2581,16 +2554,16 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="68">
         <v>2000</v>
       </c>
-      <c r="E53" s="71">
+      <c r="E53" s="48">
         <v>3.15</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53" s="48">
         <v>3.15</v>
       </c>
       <c r="G53" s="1">
@@ -2616,16 +2589,16 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="68">
         <v>1000</v>
       </c>
-      <c r="E54" s="71">
+      <c r="E54" s="48">
         <v>8.27</v>
       </c>
-      <c r="F54" s="71">
+      <c r="F54" s="48">
         <v>8.2799999999999994</v>
       </c>
       <c r="G54" s="1">
@@ -2651,16 +2624,16 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="68">
         <v>1000</v>
       </c>
-      <c r="E55" s="71">
+      <c r="E55" s="48">
         <v>7.57</v>
       </c>
-      <c r="F55" s="74">
+      <c r="F55" s="50">
         <v>7.62</v>
       </c>
       <c r="G55" s="1">
@@ -2686,16 +2659,16 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="68">
         <v>1000</v>
       </c>
-      <c r="E56" s="74">
+      <c r="E56" s="50">
         <v>7.55</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="48">
         <v>7.51</v>
       </c>
       <c r="G56" s="1">
@@ -2721,16 +2694,16 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="25">
+      <c r="C57" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="68">
         <v>1000</v>
       </c>
-      <c r="E57" s="74">
+      <c r="E57" s="50">
         <v>2.97</v>
       </c>
-      <c r="F57" s="74">
+      <c r="F57" s="50">
         <v>3.12</v>
       </c>
       <c r="G57" s="1">
@@ -2753,55 +2726,56 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="57" t="s">
+    <row r="58" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="57">
+      <c r="D58" s="62">
         <v>1000</v>
       </c>
-      <c r="E58" s="73">
+      <c r="E58" s="49">
         <v>3.59</v>
       </c>
-      <c r="F58" s="73"/>
-      <c r="G58" s="58">
+      <c r="F58" s="49"/>
+      <c r="G58" s="64">
         <f t="shared" si="0"/>
         <v>3594.99</v>
       </c>
-      <c r="H58" s="59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="58">
+      <c r="H58" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J58" s="59">
+      <c r="J58" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K58" s="58">
-        <v>4.99</v>
-      </c>
-      <c r="M58" s="61"/>
+      <c r="K58" s="64">
+        <v>4.99</v>
+      </c>
+      <c r="L58" s="62"/>
+      <c r="M58" s="59"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41985</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="44">
+      <c r="C59" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="71">
         <v>1000</v>
       </c>
-      <c r="E59" s="72">
+      <c r="E59" s="49">
         <v>3.81</v>
       </c>
-      <c r="F59" s="72">
+      <c r="F59" s="49">
         <v>3.86</v>
       </c>
       <c r="G59" s="1">
@@ -2827,16 +2801,16 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="71">
         <v>1000</v>
       </c>
-      <c r="E60" s="71">
+      <c r="E60" s="48">
         <v>7.19</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60" s="48">
         <v>7.25</v>
       </c>
       <c r="G60" s="1">
@@ -2862,16 +2836,16 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="71">
         <v>1000</v>
       </c>
-      <c r="E61" s="74">
+      <c r="E61" s="50">
         <v>7.17</v>
       </c>
-      <c r="F61" s="74">
+      <c r="F61" s="50">
         <v>7.21</v>
       </c>
       <c r="G61" s="1">
@@ -2895,55 +2869,56 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="28" t="s">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="69">
         <v>1000</v>
       </c>
-      <c r="E62" s="71">
+      <c r="E62" s="48">
         <v>8.75</v>
       </c>
-      <c r="F62" s="71">
+      <c r="F62" s="48">
         <v>8.85</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="26">
         <f t="shared" si="0"/>
         <v>8754.99</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H62" s="27">
         <f t="shared" si="1"/>
         <v>8845.01</v>
       </c>
-      <c r="I62" s="46">
+      <c r="I62" s="40">
         <f t="shared" si="4"/>
         <v>90.020000000000437</v>
       </c>
-      <c r="J62" s="30">
+      <c r="J62" s="27">
         <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K62" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K62" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L62" s="60"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41988</v>
       </c>
       <c r="B63" s="3"/>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="44">
+      <c r="D63" s="71">
         <v>1500</v>
       </c>
-      <c r="E63" s="72">
+      <c r="E63" s="49">
         <v>2.46</v>
       </c>
-      <c r="F63" s="72">
+      <c r="F63" s="49">
         <v>2.57</v>
       </c>
       <c r="G63" s="1">
@@ -2966,55 +2941,55 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="88">
+    <row r="64" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="70">
         <v>1000</v>
       </c>
-      <c r="E64" s="89">
+      <c r="E64" s="49">
         <v>3.13</v>
       </c>
-      <c r="F64" s="89">
+      <c r="F64" s="49">
         <v>3.01</v>
       </c>
-      <c r="G64" s="90">
+      <c r="G64" s="56">
         <f t="shared" si="0"/>
         <v>3134.99</v>
       </c>
-      <c r="H64" s="91">
+      <c r="H64" s="57">
         <f t="shared" si="1"/>
         <v>3005.01</v>
       </c>
-      <c r="I64" s="90">
+      <c r="I64" s="56">
         <f t="shared" si="4"/>
         <v>-129.97999999999956</v>
       </c>
-      <c r="J64" s="91">
+      <c r="J64" s="57">
         <f t="shared" si="5"/>
         <v>-0.12000000000000011</v>
       </c>
-      <c r="K64" s="90">
-        <v>4.99</v>
-      </c>
-      <c r="M64" s="93"/>
+      <c r="K64" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="M64" s="59"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="71">
         <v>1500</v>
       </c>
-      <c r="E65" s="71">
+      <c r="E65" s="48">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F65" s="71">
+      <c r="F65" s="48">
         <v>2.57</v>
       </c>
       <c r="G65" s="1">
@@ -3033,23 +3008,23 @@
         <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="56">
         <v>4.99</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="71">
         <v>1500</v>
       </c>
-      <c r="E66" s="71">
+      <c r="E66" s="48">
         <v>2.54</v>
       </c>
-      <c r="F66" s="71">
+      <c r="F66" s="48">
         <v>2.44</v>
       </c>
       <c r="G66" s="1">
@@ -3072,19 +3047,19 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="63" t="s">
+    <row r="67" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="63"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="63">
+      <c r="D67" s="62">
         <v>1000</v>
       </c>
-      <c r="E67" s="73">
+      <c r="E67" s="49">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F67" s="73"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="64">
         <f t="shared" si="0"/>
         <v>8704.99</v>
@@ -3104,23 +3079,24 @@
       <c r="K67" s="64">
         <v>4.99</v>
       </c>
-      <c r="M67" s="61"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="59"/>
     </row>
     <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>41989</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="71">
         <v>1000</v>
       </c>
-      <c r="E68" s="76">
+      <c r="E68" s="49">
         <v>8.25</v>
       </c>
-      <c r="F68" s="76">
+      <c r="F68" s="49">
         <v>8.31</v>
       </c>
       <c r="G68" s="23">
@@ -3142,21 +3118,21 @@
       <c r="K68" s="23">
         <v>4.99</v>
       </c>
-      <c r="M68" s="45"/>
+      <c r="M68" s="39"/>
     </row>
     <row r="69" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="44">
+      <c r="C69" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="71">
         <v>1000</v>
       </c>
-      <c r="E69" s="77">
+      <c r="E69" s="49">
         <v>2.81</v>
       </c>
-      <c r="F69" s="77">
+      <c r="F69" s="49">
         <v>2.99</v>
       </c>
       <c r="G69" s="23">
@@ -3178,29 +3154,29 @@
       <c r="K69" s="23">
         <v>4.99</v>
       </c>
-      <c r="M69" s="45"/>
+      <c r="M69" s="39"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="68">
         <v>1500</v>
       </c>
-      <c r="E70" s="71">
+      <c r="E70" s="48">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F70" s="71">
+      <c r="F70" s="48">
         <v>1.88</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" ref="G70:G131" si="6">IF(D70&gt;0,(D70*E70)+K70,0)</f>
+        <f t="shared" ref="G70:G130" si="6">IF(D70&gt;0,(D70*E70)+K70,0)</f>
         <v>3424.9899999999993</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" ref="H70:H131" si="7">IF(F70&gt;0,(D70*F70)-K70,0)</f>
+        <f t="shared" ref="H70:H130" si="7">IF(F70&gt;0,(D70*F70)-K70,0)</f>
         <v>2815.01</v>
       </c>
       <c r="I70" s="23">
@@ -3218,16 +3194,16 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="68">
         <v>1500</v>
       </c>
-      <c r="E71" s="71">
+      <c r="E71" s="48">
         <v>1.99</v>
       </c>
-      <c r="F71" s="71">
+      <c r="F71" s="48">
         <v>2.0099999999999998</v>
       </c>
       <c r="G71" s="1">
@@ -3253,16 +3229,16 @@
     <row r="72" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="71">
         <v>1000</v>
       </c>
-      <c r="E72" s="76">
+      <c r="E72" s="49">
         <v>8.2100000000000009</v>
       </c>
-      <c r="F72" s="77">
+      <c r="F72" s="49">
         <v>8.26</v>
       </c>
       <c r="G72" s="23">
@@ -3284,21 +3260,21 @@
       <c r="K72" s="23">
         <v>4.99</v>
       </c>
-      <c r="M72" s="45"/>
+      <c r="M72" s="39"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="68">
         <v>1500</v>
       </c>
-      <c r="E73" s="71">
+      <c r="E73" s="48">
         <v>2</v>
       </c>
-      <c r="F73" s="71">
+      <c r="F73" s="48">
         <v>2.02</v>
       </c>
       <c r="G73" s="1">
@@ -3322,55 +3298,56 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="27" t="s">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="69">
         <v>1500</v>
       </c>
-      <c r="E74" s="71">
+      <c r="E74" s="48">
         <v>1.97</v>
       </c>
-      <c r="F74" s="71">
+      <c r="F74" s="48">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G74" s="29">
+      <c r="G74" s="26">
         <f t="shared" si="6"/>
         <v>2959.99</v>
       </c>
-      <c r="H74" s="30">
+      <c r="H74" s="27">
         <f t="shared" si="7"/>
         <v>3040.0099999999998</v>
       </c>
-      <c r="I74" s="46">
+      <c r="I74" s="40">
         <f t="shared" si="4"/>
         <v>80.019999999999982</v>
       </c>
-      <c r="J74" s="30">
+      <c r="J74" s="27">
         <f t="shared" si="5"/>
         <v>5.9999999999999831E-2</v>
       </c>
-      <c r="K74" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K74" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L74" s="60"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41990</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D75" s="49">
+      <c r="D75" s="71">
         <v>1000</v>
       </c>
-      <c r="E75" s="72">
+      <c r="E75" s="49">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F75" s="72">
+      <c r="F75" s="49">
         <v>8.4</v>
       </c>
       <c r="G75" s="1">
@@ -3396,16 +3373,16 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="49">
+      <c r="D76" s="71">
         <v>1000</v>
       </c>
-      <c r="E76" s="71">
+      <c r="E76" s="48">
         <v>4.53</v>
       </c>
-      <c r="F76" s="71">
+      <c r="F76" s="48">
         <v>4.59</v>
       </c>
       <c r="G76" s="1">
@@ -3431,16 +3408,16 @@
     <row r="77" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="49">
+      <c r="D77" s="71">
         <v>1000</v>
       </c>
-      <c r="E77" s="77">
+      <c r="E77" s="49">
         <v>7.34</v>
       </c>
-      <c r="F77" s="77">
+      <c r="F77" s="49">
         <v>7.39</v>
       </c>
       <c r="G77" s="23">
@@ -3462,21 +3439,21 @@
       <c r="K77" s="23">
         <v>4.99</v>
       </c>
-      <c r="M77" s="45"/>
+      <c r="M77" s="39"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="49">
+      <c r="D78" s="71">
         <v>1000</v>
       </c>
-      <c r="E78" s="71">
+      <c r="E78" s="48">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F78" s="71">
+      <c r="F78" s="48">
         <v>4.7699999999999996</v>
       </c>
       <c r="G78" s="1">
@@ -3500,55 +3477,56 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27" t="s">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D79" s="69">
         <v>1000</v>
       </c>
-      <c r="E79" s="71">
+      <c r="E79" s="48">
         <v>4.67</v>
       </c>
-      <c r="F79" s="71">
+      <c r="F79" s="48">
         <v>4.71</v>
       </c>
-      <c r="G79" s="29">
+      <c r="G79" s="26">
         <f t="shared" si="6"/>
         <v>4674.99</v>
       </c>
-      <c r="H79" s="30">
+      <c r="H79" s="27">
         <f t="shared" si="7"/>
         <v>4705.01</v>
       </c>
-      <c r="I79" s="46">
+      <c r="I79" s="40">
         <f t="shared" si="4"/>
         <v>30.020000000000437</v>
       </c>
-      <c r="J79" s="30">
+      <c r="J79" s="27">
         <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K79" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K79" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L79" s="60"/>
     </row>
     <row r="80" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>41991</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="49">
+      <c r="D80" s="71">
         <v>1000</v>
       </c>
-      <c r="E80" s="76">
+      <c r="E80" s="49">
         <v>3.22</v>
       </c>
-      <c r="F80" s="76">
+      <c r="F80" s="49">
         <v>3.32</v>
       </c>
       <c r="G80" s="23">
@@ -3570,21 +3548,21 @@
       <c r="K80" s="23">
         <v>4.99</v>
       </c>
-      <c r="M80" s="45"/>
+      <c r="M80" s="39"/>
     </row>
     <row r="81" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="49">
+      <c r="D81" s="71">
         <v>1000</v>
       </c>
-      <c r="E81" s="77">
+      <c r="E81" s="49">
         <v>5.04</v>
       </c>
-      <c r="F81" s="77">
+      <c r="F81" s="49">
         <v>5.18</v>
       </c>
       <c r="G81" s="23">
@@ -3606,21 +3584,21 @@
       <c r="K81" s="23">
         <v>4.99</v>
       </c>
-      <c r="M81" s="45"/>
+      <c r="M81" s="39"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="49">
+      <c r="D82" s="71">
         <v>1000</v>
       </c>
-      <c r="E82" s="71">
+      <c r="E82" s="48">
         <v>8.36</v>
       </c>
-      <c r="F82" s="71">
+      <c r="F82" s="48">
         <v>8.3800000000000008</v>
       </c>
       <c r="G82" s="1">
@@ -3646,16 +3624,16 @@
     <row r="83" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="49">
+      <c r="D83" s="71">
         <v>1000</v>
       </c>
-      <c r="E83" s="77">
+      <c r="E83" s="49">
         <v>4.9400000000000004</v>
       </c>
-      <c r="F83" s="77">
+      <c r="F83" s="49">
         <v>5.04</v>
       </c>
       <c r="G83" s="23">
@@ -3677,21 +3655,21 @@
       <c r="K83" s="23">
         <v>4.99</v>
       </c>
-      <c r="M83" s="45"/>
+      <c r="M83" s="39"/>
     </row>
     <row r="84" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="49">
+      <c r="D84" s="71">
         <v>1000</v>
       </c>
-      <c r="E84" s="77">
+      <c r="E84" s="49">
         <v>8.24</v>
       </c>
-      <c r="F84" s="77">
+      <c r="F84" s="49">
         <v>8.2799999999999994</v>
       </c>
       <c r="G84" s="23">
@@ -3713,21 +3691,21 @@
       <c r="K84" s="23">
         <v>4.99</v>
       </c>
-      <c r="M84" s="45"/>
+      <c r="M84" s="39"/>
     </row>
     <row r="85" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="49">
+      <c r="D85" s="71">
         <v>1000</v>
       </c>
-      <c r="E85" s="77">
+      <c r="E85" s="49">
         <v>2.94</v>
       </c>
-      <c r="F85" s="77">
+      <c r="F85" s="49">
         <v>3.09</v>
       </c>
       <c r="G85" s="23">
@@ -3749,21 +3727,21 @@
       <c r="K85" s="23">
         <v>4.99</v>
       </c>
-      <c r="M85" s="45"/>
+      <c r="M85" s="39"/>
     </row>
     <row r="86" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="49">
+      <c r="D86" s="71">
         <v>1000</v>
       </c>
-      <c r="E86" s="77">
+      <c r="E86" s="49">
         <v>8.26</v>
       </c>
-      <c r="F86" s="77">
+      <c r="F86" s="49">
         <v>8.32</v>
       </c>
       <c r="G86" s="23">
@@ -3785,59 +3763,60 @@
       <c r="K86" s="23">
         <v>4.99</v>
       </c>
-      <c r="M86" s="45"/>
+      <c r="M86" s="39"/>
     </row>
     <row r="87" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="81"/>
-      <c r="B87" s="81"/>
-      <c r="C87" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="27">
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="69">
         <v>1500</v>
       </c>
-      <c r="E87" s="77">
+      <c r="E87" s="49">
         <v>2.54</v>
       </c>
-      <c r="F87" s="77">
+      <c r="F87" s="49">
         <v>2.58</v>
       </c>
-      <c r="G87" s="46">
+      <c r="G87" s="40">
         <f t="shared" si="6"/>
         <v>3814.99</v>
       </c>
-      <c r="H87" s="31">
+      <c r="H87" s="28">
         <f t="shared" si="7"/>
         <v>3865.01</v>
       </c>
-      <c r="I87" s="46">
+      <c r="I87" s="40">
         <f t="shared" si="4"/>
         <v>50.020000000000437</v>
       </c>
-      <c r="J87" s="31">
+      <c r="J87" s="28">
         <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K87" s="46">
-        <v>4.99</v>
-      </c>
-      <c r="M87" s="45"/>
+      <c r="K87" s="40">
+        <v>4.99</v>
+      </c>
+      <c r="L87" s="60"/>
+      <c r="M87" s="39"/>
     </row>
     <row r="88" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>41992</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="71">
         <v>1000</v>
       </c>
-      <c r="E88" s="76">
+      <c r="E88" s="49">
         <v>7.59</v>
       </c>
-      <c r="F88" s="76">
+      <c r="F88" s="49">
         <v>7.71</v>
       </c>
       <c r="G88" s="23">
@@ -3859,21 +3838,22 @@
       <c r="K88" s="23">
         <v>4.99</v>
       </c>
-      <c r="M88" s="45"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="39"/>
     </row>
     <row r="89" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="49">
+      <c r="D89" s="71">
         <v>1000</v>
       </c>
-      <c r="E89" s="77">
+      <c r="E89" s="49">
         <v>5.16</v>
       </c>
-      <c r="F89" s="77">
+      <c r="F89" s="49">
         <v>5.32</v>
       </c>
       <c r="G89" s="23">
@@ -3895,21 +3875,21 @@
       <c r="K89" s="23">
         <v>4.99</v>
       </c>
-      <c r="M89" s="45"/>
+      <c r="M89" s="39"/>
     </row>
     <row r="90" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="49">
+      <c r="D90" s="71">
         <v>1000</v>
       </c>
-      <c r="E90" s="77">
+      <c r="E90" s="49">
         <v>5.3</v>
       </c>
-      <c r="F90" s="77">
+      <c r="F90" s="49">
         <v>5.37</v>
       </c>
       <c r="G90" s="23">
@@ -3921,31 +3901,31 @@
         <v>5365.01</v>
       </c>
       <c r="I90" s="23">
-        <f t="shared" ref="I90:I151" si="8">IF(F90&gt;0,H90-G90,0)</f>
+        <f t="shared" ref="I90:I150" si="8">IF(F90&gt;0,H90-G90,0)</f>
         <v>60.020000000000437</v>
       </c>
       <c r="J90" s="8">
-        <f t="shared" ref="J90:J151" si="9">IF(F90&gt;0,F90-E90,0)</f>
+        <f t="shared" ref="J90:J150" si="9">IF(F90&gt;0,F90-E90,0)</f>
         <v>7.0000000000000284E-2</v>
       </c>
       <c r="K90" s="23">
         <v>4.99</v>
       </c>
-      <c r="M90" s="45"/>
+      <c r="M90" s="39"/>
     </row>
     <row r="91" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="49" t="s">
+      <c r="C91" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="49">
+      <c r="D91" s="71">
         <v>1000</v>
       </c>
-      <c r="E91" s="77">
+      <c r="E91" s="49">
         <v>3.08</v>
       </c>
-      <c r="F91" s="77">
+      <c r="F91" s="49">
         <v>3.12</v>
       </c>
       <c r="G91" s="23">
@@ -3967,21 +3947,21 @@
       <c r="K91" s="23">
         <v>4.99</v>
       </c>
-      <c r="M91" s="45"/>
+      <c r="M91" s="39"/>
     </row>
     <row r="92" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D92" s="49">
+      <c r="C92" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="71">
         <v>1500</v>
       </c>
-      <c r="E92" s="77">
+      <c r="E92" s="49">
         <v>2.58</v>
       </c>
-      <c r="F92" s="77">
+      <c r="F92" s="49">
         <v>2.5099999999999998</v>
       </c>
       <c r="G92" s="23">
@@ -4003,55 +3983,55 @@
       <c r="K92" s="23">
         <v>4.99</v>
       </c>
-      <c r="M92" s="45"/>
-    </row>
-    <row r="93" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="51" t="s">
+      <c r="M92" s="39"/>
+    </row>
+    <row r="93" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="51">
+      <c r="D93" s="71">
         <v>1000</v>
       </c>
-      <c r="E93" s="78">
+      <c r="E93" s="49">
         <v>7.65</v>
       </c>
-      <c r="F93" s="79"/>
-      <c r="G93" s="52">
+      <c r="F93" s="49"/>
+      <c r="G93" s="23">
         <f t="shared" si="6"/>
         <v>7654.99</v>
       </c>
-      <c r="H93" s="53">
+      <c r="H93" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I93" s="52">
+      <c r="I93" s="23">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J93" s="53">
+      <c r="J93" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K93" s="52">
-        <v>4.99</v>
-      </c>
-      <c r="M93" s="55"/>
+      <c r="K93" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="M93" s="39"/>
     </row>
     <row r="94" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="71">
         <v>1000</v>
       </c>
-      <c r="E94" s="76">
+      <c r="E94" s="49">
         <v>7.46</v>
       </c>
-      <c r="F94" s="77">
+      <c r="F94" s="49">
         <v>7.48</v>
       </c>
       <c r="G94" s="23">
@@ -4073,57 +4053,58 @@
       <c r="K94" s="23">
         <v>4.99</v>
       </c>
-      <c r="M94" s="45"/>
-    </row>
-    <row r="95" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
-      <c r="B95" s="83"/>
-      <c r="C95" s="84" t="s">
+      <c r="M94" s="39"/>
+    </row>
+    <row r="95" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="53"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D95" s="84">
+      <c r="D95" s="69">
         <v>2000</v>
       </c>
-      <c r="E95" s="79">
+      <c r="E95" s="49">
         <v>3.32</v>
       </c>
-      <c r="F95" s="79"/>
-      <c r="G95" s="85">
+      <c r="F95" s="49"/>
+      <c r="G95" s="40">
         <f t="shared" si="6"/>
         <v>6644.99</v>
       </c>
-      <c r="H95" s="86">
+      <c r="H95" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I95" s="85">
+      <c r="I95" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J95" s="86">
+      <c r="J95" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K95" s="85">
-        <v>4.99</v>
-      </c>
-      <c r="M95" s="55"/>
+      <c r="K95" s="40">
+        <v>4.99</v>
+      </c>
+      <c r="L95" s="62"/>
+      <c r="M95" s="39"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>357</v>
       </c>
       <c r="B96" s="3"/>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D96" s="49">
+      <c r="D96" s="71">
         <v>1000</v>
       </c>
-      <c r="E96" s="72">
+      <c r="E96" s="49">
         <v>6.25</v>
       </c>
-      <c r="F96" s="72">
+      <c r="F96" s="49">
         <v>6.31</v>
       </c>
       <c r="G96" s="1">
@@ -4145,20 +4126,21 @@
       <c r="K96" s="1">
         <v>4.99</v>
       </c>
+      <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="49">
+      <c r="D97" s="71">
         <v>1000</v>
       </c>
-      <c r="E97" s="72">
+      <c r="E97" s="49">
         <v>6.27</v>
       </c>
-      <c r="F97" s="72">
+      <c r="F97" s="49">
         <v>6.34</v>
       </c>
       <c r="G97" s="1">
@@ -4184,16 +4166,16 @@
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D98" s="49">
+      <c r="D98" s="71">
         <v>1000</v>
       </c>
-      <c r="E98" s="71">
+      <c r="E98" s="48">
         <v>6.38</v>
       </c>
-      <c r="F98" s="71">
+      <c r="F98" s="48">
         <v>6.46</v>
       </c>
       <c r="G98" s="1">
@@ -4219,16 +4201,16 @@
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D99" s="71">
         <v>1000</v>
       </c>
-      <c r="E99" s="71">
+      <c r="E99" s="48">
         <v>6.44</v>
       </c>
-      <c r="F99" s="71">
+      <c r="F99" s="48">
         <v>6.54</v>
       </c>
       <c r="G99" s="1">
@@ -4252,55 +4234,56 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="27" t="s">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100" s="69">
         <v>1000</v>
       </c>
-      <c r="E100" s="71">
+      <c r="E100" s="48">
         <v>6.39</v>
       </c>
-      <c r="F100" s="71">
+      <c r="F100" s="48">
         <v>6.17</v>
       </c>
-      <c r="G100" s="29">
+      <c r="G100" s="26">
         <f t="shared" si="6"/>
         <v>6394.99</v>
       </c>
-      <c r="H100" s="30">
+      <c r="H100" s="27">
         <f t="shared" si="7"/>
         <v>6165.01</v>
       </c>
-      <c r="I100" s="46">
+      <c r="I100" s="40">
         <f t="shared" si="8"/>
         <v>-229.97999999999956</v>
       </c>
-      <c r="J100" s="30">
+      <c r="J100" s="27">
         <f t="shared" si="9"/>
         <v>-0.21999999999999975</v>
       </c>
-      <c r="K100" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K100" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L100" s="60"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>42361</v>
       </c>
       <c r="B101" s="3"/>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D101" s="49">
+      <c r="D101" s="71">
         <v>1000</v>
       </c>
-      <c r="E101" s="72">
+      <c r="E101" s="49">
         <v>6.1</v>
       </c>
-      <c r="F101" s="72">
+      <c r="F101" s="49">
         <v>6</v>
       </c>
       <c r="G101" s="1">
@@ -4322,20 +4305,21 @@
       <c r="K101" s="1">
         <v>4.99</v>
       </c>
+      <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D102" s="49">
+      <c r="C102" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="71">
         <v>1000</v>
       </c>
-      <c r="E102" s="72">
+      <c r="E102" s="49">
         <v>2.34</v>
       </c>
-      <c r="F102" s="72">
+      <c r="F102" s="49">
         <v>2.35</v>
       </c>
       <c r="G102" s="1">
@@ -4361,16 +4345,16 @@
     <row r="103" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="49" t="s">
+      <c r="C103" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="49">
+      <c r="D103" s="71">
         <v>1000</v>
       </c>
-      <c r="E103" s="77">
+      <c r="E103" s="49">
         <v>6.14</v>
       </c>
-      <c r="F103" s="77">
+      <c r="F103" s="49">
         <v>6.16</v>
       </c>
       <c r="G103" s="23">
@@ -4392,19 +4376,19 @@
       <c r="K103" s="23">
         <v>4.99</v>
       </c>
-      <c r="M103" s="45"/>
+      <c r="M103" s="39"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" s="49">
+      <c r="C104" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D104" s="71">
         <v>1000</v>
       </c>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71">
+      <c r="E104" s="48"/>
+      <c r="F104" s="48">
         <v>0.34</v>
       </c>
       <c r="G104" s="1">
@@ -4427,55 +4411,56 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
-      <c r="B105" s="83"/>
-      <c r="C105" s="84" t="s">
+    <row r="105" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="53"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D105" s="84">
+      <c r="D105" s="69">
         <v>1000</v>
       </c>
-      <c r="E105" s="79">
+      <c r="E105" s="49">
         <v>6.24</v>
       </c>
-      <c r="F105" s="79"/>
-      <c r="G105" s="85">
+      <c r="F105" s="49"/>
+      <c r="G105" s="40">
         <f t="shared" si="6"/>
         <v>6244.99</v>
       </c>
-      <c r="H105" s="86">
+      <c r="H105" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I105" s="85">
+      <c r="I105" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J105" s="86">
+      <c r="J105" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K105" s="85">
-        <v>4.99</v>
-      </c>
-      <c r="M105" s="55"/>
+      <c r="K105" s="40">
+        <v>4.99</v>
+      </c>
+      <c r="L105" s="62"/>
+      <c r="M105" s="39"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>42362</v>
       </c>
       <c r="B106" s="3"/>
-      <c r="C106" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D106" s="49">
+      <c r="C106" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="71">
         <v>1500</v>
       </c>
-      <c r="E106" s="72">
+      <c r="E106" s="49">
         <v>2.41</v>
       </c>
-      <c r="F106" s="72">
+      <c r="F106" s="49">
         <v>2.4500000000000002</v>
       </c>
       <c r="G106" s="1">
@@ -4503,16 +4488,16 @@
         <v>42364</v>
       </c>
       <c r="B107" s="3"/>
-      <c r="C107" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D107" s="49">
+      <c r="C107" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="71">
         <v>1500</v>
       </c>
-      <c r="E107" s="71">
+      <c r="E107" s="48">
         <v>2.44</v>
       </c>
-      <c r="F107" s="71">
+      <c r="F107" s="48">
         <v>2.4700000000000002</v>
       </c>
       <c r="G107" s="1">
@@ -4540,16 +4525,16 @@
         <v>42367</v>
       </c>
       <c r="B108" s="3"/>
-      <c r="C108" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D108" s="49">
+      <c r="C108" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="71">
         <v>1500</v>
       </c>
-      <c r="E108" s="71">
+      <c r="E108" s="48">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F108" s="71">
+      <c r="F108" s="48">
         <v>2.4500000000000002</v>
       </c>
       <c r="G108" s="1">
@@ -4575,16 +4560,16 @@
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D109" s="49">
+      <c r="C109" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="71">
         <v>1500</v>
       </c>
-      <c r="E109" s="71">
+      <c r="E109" s="48">
         <v>2.42</v>
       </c>
-      <c r="F109" s="71">
+      <c r="F109" s="48">
         <v>2.56</v>
       </c>
       <c r="G109" s="1">
@@ -4612,16 +4597,16 @@
         <v>42368</v>
       </c>
       <c r="B110" s="3"/>
-      <c r="C110" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D110" s="49">
+      <c r="C110" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="71">
         <v>1000</v>
       </c>
-      <c r="E110" s="71">
+      <c r="E110" s="48">
         <v>4.79</v>
       </c>
-      <c r="F110" s="71">
+      <c r="F110" s="48">
         <v>4.8099999999999996</v>
       </c>
       <c r="G110" s="1">
@@ -4649,16 +4634,16 @@
         <v>42369</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="49">
+      <c r="C111" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="71">
         <v>500</v>
       </c>
-      <c r="E111" s="71">
+      <c r="E111" s="48">
         <v>4.38</v>
       </c>
-      <c r="F111" s="71">
+      <c r="F111" s="48">
         <v>4.41</v>
       </c>
       <c r="G111" s="1">
@@ -4684,16 +4669,16 @@
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="49" t="s">
+      <c r="C112" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="49">
+      <c r="D112" s="71">
         <v>1000</v>
       </c>
-      <c r="E112" s="71">
+      <c r="E112" s="48">
         <v>2.69</v>
       </c>
-      <c r="F112" s="71">
+      <c r="F112" s="48">
         <v>2.75</v>
       </c>
       <c r="G112" s="1">
@@ -4717,55 +4702,56 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D113" s="27">
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="69">
         <v>500</v>
       </c>
-      <c r="E113" s="71">
+      <c r="E113" s="48">
         <v>3.99</v>
       </c>
-      <c r="F113" s="71">
+      <c r="F113" s="48">
         <v>4.21</v>
       </c>
-      <c r="G113" s="29">
+      <c r="G113" s="26">
         <f t="shared" si="6"/>
         <v>1999.99</v>
       </c>
-      <c r="H113" s="30">
+      <c r="H113" s="27">
         <f t="shared" si="7"/>
         <v>2100.0100000000002</v>
       </c>
-      <c r="I113" s="46">
+      <c r="I113" s="40">
         <f t="shared" si="8"/>
         <v>100.02000000000021</v>
       </c>
-      <c r="J113" s="30">
+      <c r="J113" s="27">
         <f t="shared" si="9"/>
         <v>0.21999999999999975</v>
       </c>
-      <c r="K113" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K113" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L113" s="60"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>42006</v>
       </c>
       <c r="B114" s="3"/>
-      <c r="C114" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D114" s="49">
+      <c r="C114" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="71">
         <v>1000</v>
       </c>
-      <c r="E114" s="72">
+      <c r="E114" s="49">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F114" s="72">
+      <c r="F114" s="49">
         <v>4.4400000000000004</v>
       </c>
       <c r="G114" s="1">
@@ -4787,20 +4773,21 @@
       <c r="K114" s="1">
         <v>4.99</v>
       </c>
+      <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D115" s="49">
+      <c r="C115" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="71">
         <v>1000</v>
       </c>
-      <c r="E115" s="71">
+      <c r="E115" s="48">
         <v>4.5</v>
       </c>
-      <c r="F115" s="71">
+      <c r="F115" s="48">
         <v>4.55</v>
       </c>
       <c r="G115" s="1">
@@ -4826,16 +4813,16 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="49" t="s">
+      <c r="C116" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="49">
+      <c r="D116" s="71">
         <v>1000</v>
       </c>
-      <c r="E116" s="71">
+      <c r="E116" s="48">
         <v>2.72</v>
       </c>
-      <c r="F116" s="71"/>
+      <c r="F116" s="48"/>
       <c r="G116" s="1">
         <f t="shared" si="6"/>
         <v>2724.99</v>
@@ -4859,16 +4846,16 @@
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="49">
+      <c r="D117" s="71">
         <v>1000</v>
       </c>
-      <c r="E117" s="71">
+      <c r="E117" s="48">
         <v>5.26</v>
       </c>
-      <c r="F117" s="71">
+      <c r="F117" s="48">
         <v>5.36</v>
       </c>
       <c r="G117" s="1">
@@ -4892,55 +4879,56 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D118" s="27">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" s="69">
         <v>500</v>
       </c>
-      <c r="E118" s="71">
+      <c r="E118" s="48">
         <v>4.2</v>
       </c>
-      <c r="F118" s="71">
+      <c r="F118" s="48">
         <v>4.2300000000000004</v>
       </c>
-      <c r="G118" s="29">
+      <c r="G118" s="26">
         <f>IF(D118&gt;0,(D118*E118)+K118,0)</f>
         <v>2104.9899999999998</v>
       </c>
-      <c r="H118" s="30">
+      <c r="H118" s="27">
         <f>IF(F118&gt;0,(D118*F118)-K118,0)</f>
         <v>2110.0100000000002</v>
       </c>
-      <c r="I118" s="46">
+      <c r="I118" s="40">
         <f>IF(F118&gt;0,H118-G118,0)</f>
         <v>5.0200000000004366</v>
       </c>
-      <c r="J118" s="30">
+      <c r="J118" s="27">
         <f>IF(F118&gt;0,F118-E118,0)</f>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="K118" s="29">
-        <v>4.99</v>
-      </c>
+      <c r="K118" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L118" s="60"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>42009</v>
       </c>
       <c r="B119" s="3"/>
-      <c r="C119" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" s="49">
+      <c r="C119" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="71">
         <v>500</v>
       </c>
-      <c r="E119" s="72">
+      <c r="E119" s="49">
         <v>4.07</v>
       </c>
-      <c r="F119" s="72">
+      <c r="F119" s="49">
         <v>4.21</v>
       </c>
       <c r="G119" s="1">
@@ -4961,6 +4949,10 @@
       </c>
       <c r="K119" s="1">
         <v>4.99</v>
+      </c>
+      <c r="L119" s="2">
+        <f>SUM(I119:I125)</f>
+        <v>290.08000000000129</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4968,54 +4960,52 @@
       <c r="B120" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C120" s="51" t="s">
+      <c r="C120" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="49">
+      <c r="D120" s="71">
         <v>1000</v>
       </c>
-      <c r="E120" s="77">
+      <c r="E120" s="49">
         <v>5.63</v>
       </c>
-      <c r="F120" s="77">
-        <v>6.47</v>
-      </c>
+      <c r="F120" s="49"/>
       <c r="G120" s="23">
         <f>IF(D120&gt;0,(D120*E120)+K120,0)</f>
         <v>5639.99</v>
       </c>
       <c r="H120" s="8">
         <f>IF(F120&gt;0,(D120*F120)-K120,0)</f>
-        <v>6460.01</v>
+        <v>0</v>
       </c>
       <c r="I120" s="23">
         <f>IF(F120&gt;0,H120-G120,0)</f>
-        <v>820.02000000000044</v>
+        <v>0</v>
       </c>
       <c r="J120" s="8">
         <f>IF(F120&gt;0,F120-E120,0)</f>
-        <v>0.83999999999999986</v>
+        <v>0</v>
       </c>
       <c r="K120" s="23">
         <v>9.99</v>
       </c>
-      <c r="M120" s="45"/>
+      <c r="M120" s="39"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="49">
+      <c r="D121" s="71">
         <v>1000</v>
       </c>
-      <c r="E121" s="71">
+      <c r="E121" s="48">
         <v>5.63</v>
       </c>
-      <c r="F121" s="71"/>
+      <c r="F121" s="48"/>
       <c r="G121" s="1">
         <f t="shared" si="6"/>
         <v>5639.99</v>
@@ -5041,16 +5031,16 @@
       <c r="B122" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="49" t="s">
+      <c r="C122" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="49">
+      <c r="D122" s="71">
         <v>1000</v>
       </c>
-      <c r="E122" s="71">
+      <c r="E122" s="48">
         <v>5.91</v>
       </c>
-      <c r="F122" s="71">
+      <c r="F122" s="48">
         <v>6.06</v>
       </c>
       <c r="G122" s="1">
@@ -5078,17 +5068,19 @@
       <c r="B123" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="49">
+      <c r="C123" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="71">
         <v>1000</v>
       </c>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
+      <c r="E123" s="48">
+        <v>12.83</v>
+      </c>
+      <c r="F123" s="48"/>
       <c r="G123" s="1">
         <f t="shared" si="6"/>
-        <v>4.99</v>
+        <v>12834.99</v>
       </c>
       <c r="H123" s="2">
         <f t="shared" si="7"/>
@@ -5111,144 +5103,151 @@
       <c r="B124" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="49">
+      <c r="D124" s="71">
         <v>1000</v>
       </c>
-      <c r="E124" s="71">
-        <v>12.83</v>
-      </c>
-      <c r="F124" s="71"/>
+      <c r="E124" s="48">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F124" s="48">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="G124" s="1">
         <f t="shared" si="6"/>
-        <v>12834.99</v>
+        <v>4854.99</v>
       </c>
       <c r="H124" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4895.01</v>
       </c>
       <c r="I124" s="23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>40.020000000000437</v>
       </c>
       <c r="J124" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.0000000000000711E-2</v>
       </c>
       <c r="K124" s="1">
         <v>4.99</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3" t="s">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" s="49">
+      <c r="C125" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="69">
         <v>1000</v>
       </c>
-      <c r="E125" s="71">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="F125" s="71">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G125" s="1">
-        <f t="shared" si="6"/>
-        <v>4854.99</v>
-      </c>
-      <c r="H125" s="2">
-        <f t="shared" si="7"/>
-        <v>4895.01</v>
-      </c>
-      <c r="I125" s="23">
-        <f t="shared" si="8"/>
-        <v>40.020000000000437</v>
-      </c>
-      <c r="J125" s="2">
-        <f t="shared" si="9"/>
-        <v>5.0000000000000711E-2</v>
-      </c>
-      <c r="K125" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D126" s="27">
-        <v>1000</v>
-      </c>
-      <c r="E126" s="71">
+      <c r="E125" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F126" s="71">
+      <c r="F125" s="48">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G126" s="29">
+      <c r="G125" s="26">
         <f t="shared" si="6"/>
         <v>2204.9899999999998</v>
       </c>
-      <c r="H126" s="30">
+      <c r="H125" s="27">
         <f t="shared" si="7"/>
         <v>2255.0100000000002</v>
       </c>
-      <c r="I126" s="46">
+      <c r="I125" s="40">
         <f t="shared" si="8"/>
         <v>50.020000000000437</v>
       </c>
-      <c r="J126" s="30">
+      <c r="J125" s="27">
         <f t="shared" si="9"/>
         <v>5.9999999999999609E-2</v>
       </c>
-      <c r="K126" s="29">
-        <v>4.99</v>
+      <c r="K125" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L125" s="60"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>42011</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E126" s="49">
+        <v>6.15</v>
+      </c>
+      <c r="F126" s="49">
+        <v>6.27</v>
+      </c>
+      <c r="G126" s="1">
+        <f t="shared" si="6"/>
+        <v>6154.99</v>
+      </c>
+      <c r="H126" s="2">
+        <f t="shared" si="7"/>
+        <v>6265.01</v>
+      </c>
+      <c r="I126" s="23">
+        <f t="shared" si="8"/>
+        <v>110.02000000000044</v>
+      </c>
+      <c r="J126" s="2">
+        <f t="shared" si="9"/>
+        <v>0.11999999999999922</v>
+      </c>
+      <c r="K126" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="L126" s="2">
+        <f>SUM(I126:I130)</f>
+        <v>210.10000000000218</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
-        <v>42011</v>
-      </c>
+      <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C127" s="49" t="s">
+      <c r="C127" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="49">
+      <c r="D127" s="71">
         <v>1000</v>
       </c>
-      <c r="E127" s="72">
-        <v>6.15</v>
-      </c>
-      <c r="F127" s="72">
-        <v>6.27</v>
+      <c r="E127" s="48">
+        <v>6.21</v>
+      </c>
+      <c r="F127" s="48">
+        <v>6.32</v>
       </c>
       <c r="G127" s="1">
         <f t="shared" si="6"/>
-        <v>6154.99</v>
+        <v>6214.99</v>
       </c>
       <c r="H127" s="2">
         <f t="shared" si="7"/>
-        <v>6265.01</v>
+        <v>6315.01</v>
       </c>
       <c r="I127" s="23">
         <f t="shared" si="8"/>
-        <v>110.02000000000044</v>
+        <v>100.02000000000044</v>
       </c>
       <c r="J127" s="2">
         <f t="shared" si="9"/>
-        <v>0.11999999999999922</v>
+        <v>0.11000000000000032</v>
       </c>
       <c r="K127" s="1">
         <v>4.99</v>
@@ -5259,365 +5258,385 @@
       <c r="B128" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C128" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="49">
+      <c r="C128" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="71">
         <v>1000</v>
       </c>
-      <c r="E128" s="71">
-        <v>6.21</v>
-      </c>
-      <c r="F128" s="71">
-        <v>6.32</v>
+      <c r="E128" s="48">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F128" s="48">
+        <v>2.25</v>
       </c>
       <c r="G128" s="1">
         <f t="shared" si="6"/>
-        <v>6214.99</v>
+        <v>2244.9899999999998</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" si="7"/>
-        <v>6315.01</v>
+        <v>2245.0100000000002</v>
       </c>
       <c r="I128" s="23">
         <f t="shared" si="8"/>
-        <v>100.02000000000044</v>
+        <v>2.0000000000436557E-2</v>
       </c>
       <c r="J128" s="2">
         <f t="shared" si="9"/>
-        <v>0.11000000000000032</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="K128" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" s="49">
+      <c r="C129" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="71">
         <v>1000</v>
       </c>
-      <c r="E129" s="71">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F129" s="71">
-        <v>2.25</v>
+      <c r="E129" s="48">
+        <v>6.41</v>
+      </c>
+      <c r="F129" s="48">
+        <v>6.46</v>
       </c>
       <c r="G129" s="1">
         <f t="shared" si="6"/>
-        <v>2244.9899999999998</v>
+        <v>6414.99</v>
       </c>
       <c r="H129" s="2">
         <f t="shared" si="7"/>
-        <v>2245.0100000000002</v>
+        <v>6455.01</v>
       </c>
       <c r="I129" s="23">
         <f t="shared" si="8"/>
-        <v>2.0000000000436557E-2</v>
+        <v>40.020000000000437</v>
       </c>
       <c r="J129" s="2">
         <f t="shared" si="9"/>
-        <v>9.9999999999997868E-3</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="K129" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="49">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="69">
         <v>1000</v>
       </c>
-      <c r="E130" s="71">
-        <v>6.41</v>
-      </c>
-      <c r="F130" s="71"/>
-      <c r="G130" s="1">
-        <f t="shared" si="6"/>
-        <v>6414.99</v>
-      </c>
-      <c r="H130" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I130" s="23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K130" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D131" s="27">
-        <v>1000</v>
-      </c>
-      <c r="E131" s="71">
+      <c r="E130" s="48">
         <v>4.95</v>
       </c>
-      <c r="F131" s="71">
+      <c r="F130" s="48">
         <v>4.92</v>
       </c>
-      <c r="G131" s="29">
+      <c r="G130" s="26">
         <f t="shared" si="6"/>
         <v>4954.99</v>
       </c>
-      <c r="H131" s="30">
+      <c r="H130" s="27">
         <f t="shared" si="7"/>
         <v>4915.01</v>
       </c>
-      <c r="I131" s="46">
+      <c r="I130" s="40">
         <f t="shared" si="8"/>
         <v>-39.979999999999563</v>
       </c>
-      <c r="J131" s="30">
+      <c r="J130" s="27">
         <f t="shared" si="9"/>
         <v>-3.0000000000000249E-2</v>
       </c>
-      <c r="K131" s="29">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="K130" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L130" s="60"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>42012</v>
       </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E131" s="49">
+        <v>6.31</v>
+      </c>
+      <c r="F131" s="49">
+        <v>6.36</v>
+      </c>
+      <c r="G131" s="1">
+        <f t="shared" ref="G131:G194" si="10">IF(D131&gt;0,(D131*E131)+K131,0)</f>
+        <v>6314.99</v>
+      </c>
+      <c r="H131" s="2">
+        <f t="shared" ref="H131:H194" si="11">IF(F131&gt;0,(D131*F131)-K131,0)</f>
+        <v>6355.01</v>
+      </c>
+      <c r="I131" s="23">
+        <f t="shared" si="8"/>
+        <v>40.020000000000437</v>
+      </c>
+      <c r="J131" s="2">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="K131" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="L131" s="2">
+        <f>SUM(I131:I136)</f>
+        <v>520.12000000000216</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="49" t="s">
+      <c r="C132" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="49">
+      <c r="D132" s="71">
         <v>1000</v>
       </c>
-      <c r="E132" s="72">
-        <v>6.31</v>
-      </c>
-      <c r="F132" s="72">
-        <v>6.36</v>
+      <c r="E132" s="48">
+        <v>6.26</v>
+      </c>
+      <c r="F132" s="48">
+        <v>6.28</v>
       </c>
       <c r="G132" s="1">
-        <f t="shared" ref="G132:G195" si="10">IF(D132&gt;0,(D132*E132)+K132,0)</f>
-        <v>6314.99</v>
+        <f t="shared" si="10"/>
+        <v>6264.99</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" ref="H132:H195" si="11">IF(F132&gt;0,(D132*F132)-K132,0)</f>
-        <v>6355.01</v>
+        <f t="shared" si="11"/>
+        <v>6275.01</v>
       </c>
       <c r="I132" s="23">
         <f t="shared" si="8"/>
-        <v>40.020000000000437</v>
+        <v>10.020000000000437</v>
       </c>
       <c r="J132" s="2">
         <f t="shared" si="9"/>
-        <v>5.0000000000000711E-2</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="K132" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="49">
+      <c r="C133" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="71">
         <v>1000</v>
       </c>
-      <c r="E133" s="71">
-        <v>6.26</v>
-      </c>
-      <c r="F133" s="71">
-        <v>6.28</v>
+      <c r="E133" s="48">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F133" s="48">
+        <v>5.0599999999999996</v>
       </c>
       <c r="G133" s="1">
         <f t="shared" si="10"/>
-        <v>6264.99</v>
+        <v>4904.99</v>
       </c>
       <c r="H133" s="2">
         <f t="shared" si="11"/>
-        <v>6275.01</v>
+        <v>5055.01</v>
       </c>
       <c r="I133" s="23">
         <f t="shared" si="8"/>
-        <v>10.020000000000437</v>
+        <v>150.02000000000044</v>
       </c>
       <c r="J133" s="2">
         <f t="shared" si="9"/>
-        <v>2.0000000000000462E-2</v>
+        <v>0.15999999999999925</v>
       </c>
       <c r="K133" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="49" t="s">
+      <c r="C134" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D134" s="49">
+      <c r="D134" s="71">
         <v>1000</v>
       </c>
-      <c r="E134" s="71">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F134" s="71">
+      <c r="E134" s="48">
         <v>5.0599999999999996</v>
+      </c>
+      <c r="F134" s="48">
+        <v>5.09</v>
       </c>
       <c r="G134" s="1">
         <f t="shared" si="10"/>
-        <v>4904.99</v>
+        <v>5064.99</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" si="11"/>
-        <v>5055.01</v>
+        <v>5085.01</v>
       </c>
       <c r="I134" s="23">
         <f t="shared" si="8"/>
-        <v>150.02000000000044</v>
+        <v>20.020000000000437</v>
       </c>
       <c r="J134" s="2">
         <f t="shared" si="9"/>
-        <v>0.15999999999999925</v>
+        <v>3.0000000000000249E-2</v>
       </c>
       <c r="K134" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D135" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E135" s="71">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F135" s="71">
-        <v>5.09</v>
+      <c r="C135" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135" s="71">
+        <v>500</v>
+      </c>
+      <c r="E135" s="48">
+        <v>3.41</v>
+      </c>
+      <c r="F135" s="48">
+        <v>3.57</v>
       </c>
       <c r="G135" s="1">
         <f t="shared" si="10"/>
-        <v>5064.99</v>
+        <v>1709.99</v>
       </c>
       <c r="H135" s="2">
         <f t="shared" si="11"/>
-        <v>5085.01</v>
+        <v>1780.01</v>
       </c>
       <c r="I135" s="23">
         <f t="shared" si="8"/>
-        <v>20.020000000000437</v>
+        <v>70.019999999999982</v>
       </c>
       <c r="J135" s="2">
         <f t="shared" si="9"/>
-        <v>3.0000000000000249E-2</v>
+        <v>0.1599999999999997</v>
       </c>
       <c r="K135" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D136" s="49">
-        <v>500</v>
-      </c>
-      <c r="E136" s="71">
-        <v>3.41</v>
-      </c>
-      <c r="F136" s="71">
-        <v>3.57</v>
-      </c>
-      <c r="G136" s="1">
-        <f t="shared" si="10"/>
-        <v>1709.99</v>
-      </c>
-      <c r="H136" s="2">
-        <f t="shared" si="11"/>
-        <v>1780.01</v>
-      </c>
-      <c r="I136" s="23">
-        <f t="shared" si="8"/>
-        <v>70.019999999999982</v>
-      </c>
-      <c r="J136" s="2">
-        <f t="shared" si="9"/>
-        <v>0.1599999999999997</v>
-      </c>
-      <c r="K136" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="84" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="27">
+      <c r="D136" s="69">
         <v>1000</v>
       </c>
-      <c r="E137" s="71">
+      <c r="E136" s="48">
         <v>6.15</v>
       </c>
-      <c r="F137" s="71"/>
-      <c r="G137" s="29">
+      <c r="F136" s="48">
+        <v>6.39</v>
+      </c>
+      <c r="G136" s="26">
         <f t="shared" si="10"/>
         <v>6154.99</v>
       </c>
-      <c r="H137" s="30">
+      <c r="H136" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I137" s="46">
+        <v>6385.01</v>
+      </c>
+      <c r="I136" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="30">
+        <v>230.02000000000044</v>
+      </c>
+      <c r="J136" s="27">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K137" s="29">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.23999999999999932</v>
+      </c>
+      <c r="K136" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L136" s="60"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>42013</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" s="71">
+        <v>500</v>
+      </c>
+      <c r="E137" s="49">
+        <v>3.37</v>
+      </c>
+      <c r="F137" s="49">
+        <v>3.48</v>
+      </c>
+      <c r="G137" s="1">
+        <f t="shared" si="10"/>
+        <v>1689.99</v>
+      </c>
+      <c r="H137" s="2">
+        <f t="shared" si="11"/>
+        <v>1735.01</v>
+      </c>
+      <c r="I137" s="23">
+        <f t="shared" si="8"/>
+        <v>45.019999999999982</v>
+      </c>
+      <c r="J137" s="2">
+        <f t="shared" si="9"/>
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="K137" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="L137" s="2">
+        <f>SUM(I137:I141)</f>
+        <v>195.06000000000085</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="49"/>
-      <c r="E138" s="72"/>
-      <c r="F138" s="72"/>
+      <c r="C138" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="71">
+        <v>500</v>
+      </c>
+      <c r="E138" s="48">
+        <v>4.07</v>
+      </c>
+      <c r="F138" s="48"/>
       <c r="G138" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2039.9900000000002</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" si="11"/>
@@ -5635,43 +5654,57 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
+      <c r="C139" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D139" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E139" s="48">
+        <v>5.04</v>
+      </c>
+      <c r="F139" s="48">
+        <v>5.2</v>
+      </c>
       <c r="G139" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5044.99</v>
       </c>
       <c r="H139" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5195.01</v>
       </c>
       <c r="I139" s="23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>150.02000000000044</v>
       </c>
       <c r="J139" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.16000000000000014</v>
       </c>
       <c r="K139" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
+      <c r="C140" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D140" s="71">
+        <v>500</v>
+      </c>
+      <c r="E140" s="48">
+        <v>4.2</v>
+      </c>
+      <c r="F140" s="48"/>
       <c r="G140" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2104.9899999999998</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" si="11"/>
@@ -5689,40 +5722,49 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="1">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D141" s="69">
+        <v>1000</v>
+      </c>
+      <c r="E141" s="48">
+        <v>2.93</v>
+      </c>
+      <c r="F141" s="48">
+        <v>2.94</v>
+      </c>
+      <c r="G141" s="26">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H141" s="2">
+        <v>2934.99</v>
+      </c>
+      <c r="H141" s="27">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I141" s="23">
+        <v>2935.01</v>
+      </c>
+      <c r="I141" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="2">
+        <v>2.0000000000436557E-2</v>
+      </c>
+      <c r="J141" s="27">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K141" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="K141" s="26">
+        <v>4.99</v>
+      </c>
+      <c r="L141" s="60"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="49"/>
       <c r="G142" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5743,13 +5785,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
       <c r="G143" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5770,13 +5812,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
       <c r="G144" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5800,10 +5842,10 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="48"/>
       <c r="G145" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5827,10 +5869,10 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="48"/>
       <c r="G146" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5854,10 +5896,10 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="71"/>
-      <c r="F147" s="71"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="48"/>
+      <c r="F147" s="48"/>
       <c r="G147" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5881,10 +5923,10 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="71"/>
+      <c r="C148" s="68"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
       <c r="G148" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5908,10 +5950,10 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="71"/>
-      <c r="F149" s="71"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48"/>
       <c r="G149" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5935,10 +5977,10 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="48"/>
       <c r="G150" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5962,10 +6004,10 @@
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
+      <c r="C151" s="68"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="48"/>
       <c r="G151" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5975,11 +6017,11 @@
         <v>0</v>
       </c>
       <c r="I151" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I151:I214" si="12">IF(F151&gt;0,H151-G151,0)</f>
         <v>0</v>
       </c>
       <c r="J151" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J151:J214" si="13">IF(F151&gt;0,F151-E151,0)</f>
         <v>0</v>
       </c>
       <c r="K151" s="1">
@@ -5989,10 +6031,10 @@
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
+      <c r="C152" s="68"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="48"/>
       <c r="G152" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6002,11 +6044,11 @@
         <v>0</v>
       </c>
       <c r="I152" s="23">
-        <f t="shared" ref="I152:I215" si="12">IF(F152&gt;0,H152-G152,0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J152" s="2">
-        <f t="shared" ref="J152:J215" si="13">IF(F152&gt;0,F152-E152,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K152" s="1">
@@ -6016,10 +6058,10 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="71"/>
-      <c r="F153" s="71"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="48"/>
+      <c r="F153" s="48"/>
       <c r="G153" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6043,10 +6085,10 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="71"/>
-      <c r="F154" s="71"/>
+      <c r="C154" s="68"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="48"/>
       <c r="G154" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6070,10 +6112,10 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="71"/>
-      <c r="F155" s="71"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="48"/>
       <c r="G155" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6097,10 +6139,10 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="71"/>
-      <c r="F156" s="71"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48"/>
       <c r="G156" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6124,10 +6166,10 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
+      <c r="C157" s="68"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="48"/>
       <c r="G157" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6151,10 +6193,10 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="71"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48"/>
       <c r="G158" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6178,10 +6220,10 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="71"/>
-      <c r="F159" s="71"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48"/>
       <c r="G159" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6205,10 +6247,10 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="71"/>
-      <c r="F160" s="71"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48"/>
       <c r="G160" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6232,10 +6274,10 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="71"/>
-      <c r="F161" s="71"/>
+      <c r="C161" s="68"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
       <c r="G161" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6259,10 +6301,10 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="71"/>
-      <c r="F162" s="71"/>
+      <c r="C162" s="68"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="48"/>
       <c r="G162" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6286,10 +6328,10 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="71"/>
-      <c r="F163" s="71"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="48"/>
+      <c r="F163" s="48"/>
       <c r="G163" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6313,10 +6355,10 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="71"/>
-      <c r="F164" s="71"/>
+      <c r="C164" s="68"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="48"/>
       <c r="G164" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6340,10 +6382,10 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="71"/>
-      <c r="F165" s="71"/>
+      <c r="C165" s="68"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="48"/>
+      <c r="F165" s="48"/>
       <c r="G165" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6367,10 +6409,10 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="71"/>
-      <c r="F166" s="71"/>
+      <c r="C166" s="68"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="48"/>
       <c r="G166" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6394,10 +6436,10 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="71"/>
-      <c r="F167" s="71"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="48"/>
+      <c r="F167" s="48"/>
       <c r="G167" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6421,10 +6463,10 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="71"/>
-      <c r="F168" s="71"/>
+      <c r="C168" s="68"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="48"/>
       <c r="G168" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6448,10 +6490,10 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="71"/>
-      <c r="F169" s="71"/>
+      <c r="C169" s="68"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48"/>
       <c r="G169" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6475,10 +6517,10 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="48"/>
       <c r="G170" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6502,10 +6544,10 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="71"/>
-      <c r="F171" s="71"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="48"/>
       <c r="G171" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6529,10 +6571,10 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="71"/>
-      <c r="F172" s="71"/>
+      <c r="C172" s="68"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="48"/>
       <c r="G172" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6556,10 +6598,10 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="71"/>
-      <c r="F173" s="71"/>
+      <c r="C173" s="68"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
       <c r="G173" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6583,10 +6625,10 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="71"/>
-      <c r="F174" s="71"/>
+      <c r="C174" s="68"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="48"/>
       <c r="G174" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6610,10 +6652,10 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="71"/>
-      <c r="F175" s="71"/>
+      <c r="C175" s="68"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="48"/>
       <c r="G175" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6637,10 +6679,10 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="71"/>
-      <c r="F176" s="71"/>
+      <c r="C176" s="68"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
       <c r="G176" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6664,10 +6706,10 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="71"/>
-      <c r="F177" s="71"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
       <c r="G177" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6691,10 +6733,10 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="71"/>
-      <c r="F178" s="71"/>
+      <c r="C178" s="68"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
       <c r="G178" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6718,10 +6760,10 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="71"/>
-      <c r="F179" s="71"/>
+      <c r="C179" s="68"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
       <c r="G179" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6745,10 +6787,10 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="71"/>
-      <c r="F180" s="71"/>
+      <c r="C180" s="68"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
       <c r="G180" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6772,10 +6814,10 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="71"/>
-      <c r="F181" s="71"/>
+      <c r="C181" s="68"/>
+      <c r="D181" s="68"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
       <c r="G181" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6799,10 +6841,10 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="71"/>
-      <c r="F182" s="71"/>
+      <c r="C182" s="68"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
       <c r="G182" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6826,10 +6868,10 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="71"/>
-      <c r="F183" s="71"/>
+      <c r="C183" s="68"/>
+      <c r="D183" s="68"/>
+      <c r="E183" s="48"/>
+      <c r="F183" s="48"/>
       <c r="G183" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6853,10 +6895,10 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="71"/>
-      <c r="F184" s="71"/>
+      <c r="C184" s="68"/>
+      <c r="D184" s="68"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48"/>
       <c r="G184" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6880,10 +6922,10 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="71"/>
-      <c r="F185" s="71"/>
+      <c r="C185" s="68"/>
+      <c r="D185" s="68"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="48"/>
       <c r="G185" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6907,10 +6949,10 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="71"/>
-      <c r="F186" s="71"/>
+      <c r="C186" s="68"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="48"/>
       <c r="G186" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6934,10 +6976,10 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="71"/>
-      <c r="F187" s="71"/>
+      <c r="C187" s="68"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="48"/>
+      <c r="F187" s="48"/>
       <c r="G187" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6961,10 +7003,10 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="71"/>
-      <c r="F188" s="71"/>
+      <c r="C188" s="68"/>
+      <c r="D188" s="68"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="48"/>
       <c r="G188" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6988,10 +7030,10 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="71"/>
-      <c r="F189" s="71"/>
+      <c r="C189" s="68"/>
+      <c r="D189" s="68"/>
+      <c r="E189" s="48"/>
+      <c r="F189" s="48"/>
       <c r="G189" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7015,10 +7057,10 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="71"/>
-      <c r="F190" s="71"/>
+      <c r="C190" s="68"/>
+      <c r="D190" s="68"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="48"/>
       <c r="G190" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7042,10 +7084,10 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="71"/>
-      <c r="F191" s="71"/>
+      <c r="C191" s="68"/>
+      <c r="D191" s="68"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
       <c r="G191" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7069,10 +7111,10 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="71"/>
-      <c r="F192" s="71"/>
+      <c r="C192" s="68"/>
+      <c r="D192" s="68"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="48"/>
       <c r="G192" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7096,10 +7138,10 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="71"/>
-      <c r="F193" s="71"/>
+      <c r="C193" s="68"/>
+      <c r="D193" s="68"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
       <c r="G193" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7123,10 +7165,10 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="71"/>
-      <c r="F194" s="71"/>
+      <c r="C194" s="68"/>
+      <c r="D194" s="68"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
       <c r="G194" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7150,16 +7192,16 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="71"/>
-      <c r="F195" s="71"/>
+      <c r="C195" s="68"/>
+      <c r="D195" s="68"/>
+      <c r="E195" s="48"/>
+      <c r="F195" s="48"/>
       <c r="G195" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G195:G258" si="14">IF(D195&gt;0,(D195*E195)+K195,0)</f>
         <v>0</v>
       </c>
       <c r="H195" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H195:H258" si="15">IF(F195&gt;0,(D195*F195)-K195,0)</f>
         <v>0</v>
       </c>
       <c r="I195" s="23">
@@ -7177,16 +7219,16 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="71"/>
-      <c r="F196" s="71"/>
+      <c r="C196" s="68"/>
+      <c r="D196" s="68"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="48"/>
       <c r="G196" s="1">
-        <f t="shared" ref="G196:G259" si="14">IF(D196&gt;0,(D196*E196)+K196,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H196" s="2">
-        <f t="shared" ref="H196:H259" si="15">IF(F196&gt;0,(D196*F196)-K196,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I196" s="23">
@@ -7204,10 +7246,10 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="71"/>
-      <c r="F197" s="71"/>
+      <c r="C197" s="68"/>
+      <c r="D197" s="68"/>
+      <c r="E197" s="48"/>
+      <c r="F197" s="48"/>
       <c r="G197" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7231,10 +7273,10 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="71"/>
-      <c r="F198" s="71"/>
+      <c r="C198" s="68"/>
+      <c r="D198" s="68"/>
+      <c r="E198" s="48"/>
+      <c r="F198" s="48"/>
       <c r="G198" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7258,10 +7300,10 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="71"/>
-      <c r="F199" s="71"/>
+      <c r="C199" s="68"/>
+      <c r="D199" s="68"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="48"/>
       <c r="G199" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7285,10 +7327,10 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="71"/>
-      <c r="F200" s="71"/>
+      <c r="C200" s="68"/>
+      <c r="D200" s="68"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="48"/>
       <c r="G200" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7312,10 +7354,10 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="71"/>
-      <c r="F201" s="71"/>
+      <c r="C201" s="68"/>
+      <c r="D201" s="68"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="48"/>
       <c r="G201" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7339,10 +7381,10 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="71"/>
-      <c r="F202" s="71"/>
+      <c r="C202" s="68"/>
+      <c r="D202" s="68"/>
+      <c r="E202" s="48"/>
+      <c r="F202" s="48"/>
       <c r="G202" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7366,10 +7408,10 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="71"/>
-      <c r="F203" s="71"/>
+      <c r="C203" s="68"/>
+      <c r="D203" s="68"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="48"/>
       <c r="G203" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7393,10 +7435,10 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="71"/>
-      <c r="F204" s="71"/>
+      <c r="C204" s="68"/>
+      <c r="D204" s="68"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48"/>
       <c r="G204" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7420,10 +7462,10 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="71"/>
-      <c r="F205" s="71"/>
+      <c r="C205" s="68"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="48"/>
       <c r="G205" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7447,10 +7489,10 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="71"/>
-      <c r="F206" s="71"/>
+      <c r="C206" s="68"/>
+      <c r="D206" s="68"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
       <c r="G206" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7474,10 +7516,10 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="71"/>
-      <c r="F207" s="71"/>
+      <c r="C207" s="68"/>
+      <c r="D207" s="68"/>
+      <c r="E207" s="48"/>
+      <c r="F207" s="48"/>
       <c r="G207" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7501,10 +7543,10 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="71"/>
-      <c r="F208" s="71"/>
+      <c r="C208" s="68"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="48"/>
+      <c r="F208" s="48"/>
       <c r="G208" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7528,10 +7570,10 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="71"/>
-      <c r="F209" s="71"/>
+      <c r="C209" s="68"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48"/>
       <c r="G209" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7555,10 +7597,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="71"/>
-      <c r="F210" s="71"/>
+      <c r="C210" s="68"/>
+      <c r="D210" s="68"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="48"/>
       <c r="G210" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7582,10 +7624,10 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="71"/>
-      <c r="F211" s="71"/>
+      <c r="C211" s="68"/>
+      <c r="D211" s="68"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="48"/>
       <c r="G211" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7609,10 +7651,10 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="71"/>
-      <c r="F212" s="71"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="48"/>
       <c r="G212" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7636,10 +7678,10 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="71"/>
-      <c r="F213" s="71"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="48"/>
+      <c r="F213" s="48"/>
       <c r="G213" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7663,10 +7705,10 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="71"/>
-      <c r="F214" s="71"/>
+      <c r="C214" s="68"/>
+      <c r="D214" s="68"/>
+      <c r="E214" s="48"/>
+      <c r="F214" s="48"/>
       <c r="G214" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7690,10 +7732,10 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="71"/>
-      <c r="F215" s="71"/>
+      <c r="C215" s="68"/>
+      <c r="D215" s="68"/>
+      <c r="E215" s="48"/>
+      <c r="F215" s="48"/>
       <c r="G215" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7703,11 +7745,11 @@
         <v>0</v>
       </c>
       <c r="I215" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I215:I249" si="16">IF(F215&gt;0,H215-G215,0)</f>
         <v>0</v>
       </c>
       <c r="J215" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J215:J249" si="17">IF(F215&gt;0,F215-E215,0)</f>
         <v>0</v>
       </c>
       <c r="K215" s="1">
@@ -7717,10 +7759,10 @@
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="71"/>
-      <c r="F216" s="71"/>
+      <c r="C216" s="68"/>
+      <c r="D216" s="68"/>
+      <c r="E216" s="48"/>
+      <c r="F216" s="48"/>
       <c r="G216" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7730,11 +7772,11 @@
         <v>0</v>
       </c>
       <c r="I216" s="23">
-        <f t="shared" ref="I216:I250" si="16">IF(F216&gt;0,H216-G216,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J216" s="2">
-        <f t="shared" ref="J216:J250" si="17">IF(F216&gt;0,F216-E216,0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K216" s="1">
@@ -7744,10 +7786,10 @@
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="71"/>
-      <c r="F217" s="71"/>
+      <c r="C217" s="68"/>
+      <c r="D217" s="68"/>
+      <c r="E217" s="48"/>
+      <c r="F217" s="48"/>
       <c r="G217" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7771,10 +7813,10 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="71"/>
-      <c r="F218" s="71"/>
+      <c r="C218" s="68"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="48"/>
+      <c r="F218" s="48"/>
       <c r="G218" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7798,10 +7840,10 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="71"/>
-      <c r="F219" s="71"/>
+      <c r="C219" s="68"/>
+      <c r="D219" s="68"/>
+      <c r="E219" s="48"/>
+      <c r="F219" s="48"/>
       <c r="G219" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7825,10 +7867,10 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="71"/>
-      <c r="F220" s="71"/>
+      <c r="C220" s="68"/>
+      <c r="D220" s="68"/>
+      <c r="E220" s="48"/>
+      <c r="F220" s="48"/>
       <c r="G220" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7852,10 +7894,10 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="71"/>
-      <c r="F221" s="71"/>
+      <c r="C221" s="68"/>
+      <c r="D221" s="68"/>
+      <c r="E221" s="48"/>
+      <c r="F221" s="48"/>
       <c r="G221" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7879,10 +7921,10 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="71"/>
-      <c r="F222" s="71"/>
+      <c r="C222" s="68"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="48"/>
       <c r="G222" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7906,10 +7948,10 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="71"/>
-      <c r="F223" s="71"/>
+      <c r="C223" s="68"/>
+      <c r="D223" s="68"/>
+      <c r="E223" s="48"/>
+      <c r="F223" s="48"/>
       <c r="G223" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7933,10 +7975,10 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="71"/>
-      <c r="F224" s="71"/>
+      <c r="C224" s="68"/>
+      <c r="D224" s="68"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="48"/>
       <c r="G224" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7960,10 +8002,10 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="71"/>
-      <c r="F225" s="71"/>
+      <c r="C225" s="68"/>
+      <c r="D225" s="68"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="48"/>
       <c r="G225" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7987,10 +8029,10 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="71"/>
-      <c r="F226" s="71"/>
+      <c r="C226" s="68"/>
+      <c r="D226" s="68"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
       <c r="G226" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8014,10 +8056,10 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="71"/>
-      <c r="F227" s="71"/>
+      <c r="C227" s="68"/>
+      <c r="D227" s="68"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
       <c r="G227" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8041,10 +8083,10 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="71"/>
-      <c r="F228" s="71"/>
+      <c r="C228" s="68"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="48"/>
+      <c r="F228" s="48"/>
       <c r="G228" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8068,10 +8110,10 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="71"/>
-      <c r="F229" s="71"/>
+      <c r="C229" s="68"/>
+      <c r="D229" s="68"/>
+      <c r="E229" s="48"/>
+      <c r="F229" s="48"/>
       <c r="G229" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8095,10 +8137,10 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="71"/>
-      <c r="F230" s="71"/>
+      <c r="C230" s="68"/>
+      <c r="D230" s="68"/>
+      <c r="E230" s="48"/>
+      <c r="F230" s="48"/>
       <c r="G230" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8122,10 +8164,10 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="71"/>
-      <c r="F231" s="71"/>
+      <c r="C231" s="68"/>
+      <c r="D231" s="68"/>
+      <c r="E231" s="48"/>
+      <c r="F231" s="48"/>
       <c r="G231" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8149,10 +8191,10 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="71"/>
-      <c r="F232" s="71"/>
+      <c r="C232" s="68"/>
+      <c r="D232" s="68"/>
+      <c r="E232" s="48"/>
+      <c r="F232" s="48"/>
       <c r="G232" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8176,10 +8218,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="71"/>
-      <c r="F233" s="71"/>
+      <c r="C233" s="68"/>
+      <c r="D233" s="68"/>
+      <c r="E233" s="48"/>
+      <c r="F233" s="48"/>
       <c r="G233" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8203,10 +8245,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="71"/>
-      <c r="F234" s="71"/>
+      <c r="C234" s="68"/>
+      <c r="D234" s="68"/>
+      <c r="E234" s="48"/>
+      <c r="F234" s="48"/>
       <c r="G234" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8230,10 +8272,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="71"/>
-      <c r="F235" s="71"/>
+      <c r="C235" s="68"/>
+      <c r="D235" s="68"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="48"/>
       <c r="G235" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8257,10 +8299,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="71"/>
-      <c r="F236" s="71"/>
+      <c r="C236" s="68"/>
+      <c r="D236" s="68"/>
+      <c r="E236" s="48"/>
+      <c r="F236" s="48"/>
       <c r="G236" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8284,10 +8326,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="71"/>
-      <c r="F237" s="71"/>
+      <c r="C237" s="68"/>
+      <c r="D237" s="68"/>
+      <c r="E237" s="48"/>
+      <c r="F237" s="48"/>
       <c r="G237" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8311,10 +8353,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="71"/>
-      <c r="F238" s="71"/>
+      <c r="C238" s="68"/>
+      <c r="D238" s="68"/>
+      <c r="E238" s="48"/>
+      <c r="F238" s="48"/>
       <c r="G238" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8338,10 +8380,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="71"/>
-      <c r="F239" s="71"/>
+      <c r="C239" s="68"/>
+      <c r="D239" s="68"/>
+      <c r="E239" s="48"/>
+      <c r="F239" s="48"/>
       <c r="G239" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8365,10 +8407,10 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="71"/>
-      <c r="F240" s="71"/>
+      <c r="C240" s="68"/>
+      <c r="D240" s="68"/>
+      <c r="E240" s="48"/>
+      <c r="F240" s="48"/>
       <c r="G240" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8392,10 +8434,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="71"/>
-      <c r="F241" s="71"/>
+      <c r="C241" s="68"/>
+      <c r="D241" s="68"/>
+      <c r="E241" s="48"/>
+      <c r="F241" s="48"/>
       <c r="G241" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8419,10 +8461,10 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="7"/>
-      <c r="E242" s="71"/>
-      <c r="F242" s="71"/>
+      <c r="C242" s="68"/>
+      <c r="D242" s="68"/>
+      <c r="E242" s="48"/>
+      <c r="F242" s="48"/>
       <c r="G242" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8446,10 +8488,10 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="7"/>
-      <c r="E243" s="71"/>
-      <c r="F243" s="71"/>
+      <c r="C243" s="68"/>
+      <c r="D243" s="68"/>
+      <c r="E243" s="48"/>
+      <c r="F243" s="48"/>
       <c r="G243" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8473,10 +8515,10 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="7"/>
-      <c r="E244" s="71"/>
-      <c r="F244" s="71"/>
+      <c r="C244" s="68"/>
+      <c r="D244" s="68"/>
+      <c r="E244" s="48"/>
+      <c r="F244" s="48"/>
       <c r="G244" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8500,10 +8542,10 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="71"/>
-      <c r="F245" s="71"/>
+      <c r="C245" s="68"/>
+      <c r="D245" s="68"/>
+      <c r="E245" s="48"/>
+      <c r="F245" s="48"/>
       <c r="G245" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8527,10 +8569,10 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="7"/>
-      <c r="E246" s="71"/>
-      <c r="F246" s="71"/>
+      <c r="C246" s="68"/>
+      <c r="D246" s="68"/>
+      <c r="E246" s="48"/>
+      <c r="F246" s="48"/>
       <c r="G246" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8554,10 +8596,10 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="71"/>
-      <c r="F247" s="71"/>
+      <c r="C247" s="68"/>
+      <c r="D247" s="68"/>
+      <c r="E247" s="48"/>
+      <c r="F247" s="48"/>
       <c r="G247" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8581,10 +8623,10 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="71"/>
-      <c r="F248" s="71"/>
+      <c r="C248" s="68"/>
+      <c r="D248" s="68"/>
+      <c r="E248" s="48"/>
+      <c r="F248" s="48"/>
       <c r="G248" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8608,10 +8650,10 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="71"/>
-      <c r="F249" s="71"/>
+      <c r="C249" s="68"/>
+      <c r="D249" s="68"/>
+      <c r="E249" s="48"/>
+      <c r="F249" s="48"/>
       <c r="G249" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8635,10 +8677,10 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="71"/>
-      <c r="F250" s="71"/>
+      <c r="C250" s="68"/>
+      <c r="D250" s="68"/>
+      <c r="E250" s="48"/>
+      <c r="F250" s="48"/>
       <c r="G250" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8648,11 +8690,11 @@
         <v>0</v>
       </c>
       <c r="I250" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I250:I271" si="18">IF(F250&gt;0,H250-G250,0)</f>
         <v>0</v>
       </c>
       <c r="J250" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J250:J271" si="19">IF(F250&gt;0,F250-E250,0)</f>
         <v>0</v>
       </c>
       <c r="K250" s="1">
@@ -8662,10 +8704,10 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="71"/>
-      <c r="F251" s="71"/>
+      <c r="C251" s="68"/>
+      <c r="D251" s="68"/>
+      <c r="E251" s="48"/>
+      <c r="F251" s="48"/>
       <c r="G251" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8675,11 +8717,11 @@
         <v>0</v>
       </c>
       <c r="I251" s="23">
-        <f t="shared" ref="I251:I272" si="18">IF(F251&gt;0,H251-G251,0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J251" s="2">
-        <f t="shared" ref="J251:J272" si="19">IF(F251&gt;0,F251-E251,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K251" s="1">
@@ -8689,10 +8731,10 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="7"/>
-      <c r="E252" s="71"/>
-      <c r="F252" s="71"/>
+      <c r="C252" s="68"/>
+      <c r="D252" s="68"/>
+      <c r="E252" s="48"/>
+      <c r="F252" s="48"/>
       <c r="G252" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8716,10 +8758,10 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="7"/>
-      <c r="E253" s="71"/>
-      <c r="F253" s="71"/>
+      <c r="C253" s="68"/>
+      <c r="D253" s="68"/>
+      <c r="E253" s="48"/>
+      <c r="F253" s="48"/>
       <c r="G253" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8743,10 +8785,10 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="7"/>
-      <c r="D254" s="7"/>
-      <c r="E254" s="71"/>
-      <c r="F254" s="71"/>
+      <c r="C254" s="68"/>
+      <c r="D254" s="68"/>
+      <c r="E254" s="48"/>
+      <c r="F254" s="48"/>
       <c r="G254" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8770,10 +8812,10 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="7"/>
-      <c r="E255" s="71"/>
-      <c r="F255" s="71"/>
+      <c r="C255" s="68"/>
+      <c r="D255" s="68"/>
+      <c r="E255" s="48"/>
+      <c r="F255" s="48"/>
       <c r="G255" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8797,10 +8839,10 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="7"/>
-      <c r="E256" s="71"/>
-      <c r="F256" s="71"/>
+      <c r="C256" s="68"/>
+      <c r="D256" s="68"/>
+      <c r="E256" s="48"/>
+      <c r="F256" s="48"/>
       <c r="G256" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8824,10 +8866,10 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="7"/>
-      <c r="E257" s="71"/>
-      <c r="F257" s="71"/>
+      <c r="C257" s="68"/>
+      <c r="D257" s="68"/>
+      <c r="E257" s="48"/>
+      <c r="F257" s="48"/>
       <c r="G257" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8851,10 +8893,10 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="7"/>
-      <c r="D258" s="7"/>
-      <c r="E258" s="71"/>
-      <c r="F258" s="71"/>
+      <c r="C258" s="68"/>
+      <c r="D258" s="68"/>
+      <c r="E258" s="48"/>
+      <c r="F258" s="48"/>
       <c r="G258" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8878,16 +8920,16 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
-      <c r="C259" s="7"/>
-      <c r="D259" s="7"/>
-      <c r="E259" s="71"/>
-      <c r="F259" s="71"/>
+      <c r="C259" s="68"/>
+      <c r="D259" s="68"/>
+      <c r="E259" s="48"/>
+      <c r="F259" s="48"/>
       <c r="G259" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G259:G271" si="20">IF(D259&gt;0,(D259*E259)+K259,0)</f>
         <v>0</v>
       </c>
       <c r="H259" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H259:H271" si="21">IF(F259&gt;0,(D259*F259)-K259,0)</f>
         <v>0</v>
       </c>
       <c r="I259" s="23">
@@ -8905,16 +8947,16 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="7"/>
-      <c r="E260" s="71"/>
-      <c r="F260" s="71"/>
+      <c r="C260" s="68"/>
+      <c r="D260" s="68"/>
+      <c r="E260" s="48"/>
+      <c r="F260" s="48"/>
       <c r="G260" s="1">
-        <f t="shared" ref="G260:G272" si="20">IF(D260&gt;0,(D260*E260)+K260,0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H260" s="2">
-        <f t="shared" ref="H260:H272" si="21">IF(F260&gt;0,(D260*F260)-K260,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I260" s="23">
@@ -8932,10 +8974,10 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="71"/>
-      <c r="F261" s="71"/>
+      <c r="C261" s="68"/>
+      <c r="D261" s="68"/>
+      <c r="E261" s="48"/>
+      <c r="F261" s="48"/>
       <c r="G261" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -8959,10 +9001,10 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="7"/>
-      <c r="E262" s="71"/>
-      <c r="F262" s="71"/>
+      <c r="C262" s="68"/>
+      <c r="D262" s="68"/>
+      <c r="E262" s="48"/>
+      <c r="F262" s="48"/>
       <c r="G262" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -8986,10 +9028,10 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="7"/>
-      <c r="E263" s="71"/>
-      <c r="F263" s="71"/>
+      <c r="C263" s="68"/>
+      <c r="D263" s="68"/>
+      <c r="E263" s="48"/>
+      <c r="F263" s="48"/>
       <c r="G263" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9013,10 +9055,10 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="7"/>
-      <c r="E264" s="71"/>
-      <c r="F264" s="71"/>
+      <c r="C264" s="68"/>
+      <c r="D264" s="68"/>
+      <c r="E264" s="48"/>
+      <c r="F264" s="48"/>
       <c r="G264" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9040,10 +9082,10 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="7"/>
-      <c r="E265" s="71"/>
-      <c r="F265" s="71"/>
+      <c r="C265" s="68"/>
+      <c r="D265" s="68"/>
+      <c r="E265" s="48"/>
+      <c r="F265" s="48"/>
       <c r="G265" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9067,10 +9109,10 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
-      <c r="C266" s="7"/>
-      <c r="D266" s="7"/>
-      <c r="E266" s="71"/>
-      <c r="F266" s="71"/>
+      <c r="C266" s="68"/>
+      <c r="D266" s="68"/>
+      <c r="E266" s="48"/>
+      <c r="F266" s="48"/>
       <c r="G266" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9094,10 +9136,10 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
-      <c r="C267" s="7"/>
-      <c r="D267" s="7"/>
-      <c r="E267" s="71"/>
-      <c r="F267" s="71"/>
+      <c r="C267" s="68"/>
+      <c r="D267" s="68"/>
+      <c r="E267" s="48"/>
+      <c r="F267" s="48"/>
       <c r="G267" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9121,10 +9163,10 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="71"/>
-      <c r="F268" s="71"/>
+      <c r="C268" s="68"/>
+      <c r="D268" s="68"/>
+      <c r="E268" s="48"/>
+      <c r="F268" s="48"/>
       <c r="G268" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9148,10 +9190,10 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
-      <c r="C269" s="7"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="71"/>
-      <c r="F269" s="71"/>
+      <c r="C269" s="68"/>
+      <c r="D269" s="68"/>
+      <c r="E269" s="48"/>
+      <c r="F269" s="48"/>
       <c r="G269" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9175,10 +9217,10 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="7"/>
-      <c r="D270" s="7"/>
-      <c r="E270" s="71"/>
-      <c r="F270" s="71"/>
+      <c r="C270" s="68"/>
+      <c r="D270" s="68"/>
+      <c r="E270" s="48"/>
+      <c r="F270" s="48"/>
       <c r="G270" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9202,10 +9244,10 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
-      <c r="C271" s="7"/>
-      <c r="D271" s="7"/>
-      <c r="E271" s="71"/>
-      <c r="F271" s="71"/>
+      <c r="C271" s="68"/>
+      <c r="D271" s="68"/>
+      <c r="E271" s="48"/>
+      <c r="F271" s="48"/>
       <c r="G271" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9223,33 +9265,6 @@
         <v>0</v>
       </c>
       <c r="K271" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="71"/>
-      <c r="F272" s="71"/>
-      <c r="G272" s="1">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H272" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="I272" s="23">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J272" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K272" s="1">
         <v>4.99</v>
       </c>
     </row>

--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -9,19 +9,20 @@
   <sheets>
     <sheet name="Extrem Trading" sheetId="5" r:id="rId1"/>
     <sheet name="iTrade" sheetId="6" r:id="rId2"/>
-    <sheet name="US Friendly" sheetId="2" r:id="rId3"/>
-    <sheet name="Job Rate" sheetId="3" r:id="rId4"/>
+    <sheet name="Job Rate" sheetId="3" r:id="rId3"/>
+    <sheet name="Average" sheetId="9" r:id="rId4"/>
     <sheet name="DB" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Extrem Trading'!$A$1:$M$271</definedName>
+    <definedName name="AccountType">DB!$A$2:$A$7</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -53,28 +54,7 @@
     <t>HGU</t>
   </si>
   <si>
-    <t>PLUG</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>Principal Value</t>
-  </si>
-  <si>
-    <t>F/X Rate</t>
-  </si>
-  <si>
-    <t>Est. Transaction Value</t>
-  </si>
-  <si>
     <t>Diff Rate</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Sell</t>
   </si>
   <si>
     <t>FCEL</t>
@@ -184,6 +164,27 @@
   <si>
     <t>Daily Progress</t>
   </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Avg. Price</t>
+  </si>
+  <si>
+    <t>AccoutType</t>
+  </si>
+  <si>
+    <t>F/X</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,12 +256,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,6 +274,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -359,10 +366,7 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -371,17 +375,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -395,25 +396,24 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -421,14 +421,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -734,96 +745,96 @@
   <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="N57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="N138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
+      <selection pane="bottomRight" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="42">
+      <c r="L1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="36">
         <v>-5000</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="42">
+      <c r="L2" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="36">
         <v>-2030.1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="54">
+      <c r="I4" s="48">
         <f>SUM(I6:I271)</f>
-        <v>4663.3800000000501</v>
+        <v>4988.4800000000523</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -835,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -843,10 +854,10 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -859,287 +870,289 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+    </row>
+    <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>41950</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="67">
+      <c r="B6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="60">
         <v>1000</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="39">
         <v>12.9</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="39">
         <v>13.02</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <f t="shared" ref="G6:G69" si="0">IF(D6&gt;0,(D6*E6)+K6,0)</f>
         <v>12909.99</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="26">
         <f t="shared" ref="H6:H69" si="1">IF(F6&gt;0,(D6*F6)-K6,0)</f>
         <v>13010.01</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="28">
         <f t="shared" ref="I6:I29" si="2">IF(F6&gt;0,H6-G6,0)</f>
         <v>100.02000000000044</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="26">
         <f t="shared" ref="J6:J29" si="3">IF(F6&gt;0,F6-E6,0)</f>
         <v>0.11999999999999922</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="28">
         <v>9.99</v>
       </c>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
         <v>41950</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="67">
+      <c r="B7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="60">
         <v>1000</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="40">
         <v>13.3</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="31">
+      <c r="F7" s="40"/>
+      <c r="G7" s="28">
         <f t="shared" si="0"/>
         <v>13309.99</v>
       </c>
-      <c r="H7" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="31">
+      <c r="H7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="28">
         <v>9.99</v>
       </c>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
         <v>41955</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="37">
+      <c r="B8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="33">
         <v>1000</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="41">
         <v>12.83</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="35">
+      <c r="F8" s="41"/>
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
         <v>12839.99</v>
       </c>
-      <c r="H8" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
+      <c r="H8" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="31">
         <v>9.99</v>
       </c>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="67">
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="60">
         <v>800</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="40">
         <v>12.15</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="31">
+      <c r="F9" s="40"/>
+      <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>9729.99</v>
       </c>
-      <c r="H9" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="31">
+      <c r="H9" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="28">
         <v>9.99</v>
       </c>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>41974</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="67">
+      <c r="B10" s="27"/>
+      <c r="C10" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="60">
         <v>1000</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="40">
         <v>12.44</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="31">
+      <c r="F10" s="40"/>
+      <c r="G10" s="28">
         <f t="shared" si="0"/>
         <v>12444.99</v>
       </c>
-      <c r="H10" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
+      <c r="H10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="31">
-        <v>4.99</v>
-      </c>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="67">
+      <c r="K10" s="28">
+        <v>4.99</v>
+      </c>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="60">
         <v>1000</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="40">
         <v>12.42</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="31">
+      <c r="F11" s="40"/>
+      <c r="G11" s="28">
         <f t="shared" si="0"/>
         <v>12424.99</v>
       </c>
-      <c r="H11" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="31">
+      <c r="H11" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="31">
-        <v>4.99</v>
-      </c>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="67">
+      <c r="K11" s="28">
+        <v>4.99</v>
+      </c>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="60">
         <v>1000</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="40">
         <v>11.9</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="31">
+      <c r="F12" s="40"/>
+      <c r="G12" s="28">
         <f t="shared" si="0"/>
         <v>11904.99</v>
       </c>
-      <c r="H12" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="31">
+      <c r="H12" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="31">
-        <v>4.99</v>
-      </c>
-      <c r="M12" s="33"/>
+      <c r="K12" s="28">
+        <v>4.99</v>
+      </c>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41975</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="68">
+      <c r="C13" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="61">
         <v>1000</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="42">
         <v>9.61</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="42">
         <v>9.7100000000000009</v>
       </c>
       <c r="G13" s="1">
@@ -1150,7 +1163,7 @@
         <f t="shared" si="1"/>
         <v>9705.01</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="20">
         <f t="shared" si="2"/>
         <v>90.020000000000437</v>
       </c>
@@ -1169,16 +1182,16 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="68">
+      <c r="C14" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="61">
         <v>2000</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="42">
         <v>3.78</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="42">
         <v>3.52</v>
       </c>
       <c r="G14" s="1">
@@ -1189,7 +1202,7 @@
         <f t="shared" si="1"/>
         <v>7035.01</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="20">
         <f t="shared" si="2"/>
         <v>-529.97999999999956</v>
       </c>
@@ -1204,16 +1217,16 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="68">
+      <c r="C15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="61">
         <v>1000</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="42">
         <v>3.45</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="42">
         <v>3.46</v>
       </c>
       <c r="G15" s="1">
@@ -1224,7 +1237,7 @@
         <f t="shared" si="1"/>
         <v>3455.01</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="20">
         <f t="shared" si="2"/>
         <v>2.0000000000436557E-2</v>
       </c>
@@ -1241,16 +1254,16 @@
         <v>41976</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="68">
+      <c r="C16" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="61">
         <v>1000</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="42">
         <v>3.75</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="42">
         <v>3.78</v>
       </c>
       <c r="G16" s="1">
@@ -1261,7 +1274,7 @@
         <f t="shared" si="1"/>
         <v>3775.01</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="20">
         <f t="shared" si="2"/>
         <v>20.020000000000437</v>
       </c>
@@ -1276,16 +1289,16 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="68">
+      <c r="C17" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="61">
         <v>1000</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="42">
         <v>3.94</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="42">
         <v>3.99</v>
       </c>
       <c r="G17" s="1">
@@ -1296,7 +1309,7 @@
         <f t="shared" si="1"/>
         <v>3985.01</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="20">
         <f t="shared" si="2"/>
         <v>40.020000000000437</v>
       </c>
@@ -1311,16 +1324,16 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="68">
+      <c r="C18" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="61">
         <v>1000</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="42">
         <v>3.98</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="42">
         <v>4.07</v>
       </c>
       <c r="G18" s="1">
@@ -1331,7 +1344,7 @@
         <f t="shared" si="1"/>
         <v>4065.0100000000007</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="20">
         <f t="shared" si="2"/>
         <v>80.020000000000891</v>
       </c>
@@ -1348,16 +1361,16 @@
         <v>41977</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="68">
+      <c r="C19" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="61">
         <v>1000</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="42">
         <v>3.75</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="42">
         <v>3.81</v>
       </c>
       <c r="G19" s="1">
@@ -1368,7 +1381,7 @@
         <f t="shared" si="1"/>
         <v>3805.01</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="20">
         <f t="shared" si="2"/>
         <v>50.020000000000437</v>
       </c>
@@ -1383,16 +1396,16 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="68">
+      <c r="C20" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="61">
         <v>1000</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="42">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="42">
         <v>8.44</v>
       </c>
       <c r="G20" s="1">
@@ -1403,7 +1416,7 @@
         <f t="shared" si="1"/>
         <v>8435.01</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="20">
         <f t="shared" si="2"/>
         <v>50.020000000000437</v>
       </c>
@@ -1418,16 +1431,16 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="68">
+      <c r="C21" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="61">
         <v>1000</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="42">
         <v>8.33</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="42">
         <v>8.42</v>
       </c>
       <c r="G21" s="1">
@@ -1438,7 +1451,7 @@
         <f t="shared" si="1"/>
         <v>8415.01</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="20">
         <f t="shared" si="2"/>
         <v>80.020000000000437</v>
       </c>
@@ -1453,16 +1466,16 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="68">
+      <c r="C22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="61">
         <v>1500</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="42">
         <v>3.41</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="42">
         <v>3.42</v>
       </c>
       <c r="G22" s="1">
@@ -1473,7 +1486,7 @@
         <f t="shared" si="1"/>
         <v>5125.01</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="20">
         <f t="shared" si="2"/>
         <v>5.0200000000004366</v>
       </c>
@@ -1490,16 +1503,16 @@
         <v>41978</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="68">
+      <c r="C23" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="61">
         <v>1000</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="42">
         <v>8.32</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="42">
         <v>8.64</v>
       </c>
       <c r="G23" s="1">
@@ -1510,7 +1523,7 @@
         <f t="shared" si="1"/>
         <v>8635.01</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="20">
         <f t="shared" si="2"/>
         <v>310.02000000000044</v>
       </c>
@@ -1525,16 +1538,16 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="68">
+      <c r="C24" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="61">
         <v>1000</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="42">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="42">
         <v>8.9600000000000009</v>
       </c>
       <c r="G24" s="1">
@@ -1545,7 +1558,7 @@
         <f t="shared" si="1"/>
         <v>8955.01</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="20">
         <f t="shared" si="2"/>
         <v>70.020000000000437</v>
       </c>
@@ -1560,16 +1573,16 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="68">
+      <c r="C25" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="61">
         <v>1000</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="42">
         <v>8.99</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="42">
         <v>9</v>
       </c>
       <c r="G25" s="1">
@@ -1580,7 +1593,7 @@
         <f t="shared" si="1"/>
         <v>8995.01</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="20">
         <f t="shared" si="2"/>
         <v>2.0000000000436557E-2</v>
       </c>
@@ -1595,16 +1608,16 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="68">
+      <c r="C26" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="61">
         <v>1000</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="42">
         <v>8.9499999999999993</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="42">
         <v>9</v>
       </c>
       <c r="G26" s="1">
@@ -1615,7 +1628,7 @@
         <f t="shared" si="1"/>
         <v>8995.01</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="20">
         <f t="shared" si="2"/>
         <v>40.020000000000437</v>
       </c>
@@ -1630,16 +1643,16 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="68">
+      <c r="C27" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="61">
         <v>1000</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="42">
         <v>7.43</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="42">
         <v>7.18</v>
       </c>
       <c r="G27" s="1">
@@ -1650,7 +1663,7 @@
         <f t="shared" si="1"/>
         <v>7175.01</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="20">
         <f t="shared" si="2"/>
         <v>-259.97999999999956</v>
       </c>
@@ -1665,16 +1678,16 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="68">
+      <c r="C28" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="61">
         <v>1000</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="42">
         <v>7.01</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="42">
         <v>7.07</v>
       </c>
       <c r="G28" s="1">
@@ -1685,7 +1698,7 @@
         <f t="shared" si="1"/>
         <v>7065.01</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="20">
         <f t="shared" si="2"/>
         <v>50.020000000000437</v>
       </c>
@@ -1700,16 +1713,16 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="68">
+      <c r="C29" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="61">
         <v>1000</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="42">
         <v>3.05</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="42">
         <v>3.12</v>
       </c>
       <c r="G29" s="1">
@@ -1720,7 +1733,7 @@
         <f t="shared" si="1"/>
         <v>3115.01</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="20">
         <f t="shared" si="2"/>
         <v>60.020000000000437</v>
       </c>
@@ -1735,16 +1748,16 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="68">
+      <c r="C30" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="61">
         <v>1500</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="42">
         <v>3.07</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="42">
         <v>3.11</v>
       </c>
       <c r="G30" s="1">
@@ -1755,7 +1768,7 @@
         <f t="shared" si="1"/>
         <v>4660.01</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="20">
         <f t="shared" ref="I30:I89" si="4">IF(F30&gt;0,H30-G30,0)</f>
         <v>50.020000000000437</v>
       </c>
@@ -1772,16 +1785,16 @@
         <v>41979</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="68">
+      <c r="C31" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="61">
         <v>1000</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="42">
         <v>7.12</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="42">
         <v>7.48</v>
       </c>
       <c r="G31" s="1">
@@ -1792,7 +1805,7 @@
         <f t="shared" si="1"/>
         <v>7475.01</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="20">
         <f t="shared" si="4"/>
         <v>350.02000000000044</v>
       </c>
@@ -1807,16 +1820,16 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="68">
+      <c r="C32" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="61">
         <v>1000</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="42">
         <v>7.47</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="42">
         <v>7.61</v>
       </c>
       <c r="G32" s="1">
@@ -1827,7 +1840,7 @@
         <f t="shared" si="1"/>
         <v>7605.01</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="20">
         <f t="shared" si="4"/>
         <v>130.02000000000044</v>
       </c>
@@ -1842,16 +1855,16 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="68">
+      <c r="C33" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="61">
         <v>1000</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="42">
         <v>8.27</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="42">
         <v>8.2899999999999991</v>
       </c>
       <c r="G33" s="1">
@@ -1862,7 +1875,7 @@
         <f t="shared" si="1"/>
         <v>8285.01</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="20">
         <f t="shared" si="4"/>
         <v>10.020000000000437</v>
       </c>
@@ -1875,56 +1888,57 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="69">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="62">
         <v>1500</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="42">
         <v>3.05</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="42">
         <v>3.14</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="23">
         <f t="shared" si="0"/>
         <v>4579.99</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="24">
         <f t="shared" si="1"/>
         <v>4705.01</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="34">
         <f t="shared" si="4"/>
         <v>125.02000000000044</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="24">
         <f t="shared" si="5"/>
         <v>9.0000000000000302E-2</v>
       </c>
-      <c r="K34" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L34" s="60"/>
+      <c r="K34" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L34" s="53"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41982</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="68">
+      <c r="C35" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="61">
         <v>1500</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="43">
         <v>3.22</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="43">
         <v>3.61</v>
       </c>
       <c r="G35" s="1">
@@ -1935,7 +1949,7 @@
         <f t="shared" si="1"/>
         <v>5410.01</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="20">
         <f t="shared" si="4"/>
         <v>575.02000000000044</v>
       </c>
@@ -1950,16 +1964,16 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="68">
+      <c r="C36" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="61">
         <v>1000</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="42">
         <v>8.17</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="42">
         <v>8.4</v>
       </c>
       <c r="G36" s="1">
@@ -1970,7 +1984,7 @@
         <f t="shared" si="1"/>
         <v>8395.01</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="20">
         <f t="shared" si="4"/>
         <v>220.02000000000044</v>
       </c>
@@ -1985,16 +1999,16 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="68">
+      <c r="C37" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="61">
         <v>1500</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="42">
         <v>3.69</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="42">
         <v>3.75</v>
       </c>
       <c r="G37" s="1">
@@ -2005,7 +2019,7 @@
         <f t="shared" si="1"/>
         <v>5620.01</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="20">
         <f t="shared" si="4"/>
         <v>80.020000000000437</v>
       </c>
@@ -2020,16 +2034,16 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="68">
+      <c r="C38" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="61">
         <v>1500</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="42">
         <v>3.77</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="42">
         <v>3.69</v>
       </c>
       <c r="G38" s="1">
@@ -2040,7 +2054,7 @@
         <f t="shared" si="1"/>
         <v>5530.01</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="20">
         <f t="shared" si="4"/>
         <v>-129.97999999999956</v>
       </c>
@@ -2055,16 +2069,16 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="68">
+      <c r="C39" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="61">
         <v>1000</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="42">
         <v>7.44</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="42">
         <v>7.48</v>
       </c>
       <c r="G39" s="1">
@@ -2075,7 +2089,7 @@
         <f t="shared" si="1"/>
         <v>7475.01</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="20">
         <f t="shared" si="4"/>
         <v>30.020000000000437</v>
       </c>
@@ -2090,16 +2104,16 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="68">
+      <c r="C40" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="61">
         <v>1500</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="42">
         <v>3.6</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="42">
         <v>3.66</v>
       </c>
       <c r="G40" s="1">
@@ -2110,7 +2124,7 @@
         <f t="shared" si="1"/>
         <v>5485.01</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="20">
         <f t="shared" si="4"/>
         <v>80.020000000000437</v>
       </c>
@@ -2123,56 +2137,57 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="69">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="62">
         <v>1000</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="42">
         <v>7.37</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="42">
         <v>7.42</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="23">
         <f t="shared" si="0"/>
         <v>7374.99</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="24">
         <f t="shared" si="1"/>
         <v>7415.01</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="34">
         <f t="shared" si="4"/>
         <v>40.020000000000437</v>
       </c>
-      <c r="J41" s="27">
+      <c r="J41" s="24">
         <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="K41" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L41" s="60"/>
+      <c r="K41" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L41" s="53"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41983</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="68">
+      <c r="C42" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="61">
         <v>1000</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="43">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="43">
         <v>8.44</v>
       </c>
       <c r="G42" s="1">
@@ -2183,7 +2198,7 @@
         <f t="shared" si="1"/>
         <v>8435.01</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="20">
         <f t="shared" si="4"/>
         <v>50.020000000000437</v>
       </c>
@@ -2195,57 +2210,57 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="70" t="s">
+    <row r="43" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="63">
         <v>1000</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="43">
         <v>5.91</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="43">
         <v>6.06</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="50">
         <f t="shared" si="0"/>
         <v>5914.99</v>
       </c>
-      <c r="H43" s="57">
+      <c r="H43" s="51">
         <f t="shared" si="1"/>
         <v>6055.01</v>
       </c>
-      <c r="I43" s="56">
+      <c r="I43" s="50">
         <f t="shared" si="4"/>
         <v>140.02000000000044</v>
       </c>
-      <c r="J43" s="57">
+      <c r="J43" s="51">
         <f t="shared" si="5"/>
         <v>0.14999999999999947</v>
       </c>
-      <c r="K43" s="56">
-        <v>4.99</v>
-      </c>
-      <c r="M43" s="59"/>
+      <c r="K43" s="50">
+        <v>4.99</v>
+      </c>
+      <c r="M43" s="50"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="68">
+      <c r="C44" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="61">
         <v>1500</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="42">
         <v>3.46</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="42">
         <v>3.36</v>
       </c>
       <c r="G44" s="1">
@@ -2256,7 +2271,7 @@
         <f t="shared" si="1"/>
         <v>5035.01</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="20">
         <f t="shared" si="4"/>
         <v>-159.97999999999956</v>
       </c>
@@ -2271,16 +2286,16 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="68">
+      <c r="C45" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="61">
         <v>1000</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="42">
         <v>8.59</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="44">
         <v>8.67</v>
       </c>
       <c r="G45" s="1">
@@ -2291,7 +2306,7 @@
         <f t="shared" si="1"/>
         <v>8665.01</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="20">
         <f t="shared" si="4"/>
         <v>70.020000000000437</v>
       </c>
@@ -2306,16 +2321,16 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="68">
+      <c r="C46" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="61">
         <v>1000</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="42">
         <v>7.21</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="44">
         <v>7.29</v>
       </c>
       <c r="G46" s="1">
@@ -2326,7 +2341,7 @@
         <f t="shared" si="1"/>
         <v>7285.01</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="20">
         <f t="shared" si="4"/>
         <v>70.020000000000437</v>
       </c>
@@ -2341,16 +2356,16 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="68">
+      <c r="C47" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="61">
         <v>1500</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="44">
         <v>3.46</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="42">
         <v>2.91</v>
       </c>
       <c r="G47" s="1">
@@ -2361,7 +2376,7 @@
         <f t="shared" si="1"/>
         <v>4360.01</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="20">
         <f t="shared" si="4"/>
         <v>-834.97999999999956</v>
       </c>
@@ -2376,16 +2391,16 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="68">
+      <c r="C48" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="61">
         <v>900</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="42">
         <v>3.21</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="42">
         <v>3.25</v>
       </c>
       <c r="G48" s="1">
@@ -2396,7 +2411,7 @@
         <f t="shared" si="1"/>
         <v>2920.01</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="20">
         <f t="shared" si="4"/>
         <v>26.020000000000437</v>
       </c>
@@ -2409,56 +2424,57 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="69">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="62">
         <v>900</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="42">
         <v>3.23</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="42">
         <v>3.28</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="23">
         <f t="shared" si="0"/>
         <v>2911.99</v>
       </c>
-      <c r="H49" s="27">
+      <c r="H49" s="24">
         <f t="shared" si="1"/>
         <v>2947.01</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="34">
         <f t="shared" si="4"/>
         <v>35.020000000000437</v>
       </c>
-      <c r="J49" s="27">
+      <c r="J49" s="24">
         <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="K49" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L49" s="60"/>
+      <c r="K49" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L49" s="53"/>
+      <c r="M49" s="23"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>41984</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="68">
+      <c r="C50" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="61">
         <v>1000</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="43">
         <v>8.58</v>
       </c>
-      <c r="F50" s="51">
+      <c r="F50" s="45">
         <v>8.82</v>
       </c>
       <c r="G50" s="1">
@@ -2469,7 +2485,7 @@
         <f t="shared" si="1"/>
         <v>8815.01</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="20">
         <f t="shared" si="4"/>
         <v>230.02000000000044</v>
       </c>
@@ -2484,16 +2500,16 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="68">
+      <c r="C51" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="61">
         <v>1000</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="42">
         <v>3</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="42">
         <v>3.05</v>
       </c>
       <c r="G51" s="1">
@@ -2504,7 +2520,7 @@
         <f t="shared" si="1"/>
         <v>3045.01</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="20">
         <f t="shared" si="4"/>
         <v>40.020000000000437</v>
       </c>
@@ -2519,16 +2535,16 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="68">
+      <c r="C52" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="61">
         <v>1000</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="42">
         <v>3.15</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="42">
         <v>3.05</v>
       </c>
       <c r="G52" s="1">
@@ -2539,7 +2555,7 @@
         <f t="shared" si="1"/>
         <v>3045.01</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="20">
         <f t="shared" si="4"/>
         <v>-109.97999999999956</v>
       </c>
@@ -2554,16 +2570,16 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D53" s="68">
+      <c r="C53" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="61">
         <v>2000</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="42">
         <v>3.15</v>
       </c>
-      <c r="F53" s="48">
+      <c r="F53" s="42">
         <v>3.15</v>
       </c>
       <c r="G53" s="1">
@@ -2574,7 +2590,7 @@
         <f t="shared" si="1"/>
         <v>6295.01</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="20">
         <f t="shared" si="4"/>
         <v>-9.9799999999995634</v>
       </c>
@@ -2589,16 +2605,16 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="68">
+      <c r="C54" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="61">
         <v>1000</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="42">
         <v>8.27</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="42">
         <v>8.2799999999999994</v>
       </c>
       <c r="G54" s="1">
@@ -2609,7 +2625,7 @@
         <f t="shared" si="1"/>
         <v>8275.01</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="20">
         <f t="shared" si="4"/>
         <v>2.0000000000436557E-2</v>
       </c>
@@ -2624,16 +2640,16 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="68">
+      <c r="C55" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="61">
         <v>1000</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="42">
         <v>7.57</v>
       </c>
-      <c r="F55" s="50">
+      <c r="F55" s="44">
         <v>7.62</v>
       </c>
       <c r="G55" s="1">
@@ -2644,7 +2660,7 @@
         <f t="shared" si="1"/>
         <v>7615.01</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="20">
         <f t="shared" si="4"/>
         <v>40.020000000000437</v>
       </c>
@@ -2659,16 +2675,16 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="68">
+      <c r="C56" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="61">
         <v>1000</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="44">
         <v>7.55</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="42">
         <v>7.51</v>
       </c>
       <c r="G56" s="1">
@@ -2679,7 +2695,7 @@
         <f t="shared" si="1"/>
         <v>7505.01</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="20">
         <f t="shared" si="4"/>
         <v>-49.979999999999563</v>
       </c>
@@ -2694,16 +2710,16 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="68">
+      <c r="C57" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="61">
         <v>1000</v>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="44">
         <v>2.97</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="44">
         <v>3.12</v>
       </c>
       <c r="G57" s="1">
@@ -2714,7 +2730,7 @@
         <f t="shared" si="1"/>
         <v>3115.01</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="20">
         <f t="shared" si="4"/>
         <v>140.02000000000044</v>
       </c>
@@ -2726,56 +2742,56 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="62">
+    <row r="58" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="55">
         <v>1000</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="43">
         <v>3.59</v>
       </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="64">
+      <c r="F58" s="43"/>
+      <c r="G58" s="57">
         <f t="shared" si="0"/>
         <v>3594.99</v>
       </c>
-      <c r="H58" s="65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="64">
+      <c r="H58" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J58" s="65">
+      <c r="J58" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K58" s="64">
-        <v>4.99</v>
-      </c>
-      <c r="L58" s="62"/>
-      <c r="M58" s="59"/>
+      <c r="K58" s="57">
+        <v>4.99</v>
+      </c>
+      <c r="L58" s="55"/>
+      <c r="M58" s="23"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41985</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="71">
+      <c r="C59" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="64">
         <v>1000</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="43">
         <v>3.81</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="43">
         <v>3.86</v>
       </c>
       <c r="G59" s="1">
@@ -2786,7 +2802,7 @@
         <f t="shared" si="1"/>
         <v>3855.01</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="20">
         <f t="shared" si="4"/>
         <v>40.020000000000437</v>
       </c>
@@ -2801,16 +2817,16 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="71">
+      <c r="C60" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="64">
         <v>1000</v>
       </c>
-      <c r="E60" s="48">
+      <c r="E60" s="42">
         <v>7.19</v>
       </c>
-      <c r="F60" s="48">
+      <c r="F60" s="42">
         <v>7.25</v>
       </c>
       <c r="G60" s="1">
@@ -2821,7 +2837,7 @@
         <f t="shared" si="1"/>
         <v>7245.01</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="20">
         <f t="shared" si="4"/>
         <v>50.020000000000437</v>
       </c>
@@ -2836,16 +2852,16 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="71">
+      <c r="C61" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="64">
         <v>1000</v>
       </c>
-      <c r="E61" s="50">
+      <c r="E61" s="44">
         <v>7.17</v>
       </c>
-      <c r="F61" s="50">
+      <c r="F61" s="44">
         <v>7.21</v>
       </c>
       <c r="G61" s="1">
@@ -2856,7 +2872,7 @@
         <f t="shared" si="1"/>
         <v>7205.01</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="20">
         <f t="shared" si="4"/>
         <v>30.020000000000437</v>
       </c>
@@ -2869,56 +2885,57 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="69">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="62">
         <v>1000</v>
       </c>
-      <c r="E62" s="48">
+      <c r="E62" s="42">
         <v>8.75</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="42">
         <v>8.85</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="23">
         <f t="shared" si="0"/>
         <v>8754.99</v>
       </c>
-      <c r="H62" s="27">
+      <c r="H62" s="24">
         <f t="shared" si="1"/>
         <v>8845.01</v>
       </c>
-      <c r="I62" s="40">
+      <c r="I62" s="34">
         <f t="shared" si="4"/>
         <v>90.020000000000437</v>
       </c>
-      <c r="J62" s="27">
+      <c r="J62" s="24">
         <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K62" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L62" s="60"/>
+      <c r="K62" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L62" s="53"/>
+      <c r="M62" s="23"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41988</v>
       </c>
       <c r="B63" s="3"/>
-      <c r="C63" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="71">
+      <c r="C63" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="64">
         <v>1500</v>
       </c>
-      <c r="E63" s="49">
+      <c r="E63" s="43">
         <v>2.46</v>
       </c>
-      <c r="F63" s="49">
+      <c r="F63" s="43">
         <v>2.57</v>
       </c>
       <c r="G63" s="1">
@@ -2929,7 +2946,7 @@
         <f t="shared" si="1"/>
         <v>3850.0099999999998</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="20">
         <f t="shared" si="4"/>
         <v>155.01999999999998</v>
       </c>
@@ -2941,55 +2958,55 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="70">
+    <row r="64" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="63">
         <v>1000</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="43">
         <v>3.13</v>
       </c>
-      <c r="F64" s="49">
+      <c r="F64" s="43">
         <v>3.01</v>
       </c>
-      <c r="G64" s="56">
+      <c r="G64" s="50">
         <f t="shared" si="0"/>
         <v>3134.99</v>
       </c>
-      <c r="H64" s="57">
+      <c r="H64" s="51">
         <f t="shared" si="1"/>
         <v>3005.01</v>
       </c>
-      <c r="I64" s="56">
+      <c r="I64" s="50">
         <f t="shared" si="4"/>
         <v>-129.97999999999956</v>
       </c>
-      <c r="J64" s="57">
+      <c r="J64" s="51">
         <f t="shared" si="5"/>
         <v>-0.12000000000000011</v>
       </c>
-      <c r="K64" s="56">
-        <v>4.99</v>
-      </c>
-      <c r="M64" s="59"/>
+      <c r="K64" s="50">
+        <v>4.99</v>
+      </c>
+      <c r="M64" s="50"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="71">
+      <c r="C65" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="64">
         <v>1500</v>
       </c>
-      <c r="E65" s="48">
+      <c r="E65" s="42">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F65" s="48">
+      <c r="F65" s="42">
         <v>2.57</v>
       </c>
       <c r="G65" s="1">
@@ -3000,7 +3017,7 @@
         <f t="shared" si="1"/>
         <v>3850.0099999999998</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="20">
         <f t="shared" si="4"/>
         <v>50.020000000000437</v>
       </c>
@@ -3008,23 +3025,23 @@
         <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K65" s="56">
+      <c r="K65" s="50">
         <v>4.99</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="71">
+      <c r="C66" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="64">
         <v>1500</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="42">
         <v>2.54</v>
       </c>
-      <c r="F66" s="48">
+      <c r="F66" s="42">
         <v>2.44</v>
       </c>
       <c r="G66" s="1">
@@ -3035,7 +3052,7 @@
         <f t="shared" si="1"/>
         <v>3655.01</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="20">
         <f t="shared" si="4"/>
         <v>-159.97999999999956</v>
       </c>
@@ -3047,59 +3064,59 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="62">
+    <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="55">
         <v>1000</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="43">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="64">
+      <c r="F67" s="43"/>
+      <c r="G67" s="57">
         <f t="shared" si="0"/>
         <v>8704.99</v>
       </c>
-      <c r="H67" s="65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="64">
+      <c r="H67" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J67" s="65">
+      <c r="J67" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K67" s="64">
-        <v>4.99</v>
-      </c>
-      <c r="L67" s="62"/>
-      <c r="M67" s="59"/>
+      <c r="K67" s="57">
+        <v>4.99</v>
+      </c>
+      <c r="L67" s="55"/>
+      <c r="M67" s="23"/>
     </row>
     <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>41989</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="71">
+      <c r="C68" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="64">
         <v>1000</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="43">
         <v>8.25</v>
       </c>
-      <c r="F68" s="49">
+      <c r="F68" s="43">
         <v>8.31</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="20">
         <f t="shared" si="0"/>
         <v>8254.99</v>
       </c>
@@ -3107,7 +3124,7 @@
         <f t="shared" si="1"/>
         <v>8305.01</v>
       </c>
-      <c r="I68" s="23">
+      <c r="I68" s="20">
         <f t="shared" si="4"/>
         <v>50.020000000000437</v>
       </c>
@@ -3115,27 +3132,27 @@
         <f t="shared" si="5"/>
         <v>6.0000000000000497E-2</v>
       </c>
-      <c r="K68" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M68" s="39"/>
+      <c r="K68" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M68" s="20"/>
     </row>
     <row r="69" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="71">
+      <c r="C69" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="64">
         <v>1000</v>
       </c>
-      <c r="E69" s="49">
+      <c r="E69" s="43">
         <v>2.81</v>
       </c>
-      <c r="F69" s="49">
+      <c r="F69" s="43">
         <v>2.99</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="20">
         <f t="shared" si="0"/>
         <v>2814.99</v>
       </c>
@@ -3143,7 +3160,7 @@
         <f t="shared" si="1"/>
         <v>2985.01</v>
       </c>
-      <c r="I69" s="23">
+      <c r="I69" s="20">
         <f t="shared" si="4"/>
         <v>170.02000000000044</v>
       </c>
@@ -3151,24 +3168,24 @@
         <f t="shared" si="5"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="K69" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M69" s="39"/>
+      <c r="K69" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M69" s="20"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="68">
+      <c r="C70" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="61">
         <v>1500</v>
       </c>
-      <c r="E70" s="48">
+      <c r="E70" s="42">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F70" s="48">
+      <c r="F70" s="42">
         <v>1.88</v>
       </c>
       <c r="G70" s="1">
@@ -3179,7 +3196,7 @@
         <f t="shared" ref="H70:H130" si="7">IF(F70&gt;0,(D70*F70)-K70,0)</f>
         <v>2815.01</v>
       </c>
-      <c r="I70" s="23">
+      <c r="I70" s="20">
         <f t="shared" si="4"/>
         <v>-609.97999999999911</v>
       </c>
@@ -3194,16 +3211,16 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="68">
+      <c r="C71" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="61">
         <v>1500</v>
       </c>
-      <c r="E71" s="48">
+      <c r="E71" s="42">
         <v>1.99</v>
       </c>
-      <c r="F71" s="48">
+      <c r="F71" s="42">
         <v>2.0099999999999998</v>
       </c>
       <c r="G71" s="1">
@@ -3214,7 +3231,7 @@
         <f t="shared" si="7"/>
         <v>3010.0099999999998</v>
       </c>
-      <c r="I71" s="23">
+      <c r="I71" s="20">
         <f t="shared" si="4"/>
         <v>20.019999999999982</v>
       </c>
@@ -3229,19 +3246,19 @@
     <row r="72" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="71">
+      <c r="C72" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="64">
         <v>1000</v>
       </c>
-      <c r="E72" s="49">
+      <c r="E72" s="43">
         <v>8.2100000000000009</v>
       </c>
-      <c r="F72" s="49">
+      <c r="F72" s="43">
         <v>8.26</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="20">
         <f t="shared" si="6"/>
         <v>8214.99</v>
       </c>
@@ -3249,7 +3266,7 @@
         <f t="shared" si="7"/>
         <v>8255.01</v>
       </c>
-      <c r="I72" s="23">
+      <c r="I72" s="20">
         <f t="shared" si="4"/>
         <v>40.020000000000437</v>
       </c>
@@ -3257,24 +3274,24 @@
         <f t="shared" si="5"/>
         <v>4.9999999999998934E-2</v>
       </c>
-      <c r="K72" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M72" s="39"/>
+      <c r="K72" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M72" s="20"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="68">
+      <c r="C73" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="61">
         <v>1500</v>
       </c>
-      <c r="E73" s="48">
+      <c r="E73" s="42">
         <v>2</v>
       </c>
-      <c r="F73" s="48">
+      <c r="F73" s="42">
         <v>2.02</v>
       </c>
       <c r="G73" s="1">
@@ -3285,7 +3302,7 @@
         <f t="shared" si="7"/>
         <v>3025.01</v>
       </c>
-      <c r="I73" s="23">
+      <c r="I73" s="20">
         <f t="shared" si="4"/>
         <v>20.020000000000437</v>
       </c>
@@ -3298,56 +3315,57 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="69">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="62">
         <v>1500</v>
       </c>
-      <c r="E74" s="48">
+      <c r="E74" s="42">
         <v>1.97</v>
       </c>
-      <c r="F74" s="48">
+      <c r="F74" s="42">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="23">
         <f t="shared" si="6"/>
         <v>2959.99</v>
       </c>
-      <c r="H74" s="27">
+      <c r="H74" s="24">
         <f t="shared" si="7"/>
         <v>3040.0099999999998</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="34">
         <f t="shared" si="4"/>
         <v>80.019999999999982</v>
       </c>
-      <c r="J74" s="27">
+      <c r="J74" s="24">
         <f t="shared" si="5"/>
         <v>5.9999999999999831E-2</v>
       </c>
-      <c r="K74" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L74" s="60"/>
+      <c r="K74" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L74" s="53"/>
+      <c r="M74" s="23"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41990</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="71">
+      <c r="C75" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="64">
         <v>1000</v>
       </c>
-      <c r="E75" s="49">
+      <c r="E75" s="43">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F75" s="49">
+      <c r="F75" s="43">
         <v>8.4</v>
       </c>
       <c r="G75" s="1">
@@ -3358,7 +3376,7 @@
         <f t="shared" si="7"/>
         <v>8395.01</v>
       </c>
-      <c r="I75" s="23">
+      <c r="I75" s="20">
         <f t="shared" si="4"/>
         <v>90.020000000000437</v>
       </c>
@@ -3373,16 +3391,16 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="71" t="s">
+      <c r="C76" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="71">
+      <c r="D76" s="64">
         <v>1000</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="42">
         <v>4.53</v>
       </c>
-      <c r="F76" s="48">
+      <c r="F76" s="42">
         <v>4.59</v>
       </c>
       <c r="G76" s="1">
@@ -3393,7 +3411,7 @@
         <f t="shared" si="7"/>
         <v>4585.01</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I76" s="20">
         <f t="shared" si="4"/>
         <v>50.020000000000437</v>
       </c>
@@ -3408,19 +3426,19 @@
     <row r="77" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="71">
+      <c r="C77" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="64">
         <v>1000</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E77" s="43">
         <v>7.34</v>
       </c>
-      <c r="F77" s="49">
+      <c r="F77" s="43">
         <v>7.39</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="20">
         <f t="shared" si="6"/>
         <v>7344.99</v>
       </c>
@@ -3428,7 +3446,7 @@
         <f t="shared" si="7"/>
         <v>7385.01</v>
       </c>
-      <c r="I77" s="23">
+      <c r="I77" s="20">
         <f t="shared" si="4"/>
         <v>40.020000000000437</v>
       </c>
@@ -3436,24 +3454,24 @@
         <f t="shared" si="5"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="K77" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M77" s="39"/>
+      <c r="K77" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M77" s="20"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="71" t="s">
+      <c r="C78" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="71">
+      <c r="D78" s="64">
         <v>1000</v>
       </c>
-      <c r="E78" s="48">
+      <c r="E78" s="42">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F78" s="48">
+      <c r="F78" s="42">
         <v>4.7699999999999996</v>
       </c>
       <c r="G78" s="1">
@@ -3464,7 +3482,7 @@
         <f t="shared" si="7"/>
         <v>4765.01</v>
       </c>
-      <c r="I78" s="23">
+      <c r="I78" s="20">
         <f t="shared" si="4"/>
         <v>110.02000000000044</v>
       </c>
@@ -3477,59 +3495,60 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="69" t="s">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="69">
+      <c r="D79" s="62">
         <v>1000</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="42">
         <v>4.67</v>
       </c>
-      <c r="F79" s="48">
+      <c r="F79" s="42">
         <v>4.71</v>
       </c>
-      <c r="G79" s="26">
+      <c r="G79" s="23">
         <f t="shared" si="6"/>
         <v>4674.99</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H79" s="24">
         <f t="shared" si="7"/>
         <v>4705.01</v>
       </c>
-      <c r="I79" s="40">
+      <c r="I79" s="34">
         <f t="shared" si="4"/>
         <v>30.020000000000437</v>
       </c>
-      <c r="J79" s="27">
+      <c r="J79" s="24">
         <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K79" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L79" s="60"/>
+      <c r="K79" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L79" s="53"/>
+      <c r="M79" s="23"/>
     </row>
     <row r="80" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>41991</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="71">
+      <c r="C80" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="64">
         <v>1000</v>
       </c>
-      <c r="E80" s="49">
+      <c r="E80" s="43">
         <v>3.22</v>
       </c>
-      <c r="F80" s="49">
+      <c r="F80" s="43">
         <v>3.32</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G80" s="20">
         <f t="shared" si="6"/>
         <v>3224.99</v>
       </c>
@@ -3537,7 +3556,7 @@
         <f t="shared" si="7"/>
         <v>3315.01</v>
       </c>
-      <c r="I80" s="23">
+      <c r="I80" s="20">
         <f t="shared" si="4"/>
         <v>90.020000000000437</v>
       </c>
@@ -3545,27 +3564,27 @@
         <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K80" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M80" s="39"/>
+      <c r="K80" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M80" s="20"/>
     </row>
     <row r="81" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="71" t="s">
+      <c r="C81" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="71">
+      <c r="D81" s="64">
         <v>1000</v>
       </c>
-      <c r="E81" s="49">
+      <c r="E81" s="43">
         <v>5.04</v>
       </c>
-      <c r="F81" s="49">
+      <c r="F81" s="43">
         <v>5.18</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="20">
         <f t="shared" si="6"/>
         <v>5044.99</v>
       </c>
@@ -3573,7 +3592,7 @@
         <f t="shared" si="7"/>
         <v>5175.01</v>
       </c>
-      <c r="I81" s="23">
+      <c r="I81" s="20">
         <f t="shared" si="4"/>
         <v>130.02000000000044</v>
       </c>
@@ -3581,24 +3600,24 @@
         <f t="shared" si="5"/>
         <v>0.13999999999999968</v>
       </c>
-      <c r="K81" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M81" s="39"/>
+      <c r="K81" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M81" s="20"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" s="71">
+      <c r="C82" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="64">
         <v>1000</v>
       </c>
-      <c r="E82" s="48">
+      <c r="E82" s="42">
         <v>8.36</v>
       </c>
-      <c r="F82" s="48">
+      <c r="F82" s="42">
         <v>8.3800000000000008</v>
       </c>
       <c r="G82" s="1">
@@ -3609,7 +3628,7 @@
         <f t="shared" si="7"/>
         <v>8375.01</v>
       </c>
-      <c r="I82" s="23">
+      <c r="I82" s="20">
         <f t="shared" si="4"/>
         <v>10.020000000000437</v>
       </c>
@@ -3624,19 +3643,19 @@
     <row r="83" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="71" t="s">
+      <c r="C83" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="71">
+      <c r="D83" s="64">
         <v>1000</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E83" s="43">
         <v>4.9400000000000004</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="43">
         <v>5.04</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="20">
         <f t="shared" si="6"/>
         <v>4944.99</v>
       </c>
@@ -3644,7 +3663,7 @@
         <f t="shared" si="7"/>
         <v>5035.01</v>
       </c>
-      <c r="I83" s="23">
+      <c r="I83" s="20">
         <f t="shared" si="4"/>
         <v>90.020000000000437</v>
       </c>
@@ -3652,27 +3671,27 @@
         <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K83" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M83" s="39"/>
+      <c r="K83" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M83" s="20"/>
     </row>
     <row r="84" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="71">
+      <c r="C84" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="64">
         <v>1000</v>
       </c>
-      <c r="E84" s="49">
+      <c r="E84" s="43">
         <v>8.24</v>
       </c>
-      <c r="F84" s="49">
+      <c r="F84" s="43">
         <v>8.2799999999999994</v>
       </c>
-      <c r="G84" s="23">
+      <c r="G84" s="20">
         <f t="shared" si="6"/>
         <v>8244.99</v>
       </c>
@@ -3680,7 +3699,7 @@
         <f t="shared" si="7"/>
         <v>8275.01</v>
       </c>
-      <c r="I84" s="23">
+      <c r="I84" s="20">
         <f t="shared" si="4"/>
         <v>30.020000000000437</v>
       </c>
@@ -3688,27 +3707,27 @@
         <f t="shared" si="5"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="K84" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M84" s="39"/>
+      <c r="K84" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M84" s="20"/>
     </row>
     <row r="85" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="71">
+      <c r="C85" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="64">
         <v>1000</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="43">
         <v>2.94</v>
       </c>
-      <c r="F85" s="49">
+      <c r="F85" s="43">
         <v>3.09</v>
       </c>
-      <c r="G85" s="23">
+      <c r="G85" s="20">
         <f t="shared" si="6"/>
         <v>2944.99</v>
       </c>
@@ -3716,7 +3735,7 @@
         <f t="shared" si="7"/>
         <v>3085.01</v>
       </c>
-      <c r="I85" s="23">
+      <c r="I85" s="20">
         <f t="shared" si="4"/>
         <v>140.02000000000044</v>
       </c>
@@ -3724,27 +3743,27 @@
         <f t="shared" si="5"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="K85" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M85" s="39"/>
+      <c r="K85" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M85" s="20"/>
     </row>
     <row r="86" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="71">
+      <c r="C86" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="64">
         <v>1000</v>
       </c>
-      <c r="E86" s="49">
+      <c r="E86" s="43">
         <v>8.26</v>
       </c>
-      <c r="F86" s="49">
+      <c r="F86" s="43">
         <v>8.32</v>
       </c>
-      <c r="G86" s="23">
+      <c r="G86" s="20">
         <f t="shared" si="6"/>
         <v>8264.99</v>
       </c>
@@ -3752,7 +3771,7 @@
         <f t="shared" si="7"/>
         <v>8315.01</v>
       </c>
-      <c r="I86" s="23">
+      <c r="I86" s="20">
         <f t="shared" si="4"/>
         <v>50.020000000000437</v>
       </c>
@@ -3760,66 +3779,66 @@
         <f t="shared" si="5"/>
         <v>6.0000000000000497E-2</v>
       </c>
-      <c r="K86" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M86" s="39"/>
+      <c r="K86" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M86" s="20"/>
     </row>
     <row r="87" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="69">
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" s="62">
         <v>1500</v>
       </c>
-      <c r="E87" s="49">
+      <c r="E87" s="43">
         <v>2.54</v>
       </c>
-      <c r="F87" s="49">
+      <c r="F87" s="43">
         <v>2.58</v>
       </c>
-      <c r="G87" s="40">
+      <c r="G87" s="34">
         <f t="shared" si="6"/>
         <v>3814.99</v>
       </c>
-      <c r="H87" s="28">
+      <c r="H87" s="25">
         <f t="shared" si="7"/>
         <v>3865.01</v>
       </c>
-      <c r="I87" s="40">
+      <c r="I87" s="34">
         <f t="shared" si="4"/>
         <v>50.020000000000437</v>
       </c>
-      <c r="J87" s="28">
+      <c r="J87" s="25">
         <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K87" s="40">
-        <v>4.99</v>
-      </c>
-      <c r="L87" s="60"/>
-      <c r="M87" s="39"/>
+      <c r="K87" s="34">
+        <v>4.99</v>
+      </c>
+      <c r="L87" s="53"/>
+      <c r="M87" s="23"/>
     </row>
     <row r="88" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>41992</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="71">
+      <c r="C88" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="64">
         <v>1000</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="43">
         <v>7.59</v>
       </c>
-      <c r="F88" s="49">
+      <c r="F88" s="43">
         <v>7.71</v>
       </c>
-      <c r="G88" s="23">
+      <c r="G88" s="20">
         <f t="shared" si="6"/>
         <v>7594.99</v>
       </c>
@@ -3827,7 +3846,7 @@
         <f t="shared" si="7"/>
         <v>7705.01</v>
       </c>
-      <c r="I88" s="23">
+      <c r="I88" s="20">
         <f t="shared" si="4"/>
         <v>110.02000000000044</v>
       </c>
@@ -3835,28 +3854,28 @@
         <f t="shared" si="5"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="K88" s="23">
+      <c r="K88" s="20">
         <v>4.99</v>
       </c>
       <c r="L88" s="2"/>
-      <c r="M88" s="39"/>
+      <c r="M88" s="20"/>
     </row>
     <row r="89" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="71" t="s">
+      <c r="C89" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="71">
+      <c r="D89" s="64">
         <v>1000</v>
       </c>
-      <c r="E89" s="49">
+      <c r="E89" s="43">
         <v>5.16</v>
       </c>
-      <c r="F89" s="49">
+      <c r="F89" s="43">
         <v>5.32</v>
       </c>
-      <c r="G89" s="23">
+      <c r="G89" s="20">
         <f t="shared" si="6"/>
         <v>5164.99</v>
       </c>
@@ -3864,7 +3883,7 @@
         <f t="shared" si="7"/>
         <v>5315.01</v>
       </c>
-      <c r="I89" s="23">
+      <c r="I89" s="20">
         <f t="shared" si="4"/>
         <v>150.02000000000044</v>
       </c>
@@ -3872,27 +3891,27 @@
         <f t="shared" si="5"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="K89" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M89" s="39"/>
+      <c r="K89" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M89" s="20"/>
     </row>
     <row r="90" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="71" t="s">
+      <c r="C90" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="71">
+      <c r="D90" s="64">
         <v>1000</v>
       </c>
-      <c r="E90" s="49">
+      <c r="E90" s="43">
         <v>5.3</v>
       </c>
-      <c r="F90" s="49">
+      <c r="F90" s="43">
         <v>5.37</v>
       </c>
-      <c r="G90" s="23">
+      <c r="G90" s="20">
         <f t="shared" si="6"/>
         <v>5304.99</v>
       </c>
@@ -3900,7 +3919,7 @@
         <f t="shared" si="7"/>
         <v>5365.01</v>
       </c>
-      <c r="I90" s="23">
+      <c r="I90" s="20">
         <f t="shared" ref="I90:I150" si="8">IF(F90&gt;0,H90-G90,0)</f>
         <v>60.020000000000437</v>
       </c>
@@ -3908,27 +3927,27 @@
         <f t="shared" ref="J90:J150" si="9">IF(F90&gt;0,F90-E90,0)</f>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="K90" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M90" s="39"/>
+      <c r="K90" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M90" s="20"/>
     </row>
     <row r="91" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="71">
+      <c r="C91" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="64">
         <v>1000</v>
       </c>
-      <c r="E91" s="49">
+      <c r="E91" s="43">
         <v>3.08</v>
       </c>
-      <c r="F91" s="49">
+      <c r="F91" s="43">
         <v>3.12</v>
       </c>
-      <c r="G91" s="23">
+      <c r="G91" s="20">
         <f t="shared" si="6"/>
         <v>3084.99</v>
       </c>
@@ -3936,7 +3955,7 @@
         <f t="shared" si="7"/>
         <v>3115.01</v>
       </c>
-      <c r="I91" s="23">
+      <c r="I91" s="20">
         <f t="shared" si="8"/>
         <v>30.020000000000437</v>
       </c>
@@ -3944,27 +3963,27 @@
         <f t="shared" si="9"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K91" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M91" s="39"/>
+      <c r="K91" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M91" s="20"/>
     </row>
     <row r="92" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="71">
+      <c r="C92" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="64">
         <v>1500</v>
       </c>
-      <c r="E92" s="49">
+      <c r="E92" s="43">
         <v>2.58</v>
       </c>
-      <c r="F92" s="49">
+      <c r="F92" s="43">
         <v>2.5099999999999998</v>
       </c>
-      <c r="G92" s="23">
+      <c r="G92" s="20">
         <f t="shared" si="6"/>
         <v>3874.99</v>
       </c>
@@ -3972,7 +3991,7 @@
         <f t="shared" si="7"/>
         <v>3760.0099999999998</v>
       </c>
-      <c r="I92" s="23">
+      <c r="I92" s="20">
         <f t="shared" si="8"/>
         <v>-114.98000000000002</v>
       </c>
@@ -3980,25 +3999,25 @@
         <f t="shared" si="9"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="K92" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M92" s="39"/>
+      <c r="K92" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M92" s="20"/>
     </row>
     <row r="93" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="71">
+      <c r="C93" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="64">
         <v>1000</v>
       </c>
-      <c r="E93" s="49">
+      <c r="E93" s="43">
         <v>7.65</v>
       </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="23">
+      <c r="F93" s="43"/>
+      <c r="G93" s="20">
         <f t="shared" si="6"/>
         <v>7654.99</v>
       </c>
@@ -4006,7 +4025,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I93" s="23">
+      <c r="I93" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4014,27 +4033,27 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K93" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M93" s="39"/>
+      <c r="K93" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M93" s="20"/>
     </row>
     <row r="94" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="71">
+      <c r="C94" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="64">
         <v>1000</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="43">
         <v>7.46</v>
       </c>
-      <c r="F94" s="49">
+      <c r="F94" s="43">
         <v>7.48</v>
       </c>
-      <c r="G94" s="23">
+      <c r="G94" s="20">
         <f t="shared" si="6"/>
         <v>7464.99</v>
       </c>
@@ -4042,7 +4061,7 @@
         <f t="shared" si="7"/>
         <v>7475.01</v>
       </c>
-      <c r="I94" s="23">
+      <c r="I94" s="20">
         <f t="shared" si="8"/>
         <v>10.020000000000437</v>
       </c>
@@ -4050,61 +4069,61 @@
         <f t="shared" si="9"/>
         <v>2.0000000000000462E-2</v>
       </c>
-      <c r="K94" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M94" s="39"/>
+      <c r="K94" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M94" s="20"/>
     </row>
     <row r="95" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="69">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="62">
         <v>2000</v>
       </c>
-      <c r="E95" s="49">
+      <c r="E95" s="43">
         <v>3.32</v>
       </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="40">
+      <c r="F95" s="43"/>
+      <c r="G95" s="34">
         <f t="shared" si="6"/>
         <v>6644.99</v>
       </c>
-      <c r="H95" s="28">
+      <c r="H95" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I95" s="40">
+      <c r="I95" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J95" s="28">
+      <c r="J95" s="25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K95" s="40">
-        <v>4.99</v>
-      </c>
-      <c r="L95" s="62"/>
-      <c r="M95" s="39"/>
+      <c r="K95" s="34">
+        <v>4.99</v>
+      </c>
+      <c r="L95" s="55"/>
+      <c r="M95" s="23"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>357</v>
       </c>
       <c r="B96" s="3"/>
-      <c r="C96" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="71">
+      <c r="C96" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="64">
         <v>1000</v>
       </c>
-      <c r="E96" s="49">
+      <c r="E96" s="43">
         <v>6.25</v>
       </c>
-      <c r="F96" s="49">
+      <c r="F96" s="43">
         <v>6.31</v>
       </c>
       <c r="G96" s="1">
@@ -4115,7 +4134,7 @@
         <f>IF(F96&gt;0,(D96*F96)-K96,0)</f>
         <v>6305.01</v>
       </c>
-      <c r="I96" s="23">
+      <c r="I96" s="20">
         <f>IF(F96&gt;0,H96-G96,0)</f>
         <v>50.020000000000437</v>
       </c>
@@ -4131,16 +4150,16 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="71">
+      <c r="C97" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="64">
         <v>1000</v>
       </c>
-      <c r="E97" s="49">
+      <c r="E97" s="43">
         <v>6.27</v>
       </c>
-      <c r="F97" s="49">
+      <c r="F97" s="43">
         <v>6.34</v>
       </c>
       <c r="G97" s="1">
@@ -4151,7 +4170,7 @@
         <f>IF(F97&gt;0,(D97*F97)-K97,0)</f>
         <v>6335.01</v>
       </c>
-      <c r="I97" s="23">
+      <c r="I97" s="20">
         <f>IF(F97&gt;0,H97-G97,0)</f>
         <v>60.020000000000437</v>
       </c>
@@ -4166,16 +4185,16 @@
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="71">
+      <c r="C98" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="64">
         <v>1000</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="42">
         <v>6.38</v>
       </c>
-      <c r="F98" s="48">
+      <c r="F98" s="42">
         <v>6.46</v>
       </c>
       <c r="G98" s="1">
@@ -4186,7 +4205,7 @@
         <f>IF(F98&gt;0,(D98*F98)-K98,0)</f>
         <v>6455.01</v>
       </c>
-      <c r="I98" s="23">
+      <c r="I98" s="20">
         <f>IF(F98&gt;0,H98-G98,0)</f>
         <v>70.020000000000437</v>
       </c>
@@ -4201,16 +4220,16 @@
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D99" s="71">
+      <c r="C99" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="64">
         <v>1000</v>
       </c>
-      <c r="E99" s="48">
+      <c r="E99" s="42">
         <v>6.44</v>
       </c>
-      <c r="F99" s="48">
+      <c r="F99" s="42">
         <v>6.54</v>
       </c>
       <c r="G99" s="1">
@@ -4221,7 +4240,7 @@
         <f t="shared" si="7"/>
         <v>6535.01</v>
       </c>
-      <c r="I99" s="23">
+      <c r="I99" s="20">
         <f t="shared" si="8"/>
         <v>90.020000000000437</v>
       </c>
@@ -4234,56 +4253,57 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="69">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="62">
         <v>1000</v>
       </c>
-      <c r="E100" s="48">
+      <c r="E100" s="42">
         <v>6.39</v>
       </c>
-      <c r="F100" s="48">
+      <c r="F100" s="42">
         <v>6.17</v>
       </c>
-      <c r="G100" s="26">
+      <c r="G100" s="23">
         <f t="shared" si="6"/>
         <v>6394.99</v>
       </c>
-      <c r="H100" s="27">
+      <c r="H100" s="24">
         <f t="shared" si="7"/>
         <v>6165.01</v>
       </c>
-      <c r="I100" s="40">
+      <c r="I100" s="34">
         <f t="shared" si="8"/>
         <v>-229.97999999999956</v>
       </c>
-      <c r="J100" s="27">
+      <c r="J100" s="24">
         <f t="shared" si="9"/>
         <v>-0.21999999999999975</v>
       </c>
-      <c r="K100" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L100" s="60"/>
+      <c r="K100" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L100" s="53"/>
+      <c r="M100" s="23"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>42361</v>
       </c>
       <c r="B101" s="3"/>
-      <c r="C101" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D101" s="71">
+      <c r="C101" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="64">
         <v>1000</v>
       </c>
-      <c r="E101" s="49">
+      <c r="E101" s="43">
         <v>6.1</v>
       </c>
-      <c r="F101" s="49">
+      <c r="F101" s="43">
         <v>6</v>
       </c>
       <c r="G101" s="1">
@@ -4294,7 +4314,7 @@
         <f t="shared" si="7"/>
         <v>5995.01</v>
       </c>
-      <c r="I101" s="23">
+      <c r="I101" s="20">
         <f t="shared" si="8"/>
         <v>-109.97999999999956</v>
       </c>
@@ -4310,16 +4330,16 @@
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="71">
+      <c r="C102" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" s="64">
         <v>1000</v>
       </c>
-      <c r="E102" s="49">
+      <c r="E102" s="43">
         <v>2.34</v>
       </c>
-      <c r="F102" s="49">
+      <c r="F102" s="43">
         <v>2.35</v>
       </c>
       <c r="G102" s="1">
@@ -4330,7 +4350,7 @@
         <f t="shared" si="7"/>
         <v>2345.0100000000002</v>
       </c>
-      <c r="I102" s="23">
+      <c r="I102" s="20">
         <f t="shared" si="8"/>
         <v>2.0000000000436557E-2</v>
       </c>
@@ -4345,19 +4365,19 @@
     <row r="103" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="71">
+      <c r="C103" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="64">
         <v>1000</v>
       </c>
-      <c r="E103" s="49">
+      <c r="E103" s="43">
         <v>6.14</v>
       </c>
-      <c r="F103" s="49">
+      <c r="F103" s="43">
         <v>6.16</v>
       </c>
-      <c r="G103" s="23">
+      <c r="G103" s="20">
         <f t="shared" si="6"/>
         <v>6144.99</v>
       </c>
@@ -4365,7 +4385,7 @@
         <f t="shared" si="7"/>
         <v>6155.01</v>
       </c>
-      <c r="I103" s="23">
+      <c r="I103" s="20">
         <f t="shared" si="8"/>
         <v>10.020000000000437</v>
       </c>
@@ -4373,22 +4393,22 @@
         <f t="shared" si="9"/>
         <v>2.0000000000000462E-2</v>
       </c>
-      <c r="K103" s="23">
-        <v>4.99</v>
-      </c>
-      <c r="M103" s="39"/>
+      <c r="K103" s="20">
+        <v>4.99</v>
+      </c>
+      <c r="M103" s="20"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="D104" s="71">
+      <c r="C104" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" s="64">
         <v>1000</v>
       </c>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48">
+      <c r="E104" s="42"/>
+      <c r="F104" s="42">
         <v>0.34</v>
       </c>
       <c r="G104" s="1">
@@ -4399,7 +4419,7 @@
         <f t="shared" si="7"/>
         <v>335.01</v>
       </c>
-      <c r="I104" s="23">
+      <c r="I104" s="20">
         <f t="shared" si="8"/>
         <v>330.02</v>
       </c>
@@ -4412,55 +4432,55 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" s="69">
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="62">
         <v>1000</v>
       </c>
-      <c r="E105" s="49">
+      <c r="E105" s="43">
         <v>6.24</v>
       </c>
-      <c r="F105" s="49"/>
-      <c r="G105" s="40">
+      <c r="F105" s="43"/>
+      <c r="G105" s="34">
         <f t="shared" si="6"/>
         <v>6244.99</v>
       </c>
-      <c r="H105" s="28">
+      <c r="H105" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I105" s="40">
+      <c r="I105" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J105" s="28">
+      <c r="J105" s="25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K105" s="40">
-        <v>4.99</v>
-      </c>
-      <c r="L105" s="62"/>
-      <c r="M105" s="39"/>
+      <c r="K105" s="34">
+        <v>4.99</v>
+      </c>
+      <c r="L105" s="55"/>
+      <c r="M105" s="23"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>42362</v>
       </c>
       <c r="B106" s="3"/>
-      <c r="C106" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="71">
+      <c r="C106" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="64">
         <v>1500</v>
       </c>
-      <c r="E106" s="49">
+      <c r="E106" s="43">
         <v>2.41</v>
       </c>
-      <c r="F106" s="49">
+      <c r="F106" s="43">
         <v>2.4500000000000002</v>
       </c>
       <c r="G106" s="1">
@@ -4471,7 +4491,7 @@
         <f t="shared" si="7"/>
         <v>3670.0100000000007</v>
       </c>
-      <c r="I106" s="23">
+      <c r="I106" s="20">
         <f t="shared" si="8"/>
         <v>50.020000000000891</v>
       </c>
@@ -4488,16 +4508,16 @@
         <v>42364</v>
       </c>
       <c r="B107" s="3"/>
-      <c r="C107" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="71">
+      <c r="C107" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="64">
         <v>1500</v>
       </c>
-      <c r="E107" s="48">
+      <c r="E107" s="42">
         <v>2.44</v>
       </c>
-      <c r="F107" s="48">
+      <c r="F107" s="42">
         <v>2.4700000000000002</v>
       </c>
       <c r="G107" s="1">
@@ -4508,7 +4528,7 @@
         <f t="shared" si="7"/>
         <v>3700.0100000000007</v>
       </c>
-      <c r="I107" s="23">
+      <c r="I107" s="20">
         <f t="shared" si="8"/>
         <v>35.020000000000891</v>
       </c>
@@ -4525,16 +4545,16 @@
         <v>42367</v>
       </c>
       <c r="B108" s="3"/>
-      <c r="C108" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="71">
+      <c r="C108" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="64">
         <v>1500</v>
       </c>
-      <c r="E108" s="48">
+      <c r="E108" s="42">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F108" s="48">
+      <c r="F108" s="42">
         <v>2.4500000000000002</v>
       </c>
       <c r="G108" s="1">
@@ -4545,7 +4565,7 @@
         <f t="shared" si="7"/>
         <v>3670.0100000000007</v>
       </c>
-      <c r="I108" s="23">
+      <c r="I108" s="20">
         <f t="shared" si="8"/>
         <v>20.020000000000437</v>
       </c>
@@ -4560,16 +4580,16 @@
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="71">
+      <c r="C109" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="64">
         <v>1500</v>
       </c>
-      <c r="E109" s="48">
+      <c r="E109" s="42">
         <v>2.42</v>
       </c>
-      <c r="F109" s="48">
+      <c r="F109" s="42">
         <v>2.56</v>
       </c>
       <c r="G109" s="1">
@@ -4580,7 +4600,7 @@
         <f t="shared" si="7"/>
         <v>3835.01</v>
       </c>
-      <c r="I109" s="23">
+      <c r="I109" s="20">
         <f t="shared" si="8"/>
         <v>200.02000000000044</v>
       </c>
@@ -4597,16 +4617,16 @@
         <v>42368</v>
       </c>
       <c r="B110" s="3"/>
-      <c r="C110" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D110" s="71">
+      <c r="C110" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="64">
         <v>1000</v>
       </c>
-      <c r="E110" s="48">
+      <c r="E110" s="42">
         <v>4.79</v>
       </c>
-      <c r="F110" s="48">
+      <c r="F110" s="42">
         <v>4.8099999999999996</v>
       </c>
       <c r="G110" s="1">
@@ -4617,7 +4637,7 @@
         <f t="shared" si="7"/>
         <v>4805.01</v>
       </c>
-      <c r="I110" s="23">
+      <c r="I110" s="20">
         <f t="shared" si="8"/>
         <v>10.020000000000437</v>
       </c>
@@ -4634,16 +4654,16 @@
         <v>42369</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D111" s="71">
+      <c r="C111" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="64">
         <v>500</v>
       </c>
-      <c r="E111" s="48">
+      <c r="E111" s="42">
         <v>4.38</v>
       </c>
-      <c r="F111" s="48">
+      <c r="F111" s="42">
         <v>4.41</v>
       </c>
       <c r="G111" s="1">
@@ -4654,7 +4674,7 @@
         <f t="shared" si="7"/>
         <v>2200.0100000000002</v>
       </c>
-      <c r="I111" s="23">
+      <c r="I111" s="20">
         <f t="shared" si="8"/>
         <v>5.0200000000004366</v>
       </c>
@@ -4669,16 +4689,16 @@
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D112" s="71">
+      <c r="C112" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="64">
         <v>1000</v>
       </c>
-      <c r="E112" s="48">
+      <c r="E112" s="42">
         <v>2.69</v>
       </c>
-      <c r="F112" s="48">
+      <c r="F112" s="42">
         <v>2.75</v>
       </c>
       <c r="G112" s="1">
@@ -4689,7 +4709,7 @@
         <f t="shared" si="7"/>
         <v>2745.01</v>
       </c>
-      <c r="I112" s="23">
+      <c r="I112" s="20">
         <f t="shared" si="8"/>
         <v>50.020000000000437</v>
       </c>
@@ -4702,56 +4722,57 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D113" s="69">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="62">
         <v>500</v>
       </c>
-      <c r="E113" s="48">
+      <c r="E113" s="42">
         <v>3.99</v>
       </c>
-      <c r="F113" s="48">
+      <c r="F113" s="42">
         <v>4.21</v>
       </c>
-      <c r="G113" s="26">
+      <c r="G113" s="23">
         <f t="shared" si="6"/>
         <v>1999.99</v>
       </c>
-      <c r="H113" s="27">
+      <c r="H113" s="24">
         <f t="shared" si="7"/>
         <v>2100.0100000000002</v>
       </c>
-      <c r="I113" s="40">
+      <c r="I113" s="34">
         <f t="shared" si="8"/>
         <v>100.02000000000021</v>
       </c>
-      <c r="J113" s="27">
+      <c r="J113" s="24">
         <f t="shared" si="9"/>
         <v>0.21999999999999975</v>
       </c>
-      <c r="K113" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L113" s="60"/>
+      <c r="K113" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L113" s="53"/>
+      <c r="M113" s="23"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>42006</v>
       </c>
       <c r="B114" s="3"/>
-      <c r="C114" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D114" s="71">
+      <c r="C114" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114" s="64">
         <v>1000</v>
       </c>
-      <c r="E114" s="49">
+      <c r="E114" s="43">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F114" s="49">
+      <c r="F114" s="43">
         <v>4.4400000000000004</v>
       </c>
       <c r="G114" s="1">
@@ -4762,7 +4783,7 @@
         <f t="shared" si="7"/>
         <v>4435.01</v>
       </c>
-      <c r="I114" s="23">
+      <c r="I114" s="20">
         <f t="shared" si="8"/>
         <v>30.020000000000437</v>
       </c>
@@ -4778,16 +4799,16 @@
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="D115" s="71">
+      <c r="C115" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" s="64">
         <v>1000</v>
       </c>
-      <c r="E115" s="48">
+      <c r="E115" s="42">
         <v>4.5</v>
       </c>
-      <c r="F115" s="48">
+      <c r="F115" s="42">
         <v>4.55</v>
       </c>
       <c r="G115" s="1">
@@ -4798,7 +4819,7 @@
         <f t="shared" si="7"/>
         <v>4545.01</v>
       </c>
-      <c r="I115" s="23">
+      <c r="I115" s="20">
         <f t="shared" si="8"/>
         <v>40.020000000000437</v>
       </c>
@@ -4813,16 +4834,16 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D116" s="71">
+      <c r="C116" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" s="64">
         <v>1000</v>
       </c>
-      <c r="E116" s="48">
+      <c r="E116" s="42">
         <v>2.72</v>
       </c>
-      <c r="F116" s="48"/>
+      <c r="F116" s="42"/>
       <c r="G116" s="1">
         <f t="shared" si="6"/>
         <v>2724.99</v>
@@ -4831,7 +4852,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I116" s="23">
+      <c r="I116" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4846,16 +4867,16 @@
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="71" t="s">
+      <c r="C117" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="71">
+      <c r="D117" s="64">
         <v>1000</v>
       </c>
-      <c r="E117" s="48">
+      <c r="E117" s="42">
         <v>5.26</v>
       </c>
-      <c r="F117" s="48">
+      <c r="F117" s="42">
         <v>5.36</v>
       </c>
       <c r="G117" s="1">
@@ -4866,7 +4887,7 @@
         <f t="shared" si="7"/>
         <v>5355.01</v>
       </c>
-      <c r="I117" s="23">
+      <c r="I117" s="20">
         <f t="shared" si="8"/>
         <v>90.020000000000437</v>
       </c>
@@ -4879,56 +4900,57 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D118" s="69">
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="62">
         <v>500</v>
       </c>
-      <c r="E118" s="48">
+      <c r="E118" s="42">
         <v>4.2</v>
       </c>
-      <c r="F118" s="48">
+      <c r="F118" s="42">
         <v>4.2300000000000004</v>
       </c>
-      <c r="G118" s="26">
+      <c r="G118" s="23">
         <f>IF(D118&gt;0,(D118*E118)+K118,0)</f>
         <v>2104.9899999999998</v>
       </c>
-      <c r="H118" s="27">
+      <c r="H118" s="24">
         <f>IF(F118&gt;0,(D118*F118)-K118,0)</f>
         <v>2110.0100000000002</v>
       </c>
-      <c r="I118" s="40">
+      <c r="I118" s="34">
         <f>IF(F118&gt;0,H118-G118,0)</f>
         <v>5.0200000000004366</v>
       </c>
-      <c r="J118" s="27">
+      <c r="J118" s="24">
         <f>IF(F118&gt;0,F118-E118,0)</f>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="K118" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L118" s="60"/>
+      <c r="K118" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L118" s="53"/>
+      <c r="M118" s="23"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>42009</v>
       </c>
       <c r="B119" s="3"/>
-      <c r="C119" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D119" s="71">
+      <c r="C119" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" s="64">
         <v>500</v>
       </c>
-      <c r="E119" s="49">
+      <c r="E119" s="43">
         <v>4.07</v>
       </c>
-      <c r="F119" s="49">
+      <c r="F119" s="43">
         <v>4.21</v>
       </c>
       <c r="G119" s="1">
@@ -4939,7 +4961,7 @@
         <f>IF(F119&gt;0,(D119*F119)-K119,0)</f>
         <v>2100.0100000000002</v>
       </c>
-      <c r="I119" s="23">
+      <c r="I119" s="20">
         <f>IF(F119&gt;0,H119-G119,0)</f>
         <v>60.019999999999982</v>
       </c>
@@ -4958,19 +4980,19 @@
     <row r="120" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="71">
+      <c r="D120" s="64">
         <v>1000</v>
       </c>
-      <c r="E120" s="49">
+      <c r="E120" s="43">
         <v>5.63</v>
       </c>
-      <c r="F120" s="49"/>
-      <c r="G120" s="23">
+      <c r="F120" s="43"/>
+      <c r="G120" s="20">
         <f>IF(D120&gt;0,(D120*E120)+K120,0)</f>
         <v>5639.99</v>
       </c>
@@ -4978,7 +5000,7 @@
         <f>IF(F120&gt;0,(D120*F120)-K120,0)</f>
         <v>0</v>
       </c>
-      <c r="I120" s="23">
+      <c r="I120" s="20">
         <f>IF(F120&gt;0,H120-G120,0)</f>
         <v>0</v>
       </c>
@@ -4986,26 +5008,26 @@
         <f>IF(F120&gt;0,F120-E120,0)</f>
         <v>0</v>
       </c>
-      <c r="K120" s="23">
+      <c r="K120" s="20">
         <v>9.99</v>
       </c>
-      <c r="M120" s="39"/>
+      <c r="M120" s="20"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="71">
+      <c r="D121" s="64">
         <v>1000</v>
       </c>
-      <c r="E121" s="48">
+      <c r="E121" s="42">
         <v>5.63</v>
       </c>
-      <c r="F121" s="48"/>
+      <c r="F121" s="42"/>
       <c r="G121" s="1">
         <f t="shared" si="6"/>
         <v>5639.99</v>
@@ -5014,7 +5036,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I121" s="23">
+      <c r="I121" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5029,18 +5051,18 @@
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C122" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="71">
+      <c r="D122" s="64">
         <v>1000</v>
       </c>
-      <c r="E122" s="48">
+      <c r="E122" s="42">
         <v>5.91</v>
       </c>
-      <c r="F122" s="48">
+      <c r="F122" s="42">
         <v>6.06</v>
       </c>
       <c r="G122" s="1">
@@ -5051,7 +5073,7 @@
         <f t="shared" si="7"/>
         <v>6055.01</v>
       </c>
-      <c r="I122" s="23">
+      <c r="I122" s="20">
         <f t="shared" si="8"/>
         <v>140.02000000000044</v>
       </c>
@@ -5066,18 +5088,18 @@
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C123" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D123" s="71">
+        <v>33</v>
+      </c>
+      <c r="C123" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="64">
         <v>1000</v>
       </c>
-      <c r="E123" s="48">
+      <c r="E123" s="42">
         <v>12.83</v>
       </c>
-      <c r="F123" s="48"/>
+      <c r="F123" s="42"/>
       <c r="G123" s="1">
         <f t="shared" si="6"/>
         <v>12834.99</v>
@@ -5086,7 +5108,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I123" s="23">
+      <c r="I123" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5101,18 +5123,18 @@
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D124" s="71">
+        <v>33</v>
+      </c>
+      <c r="C124" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="64">
         <v>1000</v>
       </c>
-      <c r="E124" s="48">
+      <c r="E124" s="42">
         <v>4.8499999999999996</v>
       </c>
-      <c r="F124" s="48">
+      <c r="F124" s="42">
         <v>4.9000000000000004</v>
       </c>
       <c r="G124" s="1">
@@ -5123,7 +5145,7 @@
         <f t="shared" si="7"/>
         <v>4895.01</v>
       </c>
-      <c r="I124" s="23">
+      <c r="I124" s="20">
         <f t="shared" si="8"/>
         <v>40.020000000000437</v>
       </c>
@@ -5136,60 +5158,61 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="69">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="62">
         <v>1000</v>
       </c>
-      <c r="E125" s="48">
+      <c r="E125" s="42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F125" s="48">
+      <c r="F125" s="42">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G125" s="26">
+      <c r="G125" s="23">
         <f t="shared" si="6"/>
         <v>2204.9899999999998</v>
       </c>
-      <c r="H125" s="27">
+      <c r="H125" s="24">
         <f t="shared" si="7"/>
         <v>2255.0100000000002</v>
       </c>
-      <c r="I125" s="40">
+      <c r="I125" s="34">
         <f t="shared" si="8"/>
         <v>50.020000000000437</v>
       </c>
-      <c r="J125" s="27">
+      <c r="J125" s="24">
         <f t="shared" si="9"/>
         <v>5.9999999999999609E-2</v>
       </c>
-      <c r="K125" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L125" s="60"/>
+      <c r="K125" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L125" s="53"/>
+      <c r="M125" s="23"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>42011</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="71">
+      <c r="D126" s="64">
         <v>1000</v>
       </c>
-      <c r="E126" s="49">
+      <c r="E126" s="43">
         <v>6.15</v>
       </c>
-      <c r="F126" s="49">
+      <c r="F126" s="43">
         <v>6.27</v>
       </c>
       <c r="G126" s="1">
@@ -5200,7 +5223,7 @@
         <f t="shared" si="7"/>
         <v>6265.01</v>
       </c>
-      <c r="I126" s="23">
+      <c r="I126" s="20">
         <f t="shared" si="8"/>
         <v>110.02000000000044</v>
       </c>
@@ -5219,18 +5242,18 @@
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C127" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="71">
+      <c r="D127" s="64">
         <v>1000</v>
       </c>
-      <c r="E127" s="48">
+      <c r="E127" s="42">
         <v>6.21</v>
       </c>
-      <c r="F127" s="48">
+      <c r="F127" s="42">
         <v>6.32</v>
       </c>
       <c r="G127" s="1">
@@ -5241,7 +5264,7 @@
         <f t="shared" si="7"/>
         <v>6315.01</v>
       </c>
-      <c r="I127" s="23">
+      <c r="I127" s="20">
         <f t="shared" si="8"/>
         <v>100.02000000000044</v>
       </c>
@@ -5256,18 +5279,18 @@
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C128" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D128" s="71">
+        <v>33</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="64">
         <v>1000</v>
       </c>
-      <c r="E128" s="48">
+      <c r="E128" s="42">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F128" s="48">
+      <c r="F128" s="42">
         <v>2.25</v>
       </c>
       <c r="G128" s="1">
@@ -5278,7 +5301,7 @@
         <f t="shared" si="7"/>
         <v>2245.0100000000002</v>
       </c>
-      <c r="I128" s="23">
+      <c r="I128" s="20">
         <f t="shared" si="8"/>
         <v>2.0000000000436557E-2</v>
       </c>
@@ -5290,21 +5313,21 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C129" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="71">
+      <c r="D129" s="64">
         <v>1000</v>
       </c>
-      <c r="E129" s="48">
+      <c r="E129" s="42">
         <v>6.41</v>
       </c>
-      <c r="F129" s="48">
+      <c r="F129" s="42">
         <v>6.46</v>
       </c>
       <c r="G129" s="1">
@@ -5315,7 +5338,7 @@
         <f t="shared" si="7"/>
         <v>6455.01</v>
       </c>
-      <c r="I129" s="23">
+      <c r="I129" s="20">
         <f t="shared" si="8"/>
         <v>40.020000000000437</v>
       </c>
@@ -5327,57 +5350,58 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D130" s="69">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="62">
         <v>1000</v>
       </c>
-      <c r="E130" s="48">
+      <c r="E130" s="42">
         <v>4.95</v>
       </c>
-      <c r="F130" s="48">
+      <c r="F130" s="42">
         <v>4.92</v>
       </c>
-      <c r="G130" s="26">
+      <c r="G130" s="23">
         <f t="shared" si="6"/>
         <v>4954.99</v>
       </c>
-      <c r="H130" s="27">
+      <c r="H130" s="24">
         <f t="shared" si="7"/>
         <v>4915.01</v>
       </c>
-      <c r="I130" s="40">
+      <c r="I130" s="34">
         <f t="shared" si="8"/>
         <v>-39.979999999999563</v>
       </c>
-      <c r="J130" s="27">
+      <c r="J130" s="24">
         <f t="shared" si="9"/>
         <v>-3.0000000000000249E-2</v>
       </c>
-      <c r="K130" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L130" s="60"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K130" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L130" s="53"/>
+      <c r="M130" s="23"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>42012</v>
       </c>
       <c r="B131" s="3"/>
-      <c r="C131" s="71" t="s">
+      <c r="C131" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="71">
+      <c r="D131" s="64">
         <v>1000</v>
       </c>
-      <c r="E131" s="49">
+      <c r="E131" s="43">
         <v>6.31</v>
       </c>
-      <c r="F131" s="49">
+      <c r="F131" s="43">
         <v>6.36</v>
       </c>
       <c r="G131" s="1">
@@ -5388,7 +5412,7 @@
         <f t="shared" ref="H131:H194" si="11">IF(F131&gt;0,(D131*F131)-K131,0)</f>
         <v>6355.01</v>
       </c>
-      <c r="I131" s="23">
+      <c r="I131" s="20">
         <f t="shared" si="8"/>
         <v>40.020000000000437</v>
       </c>
@@ -5404,19 +5428,19 @@
         <v>520.12000000000216</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="71" t="s">
+      <c r="C132" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="71">
+      <c r="D132" s="64">
         <v>1000</v>
       </c>
-      <c r="E132" s="48">
+      <c r="E132" s="42">
         <v>6.26</v>
       </c>
-      <c r="F132" s="48">
+      <c r="F132" s="42">
         <v>6.28</v>
       </c>
       <c r="G132" s="1">
@@ -5427,7 +5451,7 @@
         <f t="shared" si="11"/>
         <v>6275.01</v>
       </c>
-      <c r="I132" s="23">
+      <c r="I132" s="20">
         <f t="shared" si="8"/>
         <v>10.020000000000437</v>
       </c>
@@ -5439,19 +5463,19 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="71">
+      <c r="C133" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="64">
         <v>1000</v>
       </c>
-      <c r="E133" s="48">
+      <c r="E133" s="42">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F133" s="48">
+      <c r="F133" s="42">
         <v>5.0599999999999996</v>
       </c>
       <c r="G133" s="1">
@@ -5462,7 +5486,7 @@
         <f t="shared" si="11"/>
         <v>5055.01</v>
       </c>
-      <c r="I133" s="23">
+      <c r="I133" s="20">
         <f t="shared" si="8"/>
         <v>150.02000000000044</v>
       </c>
@@ -5474,19 +5498,19 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134" s="71">
+      <c r="C134" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="64">
         <v>1000</v>
       </c>
-      <c r="E134" s="48">
+      <c r="E134" s="42">
         <v>5.0599999999999996</v>
       </c>
-      <c r="F134" s="48">
+      <c r="F134" s="42">
         <v>5.09</v>
       </c>
       <c r="G134" s="1">
@@ -5497,7 +5521,7 @@
         <f t="shared" si="11"/>
         <v>5085.01</v>
       </c>
-      <c r="I134" s="23">
+      <c r="I134" s="20">
         <f t="shared" si="8"/>
         <v>20.020000000000437</v>
       </c>
@@ -5509,19 +5533,19 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" s="71">
+      <c r="C135" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" s="64">
         <v>500</v>
       </c>
-      <c r="E135" s="48">
+      <c r="E135" s="42">
         <v>3.41</v>
       </c>
-      <c r="F135" s="48">
+      <c r="F135" s="42">
         <v>3.57</v>
       </c>
       <c r="G135" s="1">
@@ -5532,7 +5556,7 @@
         <f t="shared" si="11"/>
         <v>1780.01</v>
       </c>
-      <c r="I135" s="23">
+      <c r="I135" s="20">
         <f t="shared" si="8"/>
         <v>70.019999999999982</v>
       </c>
@@ -5544,57 +5568,58 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="69" t="s">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="69">
+      <c r="D136" s="62">
         <v>1000</v>
       </c>
-      <c r="E136" s="48">
+      <c r="E136" s="42">
         <v>6.15</v>
       </c>
-      <c r="F136" s="48">
+      <c r="F136" s="42">
         <v>6.39</v>
       </c>
-      <c r="G136" s="26">
+      <c r="G136" s="23">
         <f t="shared" si="10"/>
         <v>6154.99</v>
       </c>
-      <c r="H136" s="27">
+      <c r="H136" s="24">
         <f t="shared" si="11"/>
         <v>6385.01</v>
       </c>
-      <c r="I136" s="40">
+      <c r="I136" s="34">
         <f t="shared" si="8"/>
         <v>230.02000000000044</v>
       </c>
-      <c r="J136" s="27">
+      <c r="J136" s="24">
         <f t="shared" si="9"/>
         <v>0.23999999999999932</v>
       </c>
-      <c r="K136" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L136" s="60"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K136" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L136" s="53"/>
+      <c r="M136" s="23"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>42013</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D137" s="71">
+      <c r="C137" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" s="64">
         <v>500</v>
       </c>
-      <c r="E137" s="49">
+      <c r="E137" s="43">
         <v>3.37</v>
       </c>
-      <c r="F137" s="49">
+      <c r="F137" s="43">
         <v>3.48</v>
       </c>
       <c r="G137" s="1">
@@ -5605,7 +5630,7 @@
         <f t="shared" si="11"/>
         <v>1735.01</v>
       </c>
-      <c r="I137" s="23">
+      <c r="I137" s="20">
         <f t="shared" si="8"/>
         <v>45.019999999999982</v>
       </c>
@@ -5621,19 +5646,19 @@
         <v>195.06000000000085</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D138" s="71">
+      <c r="C138" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" s="64">
         <v>500</v>
       </c>
-      <c r="E138" s="48">
+      <c r="E138" s="42">
         <v>4.07</v>
       </c>
-      <c r="F138" s="48"/>
+      <c r="F138" s="42"/>
       <c r="G138" s="1">
         <f t="shared" si="10"/>
         <v>2039.9900000000002</v>
@@ -5642,7 +5667,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I138" s="23">
+      <c r="I138" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5654,19 +5679,19 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D139" s="71">
+      <c r="C139" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="64">
         <v>1000</v>
       </c>
-      <c r="E139" s="48">
+      <c r="E139" s="42">
         <v>5.04</v>
       </c>
-      <c r="F139" s="48">
+      <c r="F139" s="42">
         <v>5.2</v>
       </c>
       <c r="G139" s="1">
@@ -5677,7 +5702,7 @@
         <f t="shared" si="11"/>
         <v>5195.01</v>
       </c>
-      <c r="I139" s="23">
+      <c r="I139" s="20">
         <f t="shared" si="8"/>
         <v>150.02000000000044</v>
       </c>
@@ -5689,19 +5714,19 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D140" s="71">
+      <c r="C140" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="64">
         <v>500</v>
       </c>
-      <c r="E140" s="48">
+      <c r="E140" s="42">
         <v>4.2</v>
       </c>
-      <c r="F140" s="48"/>
+      <c r="F140" s="42"/>
       <c r="G140" s="1">
         <f t="shared" si="10"/>
         <v>2104.9899999999998</v>
@@ -5710,7 +5735,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I140" s="23">
+      <c r="I140" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5722,166 +5747,215 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="D141" s="69">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="62">
         <v>1000</v>
       </c>
-      <c r="E141" s="48">
+      <c r="E141" s="42">
         <v>2.93</v>
       </c>
-      <c r="F141" s="48">
+      <c r="F141" s="42">
         <v>2.94</v>
       </c>
-      <c r="G141" s="26">
+      <c r="G141" s="23">
         <f t="shared" si="10"/>
         <v>2934.99</v>
       </c>
-      <c r="H141" s="27">
+      <c r="H141" s="24">
         <f t="shared" si="11"/>
         <v>2935.01</v>
       </c>
-      <c r="I141" s="40">
+      <c r="I141" s="34">
         <f t="shared" si="8"/>
         <v>2.0000000000436557E-2</v>
       </c>
-      <c r="J141" s="27">
+      <c r="J141" s="24">
         <f t="shared" si="9"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="K141" s="26">
-        <v>4.99</v>
-      </c>
-      <c r="L141" s="60"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
+      <c r="K141" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L141" s="53"/>
+      <c r="M141" s="23"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>42016</v>
+      </c>
       <c r="B142" s="3"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="49"/>
+      <c r="C142" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D142" s="64">
+        <v>500</v>
+      </c>
+      <c r="E142" s="43">
+        <v>3.65</v>
+      </c>
+      <c r="F142" s="43">
+        <v>3.73</v>
+      </c>
       <c r="G142" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1829.99</v>
       </c>
       <c r="H142" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I142" s="23">
+        <v>1860.01</v>
+      </c>
+      <c r="I142" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30.019999999999982</v>
       </c>
       <c r="J142" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="K142" s="1">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L142" s="2">
+        <f>SUM(I142:I145)</f>
+        <v>210.06000000000085</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="48"/>
+      <c r="C143" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="64">
+        <v>500</v>
+      </c>
+      <c r="E143" s="42">
+        <v>7.18</v>
+      </c>
+      <c r="F143" s="42">
+        <v>7.24</v>
+      </c>
       <c r="G143" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3594.99</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I143" s="23">
+        <v>3615.01</v>
+      </c>
+      <c r="I143" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.020000000000437</v>
       </c>
       <c r="J143" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.0000000000000497E-2</v>
       </c>
       <c r="K143" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="48"/>
+      <c r="B144" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="64">
+        <v>1000</v>
+      </c>
+      <c r="E144" s="42">
+        <v>4.63</v>
+      </c>
+      <c r="F144" s="42">
+        <v>4.8</v>
+      </c>
       <c r="G144" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4634.99</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I144" s="23">
+        <v>4795.01</v>
+      </c>
+      <c r="I144" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>160.02000000000044</v>
       </c>
       <c r="J144" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.16999999999999993</v>
       </c>
       <c r="K144" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="68"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="48"/>
-      <c r="G145" s="1">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="22"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="62">
+        <v>500</v>
+      </c>
+      <c r="E145" s="42">
+        <v>7.18</v>
+      </c>
+      <c r="F145" s="42"/>
+      <c r="G145" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H145" s="2">
+        <v>3594.99</v>
+      </c>
+      <c r="H145" s="24">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I145" s="23">
+      <c r="I145" s="34">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J145" s="2">
+      <c r="J145" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K145" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
+      <c r="K145" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L145" s="53"/>
+      <c r="M145" s="23"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>42017</v>
+      </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="68"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="48"/>
+      <c r="C146" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="64">
+        <v>500</v>
+      </c>
+      <c r="E146" s="43">
+        <v>7.08</v>
+      </c>
+      <c r="F146" s="43"/>
       <c r="G146" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3544.99</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I146" s="23">
+      <c r="I146" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5892,50 +5966,73 @@
       <c r="K146" s="1">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="2">
+        <f>SUM(I146:I149)</f>
+        <v>115.04000000000042</v>
+      </c>
+      <c r="M146" s="10"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="48"/>
+      <c r="B147" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="64">
+        <v>700</v>
+      </c>
+      <c r="E147" s="42">
+        <v>6.86</v>
+      </c>
+      <c r="F147" s="42">
+        <v>6.96</v>
+      </c>
       <c r="G147" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4806.99</v>
       </c>
       <c r="H147" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I147" s="23">
+        <v>4867.01</v>
+      </c>
+      <c r="I147" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>60.020000000000437</v>
       </c>
       <c r="J147" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="K147" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="68"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="48"/>
+      <c r="B148" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="64">
+        <v>700</v>
+      </c>
+      <c r="E148" s="42">
+        <v>6.86</v>
+      </c>
+      <c r="F148" s="42"/>
       <c r="G148" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4806.99</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I148" s="23">
+      <c r="I148" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5947,40 +6044,48 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="68"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48"/>
+      <c r="C149" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D149" s="64">
+        <v>500</v>
+      </c>
+      <c r="E149" s="42">
+        <v>3.11</v>
+      </c>
+      <c r="F149" s="42">
+        <v>3.25</v>
+      </c>
       <c r="G149" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1562.49</v>
       </c>
       <c r="H149" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I149" s="23">
+        <v>1617.51</v>
+      </c>
+      <c r="I149" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>55.019999999999982</v>
       </c>
       <c r="J149" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.14000000000000012</v>
       </c>
       <c r="K149" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="68"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="48"/>
+      <c r="C150" s="61"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="42"/>
       <c r="G150" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -5989,7 +6094,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I150" s="23">
+      <c r="I150" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6001,13 +6106,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="68"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="48"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="42"/>
       <c r="G151" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6016,7 +6121,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I151" s="23">
+      <c r="I151" s="20">
         <f t="shared" ref="I151:I214" si="12">IF(F151&gt;0,H151-G151,0)</f>
         <v>0</v>
       </c>
@@ -6028,13 +6133,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="68"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
+      <c r="C152" s="61"/>
+      <c r="D152" s="61"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
       <c r="G152" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6043,7 +6148,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I152" s="23">
+      <c r="I152" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6055,13 +6160,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="68"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="48"/>
-      <c r="F153" s="48"/>
+      <c r="C153" s="61"/>
+      <c r="D153" s="61"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
       <c r="G153" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6070,7 +6175,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I153" s="23">
+      <c r="I153" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6082,13 +6187,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="68"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="48"/>
+      <c r="C154" s="61"/>
+      <c r="D154" s="61"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
       <c r="G154" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6097,7 +6202,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I154" s="23">
+      <c r="I154" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6109,13 +6214,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="68"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48"/>
+      <c r="C155" s="61"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
       <c r="G155" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6124,7 +6229,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I155" s="23">
+      <c r="I155" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6136,13 +6241,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="68"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="48"/>
+      <c r="C156" s="61"/>
+      <c r="D156" s="61"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
       <c r="G156" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6151,7 +6256,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I156" s="23">
+      <c r="I156" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6163,13 +6268,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="68"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="48"/>
-      <c r="F157" s="48"/>
+      <c r="C157" s="61"/>
+      <c r="D157" s="61"/>
+      <c r="E157" s="42"/>
+      <c r="F157" s="42"/>
       <c r="G157" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6178,7 +6283,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I157" s="23">
+      <c r="I157" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6190,13 +6295,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="68"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="48"/>
-      <c r="F158" s="48"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
       <c r="G158" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6205,7 +6310,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I158" s="23">
+      <c r="I158" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6217,13 +6322,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="48"/>
-      <c r="F159" s="48"/>
+      <c r="C159" s="61"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
       <c r="G159" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6232,7 +6337,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I159" s="23">
+      <c r="I159" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6244,13 +6349,13 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="48"/>
+      <c r="C160" s="61"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
       <c r="G160" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6259,7 +6364,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I160" s="23">
+      <c r="I160" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6274,10 +6379,10 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="68"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="48"/>
+      <c r="C161" s="61"/>
+      <c r="D161" s="61"/>
+      <c r="E161" s="42"/>
+      <c r="F161" s="42"/>
       <c r="G161" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6286,7 +6391,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I161" s="23">
+      <c r="I161" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6301,10 +6406,10 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="68"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="48"/>
-      <c r="F162" s="48"/>
+      <c r="C162" s="61"/>
+      <c r="D162" s="61"/>
+      <c r="E162" s="42"/>
+      <c r="F162" s="42"/>
       <c r="G162" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6313,7 +6418,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I162" s="23">
+      <c r="I162" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6328,10 +6433,10 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="68"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="48"/>
-      <c r="F163" s="48"/>
+      <c r="C163" s="61"/>
+      <c r="D163" s="61"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
       <c r="G163" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6340,7 +6445,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I163" s="23">
+      <c r="I163" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6355,10 +6460,10 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="68"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="48"/>
-      <c r="F164" s="48"/>
+      <c r="C164" s="61"/>
+      <c r="D164" s="61"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
       <c r="G164" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6367,7 +6472,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I164" s="23">
+      <c r="I164" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6382,10 +6487,10 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="48"/>
-      <c r="F165" s="48"/>
+      <c r="C165" s="61"/>
+      <c r="D165" s="61"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
       <c r="G165" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6394,7 +6499,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I165" s="23">
+      <c r="I165" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6409,10 +6514,10 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="68"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="48"/>
+      <c r="C166" s="61"/>
+      <c r="D166" s="61"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
       <c r="G166" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6421,7 +6526,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I166" s="23">
+      <c r="I166" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6436,10 +6541,10 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="68"/>
-      <c r="D167" s="68"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
+      <c r="C167" s="61"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
       <c r="G167" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6448,7 +6553,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I167" s="23">
+      <c r="I167" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6463,10 +6568,10 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="68"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="48"/>
-      <c r="F168" s="48"/>
+      <c r="C168" s="61"/>
+      <c r="D168" s="61"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
       <c r="G168" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6475,7 +6580,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I168" s="23">
+      <c r="I168" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6490,10 +6595,10 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="68"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="61"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="42"/>
       <c r="G169" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6502,7 +6607,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I169" s="23">
+      <c r="I169" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6517,10 +6622,10 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="48"/>
+      <c r="C170" s="61"/>
+      <c r="D170" s="61"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
       <c r="G170" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6529,7 +6634,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I170" s="23">
+      <c r="I170" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6544,10 +6649,10 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="48"/>
-      <c r="F171" s="48"/>
+      <c r="C171" s="61"/>
+      <c r="D171" s="61"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
       <c r="G171" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6556,7 +6661,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I171" s="23">
+      <c r="I171" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6571,10 +6676,10 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="68"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="48"/>
-      <c r="F172" s="48"/>
+      <c r="C172" s="61"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="42"/>
+      <c r="F172" s="42"/>
       <c r="G172" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6583,7 +6688,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I172" s="23">
+      <c r="I172" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6598,10 +6703,10 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
-      <c r="C173" s="68"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="48"/>
-      <c r="F173" s="48"/>
+      <c r="C173" s="61"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="42"/>
       <c r="G173" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6610,7 +6715,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I173" s="23">
+      <c r="I173" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6625,10 +6730,10 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="68"/>
-      <c r="D174" s="68"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="48"/>
+      <c r="C174" s="61"/>
+      <c r="D174" s="61"/>
+      <c r="E174" s="42"/>
+      <c r="F174" s="42"/>
       <c r="G174" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6637,7 +6742,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I174" s="23">
+      <c r="I174" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6652,10 +6757,10 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="68"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="48"/>
-      <c r="F175" s="48"/>
+      <c r="C175" s="61"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="42"/>
+      <c r="F175" s="42"/>
       <c r="G175" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6664,7 +6769,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I175" s="23">
+      <c r="I175" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6679,10 +6784,10 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="68"/>
-      <c r="D176" s="68"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48"/>
+      <c r="C176" s="61"/>
+      <c r="D176" s="61"/>
+      <c r="E176" s="42"/>
+      <c r="F176" s="42"/>
       <c r="G176" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6691,7 +6796,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I176" s="23">
+      <c r="I176" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6706,10 +6811,10 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="68"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="48"/>
-      <c r="F177" s="48"/>
+      <c r="C177" s="61"/>
+      <c r="D177" s="61"/>
+      <c r="E177" s="42"/>
+      <c r="F177" s="42"/>
       <c r="G177" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6718,7 +6823,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I177" s="23">
+      <c r="I177" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6733,10 +6838,10 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="68"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
+      <c r="C178" s="61"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="42"/>
       <c r="G178" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6745,7 +6850,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I178" s="23">
+      <c r="I178" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6760,10 +6865,10 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="68"/>
-      <c r="D179" s="68"/>
-      <c r="E179" s="48"/>
-      <c r="F179" s="48"/>
+      <c r="C179" s="61"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="42"/>
+      <c r="F179" s="42"/>
       <c r="G179" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6772,7 +6877,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I179" s="23">
+      <c r="I179" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6787,10 +6892,10 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="68"/>
-      <c r="D180" s="68"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="48"/>
+      <c r="C180" s="61"/>
+      <c r="D180" s="61"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
       <c r="G180" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6799,7 +6904,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I180" s="23">
+      <c r="I180" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6814,10 +6919,10 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="68"/>
-      <c r="D181" s="68"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
+      <c r="C181" s="61"/>
+      <c r="D181" s="61"/>
+      <c r="E181" s="42"/>
+      <c r="F181" s="42"/>
       <c r="G181" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6826,7 +6931,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I181" s="23">
+      <c r="I181" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6841,10 +6946,10 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="68"/>
-      <c r="D182" s="68"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="48"/>
+      <c r="C182" s="61"/>
+      <c r="D182" s="61"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="42"/>
       <c r="G182" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6853,7 +6958,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I182" s="23">
+      <c r="I182" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6868,10 +6973,10 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="68"/>
-      <c r="D183" s="68"/>
-      <c r="E183" s="48"/>
-      <c r="F183" s="48"/>
+      <c r="C183" s="61"/>
+      <c r="D183" s="61"/>
+      <c r="E183" s="42"/>
+      <c r="F183" s="42"/>
       <c r="G183" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6880,7 +6985,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I183" s="23">
+      <c r="I183" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6895,10 +7000,10 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="68"/>
-      <c r="D184" s="68"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="48"/>
+      <c r="C184" s="61"/>
+      <c r="D184" s="61"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
       <c r="G184" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6907,7 +7012,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I184" s="23">
+      <c r="I184" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6922,10 +7027,10 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="68"/>
-      <c r="D185" s="68"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="48"/>
+      <c r="C185" s="61"/>
+      <c r="D185" s="61"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
       <c r="G185" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6934,7 +7039,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I185" s="23">
+      <c r="I185" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6949,10 +7054,10 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="68"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
+      <c r="C186" s="61"/>
+      <c r="D186" s="61"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="42"/>
       <c r="G186" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6961,7 +7066,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I186" s="23">
+      <c r="I186" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -6976,10 +7081,10 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="68"/>
-      <c r="D187" s="68"/>
-      <c r="E187" s="48"/>
-      <c r="F187" s="48"/>
+      <c r="C187" s="61"/>
+      <c r="D187" s="61"/>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
       <c r="G187" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6988,7 +7093,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I187" s="23">
+      <c r="I187" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7003,10 +7108,10 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="68"/>
-      <c r="D188" s="68"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="48"/>
+      <c r="C188" s="61"/>
+      <c r="D188" s="61"/>
+      <c r="E188" s="42"/>
+      <c r="F188" s="42"/>
       <c r="G188" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7015,7 +7120,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I188" s="23">
+      <c r="I188" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7030,10 +7135,10 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="68"/>
-      <c r="D189" s="68"/>
-      <c r="E189" s="48"/>
-      <c r="F189" s="48"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="61"/>
+      <c r="E189" s="42"/>
+      <c r="F189" s="42"/>
       <c r="G189" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7042,7 +7147,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I189" s="23">
+      <c r="I189" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7057,10 +7162,10 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="68"/>
-      <c r="D190" s="68"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="48"/>
+      <c r="C190" s="61"/>
+      <c r="D190" s="61"/>
+      <c r="E190" s="42"/>
+      <c r="F190" s="42"/>
       <c r="G190" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7069,7 +7174,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I190" s="23">
+      <c r="I190" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7084,10 +7189,10 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="68"/>
-      <c r="D191" s="68"/>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48"/>
+      <c r="C191" s="61"/>
+      <c r="D191" s="61"/>
+      <c r="E191" s="42"/>
+      <c r="F191" s="42"/>
       <c r="G191" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7096,7 +7201,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I191" s="23">
+      <c r="I191" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7111,10 +7216,10 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="68"/>
-      <c r="D192" s="68"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="48"/>
+      <c r="C192" s="61"/>
+      <c r="D192" s="61"/>
+      <c r="E192" s="42"/>
+      <c r="F192" s="42"/>
       <c r="G192" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7123,7 +7228,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I192" s="23">
+      <c r="I192" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7138,10 +7243,10 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
-      <c r="C193" s="68"/>
-      <c r="D193" s="68"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="48"/>
+      <c r="C193" s="61"/>
+      <c r="D193" s="61"/>
+      <c r="E193" s="42"/>
+      <c r="F193" s="42"/>
       <c r="G193" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7150,7 +7255,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I193" s="23">
+      <c r="I193" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7165,10 +7270,10 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="68"/>
-      <c r="D194" s="68"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
+      <c r="C194" s="61"/>
+      <c r="D194" s="61"/>
+      <c r="E194" s="42"/>
+      <c r="F194" s="42"/>
       <c r="G194" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7177,7 +7282,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I194" s="23">
+      <c r="I194" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7192,10 +7297,10 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="68"/>
-      <c r="D195" s="68"/>
-      <c r="E195" s="48"/>
-      <c r="F195" s="48"/>
+      <c r="C195" s="61"/>
+      <c r="D195" s="61"/>
+      <c r="E195" s="42"/>
+      <c r="F195" s="42"/>
       <c r="G195" s="1">
         <f t="shared" ref="G195:G258" si="14">IF(D195&gt;0,(D195*E195)+K195,0)</f>
         <v>0</v>
@@ -7204,7 +7309,7 @@
         <f t="shared" ref="H195:H258" si="15">IF(F195&gt;0,(D195*F195)-K195,0)</f>
         <v>0</v>
       </c>
-      <c r="I195" s="23">
+      <c r="I195" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7219,10 +7324,10 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
-      <c r="C196" s="68"/>
-      <c r="D196" s="68"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="48"/>
+      <c r="C196" s="61"/>
+      <c r="D196" s="61"/>
+      <c r="E196" s="42"/>
+      <c r="F196" s="42"/>
       <c r="G196" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7231,7 +7336,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I196" s="23">
+      <c r="I196" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7246,10 +7351,10 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="68"/>
-      <c r="D197" s="68"/>
-      <c r="E197" s="48"/>
-      <c r="F197" s="48"/>
+      <c r="C197" s="61"/>
+      <c r="D197" s="61"/>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
       <c r="G197" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7258,7 +7363,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I197" s="23">
+      <c r="I197" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7273,10 +7378,10 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="68"/>
-      <c r="D198" s="68"/>
-      <c r="E198" s="48"/>
-      <c r="F198" s="48"/>
+      <c r="C198" s="61"/>
+      <c r="D198" s="61"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
       <c r="G198" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7285,7 +7390,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I198" s="23">
+      <c r="I198" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7300,10 +7405,10 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
-      <c r="C199" s="68"/>
-      <c r="D199" s="68"/>
-      <c r="E199" s="48"/>
-      <c r="F199" s="48"/>
+      <c r="C199" s="61"/>
+      <c r="D199" s="61"/>
+      <c r="E199" s="42"/>
+      <c r="F199" s="42"/>
       <c r="G199" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7312,7 +7417,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I199" s="23">
+      <c r="I199" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7327,10 +7432,10 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
-      <c r="C200" s="68"/>
-      <c r="D200" s="68"/>
-      <c r="E200" s="48"/>
-      <c r="F200" s="48"/>
+      <c r="C200" s="61"/>
+      <c r="D200" s="61"/>
+      <c r="E200" s="42"/>
+      <c r="F200" s="42"/>
       <c r="G200" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7339,7 +7444,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I200" s="23">
+      <c r="I200" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7354,10 +7459,10 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
-      <c r="C201" s="68"/>
-      <c r="D201" s="68"/>
-      <c r="E201" s="48"/>
-      <c r="F201" s="48"/>
+      <c r="C201" s="61"/>
+      <c r="D201" s="61"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="42"/>
       <c r="G201" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7366,7 +7471,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I201" s="23">
+      <c r="I201" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7381,10 +7486,10 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
-      <c r="C202" s="68"/>
-      <c r="D202" s="68"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="48"/>
+      <c r="C202" s="61"/>
+      <c r="D202" s="61"/>
+      <c r="E202" s="42"/>
+      <c r="F202" s="42"/>
       <c r="G202" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7393,7 +7498,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I202" s="23">
+      <c r="I202" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7408,10 +7513,10 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
-      <c r="C203" s="68"/>
-      <c r="D203" s="68"/>
-      <c r="E203" s="48"/>
-      <c r="F203" s="48"/>
+      <c r="C203" s="61"/>
+      <c r="D203" s="61"/>
+      <c r="E203" s="42"/>
+      <c r="F203" s="42"/>
       <c r="G203" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7420,7 +7525,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I203" s="23">
+      <c r="I203" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7435,10 +7540,10 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="68"/>
-      <c r="D204" s="68"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="48"/>
+      <c r="C204" s="61"/>
+      <c r="D204" s="61"/>
+      <c r="E204" s="42"/>
+      <c r="F204" s="42"/>
       <c r="G204" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7447,7 +7552,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I204" s="23">
+      <c r="I204" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7462,10 +7567,10 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
-      <c r="C205" s="68"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="48"/>
-      <c r="F205" s="48"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="61"/>
+      <c r="E205" s="42"/>
+      <c r="F205" s="42"/>
       <c r="G205" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7474,7 +7579,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I205" s="23">
+      <c r="I205" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7489,10 +7594,10 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
-      <c r="C206" s="68"/>
-      <c r="D206" s="68"/>
-      <c r="E206" s="48"/>
-      <c r="F206" s="48"/>
+      <c r="C206" s="61"/>
+      <c r="D206" s="61"/>
+      <c r="E206" s="42"/>
+      <c r="F206" s="42"/>
       <c r="G206" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7501,7 +7606,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I206" s="23">
+      <c r="I206" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7516,10 +7621,10 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
-      <c r="C207" s="68"/>
-      <c r="D207" s="68"/>
-      <c r="E207" s="48"/>
-      <c r="F207" s="48"/>
+      <c r="C207" s="61"/>
+      <c r="D207" s="61"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
       <c r="G207" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7528,7 +7633,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I207" s="23">
+      <c r="I207" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7543,10 +7648,10 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
-      <c r="C208" s="68"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="48"/>
-      <c r="F208" s="48"/>
+      <c r="C208" s="61"/>
+      <c r="D208" s="61"/>
+      <c r="E208" s="42"/>
+      <c r="F208" s="42"/>
       <c r="G208" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7555,7 +7660,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I208" s="23">
+      <c r="I208" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7570,10 +7675,10 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
-      <c r="C209" s="68"/>
-      <c r="D209" s="68"/>
-      <c r="E209" s="48"/>
-      <c r="F209" s="48"/>
+      <c r="C209" s="61"/>
+      <c r="D209" s="61"/>
+      <c r="E209" s="42"/>
+      <c r="F209" s="42"/>
       <c r="G209" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7582,7 +7687,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I209" s="23">
+      <c r="I209" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7597,10 +7702,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="68"/>
-      <c r="D210" s="68"/>
-      <c r="E210" s="48"/>
-      <c r="F210" s="48"/>
+      <c r="C210" s="61"/>
+      <c r="D210" s="61"/>
+      <c r="E210" s="42"/>
+      <c r="F210" s="42"/>
       <c r="G210" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7609,7 +7714,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I210" s="23">
+      <c r="I210" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7624,10 +7729,10 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="68"/>
-      <c r="D211" s="68"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="48"/>
+      <c r="C211" s="61"/>
+      <c r="D211" s="61"/>
+      <c r="E211" s="42"/>
+      <c r="F211" s="42"/>
       <c r="G211" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7636,7 +7741,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I211" s="23">
+      <c r="I211" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7651,10 +7756,10 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
-      <c r="C212" s="68"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="48"/>
-      <c r="F212" s="48"/>
+      <c r="C212" s="61"/>
+      <c r="D212" s="61"/>
+      <c r="E212" s="42"/>
+      <c r="F212" s="42"/>
       <c r="G212" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7663,7 +7768,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I212" s="23">
+      <c r="I212" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7678,10 +7783,10 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
-      <c r="C213" s="68"/>
-      <c r="D213" s="68"/>
-      <c r="E213" s="48"/>
-      <c r="F213" s="48"/>
+      <c r="C213" s="61"/>
+      <c r="D213" s="61"/>
+      <c r="E213" s="42"/>
+      <c r="F213" s="42"/>
       <c r="G213" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7690,7 +7795,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I213" s="23">
+      <c r="I213" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7705,10 +7810,10 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
-      <c r="C214" s="68"/>
-      <c r="D214" s="68"/>
-      <c r="E214" s="48"/>
-      <c r="F214" s="48"/>
+      <c r="C214" s="61"/>
+      <c r="D214" s="61"/>
+      <c r="E214" s="42"/>
+      <c r="F214" s="42"/>
       <c r="G214" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7717,7 +7822,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I214" s="23">
+      <c r="I214" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -7732,10 +7837,10 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
-      <c r="C215" s="68"/>
-      <c r="D215" s="68"/>
-      <c r="E215" s="48"/>
-      <c r="F215" s="48"/>
+      <c r="C215" s="61"/>
+      <c r="D215" s="61"/>
+      <c r="E215" s="42"/>
+      <c r="F215" s="42"/>
       <c r="G215" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7744,7 +7849,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I215" s="23">
+      <c r="I215" s="20">
         <f t="shared" ref="I215:I249" si="16">IF(F215&gt;0,H215-G215,0)</f>
         <v>0</v>
       </c>
@@ -7759,10 +7864,10 @@
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
-      <c r="C216" s="68"/>
-      <c r="D216" s="68"/>
-      <c r="E216" s="48"/>
-      <c r="F216" s="48"/>
+      <c r="C216" s="61"/>
+      <c r="D216" s="61"/>
+      <c r="E216" s="42"/>
+      <c r="F216" s="42"/>
       <c r="G216" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7771,7 +7876,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I216" s="23">
+      <c r="I216" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -7786,10 +7891,10 @@
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
-      <c r="C217" s="68"/>
-      <c r="D217" s="68"/>
-      <c r="E217" s="48"/>
-      <c r="F217" s="48"/>
+      <c r="C217" s="61"/>
+      <c r="D217" s="61"/>
+      <c r="E217" s="42"/>
+      <c r="F217" s="42"/>
       <c r="G217" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7798,7 +7903,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I217" s="23">
+      <c r="I217" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -7813,10 +7918,10 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
-      <c r="C218" s="68"/>
-      <c r="D218" s="68"/>
-      <c r="E218" s="48"/>
-      <c r="F218" s="48"/>
+      <c r="C218" s="61"/>
+      <c r="D218" s="61"/>
+      <c r="E218" s="42"/>
+      <c r="F218" s="42"/>
       <c r="G218" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7825,7 +7930,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I218" s="23">
+      <c r="I218" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -7840,10 +7945,10 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
-      <c r="C219" s="68"/>
-      <c r="D219" s="68"/>
-      <c r="E219" s="48"/>
-      <c r="F219" s="48"/>
+      <c r="C219" s="61"/>
+      <c r="D219" s="61"/>
+      <c r="E219" s="42"/>
+      <c r="F219" s="42"/>
       <c r="G219" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7852,7 +7957,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I219" s="23">
+      <c r="I219" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -7867,10 +7972,10 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
-      <c r="C220" s="68"/>
-      <c r="D220" s="68"/>
-      <c r="E220" s="48"/>
-      <c r="F220" s="48"/>
+      <c r="C220" s="61"/>
+      <c r="D220" s="61"/>
+      <c r="E220" s="42"/>
+      <c r="F220" s="42"/>
       <c r="G220" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7879,7 +7984,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I220" s="23">
+      <c r="I220" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -7894,10 +7999,10 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
-      <c r="C221" s="68"/>
-      <c r="D221" s="68"/>
-      <c r="E221" s="48"/>
-      <c r="F221" s="48"/>
+      <c r="C221" s="61"/>
+      <c r="D221" s="61"/>
+      <c r="E221" s="42"/>
+      <c r="F221" s="42"/>
       <c r="G221" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7906,7 +8011,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I221" s="23">
+      <c r="I221" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -7921,10 +8026,10 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
-      <c r="C222" s="68"/>
-      <c r="D222" s="68"/>
-      <c r="E222" s="48"/>
-      <c r="F222" s="48"/>
+      <c r="C222" s="61"/>
+      <c r="D222" s="61"/>
+      <c r="E222" s="42"/>
+      <c r="F222" s="42"/>
       <c r="G222" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7933,7 +8038,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I222" s="23">
+      <c r="I222" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -7948,10 +8053,10 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
-      <c r="C223" s="68"/>
-      <c r="D223" s="68"/>
-      <c r="E223" s="48"/>
-      <c r="F223" s="48"/>
+      <c r="C223" s="61"/>
+      <c r="D223" s="61"/>
+      <c r="E223" s="42"/>
+      <c r="F223" s="42"/>
       <c r="G223" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7960,7 +8065,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I223" s="23">
+      <c r="I223" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -7975,10 +8080,10 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
-      <c r="C224" s="68"/>
-      <c r="D224" s="68"/>
-      <c r="E224" s="48"/>
-      <c r="F224" s="48"/>
+      <c r="C224" s="61"/>
+      <c r="D224" s="61"/>
+      <c r="E224" s="42"/>
+      <c r="F224" s="42"/>
       <c r="G224" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7987,7 +8092,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I224" s="23">
+      <c r="I224" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8002,10 +8107,10 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="68"/>
-      <c r="D225" s="68"/>
-      <c r="E225" s="48"/>
-      <c r="F225" s="48"/>
+      <c r="C225" s="61"/>
+      <c r="D225" s="61"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="42"/>
       <c r="G225" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8014,7 +8119,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I225" s="23">
+      <c r="I225" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8029,10 +8134,10 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
-      <c r="C226" s="68"/>
-      <c r="D226" s="68"/>
-      <c r="E226" s="48"/>
-      <c r="F226" s="48"/>
+      <c r="C226" s="61"/>
+      <c r="D226" s="61"/>
+      <c r="E226" s="42"/>
+      <c r="F226" s="42"/>
       <c r="G226" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8041,7 +8146,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I226" s="23">
+      <c r="I226" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8056,10 +8161,10 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
-      <c r="C227" s="68"/>
-      <c r="D227" s="68"/>
-      <c r="E227" s="48"/>
-      <c r="F227" s="48"/>
+      <c r="C227" s="61"/>
+      <c r="D227" s="61"/>
+      <c r="E227" s="42"/>
+      <c r="F227" s="42"/>
       <c r="G227" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8068,7 +8173,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I227" s="23">
+      <c r="I227" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8083,10 +8188,10 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
-      <c r="C228" s="68"/>
-      <c r="D228" s="68"/>
-      <c r="E228" s="48"/>
-      <c r="F228" s="48"/>
+      <c r="C228" s="61"/>
+      <c r="D228" s="61"/>
+      <c r="E228" s="42"/>
+      <c r="F228" s="42"/>
       <c r="G228" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8095,7 +8200,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I228" s="23">
+      <c r="I228" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8110,10 +8215,10 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
-      <c r="C229" s="68"/>
-      <c r="D229" s="68"/>
-      <c r="E229" s="48"/>
-      <c r="F229" s="48"/>
+      <c r="C229" s="61"/>
+      <c r="D229" s="61"/>
+      <c r="E229" s="42"/>
+      <c r="F229" s="42"/>
       <c r="G229" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8122,7 +8227,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I229" s="23">
+      <c r="I229" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8137,10 +8242,10 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
-      <c r="C230" s="68"/>
-      <c r="D230" s="68"/>
-      <c r="E230" s="48"/>
-      <c r="F230" s="48"/>
+      <c r="C230" s="61"/>
+      <c r="D230" s="61"/>
+      <c r="E230" s="42"/>
+      <c r="F230" s="42"/>
       <c r="G230" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8149,7 +8254,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I230" s="23">
+      <c r="I230" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8164,10 +8269,10 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
-      <c r="C231" s="68"/>
-      <c r="D231" s="68"/>
-      <c r="E231" s="48"/>
-      <c r="F231" s="48"/>
+      <c r="C231" s="61"/>
+      <c r="D231" s="61"/>
+      <c r="E231" s="42"/>
+      <c r="F231" s="42"/>
       <c r="G231" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8176,7 +8281,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I231" s="23">
+      <c r="I231" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8191,10 +8296,10 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
-      <c r="C232" s="68"/>
-      <c r="D232" s="68"/>
-      <c r="E232" s="48"/>
-      <c r="F232" s="48"/>
+      <c r="C232" s="61"/>
+      <c r="D232" s="61"/>
+      <c r="E232" s="42"/>
+      <c r="F232" s="42"/>
       <c r="G232" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8203,7 +8308,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I232" s="23">
+      <c r="I232" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8218,10 +8323,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
-      <c r="C233" s="68"/>
-      <c r="D233" s="68"/>
-      <c r="E233" s="48"/>
-      <c r="F233" s="48"/>
+      <c r="C233" s="61"/>
+      <c r="D233" s="61"/>
+      <c r="E233" s="42"/>
+      <c r="F233" s="42"/>
       <c r="G233" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8230,7 +8335,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I233" s="23">
+      <c r="I233" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8245,10 +8350,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
-      <c r="C234" s="68"/>
-      <c r="D234" s="68"/>
-      <c r="E234" s="48"/>
-      <c r="F234" s="48"/>
+      <c r="C234" s="61"/>
+      <c r="D234" s="61"/>
+      <c r="E234" s="42"/>
+      <c r="F234" s="42"/>
       <c r="G234" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8257,7 +8362,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I234" s="23">
+      <c r="I234" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8272,10 +8377,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
-      <c r="C235" s="68"/>
-      <c r="D235" s="68"/>
-      <c r="E235" s="48"/>
-      <c r="F235" s="48"/>
+      <c r="C235" s="61"/>
+      <c r="D235" s="61"/>
+      <c r="E235" s="42"/>
+      <c r="F235" s="42"/>
       <c r="G235" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8284,7 +8389,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I235" s="23">
+      <c r="I235" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8299,10 +8404,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
-      <c r="C236" s="68"/>
-      <c r="D236" s="68"/>
-      <c r="E236" s="48"/>
-      <c r="F236" s="48"/>
+      <c r="C236" s="61"/>
+      <c r="D236" s="61"/>
+      <c r="E236" s="42"/>
+      <c r="F236" s="42"/>
       <c r="G236" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8311,7 +8416,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I236" s="23">
+      <c r="I236" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8326,10 +8431,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
-      <c r="C237" s="68"/>
-      <c r="D237" s="68"/>
-      <c r="E237" s="48"/>
-      <c r="F237" s="48"/>
+      <c r="C237" s="61"/>
+      <c r="D237" s="61"/>
+      <c r="E237" s="42"/>
+      <c r="F237" s="42"/>
       <c r="G237" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8338,7 +8443,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I237" s="23">
+      <c r="I237" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8353,10 +8458,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
-      <c r="C238" s="68"/>
-      <c r="D238" s="68"/>
-      <c r="E238" s="48"/>
-      <c r="F238" s="48"/>
+      <c r="C238" s="61"/>
+      <c r="D238" s="61"/>
+      <c r="E238" s="42"/>
+      <c r="F238" s="42"/>
       <c r="G238" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8365,7 +8470,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I238" s="23">
+      <c r="I238" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8380,10 +8485,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
-      <c r="C239" s="68"/>
-      <c r="D239" s="68"/>
-      <c r="E239" s="48"/>
-      <c r="F239" s="48"/>
+      <c r="C239" s="61"/>
+      <c r="D239" s="61"/>
+      <c r="E239" s="42"/>
+      <c r="F239" s="42"/>
       <c r="G239" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8392,7 +8497,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I239" s="23">
+      <c r="I239" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8407,10 +8512,10 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="68"/>
-      <c r="D240" s="68"/>
-      <c r="E240" s="48"/>
-      <c r="F240" s="48"/>
+      <c r="C240" s="61"/>
+      <c r="D240" s="61"/>
+      <c r="E240" s="42"/>
+      <c r="F240" s="42"/>
       <c r="G240" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8419,7 +8524,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I240" s="23">
+      <c r="I240" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8434,10 +8539,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
-      <c r="C241" s="68"/>
-      <c r="D241" s="68"/>
-      <c r="E241" s="48"/>
-      <c r="F241" s="48"/>
+      <c r="C241" s="61"/>
+      <c r="D241" s="61"/>
+      <c r="E241" s="42"/>
+      <c r="F241" s="42"/>
       <c r="G241" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8446,7 +8551,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I241" s="23">
+      <c r="I241" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8461,10 +8566,10 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
-      <c r="C242" s="68"/>
-      <c r="D242" s="68"/>
-      <c r="E242" s="48"/>
-      <c r="F242" s="48"/>
+      <c r="C242" s="61"/>
+      <c r="D242" s="61"/>
+      <c r="E242" s="42"/>
+      <c r="F242" s="42"/>
       <c r="G242" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8473,7 +8578,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I242" s="23">
+      <c r="I242" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8488,10 +8593,10 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
-      <c r="C243" s="68"/>
-      <c r="D243" s="68"/>
-      <c r="E243" s="48"/>
-      <c r="F243" s="48"/>
+      <c r="C243" s="61"/>
+      <c r="D243" s="61"/>
+      <c r="E243" s="42"/>
+      <c r="F243" s="42"/>
       <c r="G243" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8500,7 +8605,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I243" s="23">
+      <c r="I243" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8515,10 +8620,10 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
-      <c r="C244" s="68"/>
-      <c r="D244" s="68"/>
-      <c r="E244" s="48"/>
-      <c r="F244" s="48"/>
+      <c r="C244" s="61"/>
+      <c r="D244" s="61"/>
+      <c r="E244" s="42"/>
+      <c r="F244" s="42"/>
       <c r="G244" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8527,7 +8632,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I244" s="23">
+      <c r="I244" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8542,10 +8647,10 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
-      <c r="C245" s="68"/>
-      <c r="D245" s="68"/>
-      <c r="E245" s="48"/>
-      <c r="F245" s="48"/>
+      <c r="C245" s="61"/>
+      <c r="D245" s="61"/>
+      <c r="E245" s="42"/>
+      <c r="F245" s="42"/>
       <c r="G245" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8554,7 +8659,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I245" s="23">
+      <c r="I245" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8569,10 +8674,10 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
-      <c r="C246" s="68"/>
-      <c r="D246" s="68"/>
-      <c r="E246" s="48"/>
-      <c r="F246" s="48"/>
+      <c r="C246" s="61"/>
+      <c r="D246" s="61"/>
+      <c r="E246" s="42"/>
+      <c r="F246" s="42"/>
       <c r="G246" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8581,7 +8686,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I246" s="23">
+      <c r="I246" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8596,10 +8701,10 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
-      <c r="C247" s="68"/>
-      <c r="D247" s="68"/>
-      <c r="E247" s="48"/>
-      <c r="F247" s="48"/>
+      <c r="C247" s="61"/>
+      <c r="D247" s="61"/>
+      <c r="E247" s="42"/>
+      <c r="F247" s="42"/>
       <c r="G247" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8608,7 +8713,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I247" s="23">
+      <c r="I247" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8623,10 +8728,10 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
-      <c r="C248" s="68"/>
-      <c r="D248" s="68"/>
-      <c r="E248" s="48"/>
-      <c r="F248" s="48"/>
+      <c r="C248" s="61"/>
+      <c r="D248" s="61"/>
+      <c r="E248" s="42"/>
+      <c r="F248" s="42"/>
       <c r="G248" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8635,7 +8740,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I248" s="23">
+      <c r="I248" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8650,10 +8755,10 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
-      <c r="C249" s="68"/>
-      <c r="D249" s="68"/>
-      <c r="E249" s="48"/>
-      <c r="F249" s="48"/>
+      <c r="C249" s="61"/>
+      <c r="D249" s="61"/>
+      <c r="E249" s="42"/>
+      <c r="F249" s="42"/>
       <c r="G249" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8662,7 +8767,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I249" s="23">
+      <c r="I249" s="20">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -8677,10 +8782,10 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
-      <c r="C250" s="68"/>
-      <c r="D250" s="68"/>
-      <c r="E250" s="48"/>
-      <c r="F250" s="48"/>
+      <c r="C250" s="61"/>
+      <c r="D250" s="61"/>
+      <c r="E250" s="42"/>
+      <c r="F250" s="42"/>
       <c r="G250" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8689,7 +8794,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I250" s="23">
+      <c r="I250" s="20">
         <f t="shared" ref="I250:I271" si="18">IF(F250&gt;0,H250-G250,0)</f>
         <v>0</v>
       </c>
@@ -8704,10 +8809,10 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
-      <c r="C251" s="68"/>
-      <c r="D251" s="68"/>
-      <c r="E251" s="48"/>
-      <c r="F251" s="48"/>
+      <c r="C251" s="61"/>
+      <c r="D251" s="61"/>
+      <c r="E251" s="42"/>
+      <c r="F251" s="42"/>
       <c r="G251" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8716,7 +8821,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I251" s="23">
+      <c r="I251" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8731,10 +8836,10 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="68"/>
-      <c r="D252" s="68"/>
-      <c r="E252" s="48"/>
-      <c r="F252" s="48"/>
+      <c r="C252" s="61"/>
+      <c r="D252" s="61"/>
+      <c r="E252" s="42"/>
+      <c r="F252" s="42"/>
       <c r="G252" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8743,7 +8848,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I252" s="23">
+      <c r="I252" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8758,10 +8863,10 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="68"/>
-      <c r="D253" s="68"/>
-      <c r="E253" s="48"/>
-      <c r="F253" s="48"/>
+      <c r="C253" s="61"/>
+      <c r="D253" s="61"/>
+      <c r="E253" s="42"/>
+      <c r="F253" s="42"/>
       <c r="G253" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8770,7 +8875,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I253" s="23">
+      <c r="I253" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8785,10 +8890,10 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="68"/>
-      <c r="D254" s="68"/>
-      <c r="E254" s="48"/>
-      <c r="F254" s="48"/>
+      <c r="C254" s="61"/>
+      <c r="D254" s="61"/>
+      <c r="E254" s="42"/>
+      <c r="F254" s="42"/>
       <c r="G254" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8797,7 +8902,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I254" s="23">
+      <c r="I254" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8812,10 +8917,10 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="68"/>
-      <c r="D255" s="68"/>
-      <c r="E255" s="48"/>
-      <c r="F255" s="48"/>
+      <c r="C255" s="61"/>
+      <c r="D255" s="61"/>
+      <c r="E255" s="42"/>
+      <c r="F255" s="42"/>
       <c r="G255" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8824,7 +8929,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I255" s="23">
+      <c r="I255" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8839,10 +8944,10 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="68"/>
-      <c r="D256" s="68"/>
-      <c r="E256" s="48"/>
-      <c r="F256" s="48"/>
+      <c r="C256" s="61"/>
+      <c r="D256" s="61"/>
+      <c r="E256" s="42"/>
+      <c r="F256" s="42"/>
       <c r="G256" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8851,7 +8956,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I256" s="23">
+      <c r="I256" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8866,10 +8971,10 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="68"/>
-      <c r="D257" s="68"/>
-      <c r="E257" s="48"/>
-      <c r="F257" s="48"/>
+      <c r="C257" s="61"/>
+      <c r="D257" s="61"/>
+      <c r="E257" s="42"/>
+      <c r="F257" s="42"/>
       <c r="G257" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8878,7 +8983,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I257" s="23">
+      <c r="I257" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8893,10 +8998,10 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="68"/>
-      <c r="D258" s="68"/>
-      <c r="E258" s="48"/>
-      <c r="F258" s="48"/>
+      <c r="C258" s="61"/>
+      <c r="D258" s="61"/>
+      <c r="E258" s="42"/>
+      <c r="F258" s="42"/>
       <c r="G258" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8905,7 +9010,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I258" s="23">
+      <c r="I258" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8920,10 +9025,10 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
-      <c r="C259" s="68"/>
-      <c r="D259" s="68"/>
-      <c r="E259" s="48"/>
-      <c r="F259" s="48"/>
+      <c r="C259" s="61"/>
+      <c r="D259" s="61"/>
+      <c r="E259" s="42"/>
+      <c r="F259" s="42"/>
       <c r="G259" s="1">
         <f t="shared" ref="G259:G271" si="20">IF(D259&gt;0,(D259*E259)+K259,0)</f>
         <v>0</v>
@@ -8932,7 +9037,7 @@
         <f t="shared" ref="H259:H271" si="21">IF(F259&gt;0,(D259*F259)-K259,0)</f>
         <v>0</v>
       </c>
-      <c r="I259" s="23">
+      <c r="I259" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8947,10 +9052,10 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
-      <c r="C260" s="68"/>
-      <c r="D260" s="68"/>
-      <c r="E260" s="48"/>
-      <c r="F260" s="48"/>
+      <c r="C260" s="61"/>
+      <c r="D260" s="61"/>
+      <c r="E260" s="42"/>
+      <c r="F260" s="42"/>
       <c r="G260" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -8959,7 +9064,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I260" s="23">
+      <c r="I260" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -8974,10 +9079,10 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
-      <c r="C261" s="68"/>
-      <c r="D261" s="68"/>
-      <c r="E261" s="48"/>
-      <c r="F261" s="48"/>
+      <c r="C261" s="61"/>
+      <c r="D261" s="61"/>
+      <c r="E261" s="42"/>
+      <c r="F261" s="42"/>
       <c r="G261" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -8986,7 +9091,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I261" s="23">
+      <c r="I261" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9001,10 +9106,10 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="68"/>
-      <c r="D262" s="68"/>
-      <c r="E262" s="48"/>
-      <c r="F262" s="48"/>
+      <c r="C262" s="61"/>
+      <c r="D262" s="61"/>
+      <c r="E262" s="42"/>
+      <c r="F262" s="42"/>
       <c r="G262" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9013,7 +9118,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I262" s="23">
+      <c r="I262" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9028,10 +9133,10 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
-      <c r="C263" s="68"/>
-      <c r="D263" s="68"/>
-      <c r="E263" s="48"/>
-      <c r="F263" s="48"/>
+      <c r="C263" s="61"/>
+      <c r="D263" s="61"/>
+      <c r="E263" s="42"/>
+      <c r="F263" s="42"/>
       <c r="G263" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9040,7 +9145,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I263" s="23">
+      <c r="I263" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9055,10 +9160,10 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
-      <c r="C264" s="68"/>
-      <c r="D264" s="68"/>
-      <c r="E264" s="48"/>
-      <c r="F264" s="48"/>
+      <c r="C264" s="61"/>
+      <c r="D264" s="61"/>
+      <c r="E264" s="42"/>
+      <c r="F264" s="42"/>
       <c r="G264" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9067,7 +9172,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I264" s="23">
+      <c r="I264" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9082,10 +9187,10 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="68"/>
-      <c r="D265" s="68"/>
-      <c r="E265" s="48"/>
-      <c r="F265" s="48"/>
+      <c r="C265" s="61"/>
+      <c r="D265" s="61"/>
+      <c r="E265" s="42"/>
+      <c r="F265" s="42"/>
       <c r="G265" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9094,7 +9199,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I265" s="23">
+      <c r="I265" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9109,10 +9214,10 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
-      <c r="C266" s="68"/>
-      <c r="D266" s="68"/>
-      <c r="E266" s="48"/>
-      <c r="F266" s="48"/>
+      <c r="C266" s="61"/>
+      <c r="D266" s="61"/>
+      <c r="E266" s="42"/>
+      <c r="F266" s="42"/>
       <c r="G266" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9121,7 +9226,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I266" s="23">
+      <c r="I266" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9136,10 +9241,10 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
-      <c r="C267" s="68"/>
-      <c r="D267" s="68"/>
-      <c r="E267" s="48"/>
-      <c r="F267" s="48"/>
+      <c r="C267" s="61"/>
+      <c r="D267" s="61"/>
+      <c r="E267" s="42"/>
+      <c r="F267" s="42"/>
       <c r="G267" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9148,7 +9253,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I267" s="23">
+      <c r="I267" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9163,10 +9268,10 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
-      <c r="C268" s="68"/>
-      <c r="D268" s="68"/>
-      <c r="E268" s="48"/>
-      <c r="F268" s="48"/>
+      <c r="C268" s="61"/>
+      <c r="D268" s="61"/>
+      <c r="E268" s="42"/>
+      <c r="F268" s="42"/>
       <c r="G268" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9175,7 +9280,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I268" s="23">
+      <c r="I268" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9190,10 +9295,10 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
-      <c r="C269" s="68"/>
-      <c r="D269" s="68"/>
-      <c r="E269" s="48"/>
-      <c r="F269" s="48"/>
+      <c r="C269" s="61"/>
+      <c r="D269" s="61"/>
+      <c r="E269" s="42"/>
+      <c r="F269" s="42"/>
       <c r="G269" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9202,7 +9307,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I269" s="23">
+      <c r="I269" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9217,10 +9322,10 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="68"/>
-      <c r="D270" s="68"/>
-      <c r="E270" s="48"/>
-      <c r="F270" s="48"/>
+      <c r="C270" s="61"/>
+      <c r="D270" s="61"/>
+      <c r="E270" s="42"/>
+      <c r="F270" s="42"/>
       <c r="G270" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9229,7 +9334,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I270" s="23">
+      <c r="I270" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9244,10 +9349,10 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
-      <c r="C271" s="68"/>
-      <c r="D271" s="68"/>
-      <c r="E271" s="48"/>
-      <c r="F271" s="48"/>
+      <c r="C271" s="61"/>
+      <c r="D271" s="61"/>
+      <c r="E271" s="42"/>
+      <c r="F271" s="42"/>
       <c r="G271" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9256,7 +9361,7 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I271" s="23">
+      <c r="I271" s="20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -9269,6 +9374,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>AccountType</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9326,7 +9436,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
         <v>3</v>
@@ -9337,7 +9447,7 @@
         <v>41900</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -9373,7 +9483,7 @@
         <v>41900</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7">
         <v>2000</v>
@@ -9417,7 +9527,7 @@
       <c r="D5" s="13">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>8.15</v>
       </c>
       <c r="F5" s="1">
@@ -9444,7 +9554,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F65" si="0">IF(C6&gt;0,(C6*D6)+M6,0)</f>
         <v>0</v>
@@ -9549,7 +9659,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9575,7 +9685,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9601,7 +9711,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9627,7 +9737,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="23">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9653,7 +9763,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="23">
+      <c r="F14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9679,7 +9789,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="23">
+      <c r="F15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11069,144 +11179,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" style="17" customWidth="1"/>
-    <col min="10" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="3">
-        <v>41703</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="1">
-        <v>7.25</v>
-      </c>
-      <c r="N3" s="1">
-        <f>L3*M3</f>
-        <v>7250</v>
-      </c>
-      <c r="O3" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="P3" s="10">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>((N3-O3)*P3)</f>
-        <v>8007.4510600000012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="Q4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
@@ -11217,7 +11189,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -11230,57 +11202,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>75</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="18">
         <v>8</v>
       </c>
       <c r="C2">
@@ -11334,7 +11306,7 @@
       <c r="A3" s="1">
         <v>75</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="18">
         <v>7.25</v>
       </c>
       <c r="C3">
@@ -11388,7 +11360,7 @@
       <c r="A4" s="1">
         <v>80</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="18">
         <v>7.25</v>
       </c>
       <c r="C4">
@@ -11440,6 +11412,187 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" style="68" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="C2" s="1">
+        <f>A2*B2</f>
+        <v>3590</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(C2:C20)</f>
+        <v>7145</v>
+      </c>
+      <c r="F2">
+        <f>SUM(A2:A20)</f>
+        <v>1000</v>
+      </c>
+      <c r="G2" s="69">
+        <f>E2/F2</f>
+        <v>7.1449999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C20" si="0">A3*B3</f>
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11449,12 +11602,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Job Rate" sheetId="3" r:id="rId3"/>
     <sheet name="Average" sheetId="9" r:id="rId4"/>
     <sheet name="DB" sheetId="8" r:id="rId5"/>
+    <sheet name="Transfar" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Extrem Trading'!$A$1:$M$271</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="54">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -246,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -440,6 +447,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -745,10 +753,10 @@
   <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="N138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="N129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C148" sqref="C148"/>
+      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +842,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="48">
         <f>SUM(I6:I271)</f>
-        <v>4988.4800000000523</v>
+        <v>5658.7000000000553</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -4443,22 +4451,24 @@
       <c r="E105" s="43">
         <v>6.24</v>
       </c>
-      <c r="F105" s="43"/>
+      <c r="F105" s="43">
+        <v>6.97</v>
+      </c>
       <c r="G105" s="34">
         <f t="shared" si="6"/>
         <v>6244.99</v>
       </c>
       <c r="H105" s="25">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6965.01</v>
       </c>
       <c r="I105" s="34">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>720.02000000000044</v>
       </c>
       <c r="J105" s="25">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.72999999999999954</v>
       </c>
       <c r="K105" s="34">
         <v>4.99</v>
@@ -5643,13 +5653,13 @@
       </c>
       <c r="L137" s="2">
         <f>SUM(I137:I141)</f>
-        <v>195.06000000000085</v>
+        <v>-119.89999999999895</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="65" t="s">
+      <c r="C138" s="73" t="s">
         <v>45</v>
       </c>
       <c r="D138" s="64">
@@ -5658,22 +5668,24 @@
       <c r="E138" s="42">
         <v>4.07</v>
       </c>
-      <c r="F138" s="42"/>
+      <c r="F138" s="42">
+        <v>3.26</v>
+      </c>
       <c r="G138" s="1">
         <f t="shared" si="10"/>
         <v>2039.9900000000002</v>
       </c>
       <c r="H138" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1625.01</v>
       </c>
       <c r="I138" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-414.98000000000025</v>
       </c>
       <c r="J138" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="K138" s="1">
         <v>4.99</v>
@@ -5717,7 +5729,7 @@
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="65" t="s">
+      <c r="C140" s="64" t="s">
         <v>43</v>
       </c>
       <c r="D140" s="64">
@@ -5726,22 +5738,24 @@
       <c r="E140" s="42">
         <v>4.2</v>
       </c>
-      <c r="F140" s="42"/>
+      <c r="F140" s="42">
+        <v>4.42</v>
+      </c>
       <c r="G140" s="1">
         <f t="shared" si="10"/>
         <v>2104.9899999999998</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2205.0100000000002</v>
       </c>
       <c r="I140" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>100.02000000000044</v>
       </c>
       <c r="J140" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.21999999999999975</v>
       </c>
       <c r="K140" s="1">
         <v>4.99</v>
@@ -5968,7 +5982,7 @@
       </c>
       <c r="L146" s="2">
         <f>SUM(I146:I149)</f>
-        <v>115.04000000000042</v>
+        <v>125.04000000000042</v>
       </c>
       <c r="M146" s="10"/>
     </row>
@@ -6045,89 +6059,113 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="65" t="s">
+      <c r="A149" s="22"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="64">
+      <c r="D149" s="62">
         <v>500</v>
       </c>
       <c r="E149" s="42">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="F149" s="42">
-        <v>3.25</v>
-      </c>
-      <c r="G149" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="G149" s="23">
         <f t="shared" si="10"/>
-        <v>1562.49</v>
-      </c>
-      <c r="H149" s="2">
+        <v>1557.49</v>
+      </c>
+      <c r="H149" s="24">
         <f t="shared" si="11"/>
-        <v>1617.51</v>
-      </c>
-      <c r="I149" s="20">
+        <v>1622.51</v>
+      </c>
+      <c r="I149" s="34">
         <f t="shared" si="8"/>
-        <v>55.019999999999982</v>
-      </c>
-      <c r="J149" s="2">
+        <v>65.019999999999982</v>
+      </c>
+      <c r="J149" s="24">
         <f t="shared" si="9"/>
-        <v>0.14000000000000012</v>
-      </c>
-      <c r="K149" s="1">
+        <v>0.1599999999999997</v>
+      </c>
+      <c r="K149" s="23">
         <v>7.49</v>
       </c>
+      <c r="L149" s="53"/>
+      <c r="M149" s="23"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
+      <c r="A150" s="3">
+        <v>42018</v>
+      </c>
       <c r="B150" s="3"/>
-      <c r="C150" s="61"/>
-      <c r="D150" s="61"/>
-      <c r="E150" s="42"/>
-      <c r="F150" s="42"/>
+      <c r="C150" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="64">
+        <v>1000</v>
+      </c>
+      <c r="E150" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="F150" s="43">
+        <v>4.55</v>
+      </c>
       <c r="G150" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4504.99</v>
       </c>
       <c r="H150" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4545.01</v>
       </c>
       <c r="I150" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>40.020000000000437</v>
       </c>
       <c r="J150" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.9999999999999822E-2</v>
       </c>
       <c r="K150" s="1">
         <v>4.99</v>
+      </c>
+      <c r="L150" s="2">
+        <f>SUM(I150:I157)</f>
+        <v>255.16000000000304</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="61"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="42"/>
-      <c r="F151" s="42"/>
+      <c r="C151" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="64">
+        <v>1000</v>
+      </c>
+      <c r="E151" s="42">
+        <v>4.62</v>
+      </c>
+      <c r="F151" s="42">
+        <v>4.63</v>
+      </c>
       <c r="G151" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4624.99</v>
       </c>
       <c r="H151" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4625.01</v>
       </c>
       <c r="I151" s="20">
         <f t="shared" ref="I151:I214" si="12">IF(F151&gt;0,H151-G151,0)</f>
-        <v>0</v>
+        <v>2.0000000000436557E-2</v>
       </c>
       <c r="J151" s="2">
         <f t="shared" ref="J151:J214" si="13">IF(F151&gt;0,F151-E151,0)</f>
-        <v>0</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="K151" s="1">
         <v>4.99</v>
@@ -6136,25 +6174,33 @@
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="61"/>
-      <c r="D152" s="61"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="42"/>
+      <c r="C152" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="64">
+        <v>500</v>
+      </c>
+      <c r="E152" s="42">
+        <v>4.55</v>
+      </c>
+      <c r="F152" s="42">
+        <v>4.62</v>
+      </c>
       <c r="G152" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2279.9899999999998</v>
       </c>
       <c r="H152" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2305.0100000000002</v>
       </c>
       <c r="I152" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25.020000000000437</v>
       </c>
       <c r="J152" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="K152" s="1">
         <v>4.99</v>
@@ -6163,25 +6209,33 @@
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="61"/>
-      <c r="D153" s="61"/>
-      <c r="E153" s="42"/>
-      <c r="F153" s="42"/>
+      <c r="C153" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" s="64">
+        <v>500</v>
+      </c>
+      <c r="E153" s="42">
+        <v>2.91</v>
+      </c>
+      <c r="F153" s="42">
+        <v>3.01</v>
+      </c>
       <c r="G153" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1459.99</v>
       </c>
       <c r="H153" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1500.01</v>
       </c>
       <c r="I153" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>40.019999999999982</v>
       </c>
       <c r="J153" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="K153" s="1">
         <v>4.99</v>
@@ -6190,25 +6244,33 @@
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="61"/>
-      <c r="D154" s="61"/>
-      <c r="E154" s="42"/>
-      <c r="F154" s="42"/>
+      <c r="C154" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154" s="64">
+        <v>1000</v>
+      </c>
+      <c r="E154" s="42">
+        <v>3.02</v>
+      </c>
+      <c r="F154" s="42">
+        <v>3.03</v>
+      </c>
       <c r="G154" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3024.99</v>
       </c>
       <c r="H154" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3025.01</v>
       </c>
       <c r="I154" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.0000000000436557E-2</v>
       </c>
       <c r="J154" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="K154" s="1">
         <v>4.99</v>
@@ -6217,25 +6279,33 @@
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="61"/>
-      <c r="D155" s="61"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="42"/>
+      <c r="C155" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" s="64">
+        <v>1000</v>
+      </c>
+      <c r="E155" s="42">
+        <v>3.32</v>
+      </c>
+      <c r="F155" s="42">
+        <v>3.47</v>
+      </c>
       <c r="G155" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3324.99</v>
       </c>
       <c r="H155" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3465.01</v>
       </c>
       <c r="I155" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>140.02000000000044</v>
       </c>
       <c r="J155" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.15000000000000036</v>
       </c>
       <c r="K155" s="1">
         <v>4.99</v>
@@ -6244,64 +6314,82 @@
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="61"/>
-      <c r="D156" s="61"/>
-      <c r="E156" s="42"/>
-      <c r="F156" s="42"/>
+      <c r="C156" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="64">
+        <v>1000</v>
+      </c>
+      <c r="E156" s="42">
+        <v>5.18</v>
+      </c>
+      <c r="F156" s="42">
+        <v>5.2</v>
+      </c>
       <c r="G156" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5184.99</v>
       </c>
       <c r="H156" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5195.01</v>
       </c>
       <c r="I156" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10.020000000000437</v>
       </c>
       <c r="J156" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.0000000000000462E-2</v>
       </c>
       <c r="K156" s="1">
         <v>4.99</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="61"/>
-      <c r="D157" s="61"/>
-      <c r="E157" s="42"/>
-      <c r="F157" s="42"/>
-      <c r="G157" s="1">
+      <c r="A157" s="22"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="62">
+        <v>1000</v>
+      </c>
+      <c r="E157" s="42">
+        <v>5.18</v>
+      </c>
+      <c r="F157" s="42">
+        <v>5.19</v>
+      </c>
+      <c r="G157" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H157" s="2">
+        <v>5184.99</v>
+      </c>
+      <c r="H157" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I157" s="20">
+        <v>5185.01</v>
+      </c>
+      <c r="I157" s="34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="2">
+        <v>2.0000000000436557E-2</v>
+      </c>
+      <c r="J157" s="24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K157" s="1">
-        <v>4.99</v>
-      </c>
+        <v>1.0000000000000675E-2</v>
+      </c>
+      <c r="K157" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L157" s="53"/>
+      <c r="M157" s="23"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="61"/>
       <c r="D158" s="61"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="42"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
       <c r="G158" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -11631,4 +11719,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6390" windowWidth="19215" windowHeight="1170" tabRatio="574"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="19215" windowHeight="1170" tabRatio="574"/>
   </bookViews>
   <sheets>
     <sheet name="Extrem Trading" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="55">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -186,6 +186,9 @@
   <si>
     <t>F/X</t>
   </si>
+  <si>
+    <t>Cover</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -392,9 +401,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +454,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -750,39 +769,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="N129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="N159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F138" sqref="F138"/>
+      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="45" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
@@ -791,17 +810,17 @@
       <c r="L1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="36">
+      <c r="M1" s="75">
         <v>-5000</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -810,17 +829,17 @@
       <c r="L2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="75">
         <v>-2030.1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
@@ -829,25 +848,25 @@
       <c r="L3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="76"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <f>SUM(I6:I271)</f>
-        <v>5658.7000000000553</v>
+        <v>6016.5600000000632</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -862,10 +881,10 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -886,7 +905,7 @@
       <c r="L5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="76" t="s">
         <v>53</v>
       </c>
     </row>
@@ -897,16 +916,16 @@
       <c r="B6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="59">
         <v>1000</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>12.9</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>13.02</v>
       </c>
       <c r="G6" s="28">
@@ -928,7 +947,7 @@
       <c r="K6" s="28">
         <v>9.99</v>
       </c>
-      <c r="M6" s="28"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
@@ -937,16 +956,16 @@
       <c r="B7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="59">
         <v>1000</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <v>13.3</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="28">
         <f t="shared" si="0"/>
         <v>13309.99</v>
@@ -966,7 +985,7 @@
       <c r="K7" s="28">
         <v>9.99</v>
       </c>
-      <c r="M7" s="28"/>
+      <c r="M7" s="77"/>
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -981,10 +1000,10 @@
       <c r="D8" s="33">
         <v>1000</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="40">
         <v>12.83</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="31">
         <f t="shared" si="0"/>
         <v>12839.99</v>
@@ -1004,23 +1023,23 @@
       <c r="K8" s="31">
         <v>9.99</v>
       </c>
-      <c r="M8" s="31"/>
+      <c r="M8" s="78"/>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="59">
         <v>800</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>12.15</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
         <v>9729.99</v>
@@ -1040,23 +1059,23 @@
       <c r="K9" s="28">
         <v>9.99</v>
       </c>
-      <c r="M9" s="28"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>41974</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="59">
         <v>1000</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <v>12.44</v>
       </c>
-      <c r="F10" s="40"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="28">
         <f t="shared" si="0"/>
         <v>12444.99</v>
@@ -1076,21 +1095,21 @@
       <c r="K10" s="28">
         <v>4.99</v>
       </c>
-      <c r="M10" s="28"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="59">
         <v>1000</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <v>12.42</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="28">
         <f t="shared" si="0"/>
         <v>12424.99</v>
@@ -1110,21 +1129,21 @@
       <c r="K11" s="28">
         <v>4.99</v>
       </c>
-      <c r="M11" s="28"/>
+      <c r="M11" s="77"/>
     </row>
     <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="59">
         <v>1000</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <v>11.9</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="28">
         <f t="shared" si="0"/>
         <v>11904.99</v>
@@ -1144,23 +1163,23 @@
       <c r="K12" s="28">
         <v>4.99</v>
       </c>
-      <c r="M12" s="28"/>
+      <c r="M12" s="77"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41975</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="60">
         <v>1000</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>9.61</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <v>9.7100000000000009</v>
       </c>
       <c r="G13" s="1">
@@ -1190,16 +1209,16 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="60">
         <v>2000</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>3.78</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="41">
         <v>3.52</v>
       </c>
       <c r="G14" s="1">
@@ -1225,16 +1244,16 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="60">
         <v>1000</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>3.45</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="41">
         <v>3.46</v>
       </c>
       <c r="G15" s="1">
@@ -1262,16 +1281,16 @@
         <v>41976</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="60">
         <v>1000</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>3.75</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="41">
         <v>3.78</v>
       </c>
       <c r="G16" s="1">
@@ -1297,16 +1316,16 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="60">
         <v>1000</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>3.94</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="41">
         <v>3.99</v>
       </c>
       <c r="G17" s="1">
@@ -1332,16 +1351,16 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="60">
         <v>1000</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>3.98</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="41">
         <v>4.07</v>
       </c>
       <c r="G18" s="1">
@@ -1369,16 +1388,16 @@
         <v>41977</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="60">
         <v>1000</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <v>3.75</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="41">
         <v>3.81</v>
       </c>
       <c r="G19" s="1">
@@ -1404,16 +1423,16 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="60">
         <v>1000</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="41">
         <v>8.44</v>
       </c>
       <c r="G20" s="1">
@@ -1439,16 +1458,16 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="60">
         <v>1000</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>8.33</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="41">
         <v>8.42</v>
       </c>
       <c r="G21" s="1">
@@ -1474,16 +1493,16 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="60">
         <v>1500</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>3.41</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="41">
         <v>3.42</v>
       </c>
       <c r="G22" s="1">
@@ -1511,16 +1530,16 @@
         <v>41978</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="60">
         <v>1000</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="41">
         <v>8.32</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>8.64</v>
       </c>
       <c r="G23" s="1">
@@ -1546,16 +1565,16 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="60">
         <v>1000</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="41">
         <v>8.9600000000000009</v>
       </c>
       <c r="G24" s="1">
@@ -1581,16 +1600,16 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="60">
         <v>1000</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <v>8.99</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="41">
         <v>9</v>
       </c>
       <c r="G25" s="1">
@@ -1616,16 +1635,16 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="61">
+      <c r="D26" s="60">
         <v>1000</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>8.9499999999999993</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="41">
         <v>9</v>
       </c>
       <c r="G26" s="1">
@@ -1651,16 +1670,16 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="60">
         <v>1000</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>7.43</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="41">
         <v>7.18</v>
       </c>
       <c r="G27" s="1">
@@ -1686,16 +1705,16 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="60">
         <v>1000</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>7.01</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <v>7.07</v>
       </c>
       <c r="G28" s="1">
@@ -1721,16 +1740,16 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="60">
         <v>1000</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="41">
         <v>3.05</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="41">
         <v>3.12</v>
       </c>
       <c r="G29" s="1">
@@ -1756,16 +1775,16 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="60">
         <v>1500</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>3.07</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <v>3.11</v>
       </c>
       <c r="G30" s="1">
@@ -1793,16 +1812,16 @@
         <v>41979</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="60">
         <v>1000</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="41">
         <v>7.12</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="41">
         <v>7.48</v>
       </c>
       <c r="G31" s="1">
@@ -1828,16 +1847,16 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="60">
         <v>1000</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>7.47</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="41">
         <v>7.61</v>
       </c>
       <c r="G32" s="1">
@@ -1863,16 +1882,16 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="60">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="41">
         <v>8.27</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="41">
         <v>8.2899999999999991</v>
       </c>
       <c r="G33" s="1">
@@ -1898,16 +1917,16 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="61">
         <v>1500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <v>3.05</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>3.14</v>
       </c>
       <c r="G34" s="23">
@@ -1929,24 +1948,24 @@
       <c r="K34" s="23">
         <v>4.99</v>
       </c>
-      <c r="L34" s="53"/>
-      <c r="M34" s="23"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="79"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41982</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="60">
         <v>1500</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="42">
         <v>3.22</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="42">
         <v>3.61</v>
       </c>
       <c r="G35" s="1">
@@ -1972,16 +1991,16 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="60">
         <v>1000</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>8.17</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="41">
         <v>8.4</v>
       </c>
       <c r="G36" s="1">
@@ -2007,16 +2026,16 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="60">
         <v>1500</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="41">
         <v>3.69</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="41">
         <v>3.75</v>
       </c>
       <c r="G37" s="1">
@@ -2042,16 +2061,16 @@
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="60">
         <v>1500</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <v>3.77</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="41">
         <v>3.69</v>
       </c>
       <c r="G38" s="1">
@@ -2077,16 +2096,16 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="60">
         <v>1000</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="41">
         <v>7.44</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="41">
         <v>7.48</v>
       </c>
       <c r="G39" s="1">
@@ -2112,16 +2131,16 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="60">
         <v>1500</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <v>3.6</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="41">
         <v>3.66</v>
       </c>
       <c r="G40" s="1">
@@ -2147,16 +2166,16 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="62">
+      <c r="D41" s="61">
         <v>1000</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="41">
         <v>7.37</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="41">
         <v>7.42</v>
       </c>
       <c r="G41" s="23">
@@ -2178,24 +2197,24 @@
       <c r="K41" s="23">
         <v>4.99</v>
       </c>
-      <c r="L41" s="53"/>
-      <c r="M41" s="23"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="79"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41983</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="60">
         <v>1000</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="42">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="42">
         <v>8.44</v>
       </c>
       <c r="G42" s="1">
@@ -2218,57 +2237,57 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49" t="s">
+    <row r="43" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="62">
         <v>1000</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="42">
         <v>5.91</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="42">
         <v>6.06</v>
       </c>
-      <c r="G43" s="50">
+      <c r="G43" s="49">
         <f t="shared" si="0"/>
         <v>5914.99</v>
       </c>
-      <c r="H43" s="51">
+      <c r="H43" s="50">
         <f t="shared" si="1"/>
         <v>6055.01</v>
       </c>
-      <c r="I43" s="50">
+      <c r="I43" s="49">
         <f t="shared" si="4"/>
         <v>140.02000000000044</v>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="50">
         <f t="shared" si="5"/>
         <v>0.14999999999999947</v>
       </c>
-      <c r="K43" s="50">
-        <v>4.99</v>
-      </c>
-      <c r="M43" s="50"/>
+      <c r="K43" s="49">
+        <v>4.99</v>
+      </c>
+      <c r="M43" s="80"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="60">
         <v>1500</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <v>3.46</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="41">
         <v>3.36</v>
       </c>
       <c r="G44" s="1">
@@ -2294,16 +2313,16 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="60">
         <v>1000</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="41">
         <v>8.59</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="43">
         <v>8.67</v>
       </c>
       <c r="G45" s="1">
@@ -2329,16 +2348,16 @@
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="60">
         <v>1000</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>7.21</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="43">
         <v>7.29</v>
       </c>
       <c r="G46" s="1">
@@ -2364,16 +2383,16 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="60">
         <v>1500</v>
       </c>
-      <c r="E47" s="44">
+      <c r="E47" s="43">
         <v>3.46</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="41">
         <v>2.91</v>
       </c>
       <c r="G47" s="1">
@@ -2399,16 +2418,16 @@
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="60">
         <v>900</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <v>3.21</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="41">
         <v>3.25</v>
       </c>
       <c r="G48" s="1">
@@ -2434,16 +2453,16 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="62">
+      <c r="D49" s="61">
         <v>900</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="41">
         <v>3.23</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="41">
         <v>3.28</v>
       </c>
       <c r="G49" s="23">
@@ -2465,24 +2484,24 @@
       <c r="K49" s="23">
         <v>4.99</v>
       </c>
-      <c r="L49" s="53"/>
-      <c r="M49" s="23"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="79"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>41984</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="61">
+      <c r="D50" s="60">
         <v>1000</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="42">
         <v>8.58</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="44">
         <v>8.82</v>
       </c>
       <c r="G50" s="1">
@@ -2508,16 +2527,16 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="60">
         <v>1000</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="41">
         <v>3</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="41">
         <v>3.05</v>
       </c>
       <c r="G51" s="1">
@@ -2543,16 +2562,16 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="60">
         <v>1000</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <v>3.15</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="41">
         <v>3.05</v>
       </c>
       <c r="G52" s="1">
@@ -2578,16 +2597,16 @@
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="61">
+      <c r="D53" s="60">
         <v>2000</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="41">
         <v>3.15</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="41">
         <v>3.15</v>
       </c>
       <c r="G53" s="1">
@@ -2613,16 +2632,16 @@
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="60">
         <v>1000</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <v>8.27</v>
       </c>
-      <c r="F54" s="42">
+      <c r="F54" s="41">
         <v>8.2799999999999994</v>
       </c>
       <c r="G54" s="1">
@@ -2648,16 +2667,16 @@
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="60">
         <v>1000</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="41">
         <v>7.57</v>
       </c>
-      <c r="F55" s="44">
+      <c r="F55" s="43">
         <v>7.62</v>
       </c>
       <c r="G55" s="1">
@@ -2683,16 +2702,16 @@
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="60">
         <v>1000</v>
       </c>
-      <c r="E56" s="44">
+      <c r="E56" s="43">
         <v>7.55</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="41">
         <v>7.51</v>
       </c>
       <c r="G56" s="1">
@@ -2718,16 +2737,16 @@
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="61" t="s">
+      <c r="C57" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="60">
         <v>1000</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="43">
         <v>2.97</v>
       </c>
-      <c r="F57" s="44">
+      <c r="F57" s="43">
         <v>3.12</v>
       </c>
       <c r="G57" s="1">
@@ -2750,56 +2769,56 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="54" t="s">
+    <row r="58" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="55">
+      <c r="D58" s="54">
         <v>1000</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="42">
         <v>3.59</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="57">
+      <c r="F58" s="42"/>
+      <c r="G58" s="56">
         <f t="shared" si="0"/>
         <v>3594.99</v>
       </c>
-      <c r="H58" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="57">
+      <c r="H58" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J58" s="58">
+      <c r="J58" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K58" s="57">
-        <v>4.99</v>
-      </c>
-      <c r="L58" s="55"/>
-      <c r="M58" s="23"/>
+      <c r="K58" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="L58" s="54"/>
+      <c r="M58" s="79"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41985</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="64">
+      <c r="D59" s="63">
         <v>1000</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="42">
         <v>3.81</v>
       </c>
-      <c r="F59" s="43">
+      <c r="F59" s="42">
         <v>3.86</v>
       </c>
       <c r="G59" s="1">
@@ -2825,16 +2844,16 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="64">
+      <c r="D60" s="63">
         <v>1000</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="41">
         <v>7.19</v>
       </c>
-      <c r="F60" s="42">
+      <c r="F60" s="41">
         <v>7.25</v>
       </c>
       <c r="G60" s="1">
@@ -2860,16 +2879,16 @@
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="64">
+      <c r="D61" s="63">
         <v>1000</v>
       </c>
-      <c r="E61" s="44">
+      <c r="E61" s="43">
         <v>7.17</v>
       </c>
-      <c r="F61" s="44">
+      <c r="F61" s="43">
         <v>7.21</v>
       </c>
       <c r="G61" s="1">
@@ -2895,16 +2914,16 @@
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="62">
+      <c r="D62" s="61">
         <v>1000</v>
       </c>
-      <c r="E62" s="42">
+      <c r="E62" s="41">
         <v>8.75</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F62" s="41">
         <v>8.85</v>
       </c>
       <c r="G62" s="23">
@@ -2926,24 +2945,24 @@
       <c r="K62" s="23">
         <v>4.99</v>
       </c>
-      <c r="L62" s="53"/>
-      <c r="M62" s="23"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="79"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41988</v>
       </c>
       <c r="B63" s="3"/>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="64">
+      <c r="D63" s="63">
         <v>1500</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="42">
         <v>2.46</v>
       </c>
-      <c r="F63" s="43">
+      <c r="F63" s="42">
         <v>2.57</v>
       </c>
       <c r="G63" s="1">
@@ -2966,55 +2985,55 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="63" t="s">
+    <row r="64" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="63">
+      <c r="D64" s="62">
         <v>1000</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="42">
         <v>3.13</v>
       </c>
-      <c r="F64" s="43">
+      <c r="F64" s="42">
         <v>3.01</v>
       </c>
-      <c r="G64" s="50">
+      <c r="G64" s="49">
         <f t="shared" si="0"/>
         <v>3134.99</v>
       </c>
-      <c r="H64" s="51">
+      <c r="H64" s="50">
         <f t="shared" si="1"/>
         <v>3005.01</v>
       </c>
-      <c r="I64" s="50">
+      <c r="I64" s="49">
         <f t="shared" si="4"/>
         <v>-129.97999999999956</v>
       </c>
-      <c r="J64" s="51">
+      <c r="J64" s="50">
         <f t="shared" si="5"/>
         <v>-0.12000000000000011</v>
       </c>
-      <c r="K64" s="50">
-        <v>4.99</v>
-      </c>
-      <c r="M64" s="50"/>
+      <c r="K64" s="49">
+        <v>4.99</v>
+      </c>
+      <c r="M64" s="80"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="64">
+      <c r="D65" s="63">
         <v>1500</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="41">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="41">
         <v>2.57</v>
       </c>
       <c r="G65" s="1">
@@ -3033,23 +3052,23 @@
         <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="K65" s="50">
+      <c r="K65" s="49">
         <v>4.99</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="61" t="s">
+      <c r="C66" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="64">
+      <c r="D66" s="63">
         <v>1500</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="41">
         <v>2.54</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="41">
         <v>2.44</v>
       </c>
       <c r="G66" s="1">
@@ -3072,56 +3091,56 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="54" t="s">
+    <row r="67" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="55">
+      <c r="D67" s="54">
         <v>1000</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="42">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F67" s="43"/>
-      <c r="G67" s="57">
+      <c r="F67" s="42"/>
+      <c r="G67" s="56">
         <f t="shared" si="0"/>
         <v>8704.99</v>
       </c>
-      <c r="H67" s="58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="57">
+      <c r="H67" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J67" s="58">
+      <c r="J67" s="57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K67" s="57">
-        <v>4.99</v>
-      </c>
-      <c r="L67" s="55"/>
-      <c r="M67" s="23"/>
+      <c r="K67" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="L67" s="54"/>
+      <c r="M67" s="79"/>
     </row>
     <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>41989</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="61" t="s">
+      <c r="C68" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="64">
+      <c r="D68" s="63">
         <v>1000</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="42">
         <v>8.25</v>
       </c>
-      <c r="F68" s="43">
+      <c r="F68" s="42">
         <v>8.31</v>
       </c>
       <c r="G68" s="20">
@@ -3143,21 +3162,21 @@
       <c r="K68" s="20">
         <v>4.99</v>
       </c>
-      <c r="M68" s="20"/>
+      <c r="M68" s="81"/>
     </row>
     <row r="69" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D69" s="64">
+      <c r="D69" s="63">
         <v>1000</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="42">
         <v>2.81</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="42">
         <v>2.99</v>
       </c>
       <c r="G69" s="20">
@@ -3179,21 +3198,21 @@
       <c r="K69" s="20">
         <v>4.99</v>
       </c>
-      <c r="M69" s="20"/>
+      <c r="M69" s="81"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="61" t="s">
+      <c r="C70" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="61">
+      <c r="D70" s="60">
         <v>1500</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="41">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F70" s="42">
+      <c r="F70" s="41">
         <v>1.88</v>
       </c>
       <c r="G70" s="1">
@@ -3219,16 +3238,16 @@
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D71" s="61">
+      <c r="D71" s="60">
         <v>1500</v>
       </c>
-      <c r="E71" s="42">
+      <c r="E71" s="41">
         <v>1.99</v>
       </c>
-      <c r="F71" s="42">
+      <c r="F71" s="41">
         <v>2.0099999999999998</v>
       </c>
       <c r="G71" s="1">
@@ -3254,16 +3273,16 @@
     <row r="72" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="61" t="s">
+      <c r="C72" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="64">
+      <c r="D72" s="63">
         <v>1000</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="42">
         <v>8.2100000000000009</v>
       </c>
-      <c r="F72" s="43">
+      <c r="F72" s="42">
         <v>8.26</v>
       </c>
       <c r="G72" s="20">
@@ -3285,21 +3304,21 @@
       <c r="K72" s="20">
         <v>4.99</v>
       </c>
-      <c r="M72" s="20"/>
+      <c r="M72" s="81"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="61">
+      <c r="D73" s="60">
         <v>1500</v>
       </c>
-      <c r="E73" s="42">
+      <c r="E73" s="41">
         <v>2</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F73" s="41">
         <v>2.02</v>
       </c>
       <c r="G73" s="1">
@@ -3325,16 +3344,16 @@
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="62">
+      <c r="D74" s="61">
         <v>1500</v>
       </c>
-      <c r="E74" s="42">
+      <c r="E74" s="41">
         <v>1.97</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="41">
         <v>2.0299999999999998</v>
       </c>
       <c r="G74" s="23">
@@ -3356,24 +3375,24 @@
       <c r="K74" s="23">
         <v>4.99</v>
       </c>
-      <c r="L74" s="53"/>
-      <c r="M74" s="23"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="79"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41990</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="64">
+      <c r="D75" s="63">
         <v>1000</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="42">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F75" s="43">
+      <c r="F75" s="42">
         <v>8.4</v>
       </c>
       <c r="G75" s="1">
@@ -3399,16 +3418,16 @@
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="64">
+      <c r="D76" s="63">
         <v>1000</v>
       </c>
-      <c r="E76" s="42">
+      <c r="E76" s="41">
         <v>4.53</v>
       </c>
-      <c r="F76" s="42">
+      <c r="F76" s="41">
         <v>4.59</v>
       </c>
       <c r="G76" s="1">
@@ -3434,16 +3453,16 @@
     <row r="77" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="64">
+      <c r="D77" s="63">
         <v>1000</v>
       </c>
-      <c r="E77" s="43">
+      <c r="E77" s="42">
         <v>7.34</v>
       </c>
-      <c r="F77" s="43">
+      <c r="F77" s="42">
         <v>7.39</v>
       </c>
       <c r="G77" s="20">
@@ -3465,21 +3484,21 @@
       <c r="K77" s="20">
         <v>4.99</v>
       </c>
-      <c r="M77" s="20"/>
+      <c r="M77" s="81"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="64">
+      <c r="D78" s="63">
         <v>1000</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="41">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78" s="41">
         <v>4.7699999999999996</v>
       </c>
       <c r="G78" s="1">
@@ -3505,16 +3524,16 @@
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="62">
+      <c r="D79" s="61">
         <v>1000</v>
       </c>
-      <c r="E79" s="42">
+      <c r="E79" s="41">
         <v>4.67</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79" s="41">
         <v>4.71</v>
       </c>
       <c r="G79" s="23">
@@ -3536,24 +3555,24 @@
       <c r="K79" s="23">
         <v>4.99</v>
       </c>
-      <c r="L79" s="53"/>
-      <c r="M79" s="23"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="79"/>
     </row>
     <row r="80" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>41991</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="64">
+      <c r="D80" s="63">
         <v>1000</v>
       </c>
-      <c r="E80" s="43">
+      <c r="E80" s="42">
         <v>3.22</v>
       </c>
-      <c r="F80" s="43">
+      <c r="F80" s="42">
         <v>3.32</v>
       </c>
       <c r="G80" s="20">
@@ -3575,21 +3594,21 @@
       <c r="K80" s="20">
         <v>4.99</v>
       </c>
-      <c r="M80" s="20"/>
+      <c r="M80" s="81"/>
     </row>
     <row r="81" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="64">
+      <c r="D81" s="63">
         <v>1000</v>
       </c>
-      <c r="E81" s="43">
+      <c r="E81" s="42">
         <v>5.04</v>
       </c>
-      <c r="F81" s="43">
+      <c r="F81" s="42">
         <v>5.18</v>
       </c>
       <c r="G81" s="20">
@@ -3611,21 +3630,21 @@
       <c r="K81" s="20">
         <v>4.99</v>
       </c>
-      <c r="M81" s="20"/>
+      <c r="M81" s="81"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="64" t="s">
+      <c r="C82" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="64">
+      <c r="D82" s="63">
         <v>1000</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E82" s="41">
         <v>8.36</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="41">
         <v>8.3800000000000008</v>
       </c>
       <c r="G82" s="1">
@@ -3651,16 +3670,16 @@
     <row r="83" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="64">
+      <c r="D83" s="63">
         <v>1000</v>
       </c>
-      <c r="E83" s="43">
+      <c r="E83" s="42">
         <v>4.9400000000000004</v>
       </c>
-      <c r="F83" s="43">
+      <c r="F83" s="42">
         <v>5.04</v>
       </c>
       <c r="G83" s="20">
@@ -3682,21 +3701,21 @@
       <c r="K83" s="20">
         <v>4.99</v>
       </c>
-      <c r="M83" s="20"/>
+      <c r="M83" s="81"/>
     </row>
     <row r="84" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="64">
+      <c r="D84" s="63">
         <v>1000</v>
       </c>
-      <c r="E84" s="43">
+      <c r="E84" s="42">
         <v>8.24</v>
       </c>
-      <c r="F84" s="43">
+      <c r="F84" s="42">
         <v>8.2799999999999994</v>
       </c>
       <c r="G84" s="20">
@@ -3718,21 +3737,21 @@
       <c r="K84" s="20">
         <v>4.99</v>
       </c>
-      <c r="M84" s="20"/>
+      <c r="M84" s="81"/>
     </row>
     <row r="85" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="64" t="s">
+      <c r="C85" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="64">
+      <c r="D85" s="63">
         <v>1000</v>
       </c>
-      <c r="E85" s="43">
+      <c r="E85" s="42">
         <v>2.94</v>
       </c>
-      <c r="F85" s="43">
+      <c r="F85" s="42">
         <v>3.09</v>
       </c>
       <c r="G85" s="20">
@@ -3754,21 +3773,21 @@
       <c r="K85" s="20">
         <v>4.99</v>
       </c>
-      <c r="M85" s="20"/>
+      <c r="M85" s="81"/>
     </row>
     <row r="86" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="64" t="s">
+      <c r="C86" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="64">
+      <c r="D86" s="63">
         <v>1000</v>
       </c>
-      <c r="E86" s="43">
+      <c r="E86" s="42">
         <v>8.26</v>
       </c>
-      <c r="F86" s="43">
+      <c r="F86" s="42">
         <v>8.32</v>
       </c>
       <c r="G86" s="20">
@@ -3790,21 +3809,21 @@
       <c r="K86" s="20">
         <v>4.99</v>
       </c>
-      <c r="M86" s="20"/>
+      <c r="M86" s="81"/>
     </row>
     <row r="87" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="62" t="s">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D87" s="62">
+      <c r="D87" s="61">
         <v>1500</v>
       </c>
-      <c r="E87" s="43">
+      <c r="E87" s="42">
         <v>2.54</v>
       </c>
-      <c r="F87" s="43">
+      <c r="F87" s="42">
         <v>2.58</v>
       </c>
       <c r="G87" s="34">
@@ -3826,24 +3845,24 @@
       <c r="K87" s="34">
         <v>4.99</v>
       </c>
-      <c r="L87" s="53"/>
-      <c r="M87" s="23"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="79"/>
     </row>
     <row r="88" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>41992</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="64" t="s">
+      <c r="C88" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="64">
+      <c r="D88" s="63">
         <v>1000</v>
       </c>
-      <c r="E88" s="43">
+      <c r="E88" s="42">
         <v>7.59</v>
       </c>
-      <c r="F88" s="43">
+      <c r="F88" s="42">
         <v>7.71</v>
       </c>
       <c r="G88" s="20">
@@ -3866,21 +3885,21 @@
         <v>4.99</v>
       </c>
       <c r="L88" s="2"/>
-      <c r="M88" s="20"/>
+      <c r="M88" s="81"/>
     </row>
     <row r="89" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="64">
+      <c r="D89" s="63">
         <v>1000</v>
       </c>
-      <c r="E89" s="43">
+      <c r="E89" s="42">
         <v>5.16</v>
       </c>
-      <c r="F89" s="43">
+      <c r="F89" s="42">
         <v>5.32</v>
       </c>
       <c r="G89" s="20">
@@ -3902,21 +3921,21 @@
       <c r="K89" s="20">
         <v>4.99</v>
       </c>
-      <c r="M89" s="20"/>
+      <c r="M89" s="81"/>
     </row>
     <row r="90" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="64" t="s">
+      <c r="C90" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="64">
+      <c r="D90" s="63">
         <v>1000</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="42">
         <v>5.3</v>
       </c>
-      <c r="F90" s="43">
+      <c r="F90" s="42">
         <v>5.37</v>
       </c>
       <c r="G90" s="20">
@@ -3938,21 +3957,21 @@
       <c r="K90" s="20">
         <v>4.99</v>
       </c>
-      <c r="M90" s="20"/>
+      <c r="M90" s="81"/>
     </row>
     <row r="91" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D91" s="64">
+      <c r="D91" s="63">
         <v>1000</v>
       </c>
-      <c r="E91" s="43">
+      <c r="E91" s="42">
         <v>3.08</v>
       </c>
-      <c r="F91" s="43">
+      <c r="F91" s="42">
         <v>3.12</v>
       </c>
       <c r="G91" s="20">
@@ -3974,21 +3993,21 @@
       <c r="K91" s="20">
         <v>4.99</v>
       </c>
-      <c r="M91" s="20"/>
+      <c r="M91" s="81"/>
     </row>
     <row r="92" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="64" t="s">
+      <c r="C92" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="64">
+      <c r="D92" s="63">
         <v>1500</v>
       </c>
-      <c r="E92" s="43">
+      <c r="E92" s="42">
         <v>2.58</v>
       </c>
-      <c r="F92" s="43">
+      <c r="F92" s="42">
         <v>2.5099999999999998</v>
       </c>
       <c r="G92" s="20">
@@ -4010,21 +4029,21 @@
       <c r="K92" s="20">
         <v>4.99</v>
       </c>
-      <c r="M92" s="20"/>
+      <c r="M92" s="81"/>
     </row>
     <row r="93" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="64">
+      <c r="D93" s="63">
         <v>1000</v>
       </c>
-      <c r="E93" s="43">
+      <c r="E93" s="42">
         <v>7.65</v>
       </c>
-      <c r="F93" s="43"/>
+      <c r="F93" s="42"/>
       <c r="G93" s="20">
         <f t="shared" si="6"/>
         <v>7654.99</v>
@@ -4044,21 +4063,21 @@
       <c r="K93" s="20">
         <v>4.99</v>
       </c>
-      <c r="M93" s="20"/>
+      <c r="M93" s="81"/>
     </row>
     <row r="94" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="63">
         <v>1000</v>
       </c>
-      <c r="E94" s="43">
+      <c r="E94" s="42">
         <v>7.46</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F94" s="42">
         <v>7.48</v>
       </c>
       <c r="G94" s="20">
@@ -4080,21 +4099,21 @@
       <c r="K94" s="20">
         <v>4.99</v>
       </c>
-      <c r="M94" s="20"/>
+      <c r="M94" s="81"/>
     </row>
     <row r="95" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="66" t="s">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="62">
+      <c r="D95" s="61">
         <v>2000</v>
       </c>
-      <c r="E95" s="43">
+      <c r="E95" s="42">
         <v>3.32</v>
       </c>
-      <c r="F95" s="43"/>
+      <c r="F95" s="42"/>
       <c r="G95" s="34">
         <f t="shared" si="6"/>
         <v>6644.99</v>
@@ -4114,24 +4133,24 @@
       <c r="K95" s="34">
         <v>4.99</v>
       </c>
-      <c r="L95" s="55"/>
-      <c r="M95" s="23"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="79"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>357</v>
       </c>
       <c r="B96" s="3"/>
-      <c r="C96" s="64" t="s">
+      <c r="C96" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="64">
+      <c r="D96" s="63">
         <v>1000</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="42">
         <v>6.25</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F96" s="42">
         <v>6.31</v>
       </c>
       <c r="G96" s="1">
@@ -4158,16 +4177,16 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="64">
+      <c r="D97" s="63">
         <v>1000</v>
       </c>
-      <c r="E97" s="43">
+      <c r="E97" s="42">
         <v>6.27</v>
       </c>
-      <c r="F97" s="43">
+      <c r="F97" s="42">
         <v>6.34</v>
       </c>
       <c r="G97" s="1">
@@ -4193,16 +4212,16 @@
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="64" t="s">
+      <c r="C98" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D98" s="64">
+      <c r="D98" s="63">
         <v>1000</v>
       </c>
-      <c r="E98" s="42">
+      <c r="E98" s="41">
         <v>6.38</v>
       </c>
-      <c r="F98" s="42">
+      <c r="F98" s="41">
         <v>6.46</v>
       </c>
       <c r="G98" s="1">
@@ -4228,16 +4247,16 @@
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D99" s="64">
+      <c r="D99" s="63">
         <v>1000</v>
       </c>
-      <c r="E99" s="42">
+      <c r="E99" s="41">
         <v>6.44</v>
       </c>
-      <c r="F99" s="42">
+      <c r="F99" s="41">
         <v>6.54</v>
       </c>
       <c r="G99" s="1">
@@ -4263,16 +4282,16 @@
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
-      <c r="C100" s="62" t="s">
+      <c r="C100" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D100" s="62">
+      <c r="D100" s="61">
         <v>1000</v>
       </c>
-      <c r="E100" s="42">
+      <c r="E100" s="41">
         <v>6.39</v>
       </c>
-      <c r="F100" s="42">
+      <c r="F100" s="41">
         <v>6.17</v>
       </c>
       <c r="G100" s="23">
@@ -4294,24 +4313,24 @@
       <c r="K100" s="23">
         <v>4.99</v>
       </c>
-      <c r="L100" s="53"/>
-      <c r="M100" s="23"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="79"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>42361</v>
       </c>
       <c r="B101" s="3"/>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="64">
+      <c r="D101" s="63">
         <v>1000</v>
       </c>
-      <c r="E101" s="43">
+      <c r="E101" s="42">
         <v>6.1</v>
       </c>
-      <c r="F101" s="43">
+      <c r="F101" s="42">
         <v>6</v>
       </c>
       <c r="G101" s="1">
@@ -4338,16 +4357,16 @@
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="64" t="s">
+      <c r="C102" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="64">
+      <c r="D102" s="63">
         <v>1000</v>
       </c>
-      <c r="E102" s="43">
+      <c r="E102" s="42">
         <v>2.34</v>
       </c>
-      <c r="F102" s="43">
+      <c r="F102" s="42">
         <v>2.35</v>
       </c>
       <c r="G102" s="1">
@@ -4373,16 +4392,16 @@
     <row r="103" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D103" s="64">
+      <c r="D103" s="63">
         <v>1000</v>
       </c>
-      <c r="E103" s="43">
+      <c r="E103" s="42">
         <v>6.14</v>
       </c>
-      <c r="F103" s="43">
+      <c r="F103" s="42">
         <v>6.16</v>
       </c>
       <c r="G103" s="20">
@@ -4404,19 +4423,19 @@
       <c r="K103" s="20">
         <v>4.99</v>
       </c>
-      <c r="M103" s="20"/>
+      <c r="M103" s="81"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="64" t="s">
+      <c r="C104" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D104" s="64">
+      <c r="D104" s="63">
         <v>1000</v>
       </c>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42">
+      <c r="E104" s="41"/>
+      <c r="F104" s="41">
         <v>0.34</v>
       </c>
       <c r="G104" s="1">
@@ -4440,19 +4459,19 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="66" t="s">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D105" s="62">
+      <c r="D105" s="61">
         <v>1000</v>
       </c>
-      <c r="E105" s="43">
+      <c r="E105" s="42">
         <v>6.24</v>
       </c>
-      <c r="F105" s="43">
-        <v>6.97</v>
+      <c r="F105" s="42">
+        <v>6.06</v>
       </c>
       <c r="G105" s="34">
         <f t="shared" si="6"/>
@@ -4460,37 +4479,37 @@
       </c>
       <c r="H105" s="25">
         <f t="shared" si="7"/>
-        <v>6965.01</v>
+        <v>6055.01</v>
       </c>
       <c r="I105" s="34">
         <f t="shared" si="8"/>
-        <v>720.02000000000044</v>
+        <v>-189.97999999999956</v>
       </c>
       <c r="J105" s="25">
         <f t="shared" si="9"/>
-        <v>0.72999999999999954</v>
+        <v>-0.1800000000000006</v>
       </c>
       <c r="K105" s="34">
         <v>4.99</v>
       </c>
-      <c r="L105" s="55"/>
-      <c r="M105" s="23"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="79"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>42362</v>
       </c>
       <c r="B106" s="3"/>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D106" s="64">
+      <c r="D106" s="63">
         <v>1500</v>
       </c>
-      <c r="E106" s="43">
+      <c r="E106" s="42">
         <v>2.41</v>
       </c>
-      <c r="F106" s="43">
+      <c r="F106" s="42">
         <v>2.4500000000000002</v>
       </c>
       <c r="G106" s="1">
@@ -4518,16 +4537,16 @@
         <v>42364</v>
       </c>
       <c r="B107" s="3"/>
-      <c r="C107" s="64" t="s">
+      <c r="C107" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D107" s="64">
+      <c r="D107" s="63">
         <v>1500</v>
       </c>
-      <c r="E107" s="42">
+      <c r="E107" s="41">
         <v>2.44</v>
       </c>
-      <c r="F107" s="42">
+      <c r="F107" s="41">
         <v>2.4700000000000002</v>
       </c>
       <c r="G107" s="1">
@@ -4555,16 +4574,16 @@
         <v>42367</v>
       </c>
       <c r="B108" s="3"/>
-      <c r="C108" s="64" t="s">
+      <c r="C108" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D108" s="64">
+      <c r="D108" s="63">
         <v>1500</v>
       </c>
-      <c r="E108" s="42">
+      <c r="E108" s="41">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F108" s="42">
+      <c r="F108" s="41">
         <v>2.4500000000000002</v>
       </c>
       <c r="G108" s="1">
@@ -4590,16 +4609,16 @@
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D109" s="64">
+      <c r="D109" s="63">
         <v>1500</v>
       </c>
-      <c r="E109" s="42">
+      <c r="E109" s="41">
         <v>2.42</v>
       </c>
-      <c r="F109" s="42">
+      <c r="F109" s="41">
         <v>2.56</v>
       </c>
       <c r="G109" s="1">
@@ -4627,16 +4646,16 @@
         <v>42368</v>
       </c>
       <c r="B110" s="3"/>
-      <c r="C110" s="64" t="s">
+      <c r="C110" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D110" s="64">
+      <c r="D110" s="63">
         <v>1000</v>
       </c>
-      <c r="E110" s="42">
+      <c r="E110" s="41">
         <v>4.79</v>
       </c>
-      <c r="F110" s="42">
+      <c r="F110" s="41">
         <v>4.8099999999999996</v>
       </c>
       <c r="G110" s="1">
@@ -4664,16 +4683,16 @@
         <v>42369</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="64">
+      <c r="D111" s="63">
         <v>500</v>
       </c>
-      <c r="E111" s="42">
+      <c r="E111" s="41">
         <v>4.38</v>
       </c>
-      <c r="F111" s="42">
+      <c r="F111" s="41">
         <v>4.41</v>
       </c>
       <c r="G111" s="1">
@@ -4699,16 +4718,16 @@
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="64" t="s">
+      <c r="C112" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="64">
+      <c r="D112" s="63">
         <v>1000</v>
       </c>
-      <c r="E112" s="42">
+      <c r="E112" s="41">
         <v>2.69</v>
       </c>
-      <c r="F112" s="42">
+      <c r="F112" s="41">
         <v>2.75</v>
       </c>
       <c r="G112" s="1">
@@ -4734,16 +4753,16 @@
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
-      <c r="C113" s="62" t="s">
+      <c r="C113" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D113" s="62">
+      <c r="D113" s="61">
         <v>500</v>
       </c>
-      <c r="E113" s="42">
+      <c r="E113" s="41">
         <v>3.99</v>
       </c>
-      <c r="F113" s="42">
+      <c r="F113" s="41">
         <v>4.21</v>
       </c>
       <c r="G113" s="23">
@@ -4765,24 +4784,24 @@
       <c r="K113" s="23">
         <v>4.99</v>
       </c>
-      <c r="L113" s="53"/>
-      <c r="M113" s="23"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="79"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>42006</v>
       </c>
       <c r="B114" s="3"/>
-      <c r="C114" s="64" t="s">
+      <c r="C114" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D114" s="64">
+      <c r="D114" s="63">
         <v>1000</v>
       </c>
-      <c r="E114" s="43">
+      <c r="E114" s="42">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F114" s="43">
+      <c r="F114" s="42">
         <v>4.4400000000000004</v>
       </c>
       <c r="G114" s="1">
@@ -4809,16 +4828,16 @@
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="64" t="s">
+      <c r="C115" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D115" s="64">
+      <c r="D115" s="63">
         <v>1000</v>
       </c>
-      <c r="E115" s="42">
+      <c r="E115" s="41">
         <v>4.5</v>
       </c>
-      <c r="F115" s="42">
+      <c r="F115" s="41">
         <v>4.55</v>
       </c>
       <c r="G115" s="1">
@@ -4844,16 +4863,16 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="64" t="s">
+      <c r="C116" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D116" s="64">
+      <c r="D116" s="63">
         <v>1000</v>
       </c>
-      <c r="E116" s="42">
+      <c r="E116" s="41">
         <v>2.72</v>
       </c>
-      <c r="F116" s="42"/>
+      <c r="F116" s="41"/>
       <c r="G116" s="1">
         <f t="shared" si="6"/>
         <v>2724.99</v>
@@ -4877,16 +4896,16 @@
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="64" t="s">
+      <c r="C117" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="64">
+      <c r="D117" s="63">
         <v>1000</v>
       </c>
-      <c r="E117" s="42">
+      <c r="E117" s="41">
         <v>5.26</v>
       </c>
-      <c r="F117" s="42">
+      <c r="F117" s="41">
         <v>5.36</v>
       </c>
       <c r="G117" s="1">
@@ -4912,16 +4931,16 @@
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
-      <c r="C118" s="62" t="s">
+      <c r="C118" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D118" s="62">
+      <c r="D118" s="61">
         <v>500</v>
       </c>
-      <c r="E118" s="42">
+      <c r="E118" s="41">
         <v>4.2</v>
       </c>
-      <c r="F118" s="42">
+      <c r="F118" s="41">
         <v>4.2300000000000004</v>
       </c>
       <c r="G118" s="23">
@@ -4943,24 +4962,24 @@
       <c r="K118" s="23">
         <v>4.99</v>
       </c>
-      <c r="L118" s="53"/>
-      <c r="M118" s="23"/>
+      <c r="L118" s="52"/>
+      <c r="M118" s="79"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>42009</v>
       </c>
       <c r="B119" s="3"/>
-      <c r="C119" s="64" t="s">
+      <c r="C119" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D119" s="64">
+      <c r="D119" s="63">
         <v>500</v>
       </c>
-      <c r="E119" s="43">
+      <c r="E119" s="42">
         <v>4.07</v>
       </c>
-      <c r="F119" s="43">
+      <c r="F119" s="42">
         <v>4.21</v>
       </c>
       <c r="G119" s="1">
@@ -4992,16 +5011,16 @@
       <c r="B120" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C120" s="65" t="s">
+      <c r="C120" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="64">
+      <c r="D120" s="63">
         <v>1000</v>
       </c>
-      <c r="E120" s="43">
+      <c r="E120" s="42">
         <v>5.63</v>
       </c>
-      <c r="F120" s="43"/>
+      <c r="F120" s="42"/>
       <c r="G120" s="20">
         <f>IF(D120&gt;0,(D120*E120)+K120,0)</f>
         <v>5639.99</v>
@@ -5021,23 +5040,23 @@
       <c r="K120" s="20">
         <v>9.99</v>
       </c>
-      <c r="M120" s="20"/>
+      <c r="M120" s="81"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C121" s="65" t="s">
+      <c r="C121" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="64">
+      <c r="D121" s="63">
         <v>1000</v>
       </c>
-      <c r="E121" s="42">
+      <c r="E121" s="41">
         <v>5.63</v>
       </c>
-      <c r="F121" s="42"/>
+      <c r="F121" s="41"/>
       <c r="G121" s="1">
         <f t="shared" si="6"/>
         <v>5639.99</v>
@@ -5063,16 +5082,16 @@
       <c r="B122" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C122" s="64" t="s">
+      <c r="C122" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="64">
+      <c r="D122" s="63">
         <v>1000</v>
       </c>
-      <c r="E122" s="42">
+      <c r="E122" s="41">
         <v>5.91</v>
       </c>
-      <c r="F122" s="42">
+      <c r="F122" s="41">
         <v>6.06</v>
       </c>
       <c r="G122" s="1">
@@ -5100,16 +5119,16 @@
       <c r="B123" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C123" s="64" t="s">
+      <c r="C123" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D123" s="64">
+      <c r="D123" s="63">
         <v>1000</v>
       </c>
-      <c r="E123" s="42">
+      <c r="E123" s="41">
         <v>12.83</v>
       </c>
-      <c r="F123" s="42"/>
+      <c r="F123" s="41"/>
       <c r="G123" s="1">
         <f t="shared" si="6"/>
         <v>12834.99</v>
@@ -5135,16 +5154,16 @@
       <c r="B124" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C124" s="64" t="s">
+      <c r="C124" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D124" s="64">
+      <c r="D124" s="63">
         <v>1000</v>
       </c>
-      <c r="E124" s="42">
+      <c r="E124" s="41">
         <v>4.8499999999999996</v>
       </c>
-      <c r="F124" s="42">
+      <c r="F124" s="41">
         <v>4.9000000000000004</v>
       </c>
       <c r="G124" s="1">
@@ -5172,16 +5191,16 @@
       <c r="B125" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="62" t="s">
+      <c r="C125" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D125" s="62">
+      <c r="D125" s="61">
         <v>1000</v>
       </c>
-      <c r="E125" s="42">
+      <c r="E125" s="41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F125" s="42">
+      <c r="F125" s="41">
         <v>2.2599999999999998</v>
       </c>
       <c r="G125" s="23">
@@ -5203,8 +5222,8 @@
       <c r="K125" s="23">
         <v>4.99</v>
       </c>
-      <c r="L125" s="53"/>
-      <c r="M125" s="23"/>
+      <c r="L125" s="52"/>
+      <c r="M125" s="79"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
@@ -5213,16 +5232,16 @@
       <c r="B126" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C126" s="64" t="s">
+      <c r="C126" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="64">
+      <c r="D126" s="63">
         <v>1000</v>
       </c>
-      <c r="E126" s="43">
+      <c r="E126" s="42">
         <v>6.15</v>
       </c>
-      <c r="F126" s="43">
+      <c r="F126" s="42">
         <v>6.27</v>
       </c>
       <c r="G126" s="1">
@@ -5254,16 +5273,16 @@
       <c r="B127" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C127" s="64" t="s">
+      <c r="C127" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="64">
+      <c r="D127" s="63">
         <v>1000</v>
       </c>
-      <c r="E127" s="42">
+      <c r="E127" s="41">
         <v>6.21</v>
       </c>
-      <c r="F127" s="42">
+      <c r="F127" s="41">
         <v>6.32</v>
       </c>
       <c r="G127" s="1">
@@ -5291,16 +5310,16 @@
       <c r="B128" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="64" t="s">
+      <c r="C128" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D128" s="64">
+      <c r="D128" s="63">
         <v>1000</v>
       </c>
-      <c r="E128" s="42">
+      <c r="E128" s="41">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F128" s="42">
+      <c r="F128" s="41">
         <v>2.25</v>
       </c>
       <c r="G128" s="1">
@@ -5328,16 +5347,16 @@
       <c r="B129" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C129" s="64" t="s">
+      <c r="C129" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="64">
+      <c r="D129" s="63">
         <v>1000</v>
       </c>
-      <c r="E129" s="42">
+      <c r="E129" s="41">
         <v>6.41</v>
       </c>
-      <c r="F129" s="42">
+      <c r="F129" s="41">
         <v>6.46</v>
       </c>
       <c r="G129" s="1">
@@ -5363,16 +5382,16 @@
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
-      <c r="C130" s="62" t="s">
+      <c r="C130" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="62">
+      <c r="D130" s="61">
         <v>1000</v>
       </c>
-      <c r="E130" s="42">
+      <c r="E130" s="41">
         <v>4.95</v>
       </c>
-      <c r="F130" s="42">
+      <c r="F130" s="41">
         <v>4.92</v>
       </c>
       <c r="G130" s="23">
@@ -5394,24 +5413,24 @@
       <c r="K130" s="23">
         <v>4.99</v>
       </c>
-      <c r="L130" s="53"/>
-      <c r="M130" s="23"/>
+      <c r="L130" s="52"/>
+      <c r="M130" s="79"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>42012</v>
       </c>
       <c r="B131" s="3"/>
-      <c r="C131" s="64" t="s">
+      <c r="C131" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="64">
+      <c r="D131" s="63">
         <v>1000</v>
       </c>
-      <c r="E131" s="43">
+      <c r="E131" s="42">
         <v>6.31</v>
       </c>
-      <c r="F131" s="43">
+      <c r="F131" s="42">
         <v>6.36</v>
       </c>
       <c r="G131" s="1">
@@ -5441,16 +5460,16 @@
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="64" t="s">
+      <c r="C132" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="64">
+      <c r="D132" s="63">
         <v>1000</v>
       </c>
-      <c r="E132" s="42">
+      <c r="E132" s="41">
         <v>6.26</v>
       </c>
-      <c r="F132" s="42">
+      <c r="F132" s="41">
         <v>6.28</v>
       </c>
       <c r="G132" s="1">
@@ -5476,16 +5495,16 @@
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="64" t="s">
+      <c r="C133" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D133" s="64">
+      <c r="D133" s="63">
         <v>1000</v>
       </c>
-      <c r="E133" s="42">
+      <c r="E133" s="41">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F133" s="42">
+      <c r="F133" s="41">
         <v>5.0599999999999996</v>
       </c>
       <c r="G133" s="1">
@@ -5511,16 +5530,16 @@
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="64" t="s">
+      <c r="C134" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="64">
+      <c r="D134" s="63">
         <v>1000</v>
       </c>
-      <c r="E134" s="42">
+      <c r="E134" s="41">
         <v>5.0599999999999996</v>
       </c>
-      <c r="F134" s="42">
+      <c r="F134" s="41">
         <v>5.09</v>
       </c>
       <c r="G134" s="1">
@@ -5546,16 +5565,16 @@
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="64" t="s">
+      <c r="C135" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D135" s="64">
+      <c r="D135" s="63">
         <v>500</v>
       </c>
-      <c r="E135" s="42">
+      <c r="E135" s="41">
         <v>3.41</v>
       </c>
-      <c r="F135" s="42">
+      <c r="F135" s="41">
         <v>3.57</v>
       </c>
       <c r="G135" s="1">
@@ -5581,16 +5600,16 @@
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
-      <c r="C136" s="62" t="s">
+      <c r="C136" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="62">
+      <c r="D136" s="61">
         <v>1000</v>
       </c>
-      <c r="E136" s="42">
+      <c r="E136" s="41">
         <v>6.15</v>
       </c>
-      <c r="F136" s="42">
+      <c r="F136" s="41">
         <v>6.39</v>
       </c>
       <c r="G136" s="23">
@@ -5612,24 +5631,24 @@
       <c r="K136" s="23">
         <v>4.99</v>
       </c>
-      <c r="L136" s="53"/>
-      <c r="M136" s="23"/>
+      <c r="L136" s="52"/>
+      <c r="M136" s="79"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>42013</v>
       </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="64" t="s">
+      <c r="C137" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D137" s="64">
+      <c r="D137" s="63">
         <v>500</v>
       </c>
-      <c r="E137" s="43">
+      <c r="E137" s="42">
         <v>3.37</v>
       </c>
-      <c r="F137" s="43">
+      <c r="F137" s="42">
         <v>3.48</v>
       </c>
       <c r="G137" s="1">
@@ -5659,16 +5678,16 @@
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="73" t="s">
+      <c r="C138" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="D138" s="64">
+      <c r="D138" s="63">
         <v>500</v>
       </c>
-      <c r="E138" s="42">
+      <c r="E138" s="41">
         <v>4.07</v>
       </c>
-      <c r="F138" s="42">
+      <c r="F138" s="41">
         <v>3.26</v>
       </c>
       <c r="G138" s="1">
@@ -5694,16 +5713,16 @@
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="64" t="s">
+      <c r="C139" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D139" s="64">
+      <c r="D139" s="63">
         <v>1000</v>
       </c>
-      <c r="E139" s="42">
+      <c r="E139" s="41">
         <v>5.04</v>
       </c>
-      <c r="F139" s="42">
+      <c r="F139" s="41">
         <v>5.2</v>
       </c>
       <c r="G139" s="1">
@@ -5729,16 +5748,16 @@
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="64" t="s">
+      <c r="C140" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D140" s="64">
+      <c r="D140" s="63">
         <v>500</v>
       </c>
-      <c r="E140" s="42">
+      <c r="E140" s="41">
         <v>4.2</v>
       </c>
-      <c r="F140" s="42">
+      <c r="F140" s="41">
         <v>4.42</v>
       </c>
       <c r="G140" s="1">
@@ -5764,16 +5783,16 @@
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
-      <c r="C141" s="62" t="s">
+      <c r="C141" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D141" s="62">
+      <c r="D141" s="61">
         <v>1000</v>
       </c>
-      <c r="E141" s="42">
+      <c r="E141" s="41">
         <v>2.93</v>
       </c>
-      <c r="F141" s="42">
+      <c r="F141" s="41">
         <v>2.94</v>
       </c>
       <c r="G141" s="23">
@@ -5795,24 +5814,24 @@
       <c r="K141" s="23">
         <v>4.99</v>
       </c>
-      <c r="L141" s="53"/>
-      <c r="M141" s="23"/>
+      <c r="L141" s="52"/>
+      <c r="M141" s="79"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>42016</v>
       </c>
       <c r="B142" s="3"/>
-      <c r="C142" s="65" t="s">
+      <c r="C142" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D142" s="64">
+      <c r="D142" s="63">
         <v>500</v>
       </c>
-      <c r="E142" s="43">
+      <c r="E142" s="42">
         <v>3.65</v>
       </c>
-      <c r="F142" s="43">
+      <c r="F142" s="42">
         <v>3.73</v>
       </c>
       <c r="G142" s="1">
@@ -5836,22 +5855,22 @@
       </c>
       <c r="L142" s="2">
         <f>SUM(I142:I145)</f>
-        <v>210.06000000000085</v>
+        <v>180.08000000000129</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="64" t="s">
+      <c r="C143" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="64">
+      <c r="D143" s="63">
         <v>500</v>
       </c>
-      <c r="E143" s="42">
+      <c r="E143" s="41">
         <v>7.18</v>
       </c>
-      <c r="F143" s="42">
+      <c r="F143" s="41">
         <v>7.24</v>
       </c>
       <c r="G143" s="1">
@@ -5879,16 +5898,16 @@
       <c r="B144" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C144" s="64" t="s">
+      <c r="C144" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D144" s="64">
+      <c r="D144" s="63">
         <v>1000</v>
       </c>
-      <c r="E144" s="42">
+      <c r="E144" s="41">
         <v>4.63</v>
       </c>
-      <c r="F144" s="42">
+      <c r="F144" s="41">
         <v>4.8</v>
       </c>
       <c r="G144" s="1">
@@ -5914,93 +5933,96 @@
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
-      <c r="C145" s="66" t="s">
+      <c r="C145" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="62">
+      <c r="D145" s="61">
         <v>500</v>
       </c>
-      <c r="E145" s="42">
+      <c r="E145" s="41">
         <v>7.18</v>
       </c>
-      <c r="F145" s="42"/>
+      <c r="F145" s="41">
+        <v>7.14</v>
+      </c>
       <c r="G145" s="23">
         <f t="shared" si="10"/>
         <v>3594.99</v>
       </c>
       <c r="H145" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3565.01</v>
       </c>
       <c r="I145" s="34">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-29.979999999999563</v>
       </c>
       <c r="J145" s="24">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="K145" s="23">
         <v>4.99</v>
       </c>
-      <c r="L145" s="53"/>
-      <c r="M145" s="23"/>
+      <c r="L145" s="52"/>
+      <c r="M145" s="79"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>42017</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="65" t="s">
+      <c r="C146" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="64">
+      <c r="D146" s="63">
         <v>500</v>
       </c>
-      <c r="E146" s="43">
+      <c r="E146" s="42">
         <v>7.08</v>
       </c>
-      <c r="F146" s="43"/>
+      <c r="F146" s="42">
+        <v>7.14</v>
+      </c>
       <c r="G146" s="1">
         <f t="shared" si="10"/>
         <v>3544.99</v>
       </c>
       <c r="H146" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3565.01</v>
       </c>
       <c r="I146" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.020000000000437</v>
       </c>
       <c r="J146" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.9999999999999609E-2</v>
       </c>
       <c r="K146" s="1">
         <v>4.99</v>
       </c>
       <c r="L146" s="2">
         <f>SUM(I146:I149)</f>
-        <v>125.04000000000042</v>
-      </c>
-      <c r="M146" s="10"/>
+        <v>345.08000000000129</v>
+      </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C147" s="64" t="s">
+      <c r="C147" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D147" s="64">
+      <c r="D147" s="63">
         <v>700</v>
       </c>
-      <c r="E147" s="42">
+      <c r="E147" s="41">
         <v>6.86</v>
       </c>
-      <c r="F147" s="42">
+      <c r="F147" s="41">
         <v>6.96</v>
       </c>
       <c r="G147" s="1">
@@ -6028,31 +6050,33 @@
       <c r="B148" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C148" s="65" t="s">
+      <c r="C148" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="64">
+      <c r="D148" s="63">
         <v>700</v>
       </c>
-      <c r="E148" s="42">
+      <c r="E148" s="41">
         <v>6.86</v>
       </c>
-      <c r="F148" s="42"/>
+      <c r="F148" s="41">
+        <v>7.16</v>
+      </c>
       <c r="G148" s="1">
         <f t="shared" si="10"/>
         <v>4806.99</v>
       </c>
       <c r="H148" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5007.01</v>
       </c>
       <c r="I148" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>200.02000000000044</v>
       </c>
       <c r="J148" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="K148" s="1">
         <v>4.99</v>
@@ -6061,16 +6085,16 @@
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
-      <c r="C149" s="62" t="s">
+      <c r="C149" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D149" s="62">
+      <c r="D149" s="61">
         <v>500</v>
       </c>
-      <c r="E149" s="42">
+      <c r="E149" s="41">
         <v>3.1</v>
       </c>
-      <c r="F149" s="42">
+      <c r="F149" s="41">
         <v>3.26</v>
       </c>
       <c r="G149" s="23">
@@ -6092,24 +6116,24 @@
       <c r="K149" s="23">
         <v>7.49</v>
       </c>
-      <c r="L149" s="53"/>
-      <c r="M149" s="23"/>
+      <c r="L149" s="52"/>
+      <c r="M149" s="79"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>42018</v>
       </c>
       <c r="B150" s="3"/>
-      <c r="C150" s="64" t="s">
+      <c r="C150" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D150" s="64">
+      <c r="D150" s="63">
         <v>1000</v>
       </c>
-      <c r="E150" s="43">
+      <c r="E150" s="42">
         <v>4.5</v>
       </c>
-      <c r="F150" s="43">
+      <c r="F150" s="42">
         <v>4.55</v>
       </c>
       <c r="G150" s="1">
@@ -6139,16 +6163,16 @@
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="64" t="s">
+      <c r="C151" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D151" s="64">
+      <c r="D151" s="63">
         <v>1000</v>
       </c>
-      <c r="E151" s="42">
+      <c r="E151" s="41">
         <v>4.62</v>
       </c>
-      <c r="F151" s="42">
+      <c r="F151" s="41">
         <v>4.63</v>
       </c>
       <c r="G151" s="1">
@@ -6174,16 +6198,16 @@
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="64" t="s">
+      <c r="C152" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D152" s="64">
+      <c r="D152" s="63">
         <v>500</v>
       </c>
-      <c r="E152" s="42">
+      <c r="E152" s="41">
         <v>4.55</v>
       </c>
-      <c r="F152" s="42">
+      <c r="F152" s="41">
         <v>4.62</v>
       </c>
       <c r="G152" s="1">
@@ -6209,16 +6233,16 @@
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="64" t="s">
+      <c r="C153" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D153" s="64">
+      <c r="D153" s="63">
         <v>500</v>
       </c>
-      <c r="E153" s="42">
+      <c r="E153" s="41">
         <v>2.91</v>
       </c>
-      <c r="F153" s="42">
+      <c r="F153" s="41">
         <v>3.01</v>
       </c>
       <c r="G153" s="1">
@@ -6244,16 +6268,16 @@
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="64" t="s">
+      <c r="C154" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D154" s="64">
+      <c r="D154" s="63">
         <v>1000</v>
       </c>
-      <c r="E154" s="42">
+      <c r="E154" s="41">
         <v>3.02</v>
       </c>
-      <c r="F154" s="42">
+      <c r="F154" s="41">
         <v>3.03</v>
       </c>
       <c r="G154" s="1">
@@ -6279,16 +6303,16 @@
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="64" t="s">
+      <c r="C155" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D155" s="64">
+      <c r="D155" s="63">
         <v>1000</v>
       </c>
-      <c r="E155" s="42">
+      <c r="E155" s="41">
         <v>3.32</v>
       </c>
-      <c r="F155" s="42">
+      <c r="F155" s="41">
         <v>3.47</v>
       </c>
       <c r="G155" s="1">
@@ -6314,16 +6338,16 @@
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="64" t="s">
+      <c r="C156" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D156" s="64">
+      <c r="D156" s="63">
         <v>1000</v>
       </c>
-      <c r="E156" s="42">
+      <c r="E156" s="41">
         <v>5.18</v>
       </c>
-      <c r="F156" s="42">
+      <c r="F156" s="41">
         <v>5.2</v>
       </c>
       <c r="G156" s="1">
@@ -6349,16 +6373,16 @@
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
-      <c r="C157" s="62" t="s">
+      <c r="C157" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D157" s="62">
+      <c r="D157" s="61">
         <v>1000</v>
       </c>
-      <c r="E157" s="42">
+      <c r="E157" s="41">
         <v>5.18</v>
       </c>
-      <c r="F157" s="42">
+      <c r="F157" s="41">
         <v>5.19</v>
       </c>
       <c r="G157" s="23">
@@ -6380,58 +6404,80 @@
       <c r="K157" s="23">
         <v>4.99</v>
       </c>
-      <c r="L157" s="53"/>
-      <c r="M157" s="23"/>
+      <c r="L157" s="52"/>
+      <c r="M157" s="79"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
+      <c r="A158" s="3">
+        <v>42019</v>
+      </c>
       <c r="B158" s="3"/>
-      <c r="C158" s="61"/>
-      <c r="D158" s="61"/>
-      <c r="E158" s="43"/>
-      <c r="F158" s="43"/>
+      <c r="C158" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="63">
+        <v>500</v>
+      </c>
+      <c r="E158" s="42">
+        <v>5.19</v>
+      </c>
+      <c r="F158" s="42">
+        <v>5.42</v>
+      </c>
       <c r="G158" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2599.9899999999998</v>
       </c>
       <c r="H158" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2705.01</v>
       </c>
       <c r="I158" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>105.02000000000044</v>
       </c>
       <c r="J158" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.22999999999999954</v>
       </c>
       <c r="K158" s="1">
         <v>4.99</v>
+      </c>
+      <c r="L158" s="2">
+        <f>SUM(I158:I165)</f>
+        <v>-141.87999999999738</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="61"/>
-      <c r="D159" s="61"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="42"/>
+      <c r="C159" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="63">
+        <v>500</v>
+      </c>
+      <c r="E159" s="41">
+        <v>5.09</v>
+      </c>
+      <c r="F159" s="41">
+        <v>5.37</v>
+      </c>
       <c r="G159" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2549.9899999999998</v>
       </c>
       <c r="H159" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2680.01</v>
       </c>
       <c r="I159" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>130.02000000000044</v>
       </c>
       <c r="J159" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.28000000000000025</v>
       </c>
       <c r="K159" s="1">
         <v>4.99</v>
@@ -6440,13 +6486,19 @@
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="61"/>
-      <c r="D160" s="61"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="42"/>
+      <c r="C160" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="63">
+        <v>500</v>
+      </c>
+      <c r="E160" s="41">
+        <v>5.21</v>
+      </c>
+      <c r="F160" s="41"/>
       <c r="G160" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2609.9899999999998</v>
       </c>
       <c r="H160" s="2">
         <f t="shared" si="11"/>
@@ -6464,16 +6516,22 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="61"/>
-      <c r="D161" s="61"/>
-      <c r="E161" s="42"/>
-      <c r="F161" s="42"/>
+      <c r="C161" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" s="63">
+        <v>500</v>
+      </c>
+      <c r="E161" s="41">
+        <v>5.03</v>
+      </c>
+      <c r="F161" s="41"/>
       <c r="G161" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2519.9899999999998</v>
       </c>
       <c r="H161" s="2">
         <f t="shared" si="11"/>
@@ -6491,124 +6549,166 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="61"/>
-      <c r="D162" s="61"/>
-      <c r="E162" s="42"/>
-      <c r="F162" s="42"/>
+      <c r="C162" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="63">
+        <v>500</v>
+      </c>
+      <c r="E162" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F162" s="41">
+        <v>4.71</v>
+      </c>
       <c r="G162" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2304.9899999999998</v>
       </c>
       <c r="H162" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2350.0100000000002</v>
       </c>
       <c r="I162" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>45.020000000000437</v>
       </c>
       <c r="J162" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.11000000000000032</v>
       </c>
       <c r="K162" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="61"/>
-      <c r="D163" s="61"/>
-      <c r="E163" s="42"/>
-      <c r="F163" s="42"/>
+      <c r="C163" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="63">
+        <v>800</v>
+      </c>
+      <c r="E163" s="41">
+        <v>5.44</v>
+      </c>
+      <c r="F163" s="41">
+        <v>5.5</v>
+      </c>
       <c r="G163" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4356.99</v>
       </c>
       <c r="H163" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4395.01</v>
       </c>
       <c r="I163" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>38.020000000000437</v>
       </c>
       <c r="J163" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.9999999999999609E-2</v>
       </c>
       <c r="K163" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="61"/>
-      <c r="D164" s="61"/>
-      <c r="E164" s="42"/>
-      <c r="F164" s="42"/>
+      <c r="C164" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="63">
+        <v>800</v>
+      </c>
+      <c r="E164" s="41">
+        <v>5.62</v>
+      </c>
+      <c r="F164" s="41">
+        <v>5.71</v>
+      </c>
       <c r="G164" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4500.99</v>
       </c>
       <c r="H164" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4563.01</v>
       </c>
       <c r="I164" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>62.020000000000437</v>
       </c>
       <c r="J164" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="K164" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="61"/>
-      <c r="D165" s="61"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="1">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="61">
+        <v>800</v>
+      </c>
+      <c r="E165" s="41">
+        <v>5.79</v>
+      </c>
+      <c r="F165" s="41">
+        <v>5.15</v>
+      </c>
+      <c r="G165" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H165" s="2">
+        <v>4636.99</v>
+      </c>
+      <c r="H165" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I165" s="20">
+        <v>4115.01</v>
+      </c>
+      <c r="I165" s="34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J165" s="2">
+        <v>-521.97999999999956</v>
+      </c>
+      <c r="J165" s="24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K165" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
+        <v>-0.63999999999999968</v>
+      </c>
+      <c r="K165" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L165" s="52"/>
+      <c r="M165" s="79"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>42020</v>
+      </c>
       <c r="B166" s="3"/>
-      <c r="C166" s="61"/>
-      <c r="D166" s="61"/>
-      <c r="E166" s="42"/>
+      <c r="C166" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166" s="63">
+        <v>1000</v>
+      </c>
+      <c r="E166" s="42">
+        <v>3.47</v>
+      </c>
       <c r="F166" s="42"/>
       <c r="G166" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3474.99</v>
       </c>
       <c r="H166" s="2">
         <f t="shared" si="11"/>
@@ -6626,256 +6726,359 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="61"/>
-      <c r="D167" s="61"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="1">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="61">
+        <v>500</v>
+      </c>
+      <c r="E167" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="F167" s="41">
+        <v>7.55</v>
+      </c>
+      <c r="G167" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H167" s="2">
+        <v>3754.99</v>
+      </c>
+      <c r="H167" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I167" s="20">
+        <v>3770.01</v>
+      </c>
+      <c r="I167" s="34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J167" s="2">
+        <v>15.020000000000437</v>
+      </c>
+      <c r="J167" s="24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K167" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="61"/>
-      <c r="D168" s="61"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="K167" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L167" s="52"/>
+      <c r="M167" s="79"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>42023</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="63">
+        <v>1800</v>
+      </c>
+      <c r="E168" s="42">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="F168" s="42">
+        <v>5.14</v>
+      </c>
       <c r="G168" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9202.99</v>
       </c>
       <c r="H168" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9247.01</v>
       </c>
       <c r="I168" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>44.020000000000437</v>
       </c>
       <c r="J168" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.9999999999999361E-2</v>
       </c>
       <c r="K168" s="1">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N168" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="61"/>
-      <c r="E169" s="42"/>
-      <c r="F169" s="42"/>
+      <c r="B169" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="63">
+        <v>500</v>
+      </c>
+      <c r="E169" s="41">
+        <v>7.54</v>
+      </c>
+      <c r="F169" s="41">
+        <v>7.61</v>
+      </c>
       <c r="G169" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3774.99</v>
       </c>
       <c r="H169" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3800.01</v>
       </c>
       <c r="I169" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25.020000000000437</v>
       </c>
       <c r="J169" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="K169" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="61"/>
-      <c r="D170" s="61"/>
-      <c r="E170" s="42"/>
-      <c r="F170" s="42"/>
-      <c r="G170" s="1">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="22"/>
+      <c r="B170" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="61">
+        <v>1000</v>
+      </c>
+      <c r="E170" s="41">
+        <v>7.65</v>
+      </c>
+      <c r="F170" s="41">
+        <v>8.15</v>
+      </c>
+      <c r="G170" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H170" s="2">
+        <v>7654.99</v>
+      </c>
+      <c r="H170" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I170" s="20">
+        <v>8145.01</v>
+      </c>
+      <c r="I170" s="34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="2">
+        <v>490.02000000000044</v>
+      </c>
+      <c r="J170" s="24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K170" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="61"/>
-      <c r="D171" s="61"/>
-      <c r="E171" s="42"/>
-      <c r="F171" s="42"/>
+        <v>0.5</v>
+      </c>
+      <c r="K170" s="23">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>42024</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="63">
+        <v>1000</v>
+      </c>
+      <c r="E171" s="42">
+        <v>5.96</v>
+      </c>
+      <c r="F171" s="42">
+        <v>5.97</v>
+      </c>
       <c r="G171" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5964.99</v>
       </c>
       <c r="H171" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5965.01</v>
       </c>
       <c r="I171" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.0000000000436557E-2</v>
       </c>
       <c r="J171" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.9999999999997868E-3</v>
       </c>
       <c r="K171" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="61"/>
-      <c r="D172" s="61"/>
-      <c r="E172" s="42"/>
-      <c r="F172" s="42"/>
+      <c r="B172" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="63">
+        <v>500</v>
+      </c>
+      <c r="E172" s="41">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F172" s="41">
+        <v>8.23</v>
+      </c>
       <c r="G172" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4154.99</v>
       </c>
       <c r="H172" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4110.01</v>
       </c>
       <c r="I172" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-44.979999999999563</v>
       </c>
       <c r="J172" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-7.0000000000000284E-2</v>
       </c>
       <c r="K172" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="61"/>
-      <c r="D173" s="61"/>
-      <c r="E173" s="42"/>
-      <c r="F173" s="42"/>
+      <c r="B173" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="63">
+        <v>500</v>
+      </c>
+      <c r="E173" s="41">
+        <v>8.25</v>
+      </c>
+      <c r="F173" s="41">
+        <v>8.34</v>
+      </c>
       <c r="G173" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4129.99</v>
       </c>
       <c r="H173" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4165.01</v>
       </c>
       <c r="I173" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>35.020000000000437</v>
       </c>
       <c r="J173" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="K173" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="61"/>
-      <c r="E174" s="42"/>
-      <c r="F174" s="42"/>
+      <c r="B174" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D174" s="63">
+        <v>1000</v>
+      </c>
+      <c r="E174" s="41">
+        <v>3.49</v>
+      </c>
+      <c r="F174" s="41">
+        <v>4.12</v>
+      </c>
       <c r="G174" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3494.99</v>
       </c>
       <c r="H174" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4115.01</v>
       </c>
       <c r="I174" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>620.02000000000044</v>
       </c>
       <c r="J174" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="K174" s="1">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M174" s="10">
+        <v>1.2067000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="61"/>
-      <c r="D175" s="61"/>
-      <c r="E175" s="42"/>
-      <c r="F175" s="42"/>
+      <c r="B175" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" s="63">
+        <v>350</v>
+      </c>
+      <c r="E175" s="41">
+        <v>2.98</v>
+      </c>
+      <c r="F175" s="41">
+        <v>3.11</v>
+      </c>
       <c r="G175" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1047.99</v>
       </c>
       <c r="H175" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1083.51</v>
       </c>
       <c r="I175" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>35.519999999999982</v>
       </c>
       <c r="J175" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.12999999999999989</v>
       </c>
       <c r="K175" s="1">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M175" s="10">
+        <v>1.2067000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="61"/>
-      <c r="D176" s="61"/>
-      <c r="E176" s="42"/>
-      <c r="F176" s="42"/>
+      <c r="C176" s="60"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="41"/>
       <c r="G176" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6899,10 +7102,10 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="61"/>
-      <c r="D177" s="61"/>
-      <c r="E177" s="42"/>
-      <c r="F177" s="42"/>
+      <c r="C177" s="60"/>
+      <c r="D177" s="60"/>
+      <c r="E177" s="41"/>
+      <c r="F177" s="41"/>
       <c r="G177" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6926,10 +7129,10 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="61"/>
-      <c r="D178" s="61"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
+      <c r="C178" s="60"/>
+      <c r="D178" s="60"/>
+      <c r="E178" s="41"/>
+      <c r="F178" s="41"/>
       <c r="G178" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6953,10 +7156,10 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="61"/>
-      <c r="D179" s="61"/>
-      <c r="E179" s="42"/>
-      <c r="F179" s="42"/>
+      <c r="C179" s="60"/>
+      <c r="D179" s="60"/>
+      <c r="E179" s="41"/>
+      <c r="F179" s="41"/>
       <c r="G179" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -6980,10 +7183,10 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="61"/>
-      <c r="D180" s="61"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
+      <c r="C180" s="60"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="41"/>
       <c r="G180" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7007,10 +7210,10 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="61"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="42"/>
-      <c r="F181" s="42"/>
+      <c r="C181" s="60"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="41"/>
+      <c r="F181" s="41"/>
       <c r="G181" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7034,10 +7237,10 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="61"/>
-      <c r="D182" s="61"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="42"/>
+      <c r="C182" s="60"/>
+      <c r="D182" s="60"/>
+      <c r="E182" s="41"/>
+      <c r="F182" s="41"/>
       <c r="G182" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7061,10 +7264,10 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="61"/>
-      <c r="D183" s="61"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="42"/>
+      <c r="C183" s="60"/>
+      <c r="D183" s="60"/>
+      <c r="E183" s="41"/>
+      <c r="F183" s="41"/>
       <c r="G183" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7088,10 +7291,10 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="61"/>
-      <c r="D184" s="61"/>
-      <c r="E184" s="42"/>
-      <c r="F184" s="42"/>
+      <c r="C184" s="60"/>
+      <c r="D184" s="60"/>
+      <c r="E184" s="41"/>
+      <c r="F184" s="41"/>
       <c r="G184" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7115,10 +7318,10 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="61"/>
-      <c r="D185" s="61"/>
-      <c r="E185" s="42"/>
-      <c r="F185" s="42"/>
+      <c r="C185" s="60"/>
+      <c r="D185" s="60"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="41"/>
       <c r="G185" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7142,10 +7345,10 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="61"/>
-      <c r="D186" s="61"/>
-      <c r="E186" s="42"/>
-      <c r="F186" s="42"/>
+      <c r="C186" s="60"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="41"/>
+      <c r="F186" s="41"/>
       <c r="G186" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7169,10 +7372,10 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="61"/>
-      <c r="D187" s="61"/>
-      <c r="E187" s="42"/>
-      <c r="F187" s="42"/>
+      <c r="C187" s="60"/>
+      <c r="D187" s="60"/>
+      <c r="E187" s="41"/>
+      <c r="F187" s="41"/>
       <c r="G187" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7196,10 +7399,10 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="61"/>
-      <c r="D188" s="61"/>
-      <c r="E188" s="42"/>
-      <c r="F188" s="42"/>
+      <c r="C188" s="60"/>
+      <c r="D188" s="60"/>
+      <c r="E188" s="41"/>
+      <c r="F188" s="41"/>
       <c r="G188" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7223,10 +7426,10 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="61"/>
-      <c r="E189" s="42"/>
-      <c r="F189" s="42"/>
+      <c r="C189" s="60"/>
+      <c r="D189" s="60"/>
+      <c r="E189" s="41"/>
+      <c r="F189" s="41"/>
       <c r="G189" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7250,10 +7453,10 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="61"/>
-      <c r="D190" s="61"/>
-      <c r="E190" s="42"/>
-      <c r="F190" s="42"/>
+      <c r="C190" s="60"/>
+      <c r="D190" s="60"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="41"/>
       <c r="G190" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7277,10 +7480,10 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="61"/>
-      <c r="D191" s="61"/>
-      <c r="E191" s="42"/>
-      <c r="F191" s="42"/>
+      <c r="C191" s="60"/>
+      <c r="D191" s="60"/>
+      <c r="E191" s="41"/>
+      <c r="F191" s="41"/>
       <c r="G191" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7304,10 +7507,10 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="61"/>
-      <c r="D192" s="61"/>
-      <c r="E192" s="42"/>
-      <c r="F192" s="42"/>
+      <c r="C192" s="60"/>
+      <c r="D192" s="60"/>
+      <c r="E192" s="41"/>
+      <c r="F192" s="41"/>
       <c r="G192" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7331,10 +7534,10 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="61"/>
-      <c r="E193" s="42"/>
-      <c r="F193" s="42"/>
+      <c r="C193" s="60"/>
+      <c r="D193" s="60"/>
+      <c r="E193" s="41"/>
+      <c r="F193" s="41"/>
       <c r="G193" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7358,10 +7561,10 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="61"/>
-      <c r="D194" s="61"/>
-      <c r="E194" s="42"/>
-      <c r="F194" s="42"/>
+      <c r="C194" s="60"/>
+      <c r="D194" s="60"/>
+      <c r="E194" s="41"/>
+      <c r="F194" s="41"/>
       <c r="G194" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7385,10 +7588,10 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="61"/>
-      <c r="D195" s="61"/>
-      <c r="E195" s="42"/>
-      <c r="F195" s="42"/>
+      <c r="C195" s="60"/>
+      <c r="D195" s="60"/>
+      <c r="E195" s="41"/>
+      <c r="F195" s="41"/>
       <c r="G195" s="1">
         <f t="shared" ref="G195:G258" si="14">IF(D195&gt;0,(D195*E195)+K195,0)</f>
         <v>0</v>
@@ -7412,10 +7615,10 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
-      <c r="C196" s="61"/>
-      <c r="D196" s="61"/>
-      <c r="E196" s="42"/>
-      <c r="F196" s="42"/>
+      <c r="C196" s="60"/>
+      <c r="D196" s="60"/>
+      <c r="E196" s="41"/>
+      <c r="F196" s="41"/>
       <c r="G196" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7439,10 +7642,10 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="61"/>
-      <c r="D197" s="61"/>
-      <c r="E197" s="42"/>
-      <c r="F197" s="42"/>
+      <c r="C197" s="60"/>
+      <c r="D197" s="60"/>
+      <c r="E197" s="41"/>
+      <c r="F197" s="41"/>
       <c r="G197" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7466,10 +7669,10 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="61"/>
-      <c r="D198" s="61"/>
-      <c r="E198" s="42"/>
-      <c r="F198" s="42"/>
+      <c r="C198" s="60"/>
+      <c r="D198" s="60"/>
+      <c r="E198" s="41"/>
+      <c r="F198" s="41"/>
       <c r="G198" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7493,10 +7696,10 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
-      <c r="C199" s="61"/>
-      <c r="D199" s="61"/>
-      <c r="E199" s="42"/>
-      <c r="F199" s="42"/>
+      <c r="C199" s="60"/>
+      <c r="D199" s="60"/>
+      <c r="E199" s="41"/>
+      <c r="F199" s="41"/>
       <c r="G199" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7520,10 +7723,10 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
-      <c r="C200" s="61"/>
-      <c r="D200" s="61"/>
-      <c r="E200" s="42"/>
-      <c r="F200" s="42"/>
+      <c r="C200" s="60"/>
+      <c r="D200" s="60"/>
+      <c r="E200" s="41"/>
+      <c r="F200" s="41"/>
       <c r="G200" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7547,10 +7750,10 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
-      <c r="C201" s="61"/>
-      <c r="D201" s="61"/>
-      <c r="E201" s="42"/>
-      <c r="F201" s="42"/>
+      <c r="C201" s="60"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="41"/>
+      <c r="F201" s="41"/>
       <c r="G201" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7574,10 +7777,10 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
-      <c r="C202" s="61"/>
-      <c r="D202" s="61"/>
-      <c r="E202" s="42"/>
-      <c r="F202" s="42"/>
+      <c r="C202" s="60"/>
+      <c r="D202" s="60"/>
+      <c r="E202" s="41"/>
+      <c r="F202" s="41"/>
       <c r="G202" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7601,10 +7804,10 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
-      <c r="C203" s="61"/>
-      <c r="D203" s="61"/>
-      <c r="E203" s="42"/>
-      <c r="F203" s="42"/>
+      <c r="C203" s="60"/>
+      <c r="D203" s="60"/>
+      <c r="E203" s="41"/>
+      <c r="F203" s="41"/>
       <c r="G203" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7628,10 +7831,10 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="61"/>
-      <c r="D204" s="61"/>
-      <c r="E204" s="42"/>
-      <c r="F204" s="42"/>
+      <c r="C204" s="60"/>
+      <c r="D204" s="60"/>
+      <c r="E204" s="41"/>
+      <c r="F204" s="41"/>
       <c r="G204" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7655,10 +7858,10 @@
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
-      <c r="C205" s="61"/>
-      <c r="D205" s="61"/>
-      <c r="E205" s="42"/>
-      <c r="F205" s="42"/>
+      <c r="C205" s="60"/>
+      <c r="D205" s="60"/>
+      <c r="E205" s="41"/>
+      <c r="F205" s="41"/>
       <c r="G205" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7682,10 +7885,10 @@
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
-      <c r="C206" s="61"/>
-      <c r="D206" s="61"/>
-      <c r="E206" s="42"/>
-      <c r="F206" s="42"/>
+      <c r="C206" s="60"/>
+      <c r="D206" s="60"/>
+      <c r="E206" s="41"/>
+      <c r="F206" s="41"/>
       <c r="G206" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7709,10 +7912,10 @@
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
-      <c r="C207" s="61"/>
-      <c r="D207" s="61"/>
-      <c r="E207" s="42"/>
-      <c r="F207" s="42"/>
+      <c r="C207" s="60"/>
+      <c r="D207" s="60"/>
+      <c r="E207" s="41"/>
+      <c r="F207" s="41"/>
       <c r="G207" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7736,10 +7939,10 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
-      <c r="C208" s="61"/>
-      <c r="D208" s="61"/>
-      <c r="E208" s="42"/>
-      <c r="F208" s="42"/>
+      <c r="C208" s="60"/>
+      <c r="D208" s="60"/>
+      <c r="E208" s="41"/>
+      <c r="F208" s="41"/>
       <c r="G208" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7763,10 +7966,10 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
-      <c r="C209" s="61"/>
-      <c r="D209" s="61"/>
-      <c r="E209" s="42"/>
-      <c r="F209" s="42"/>
+      <c r="C209" s="60"/>
+      <c r="D209" s="60"/>
+      <c r="E209" s="41"/>
+      <c r="F209" s="41"/>
       <c r="G209" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7790,10 +7993,10 @@
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="61"/>
-      <c r="D210" s="61"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
+      <c r="C210" s="60"/>
+      <c r="D210" s="60"/>
+      <c r="E210" s="41"/>
+      <c r="F210" s="41"/>
       <c r="G210" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7817,10 +8020,10 @@
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="61"/>
-      <c r="D211" s="61"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
+      <c r="C211" s="60"/>
+      <c r="D211" s="60"/>
+      <c r="E211" s="41"/>
+      <c r="F211" s="41"/>
       <c r="G211" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7844,10 +8047,10 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
-      <c r="C212" s="61"/>
-      <c r="D212" s="61"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42"/>
+      <c r="C212" s="60"/>
+      <c r="D212" s="60"/>
+      <c r="E212" s="41"/>
+      <c r="F212" s="41"/>
       <c r="G212" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7871,10 +8074,10 @@
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
-      <c r="C213" s="61"/>
-      <c r="D213" s="61"/>
-      <c r="E213" s="42"/>
-      <c r="F213" s="42"/>
+      <c r="C213" s="60"/>
+      <c r="D213" s="60"/>
+      <c r="E213" s="41"/>
+      <c r="F213" s="41"/>
       <c r="G213" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7898,10 +8101,10 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
-      <c r="C214" s="61"/>
-      <c r="D214" s="61"/>
-      <c r="E214" s="42"/>
-      <c r="F214" s="42"/>
+      <c r="C214" s="60"/>
+      <c r="D214" s="60"/>
+      <c r="E214" s="41"/>
+      <c r="F214" s="41"/>
       <c r="G214" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7925,10 +8128,10 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
-      <c r="C215" s="61"/>
-      <c r="D215" s="61"/>
-      <c r="E215" s="42"/>
-      <c r="F215" s="42"/>
+      <c r="C215" s="60"/>
+      <c r="D215" s="60"/>
+      <c r="E215" s="41"/>
+      <c r="F215" s="41"/>
       <c r="G215" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7952,10 +8155,10 @@
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
-      <c r="C216" s="61"/>
-      <c r="D216" s="61"/>
-      <c r="E216" s="42"/>
-      <c r="F216" s="42"/>
+      <c r="C216" s="60"/>
+      <c r="D216" s="60"/>
+      <c r="E216" s="41"/>
+      <c r="F216" s="41"/>
       <c r="G216" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -7979,10 +8182,10 @@
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
-      <c r="C217" s="61"/>
-      <c r="D217" s="61"/>
-      <c r="E217" s="42"/>
-      <c r="F217" s="42"/>
+      <c r="C217" s="60"/>
+      <c r="D217" s="60"/>
+      <c r="E217" s="41"/>
+      <c r="F217" s="41"/>
       <c r="G217" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8006,10 +8209,10 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
-      <c r="C218" s="61"/>
-      <c r="D218" s="61"/>
-      <c r="E218" s="42"/>
-      <c r="F218" s="42"/>
+      <c r="C218" s="60"/>
+      <c r="D218" s="60"/>
+      <c r="E218" s="41"/>
+      <c r="F218" s="41"/>
       <c r="G218" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8033,10 +8236,10 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
-      <c r="C219" s="61"/>
-      <c r="D219" s="61"/>
-      <c r="E219" s="42"/>
-      <c r="F219" s="42"/>
+      <c r="C219" s="60"/>
+      <c r="D219" s="60"/>
+      <c r="E219" s="41"/>
+      <c r="F219" s="41"/>
       <c r="G219" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8060,10 +8263,10 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
-      <c r="C220" s="61"/>
-      <c r="D220" s="61"/>
-      <c r="E220" s="42"/>
-      <c r="F220" s="42"/>
+      <c r="C220" s="60"/>
+      <c r="D220" s="60"/>
+      <c r="E220" s="41"/>
+      <c r="F220" s="41"/>
       <c r="G220" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8087,10 +8290,10 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
-      <c r="C221" s="61"/>
-      <c r="D221" s="61"/>
-      <c r="E221" s="42"/>
-      <c r="F221" s="42"/>
+      <c r="C221" s="60"/>
+      <c r="D221" s="60"/>
+      <c r="E221" s="41"/>
+      <c r="F221" s="41"/>
       <c r="G221" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8114,10 +8317,10 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
-      <c r="C222" s="61"/>
-      <c r="D222" s="61"/>
-      <c r="E222" s="42"/>
-      <c r="F222" s="42"/>
+      <c r="C222" s="60"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="41"/>
+      <c r="F222" s="41"/>
       <c r="G222" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8141,10 +8344,10 @@
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
-      <c r="C223" s="61"/>
-      <c r="D223" s="61"/>
-      <c r="E223" s="42"/>
-      <c r="F223" s="42"/>
+      <c r="C223" s="60"/>
+      <c r="D223" s="60"/>
+      <c r="E223" s="41"/>
+      <c r="F223" s="41"/>
       <c r="G223" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8168,10 +8371,10 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
-      <c r="C224" s="61"/>
-      <c r="D224" s="61"/>
-      <c r="E224" s="42"/>
-      <c r="F224" s="42"/>
+      <c r="C224" s="60"/>
+      <c r="D224" s="60"/>
+      <c r="E224" s="41"/>
+      <c r="F224" s="41"/>
       <c r="G224" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8195,10 +8398,10 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="61"/>
-      <c r="D225" s="61"/>
-      <c r="E225" s="42"/>
-      <c r="F225" s="42"/>
+      <c r="C225" s="60"/>
+      <c r="D225" s="60"/>
+      <c r="E225" s="41"/>
+      <c r="F225" s="41"/>
       <c r="G225" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8222,10 +8425,10 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
-      <c r="C226" s="61"/>
-      <c r="D226" s="61"/>
-      <c r="E226" s="42"/>
-      <c r="F226" s="42"/>
+      <c r="C226" s="60"/>
+      <c r="D226" s="60"/>
+      <c r="E226" s="41"/>
+      <c r="F226" s="41"/>
       <c r="G226" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8249,10 +8452,10 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
-      <c r="C227" s="61"/>
-      <c r="D227" s="61"/>
-      <c r="E227" s="42"/>
-      <c r="F227" s="42"/>
+      <c r="C227" s="60"/>
+      <c r="D227" s="60"/>
+      <c r="E227" s="41"/>
+      <c r="F227" s="41"/>
       <c r="G227" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8276,10 +8479,10 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
-      <c r="C228" s="61"/>
-      <c r="D228" s="61"/>
-      <c r="E228" s="42"/>
-      <c r="F228" s="42"/>
+      <c r="C228" s="60"/>
+      <c r="D228" s="60"/>
+      <c r="E228" s="41"/>
+      <c r="F228" s="41"/>
       <c r="G228" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8303,10 +8506,10 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
-      <c r="C229" s="61"/>
-      <c r="D229" s="61"/>
-      <c r="E229" s="42"/>
-      <c r="F229" s="42"/>
+      <c r="C229" s="60"/>
+      <c r="D229" s="60"/>
+      <c r="E229" s="41"/>
+      <c r="F229" s="41"/>
       <c r="G229" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8330,10 +8533,10 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
-      <c r="C230" s="61"/>
-      <c r="D230" s="61"/>
-      <c r="E230" s="42"/>
-      <c r="F230" s="42"/>
+      <c r="C230" s="60"/>
+      <c r="D230" s="60"/>
+      <c r="E230" s="41"/>
+      <c r="F230" s="41"/>
       <c r="G230" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8357,10 +8560,10 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
-      <c r="C231" s="61"/>
-      <c r="D231" s="61"/>
-      <c r="E231" s="42"/>
-      <c r="F231" s="42"/>
+      <c r="C231" s="60"/>
+      <c r="D231" s="60"/>
+      <c r="E231" s="41"/>
+      <c r="F231" s="41"/>
       <c r="G231" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8384,10 +8587,10 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
-      <c r="C232" s="61"/>
-      <c r="D232" s="61"/>
-      <c r="E232" s="42"/>
-      <c r="F232" s="42"/>
+      <c r="C232" s="60"/>
+      <c r="D232" s="60"/>
+      <c r="E232" s="41"/>
+      <c r="F232" s="41"/>
       <c r="G232" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8411,10 +8614,10 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
-      <c r="C233" s="61"/>
-      <c r="D233" s="61"/>
-      <c r="E233" s="42"/>
-      <c r="F233" s="42"/>
+      <c r="C233" s="60"/>
+      <c r="D233" s="60"/>
+      <c r="E233" s="41"/>
+      <c r="F233" s="41"/>
       <c r="G233" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8438,10 +8641,10 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
-      <c r="C234" s="61"/>
-      <c r="D234" s="61"/>
-      <c r="E234" s="42"/>
-      <c r="F234" s="42"/>
+      <c r="C234" s="60"/>
+      <c r="D234" s="60"/>
+      <c r="E234" s="41"/>
+      <c r="F234" s="41"/>
       <c r="G234" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8465,10 +8668,10 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
-      <c r="C235" s="61"/>
-      <c r="D235" s="61"/>
-      <c r="E235" s="42"/>
-      <c r="F235" s="42"/>
+      <c r="C235" s="60"/>
+      <c r="D235" s="60"/>
+      <c r="E235" s="41"/>
+      <c r="F235" s="41"/>
       <c r="G235" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8492,10 +8695,10 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
-      <c r="C236" s="61"/>
-      <c r="D236" s="61"/>
-      <c r="E236" s="42"/>
-      <c r="F236" s="42"/>
+      <c r="C236" s="60"/>
+      <c r="D236" s="60"/>
+      <c r="E236" s="41"/>
+      <c r="F236" s="41"/>
       <c r="G236" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8519,10 +8722,10 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
-      <c r="C237" s="61"/>
-      <c r="D237" s="61"/>
-      <c r="E237" s="42"/>
-      <c r="F237" s="42"/>
+      <c r="C237" s="60"/>
+      <c r="D237" s="60"/>
+      <c r="E237" s="41"/>
+      <c r="F237" s="41"/>
       <c r="G237" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8546,10 +8749,10 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
-      <c r="C238" s="61"/>
-      <c r="D238" s="61"/>
-      <c r="E238" s="42"/>
-      <c r="F238" s="42"/>
+      <c r="C238" s="60"/>
+      <c r="D238" s="60"/>
+      <c r="E238" s="41"/>
+      <c r="F238" s="41"/>
       <c r="G238" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8573,10 +8776,10 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
-      <c r="C239" s="61"/>
-      <c r="D239" s="61"/>
-      <c r="E239" s="42"/>
-      <c r="F239" s="42"/>
+      <c r="C239" s="60"/>
+      <c r="D239" s="60"/>
+      <c r="E239" s="41"/>
+      <c r="F239" s="41"/>
       <c r="G239" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8600,10 +8803,10 @@
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="61"/>
-      <c r="D240" s="61"/>
-      <c r="E240" s="42"/>
-      <c r="F240" s="42"/>
+      <c r="C240" s="60"/>
+      <c r="D240" s="60"/>
+      <c r="E240" s="41"/>
+      <c r="F240" s="41"/>
       <c r="G240" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8627,10 +8830,10 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
-      <c r="C241" s="61"/>
-      <c r="D241" s="61"/>
-      <c r="E241" s="42"/>
-      <c r="F241" s="42"/>
+      <c r="C241" s="60"/>
+      <c r="D241" s="60"/>
+      <c r="E241" s="41"/>
+      <c r="F241" s="41"/>
       <c r="G241" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8654,10 +8857,10 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
-      <c r="C242" s="61"/>
-      <c r="D242" s="61"/>
-      <c r="E242" s="42"/>
-      <c r="F242" s="42"/>
+      <c r="C242" s="60"/>
+      <c r="D242" s="60"/>
+      <c r="E242" s="41"/>
+      <c r="F242" s="41"/>
       <c r="G242" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8681,10 +8884,10 @@
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
-      <c r="C243" s="61"/>
-      <c r="D243" s="61"/>
-      <c r="E243" s="42"/>
-      <c r="F243" s="42"/>
+      <c r="C243" s="60"/>
+      <c r="D243" s="60"/>
+      <c r="E243" s="41"/>
+      <c r="F243" s="41"/>
       <c r="G243" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8708,10 +8911,10 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
-      <c r="C244" s="61"/>
-      <c r="D244" s="61"/>
-      <c r="E244" s="42"/>
-      <c r="F244" s="42"/>
+      <c r="C244" s="60"/>
+      <c r="D244" s="60"/>
+      <c r="E244" s="41"/>
+      <c r="F244" s="41"/>
       <c r="G244" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8735,10 +8938,10 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
-      <c r="C245" s="61"/>
-      <c r="D245" s="61"/>
-      <c r="E245" s="42"/>
-      <c r="F245" s="42"/>
+      <c r="C245" s="60"/>
+      <c r="D245" s="60"/>
+      <c r="E245" s="41"/>
+      <c r="F245" s="41"/>
       <c r="G245" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8762,10 +8965,10 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
-      <c r="C246" s="61"/>
-      <c r="D246" s="61"/>
-      <c r="E246" s="42"/>
-      <c r="F246" s="42"/>
+      <c r="C246" s="60"/>
+      <c r="D246" s="60"/>
+      <c r="E246" s="41"/>
+      <c r="F246" s="41"/>
       <c r="G246" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8789,10 +8992,10 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
-      <c r="C247" s="61"/>
-      <c r="D247" s="61"/>
-      <c r="E247" s="42"/>
-      <c r="F247" s="42"/>
+      <c r="C247" s="60"/>
+      <c r="D247" s="60"/>
+      <c r="E247" s="41"/>
+      <c r="F247" s="41"/>
       <c r="G247" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8816,10 +9019,10 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
-      <c r="C248" s="61"/>
-      <c r="D248" s="61"/>
-      <c r="E248" s="42"/>
-      <c r="F248" s="42"/>
+      <c r="C248" s="60"/>
+      <c r="D248" s="60"/>
+      <c r="E248" s="41"/>
+      <c r="F248" s="41"/>
       <c r="G248" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8843,10 +9046,10 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
-      <c r="C249" s="61"/>
-      <c r="D249" s="61"/>
-      <c r="E249" s="42"/>
-      <c r="F249" s="42"/>
+      <c r="C249" s="60"/>
+      <c r="D249" s="60"/>
+      <c r="E249" s="41"/>
+      <c r="F249" s="41"/>
       <c r="G249" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8870,10 +9073,10 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
-      <c r="C250" s="61"/>
-      <c r="D250" s="61"/>
-      <c r="E250" s="42"/>
-      <c r="F250" s="42"/>
+      <c r="C250" s="60"/>
+      <c r="D250" s="60"/>
+      <c r="E250" s="41"/>
+      <c r="F250" s="41"/>
       <c r="G250" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8897,10 +9100,10 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
-      <c r="C251" s="61"/>
-      <c r="D251" s="61"/>
-      <c r="E251" s="42"/>
-      <c r="F251" s="42"/>
+      <c r="C251" s="60"/>
+      <c r="D251" s="60"/>
+      <c r="E251" s="41"/>
+      <c r="F251" s="41"/>
       <c r="G251" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8924,10 +9127,10 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="61"/>
-      <c r="D252" s="61"/>
-      <c r="E252" s="42"/>
-      <c r="F252" s="42"/>
+      <c r="C252" s="60"/>
+      <c r="D252" s="60"/>
+      <c r="E252" s="41"/>
+      <c r="F252" s="41"/>
       <c r="G252" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8951,10 +9154,10 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="61"/>
-      <c r="D253" s="61"/>
-      <c r="E253" s="42"/>
-      <c r="F253" s="42"/>
+      <c r="C253" s="60"/>
+      <c r="D253" s="60"/>
+      <c r="E253" s="41"/>
+      <c r="F253" s="41"/>
       <c r="G253" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8978,10 +9181,10 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="61"/>
-      <c r="D254" s="61"/>
-      <c r="E254" s="42"/>
-      <c r="F254" s="42"/>
+      <c r="C254" s="60"/>
+      <c r="D254" s="60"/>
+      <c r="E254" s="41"/>
+      <c r="F254" s="41"/>
       <c r="G254" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -9005,10 +9208,10 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="61"/>
-      <c r="D255" s="61"/>
-      <c r="E255" s="42"/>
-      <c r="F255" s="42"/>
+      <c r="C255" s="60"/>
+      <c r="D255" s="60"/>
+      <c r="E255" s="41"/>
+      <c r="F255" s="41"/>
       <c r="G255" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -9032,10 +9235,10 @@
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="61"/>
-      <c r="D256" s="61"/>
-      <c r="E256" s="42"/>
-      <c r="F256" s="42"/>
+      <c r="C256" s="60"/>
+      <c r="D256" s="60"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="41"/>
       <c r="G256" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -9059,10 +9262,10 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="61"/>
-      <c r="D257" s="61"/>
-      <c r="E257" s="42"/>
-      <c r="F257" s="42"/>
+      <c r="C257" s="60"/>
+      <c r="D257" s="60"/>
+      <c r="E257" s="41"/>
+      <c r="F257" s="41"/>
       <c r="G257" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -9086,10 +9289,10 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="61"/>
-      <c r="D258" s="61"/>
-      <c r="E258" s="42"/>
-      <c r="F258" s="42"/>
+      <c r="C258" s="60"/>
+      <c r="D258" s="60"/>
+      <c r="E258" s="41"/>
+      <c r="F258" s="41"/>
       <c r="G258" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -9113,10 +9316,10 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
-      <c r="C259" s="61"/>
-      <c r="D259" s="61"/>
-      <c r="E259" s="42"/>
-      <c r="F259" s="42"/>
+      <c r="C259" s="60"/>
+      <c r="D259" s="60"/>
+      <c r="E259" s="41"/>
+      <c r="F259" s="41"/>
       <c r="G259" s="1">
         <f t="shared" ref="G259:G271" si="20">IF(D259&gt;0,(D259*E259)+K259,0)</f>
         <v>0</v>
@@ -9140,10 +9343,10 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
-      <c r="C260" s="61"/>
-      <c r="D260" s="61"/>
-      <c r="E260" s="42"/>
-      <c r="F260" s="42"/>
+      <c r="C260" s="60"/>
+      <c r="D260" s="60"/>
+      <c r="E260" s="41"/>
+      <c r="F260" s="41"/>
       <c r="G260" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9167,10 +9370,10 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
-      <c r="C261" s="61"/>
-      <c r="D261" s="61"/>
-      <c r="E261" s="42"/>
-      <c r="F261" s="42"/>
+      <c r="C261" s="60"/>
+      <c r="D261" s="60"/>
+      <c r="E261" s="41"/>
+      <c r="F261" s="41"/>
       <c r="G261" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9194,10 +9397,10 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="61"/>
-      <c r="D262" s="61"/>
-      <c r="E262" s="42"/>
-      <c r="F262" s="42"/>
+      <c r="C262" s="60"/>
+      <c r="D262" s="60"/>
+      <c r="E262" s="41"/>
+      <c r="F262" s="41"/>
       <c r="G262" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9221,10 +9424,10 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
-      <c r="C263" s="61"/>
-      <c r="D263" s="61"/>
-      <c r="E263" s="42"/>
-      <c r="F263" s="42"/>
+      <c r="C263" s="60"/>
+      <c r="D263" s="60"/>
+      <c r="E263" s="41"/>
+      <c r="F263" s="41"/>
       <c r="G263" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9248,10 +9451,10 @@
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
-      <c r="C264" s="61"/>
-      <c r="D264" s="61"/>
-      <c r="E264" s="42"/>
-      <c r="F264" s="42"/>
+      <c r="C264" s="60"/>
+      <c r="D264" s="60"/>
+      <c r="E264" s="41"/>
+      <c r="F264" s="41"/>
       <c r="G264" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9275,10 +9478,10 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="61"/>
-      <c r="D265" s="61"/>
-      <c r="E265" s="42"/>
-      <c r="F265" s="42"/>
+      <c r="C265" s="60"/>
+      <c r="D265" s="60"/>
+      <c r="E265" s="41"/>
+      <c r="F265" s="41"/>
       <c r="G265" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9302,10 +9505,10 @@
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
-      <c r="C266" s="61"/>
-      <c r="D266" s="61"/>
-      <c r="E266" s="42"/>
-      <c r="F266" s="42"/>
+      <c r="C266" s="60"/>
+      <c r="D266" s="60"/>
+      <c r="E266" s="41"/>
+      <c r="F266" s="41"/>
       <c r="G266" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9329,10 +9532,10 @@
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
-      <c r="C267" s="61"/>
-      <c r="D267" s="61"/>
-      <c r="E267" s="42"/>
-      <c r="F267" s="42"/>
+      <c r="C267" s="60"/>
+      <c r="D267" s="60"/>
+      <c r="E267" s="41"/>
+      <c r="F267" s="41"/>
       <c r="G267" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9356,10 +9559,10 @@
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
-      <c r="C268" s="61"/>
-      <c r="D268" s="61"/>
-      <c r="E268" s="42"/>
-      <c r="F268" s="42"/>
+      <c r="C268" s="60"/>
+      <c r="D268" s="60"/>
+      <c r="E268" s="41"/>
+      <c r="F268" s="41"/>
       <c r="G268" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9383,10 +9586,10 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
-      <c r="C269" s="61"/>
-      <c r="D269" s="61"/>
-      <c r="E269" s="42"/>
-      <c r="F269" s="42"/>
+      <c r="C269" s="60"/>
+      <c r="D269" s="60"/>
+      <c r="E269" s="41"/>
+      <c r="F269" s="41"/>
       <c r="G269" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9410,10 +9613,10 @@
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="61"/>
-      <c r="D270" s="61"/>
-      <c r="E270" s="42"/>
-      <c r="F270" s="42"/>
+      <c r="C270" s="60"/>
+      <c r="D270" s="60"/>
+      <c r="E270" s="41"/>
+      <c r="F270" s="41"/>
       <c r="G270" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -9437,10 +9640,10 @@
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
-      <c r="C271" s="61"/>
-      <c r="D271" s="61"/>
-      <c r="E271" s="42"/>
-      <c r="F271" s="42"/>
+      <c r="C271" s="60"/>
+      <c r="D271" s="60"/>
+      <c r="E271" s="41"/>
+      <c r="F271" s="41"/>
       <c r="G271" s="1">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -11519,28 +11722,28 @@
   <cols>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" style="68" customWidth="1"/>
+    <col min="4" max="4" width="2" style="67" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>51</v>
       </c>
     </row>
@@ -11563,7 +11766,7 @@
         <f>SUM(A2:A20)</f>
         <v>1000</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="68">
         <f>E2/F2</f>
         <v>7.1449999999999996</v>
       </c>

--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="55">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -772,10 +772,10 @@
   <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="N159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="N147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
+      <selection pane="bottomRight" activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="47">
         <f>SUM(I6:I271)</f>
-        <v>6016.5600000000632</v>
+        <v>5650.6400000000649</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -6878,6 +6878,8 @@
       <c r="K170" s="23">
         <v>4.99</v>
       </c>
+      <c r="L170" s="52"/>
+      <c r="M170" s="79"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
@@ -6997,7 +6999,7 @@
       <c r="B174" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C174" s="64" t="s">
+      <c r="C174" s="63" t="s">
         <v>43</v>
       </c>
       <c r="D174" s="63">
@@ -7007,7 +7009,7 @@
         <v>3.49</v>
       </c>
       <c r="F174" s="41">
-        <v>4.12</v>
+        <v>3.7</v>
       </c>
       <c r="G174" s="1">
         <f t="shared" si="10"/>
@@ -7015,15 +7017,15 @@
       </c>
       <c r="H174" s="2">
         <f t="shared" si="11"/>
-        <v>4115.01</v>
+        <v>3695.01</v>
       </c>
       <c r="I174" s="20">
         <f t="shared" si="12"/>
-        <v>620.02000000000044</v>
+        <v>200.02000000000044</v>
       </c>
       <c r="J174" s="2">
         <f t="shared" si="13"/>
-        <v>0.62999999999999989</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="K174" s="1">
         <v>4.99</v>
@@ -7033,14 +7035,14 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3" t="s">
+      <c r="A175" s="22"/>
+      <c r="B175" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C175" s="64" t="s">
+      <c r="C175" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D175" s="63">
+      <c r="D175" s="61">
         <v>350</v>
       </c>
       <c r="E175" s="41">
@@ -7049,144 +7051,183 @@
       <c r="F175" s="41">
         <v>3.11</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G175" s="23">
         <f t="shared" si="10"/>
         <v>1047.99</v>
       </c>
-      <c r="H175" s="2">
+      <c r="H175" s="24">
         <f t="shared" si="11"/>
         <v>1083.51</v>
       </c>
-      <c r="I175" s="20">
+      <c r="I175" s="34">
         <f t="shared" si="12"/>
         <v>35.519999999999982</v>
       </c>
-      <c r="J175" s="2">
+      <c r="J175" s="24">
         <f t="shared" si="13"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="K175" s="1">
-        <v>4.99</v>
-      </c>
-      <c r="M175" s="10">
+      <c r="K175" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L175" s="52"/>
+      <c r="M175" s="79">
         <v>1.2067000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="60"/>
-      <c r="D176" s="63"/>
-      <c r="E176" s="41"/>
-      <c r="F176" s="41"/>
+      <c r="A176" s="3">
+        <v>42025</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" s="63">
+        <v>350</v>
+      </c>
+      <c r="E176" s="42">
+        <v>3.05</v>
+      </c>
+      <c r="F176" s="42">
+        <v>3.09</v>
+      </c>
       <c r="G176" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1072.49</v>
       </c>
       <c r="H176" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1076.51</v>
       </c>
       <c r="I176" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.0199999999999818</v>
       </c>
       <c r="J176" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="K176" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="60"/>
-      <c r="D177" s="60"/>
-      <c r="E177" s="41"/>
-      <c r="F177" s="41"/>
+      <c r="C177" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D177" s="63">
+        <v>500</v>
+      </c>
+      <c r="E177" s="41">
+        <v>3.05</v>
+      </c>
+      <c r="F177" s="41">
+        <v>3.12</v>
+      </c>
       <c r="G177" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1529.99</v>
       </c>
       <c r="H177" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1555.01</v>
       </c>
       <c r="I177" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25.019999999999982</v>
       </c>
       <c r="J177" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="K177" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="60"/>
-      <c r="D178" s="60"/>
-      <c r="E178" s="41"/>
-      <c r="F178" s="41"/>
+      <c r="C178" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D178" s="63">
+        <v>500</v>
+      </c>
+      <c r="E178" s="41">
+        <v>3.65</v>
+      </c>
+      <c r="F178" s="41">
+        <v>3.72</v>
+      </c>
       <c r="G178" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1829.99</v>
       </c>
       <c r="H178" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1855.01</v>
       </c>
       <c r="I178" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25.019999999999982</v>
       </c>
       <c r="J178" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="K178" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="60"/>
-      <c r="D179" s="60"/>
-      <c r="E179" s="41"/>
-      <c r="F179" s="41"/>
-      <c r="G179" s="1">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="22"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="61">
+        <v>500</v>
+      </c>
+      <c r="E179" s="41">
+        <v>8.42</v>
+      </c>
+      <c r="F179" s="41">
+        <v>8.44</v>
+      </c>
+      <c r="G179" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H179" s="2">
+        <v>4214.99</v>
+      </c>
+      <c r="H179" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I179" s="20">
+        <v>4215.01</v>
+      </c>
+      <c r="I179" s="34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J179" s="2">
+        <v>2.0000000000436557E-2</v>
+      </c>
+      <c r="J179" s="24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K179" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="K179" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L179" s="52"/>
+      <c r="M179" s="79"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="60"/>
       <c r="D180" s="60"/>
-      <c r="E180" s="41"/>
-      <c r="F180" s="41"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
       <c r="G180" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -7207,7 +7248,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="60"/>
@@ -7234,7 +7275,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="60"/>
@@ -7261,7 +7302,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="60"/>
@@ -7288,7 +7329,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="60"/>
@@ -7315,7 +7356,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="60"/>
@@ -7342,7 +7383,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="60"/>
@@ -7369,7 +7410,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="60"/>
@@ -7396,7 +7437,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="60"/>
@@ -7423,7 +7464,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="60"/>
@@ -7450,7 +7491,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="60"/>
@@ -7477,7 +7518,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="60"/>
@@ -7504,7 +7545,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="60"/>

--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="55">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -772,10 +772,10 @@
   <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="N147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="N156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F159" sqref="F159"/>
+      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="47">
         <f>SUM(I6:I271)</f>
-        <v>5650.6400000000649</v>
+        <v>6310.8000000000684</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -7187,7 +7187,7 @@
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
-      <c r="C179" s="65" t="s">
+      <c r="C179" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="61">
@@ -7197,7 +7197,7 @@
         <v>8.42</v>
       </c>
       <c r="F179" s="41">
-        <v>8.44</v>
+        <v>8.51</v>
       </c>
       <c r="G179" s="23">
         <f t="shared" si="10"/>
@@ -7205,15 +7205,15 @@
       </c>
       <c r="H179" s="24">
         <f t="shared" si="11"/>
-        <v>4215.01</v>
+        <v>4250.01</v>
       </c>
       <c r="I179" s="34">
         <f t="shared" si="12"/>
-        <v>2.0000000000436557E-2</v>
+        <v>35.020000000000437</v>
       </c>
       <c r="J179" s="24">
         <f t="shared" si="13"/>
-        <v>1.9999999999999574E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="K179" s="23">
         <v>4.99</v>
@@ -7222,15 +7222,25 @@
       <c r="M179" s="79"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="42"/>
+      <c r="A180" s="3">
+        <v>42026</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D180" s="63">
+        <v>500</v>
+      </c>
+      <c r="E180" s="42">
+        <v>3</v>
+      </c>
       <c r="F180" s="42"/>
       <c r="G180" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1504.99</v>
       </c>
       <c r="H180" s="2">
         <f t="shared" si="11"/>
@@ -7250,188 +7260,264 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="60"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="41"/>
-      <c r="F181" s="41"/>
+      <c r="B181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D181" s="63">
+        <v>500</v>
+      </c>
+      <c r="E181" s="41">
+        <v>3.25</v>
+      </c>
+      <c r="F181" s="41">
+        <v>3.62</v>
+      </c>
       <c r="G181" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1632.49</v>
       </c>
       <c r="H181" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1802.51</v>
       </c>
       <c r="I181" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>170.01999999999998</v>
       </c>
       <c r="J181" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.37000000000000011</v>
       </c>
       <c r="K181" s="1">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="60"/>
-      <c r="E182" s="41"/>
-      <c r="F182" s="41"/>
-      <c r="G182" s="1">
+      <c r="A182" s="22"/>
+      <c r="B182" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D182" s="61">
+        <v>500</v>
+      </c>
+      <c r="E182" s="41">
+        <v>2.79</v>
+      </c>
+      <c r="F182" s="41">
+        <v>2.81</v>
+      </c>
+      <c r="G182" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H182" s="2">
+        <v>1399.99</v>
+      </c>
+      <c r="H182" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I182" s="20">
+        <v>1400.01</v>
+      </c>
+      <c r="I182" s="34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J182" s="2">
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="J182" s="24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K182" s="1">
-        <v>4.99</v>
-      </c>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K182" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L182" s="52"/>
+      <c r="M182" s="79"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="60"/>
-      <c r="D183" s="60"/>
-      <c r="E183" s="41"/>
-      <c r="F183" s="41"/>
+      <c r="A183" s="3">
+        <v>23</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="63">
+        <v>500</v>
+      </c>
+      <c r="E183" s="42">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F183" s="42">
+        <v>8.48</v>
+      </c>
       <c r="G183" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4109.99</v>
       </c>
       <c r="H183" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4235.01</v>
       </c>
       <c r="I183" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>125.02000000000044</v>
       </c>
       <c r="J183" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.26999999999999957</v>
       </c>
       <c r="K183" s="1">
         <v>4.99</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="60"/>
-      <c r="D184" s="60"/>
-      <c r="E184" s="41"/>
-      <c r="F184" s="41"/>
-      <c r="G184" s="1">
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="61">
+        <v>500</v>
+      </c>
+      <c r="E184" s="41">
+        <v>7.99</v>
+      </c>
+      <c r="F184" s="41">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G184" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H184" s="2">
+        <v>3999.99</v>
+      </c>
+      <c r="H184" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I184" s="20">
+        <v>4100.01</v>
+      </c>
+      <c r="I184" s="34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J184" s="2">
+        <v>100.02000000000044</v>
+      </c>
+      <c r="J184" s="24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K184" s="1">
-        <v>4.99</v>
-      </c>
+        <v>0.22000000000000064</v>
+      </c>
+      <c r="K184" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L184" s="52"/>
+      <c r="M184" s="79"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
+      <c r="A185" s="3">
+        <v>42030</v>
+      </c>
       <c r="B185" s="3"/>
-      <c r="C185" s="60"/>
-      <c r="D185" s="60"/>
-      <c r="E185" s="41"/>
-      <c r="F185" s="41"/>
+      <c r="C185" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D185" s="63">
+        <v>500</v>
+      </c>
+      <c r="E185" s="42">
+        <v>3.49</v>
+      </c>
+      <c r="F185" s="42">
+        <v>3.58</v>
+      </c>
       <c r="G185" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1749.99</v>
       </c>
       <c r="H185" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1785.01</v>
       </c>
       <c r="I185" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>35.019999999999982</v>
       </c>
       <c r="J185" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="K185" s="1">
         <v>4.99</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="60"/>
-      <c r="D186" s="60"/>
-      <c r="E186" s="41"/>
-      <c r="F186" s="41"/>
-      <c r="G186" s="1">
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D186" s="61">
+        <v>500</v>
+      </c>
+      <c r="E186" s="41">
+        <v>3.51</v>
+      </c>
+      <c r="F186" s="41">
+        <v>3.71</v>
+      </c>
+      <c r="G186" s="23">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H186" s="2">
+        <v>1759.99</v>
+      </c>
+      <c r="H186" s="24">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I186" s="20">
+        <v>1850.01</v>
+      </c>
+      <c r="I186" s="34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J186" s="2">
+        <v>90.019999999999982</v>
+      </c>
+      <c r="J186" s="24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K186" s="1">
-        <v>4.99</v>
-      </c>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="K186" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L186" s="52"/>
+      <c r="M186" s="79"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="60"/>
-      <c r="D187" s="60"/>
-      <c r="E187" s="41"/>
-      <c r="F187" s="41"/>
+      <c r="A187" s="3">
+        <v>42031</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="63">
+        <v>500</v>
+      </c>
+      <c r="E187" s="42">
+        <v>8.48</v>
+      </c>
+      <c r="F187" s="42">
+        <v>8.65</v>
+      </c>
       <c r="G187" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4244.99</v>
       </c>
       <c r="H187" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4320.01</v>
       </c>
       <c r="I187" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>75.020000000000437</v>
       </c>
       <c r="J187" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.16999999999999993</v>
       </c>
       <c r="K187" s="1">
         <v>4.99</v>
@@ -7439,26 +7525,36 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="60"/>
-      <c r="D188" s="60"/>
-      <c r="E188" s="41"/>
-      <c r="F188" s="41"/>
+      <c r="B188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="63">
+        <v>500</v>
+      </c>
+      <c r="E188" s="41">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="F188" s="41">
+        <v>8.6199999999999992</v>
+      </c>
       <c r="G188" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4274.99</v>
       </c>
       <c r="H188" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4305.01</v>
       </c>
       <c r="I188" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>30.020000000000437</v>
       </c>
       <c r="J188" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="K188" s="1">
         <v>4.99</v>
@@ -7468,7 +7564,7 @@
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="60"/>
-      <c r="D189" s="60"/>
+      <c r="D189" s="63"/>
       <c r="E189" s="41"/>
       <c r="F189" s="41"/>
       <c r="G189" s="1">
@@ -11515,7 +11611,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="55">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -772,10 +772,10 @@
   <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="N156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="N171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
+      <selection pane="bottomRight" activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +861,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="47">
         <f>SUM(I6:I271)</f>
-        <v>6310.8000000000684</v>
+        <v>6402.920000000071</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -7524,14 +7524,14 @@
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3" t="s">
+      <c r="A188" s="22"/>
+      <c r="B188" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C188" s="63" t="s">
+      <c r="C188" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="63">
+      <c r="D188" s="61">
         <v>500</v>
       </c>
       <c r="E188" s="41">
@@ -7540,48 +7540,62 @@
       <c r="F188" s="41">
         <v>8.6199999999999992</v>
       </c>
-      <c r="G188" s="1">
+      <c r="G188" s="23">
         <f t="shared" si="10"/>
         <v>4274.99</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="24">
         <f t="shared" si="11"/>
         <v>4305.01</v>
       </c>
-      <c r="I188" s="20">
+      <c r="I188" s="34">
         <f t="shared" si="12"/>
         <v>30.020000000000437</v>
       </c>
-      <c r="J188" s="2">
+      <c r="J188" s="24">
         <f t="shared" si="13"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="K188" s="1">
-        <v>4.99</v>
-      </c>
+      <c r="K188" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L188" s="52"/>
+      <c r="M188" s="79"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="60"/>
-      <c r="D189" s="63"/>
-      <c r="E189" s="41"/>
-      <c r="F189" s="41"/>
+      <c r="A189" s="3">
+        <v>42032</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D189" s="63">
+        <v>500</v>
+      </c>
+      <c r="E189" s="42">
+        <v>3.25</v>
+      </c>
+      <c r="F189" s="42">
+        <v>3.28</v>
+      </c>
       <c r="G189" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1629.99</v>
       </c>
       <c r="H189" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1635.01</v>
       </c>
       <c r="I189" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.0199999999999818</v>
       </c>
       <c r="J189" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.9999999999999805E-2</v>
       </c>
       <c r="K189" s="1">
         <v>4.99</v>
@@ -7589,26 +7603,36 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="60"/>
-      <c r="D190" s="60"/>
-      <c r="E190" s="41"/>
-      <c r="F190" s="41"/>
+      <c r="B190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D190" s="63">
+        <v>500</v>
+      </c>
+      <c r="E190" s="41">
+        <v>2.58</v>
+      </c>
+      <c r="F190" s="41">
+        <v>2.65</v>
+      </c>
       <c r="G190" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1294.99</v>
       </c>
       <c r="H190" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1320.01</v>
       </c>
       <c r="I190" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25.019999999999982</v>
       </c>
       <c r="J190" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.999999999999984E-2</v>
       </c>
       <c r="K190" s="1">
         <v>4.99</v>
@@ -7616,26 +7640,36 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="60"/>
-      <c r="D191" s="60"/>
-      <c r="E191" s="41"/>
-      <c r="F191" s="41"/>
+      <c r="B191" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="63">
+        <v>500</v>
+      </c>
+      <c r="E191" s="41">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F191" s="41">
+        <v>8.6199999999999992</v>
+      </c>
       <c r="G191" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4279.99</v>
       </c>
       <c r="H191" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4305.01</v>
       </c>
       <c r="I191" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>25.020000000000437</v>
       </c>
       <c r="J191" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.9999999999998508E-2</v>
       </c>
       <c r="K191" s="1">
         <v>4.99</v>
@@ -7643,14 +7677,22 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="60"/>
-      <c r="D192" s="60"/>
-      <c r="E192" s="41"/>
+      <c r="B192" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D192" s="63">
+        <v>500</v>
+      </c>
+      <c r="E192" s="41">
+        <v>2.62</v>
+      </c>
       <c r="F192" s="41"/>
       <c r="G192" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1314.99</v>
       </c>
       <c r="H192" s="2">
         <f t="shared" si="11"/>
@@ -7670,26 +7712,36 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="60"/>
-      <c r="D193" s="60"/>
-      <c r="E193" s="41"/>
-      <c r="F193" s="41"/>
+      <c r="B193" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="63">
+        <v>500</v>
+      </c>
+      <c r="E193" s="41">
+        <v>8.56</v>
+      </c>
+      <c r="F193" s="41">
+        <v>8.61</v>
+      </c>
       <c r="G193" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4284.99</v>
       </c>
       <c r="H193" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4300.01</v>
       </c>
       <c r="I193" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15.020000000000437</v>
       </c>
       <c r="J193" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.9999999999998934E-2</v>
       </c>
       <c r="K193" s="1">
         <v>4.99</v>
@@ -7697,26 +7749,36 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="60"/>
-      <c r="D194" s="60"/>
-      <c r="E194" s="41"/>
-      <c r="F194" s="41"/>
+      <c r="B194" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D194" s="63">
+        <v>500</v>
+      </c>
+      <c r="E194" s="41">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F194" s="41">
+        <v>2.4900000000000002</v>
+      </c>
       <c r="G194" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1239.99</v>
       </c>
       <c r="H194" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1240.01</v>
       </c>
       <c r="I194" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.999999999998181E-2</v>
       </c>
       <c r="J194" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="K194" s="1">
         <v>4.99</v>
@@ -7724,14 +7786,22 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="60"/>
-      <c r="D195" s="60"/>
-      <c r="E195" s="41"/>
+      <c r="B195" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="63">
+        <v>500</v>
+      </c>
+      <c r="E195" s="41">
+        <v>8.56</v>
+      </c>
       <c r="F195" s="41"/>
       <c r="G195" s="1">
         <f t="shared" ref="G195:G258" si="14">IF(D195&gt;0,(D195*E195)+K195,0)</f>
-        <v>0</v>
+        <v>4284.99</v>
       </c>
       <c r="H195" s="2">
         <f t="shared" ref="H195:H258" si="15">IF(F195&gt;0,(D195*F195)-K195,0)</f>
@@ -7751,26 +7821,36 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="60"/>
-      <c r="D196" s="60"/>
-      <c r="E196" s="41"/>
-      <c r="F196" s="41"/>
+      <c r="B196" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="63">
+        <v>400</v>
+      </c>
+      <c r="E196" s="41">
+        <v>8.32</v>
+      </c>
+      <c r="F196" s="41">
+        <v>8.4</v>
+      </c>
       <c r="G196" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3332.99</v>
       </c>
       <c r="H196" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3355.01</v>
       </c>
       <c r="I196" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>22.020000000000437</v>
       </c>
       <c r="J196" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="K196" s="1">
         <v>4.99</v>

--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="58">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -189,6 +189,15 @@
   <si>
     <t>Cover</t>
   </si>
+  <si>
+    <t>BNS-CAN</t>
+  </si>
+  <si>
+    <t>BNS-US</t>
+  </si>
+  <si>
+    <t>Sell on 30-Jan</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -351,12 +360,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -467,6 +487,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -775,7 +802,7 @@
       <pane xSplit="13" ySplit="5" topLeftCell="N171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B196" sqref="B196"/>
+      <selection pane="bottomRight" activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +888,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="47">
         <f>SUM(I6:I271)</f>
-        <v>6402.920000000071</v>
+        <v>6628.0400000000736</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -7228,7 +7255,7 @@
       <c r="B180" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C180" s="64" t="s">
+      <c r="C180" s="63" t="s">
         <v>45</v>
       </c>
       <c r="D180" s="63">
@@ -7237,25 +7264,30 @@
       <c r="E180" s="42">
         <v>3</v>
       </c>
-      <c r="F180" s="42"/>
+      <c r="F180" s="42">
+        <v>3.03</v>
+      </c>
       <c r="G180" s="1">
         <f t="shared" si="10"/>
         <v>1504.99</v>
       </c>
       <c r="H180" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1510.01</v>
       </c>
       <c r="I180" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.0199999999999818</v>
       </c>
       <c r="J180" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.9999999999999805E-2</v>
       </c>
       <c r="K180" s="1">
         <v>4.99</v>
+      </c>
+      <c r="L180" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -7300,7 +7332,7 @@
       <c r="B182" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C182" s="65" t="s">
+      <c r="C182" s="61" t="s">
         <v>45</v>
       </c>
       <c r="D182" s="61">
@@ -7310,7 +7342,7 @@
         <v>2.79</v>
       </c>
       <c r="F182" s="41">
-        <v>2.81</v>
+        <v>3.03</v>
       </c>
       <c r="G182" s="23">
         <f t="shared" si="10"/>
@@ -7318,20 +7350,22 @@
       </c>
       <c r="H182" s="24">
         <f t="shared" si="11"/>
-        <v>1400.01</v>
+        <v>1510.01</v>
       </c>
       <c r="I182" s="34">
         <f t="shared" si="12"/>
-        <v>1.999999999998181E-2</v>
+        <v>110.01999999999998</v>
       </c>
       <c r="J182" s="24">
         <f t="shared" si="13"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0.23999999999999977</v>
       </c>
       <c r="K182" s="23">
         <v>4.99</v>
       </c>
-      <c r="L182" s="52"/>
+      <c r="L182" s="52" t="s">
+        <v>57</v>
+      </c>
       <c r="M182" s="79"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -7375,7 +7409,9 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C184" s="61" t="s">
         <v>9</v>
       </c>
@@ -7414,7 +7450,9 @@
       <c r="A185" s="3">
         <v>42030</v>
       </c>
-      <c r="B185" s="3"/>
+      <c r="B185" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C185" s="63" t="s">
         <v>43</v>
       </c>
@@ -7449,7 +7487,9 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="22"/>
-      <c r="B186" s="22"/>
+      <c r="B186" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="C186" s="65" t="s">
         <v>43</v>
       </c>
@@ -7459,24 +7499,22 @@
       <c r="E186" s="41">
         <v>3.51</v>
       </c>
-      <c r="F186" s="41">
-        <v>3.71</v>
-      </c>
+      <c r="F186" s="41"/>
       <c r="G186" s="23">
         <f t="shared" si="10"/>
         <v>1759.99</v>
       </c>
       <c r="H186" s="24">
         <f t="shared" si="11"/>
-        <v>1850.01</v>
+        <v>0</v>
       </c>
       <c r="I186" s="34">
         <f t="shared" si="12"/>
-        <v>90.019999999999982</v>
+        <v>0</v>
       </c>
       <c r="J186" s="24">
         <f t="shared" si="13"/>
-        <v>0.20000000000000018</v>
+        <v>0</v>
       </c>
       <c r="K186" s="23">
         <v>4.99</v>
@@ -7680,7 +7718,7 @@
       <c r="B192" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C192" s="64" t="s">
+      <c r="C192" s="63" t="s">
         <v>45</v>
       </c>
       <c r="D192" s="63">
@@ -7689,28 +7727,30 @@
       <c r="E192" s="41">
         <v>2.62</v>
       </c>
-      <c r="F192" s="41"/>
+      <c r="F192" s="41">
+        <v>2.74</v>
+      </c>
       <c r="G192" s="1">
         <f t="shared" si="10"/>
         <v>1314.99</v>
       </c>
       <c r="H192" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1365.01</v>
       </c>
       <c r="I192" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>50.019999999999982</v>
       </c>
       <c r="J192" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.12000000000000011</v>
       </c>
       <c r="K192" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
         <v>33</v>
@@ -7747,7 +7787,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
         <v>33</v>
@@ -7784,12 +7824,12 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C195" s="64" t="s">
+      <c r="C195" s="63" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="63">
@@ -7798,173 +7838,226 @@
       <c r="E195" s="41">
         <v>8.56</v>
       </c>
-      <c r="F195" s="41"/>
+      <c r="F195" s="41">
+        <v>8.69</v>
+      </c>
       <c r="G195" s="1">
         <f t="shared" ref="G195:G258" si="14">IF(D195&gt;0,(D195*E195)+K195,0)</f>
         <v>4284.99</v>
       </c>
       <c r="H195" s="2">
         <f t="shared" ref="H195:H258" si="15">IF(F195&gt;0,(D195*F195)-K195,0)</f>
-        <v>0</v>
+        <v>4340.01</v>
       </c>
       <c r="I195" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>55.020000000000437</v>
       </c>
       <c r="J195" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.12999999999999901</v>
       </c>
       <c r="K195" s="1">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3" t="s">
+      <c r="L195" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" s="22"/>
+      <c r="B196" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C196" s="64" t="s">
+      <c r="C196" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D196" s="63">
+      <c r="D196" s="61">
         <v>400</v>
       </c>
       <c r="E196" s="41">
         <v>8.32</v>
       </c>
       <c r="F196" s="41">
-        <v>8.4</v>
-      </c>
-      <c r="G196" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G196" s="23">
         <f t="shared" si="14"/>
         <v>3332.99</v>
       </c>
-      <c r="H196" s="2">
+      <c r="H196" s="24">
         <f t="shared" si="15"/>
-        <v>3355.01</v>
-      </c>
-      <c r="I196" s="20">
+        <v>3375.0099999999998</v>
+      </c>
+      <c r="I196" s="34">
         <f t="shared" si="12"/>
-        <v>22.020000000000437</v>
-      </c>
-      <c r="J196" s="2">
+        <v>42.019999999999982</v>
+      </c>
+      <c r="J196" s="24">
+        <f t="shared" si="13"/>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="K196" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L196" s="52"/>
+      <c r="M196" s="79"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" s="82">
+        <v>42033</v>
+      </c>
+      <c r="B197" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C197" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D197" s="83">
+        <v>500</v>
+      </c>
+      <c r="E197" s="41">
+        <v>2.8</v>
+      </c>
+      <c r="F197" s="41">
+        <v>2.85</v>
+      </c>
+      <c r="G197" s="84">
+        <f t="shared" si="14"/>
+        <v>1404.99</v>
+      </c>
+      <c r="H197" s="85">
+        <f t="shared" si="15"/>
+        <v>1420.01</v>
+      </c>
+      <c r="I197" s="86">
+        <f t="shared" si="12"/>
+        <v>15.019999999999982</v>
+      </c>
+      <c r="J197" s="85">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="K197" s="84">
+        <v>4.99</v>
+      </c>
+      <c r="L197" s="87"/>
+      <c r="M197" s="88"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>42034</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D198" s="63">
+        <v>500</v>
+      </c>
+      <c r="E198" s="42">
+        <v>2.76</v>
+      </c>
+      <c r="F198" s="42">
+        <v>2.81</v>
+      </c>
+      <c r="G198" s="1">
+        <f t="shared" si="14"/>
+        <v>1384.99</v>
+      </c>
+      <c r="H198" s="2">
+        <f t="shared" si="15"/>
+        <v>1400.01</v>
+      </c>
+      <c r="I198" s="20">
+        <f t="shared" si="12"/>
+        <v>15.019999999999982</v>
+      </c>
+      <c r="J198" s="2">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="K198" s="1">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D199" s="63">
+        <v>500</v>
+      </c>
+      <c r="E199" s="41">
+        <v>2.76</v>
+      </c>
+      <c r="F199" s="41">
+        <v>2.84</v>
+      </c>
+      <c r="G199" s="1">
+        <f t="shared" si="14"/>
+        <v>1384.99</v>
+      </c>
+      <c r="H199" s="2">
+        <f t="shared" si="15"/>
+        <v>1415.01</v>
+      </c>
+      <c r="I199" s="20">
+        <f t="shared" si="12"/>
+        <v>30.019999999999982</v>
+      </c>
+      <c r="J199" s="2">
         <f t="shared" si="13"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="K196" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="60"/>
-      <c r="D197" s="60"/>
-      <c r="E197" s="41"/>
-      <c r="F197" s="41"/>
-      <c r="G197" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H197" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I197" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J197" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K197" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="60"/>
-      <c r="D198" s="60"/>
-      <c r="E198" s="41"/>
-      <c r="F198" s="41"/>
-      <c r="G198" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H198" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I198" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J198" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K198" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
-      <c r="E199" s="41"/>
-      <c r="F199" s="41"/>
-      <c r="G199" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H199" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I199" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J199" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="K199" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="60"/>
-      <c r="D200" s="60"/>
-      <c r="E200" s="41"/>
-      <c r="F200" s="41"/>
+      <c r="B200" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D200" s="63">
+        <v>500</v>
+      </c>
+      <c r="E200" s="41">
+        <v>2.86</v>
+      </c>
+      <c r="F200" s="41">
+        <v>2.91</v>
+      </c>
       <c r="G200" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1434.99</v>
       </c>
       <c r="H200" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1450.01</v>
       </c>
       <c r="I200" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15.019999999999982</v>
       </c>
       <c r="J200" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="K200" s="1">
         <v>4.99</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="60"/>
@@ -7991,7 +8084,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="60"/>
@@ -8018,7 +8111,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="60"/>
@@ -8045,7 +8138,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="60"/>
@@ -8072,7 +8165,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="60"/>
@@ -8099,7 +8192,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="60"/>
@@ -8126,7 +8219,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="60"/>
@@ -8153,7 +8246,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="60"/>
@@ -12110,10 +12203,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12134,6 +12227,16 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="60">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Sell on 30-Jan</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
 </sst>
 </file>
@@ -796,13 +802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:P271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="N171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="N192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F198" sqref="F198"/>
+      <selection pane="bottomRight" activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,9 +826,10 @@
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="58"/>
@@ -841,7 +848,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="58"/>
@@ -860,7 +867,7 @@
         <v>-2030.1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="58"/>
@@ -877,7 +884,7 @@
       </c>
       <c r="M3" s="76"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="58"/>
@@ -888,14 +895,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="47">
         <f>SUM(I6:I271)</f>
-        <v>6628.0400000000736</v>
+        <v>6688.0600000000741</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="76"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -935,8 +942,14 @@
       <c r="M5" s="76" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>41950</v>
       </c>
@@ -975,8 +988,9 @@
         <v>9.99</v>
       </c>
       <c r="M6" s="77"/>
-    </row>
-    <row r="7" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>41950</v>
       </c>
@@ -1013,8 +1027,9 @@
         <v>9.99</v>
       </c>
       <c r="M7" s="77"/>
-    </row>
-    <row r="8" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>41955</v>
       </c>
@@ -1051,8 +1066,9 @@
         <v>9.99</v>
       </c>
       <c r="M8" s="78"/>
-    </row>
-    <row r="9" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
         <v>34</v>
@@ -1087,8 +1103,9 @@
         <v>9.99</v>
       </c>
       <c r="M9" s="77"/>
-    </row>
-    <row r="10" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>41974</v>
       </c>
@@ -1123,8 +1140,9 @@
         <v>4.99</v>
       </c>
       <c r="M10" s="77"/>
-    </row>
-    <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="59" t="s">
@@ -1157,8 +1175,9 @@
         <v>4.99</v>
       </c>
       <c r="M11" s="77"/>
-    </row>
-    <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="59" t="s">
@@ -1191,8 +1210,9 @@
         <v>4.99</v>
       </c>
       <c r="M12" s="77"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41975</v>
       </c>
@@ -1233,7 +1253,7 @@
         <v>-439.93999999999869</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="60" t="s">
@@ -1268,7 +1288,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="60" t="s">
@@ -1303,7 +1323,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41976</v>
       </c>
@@ -1906,7 +1926,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="60" t="s">
@@ -1941,7 +1961,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="61" t="s">
@@ -1978,7 +1998,7 @@
       <c r="L34" s="52"/>
       <c r="M34" s="79"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41982</v>
       </c>
@@ -2015,7 +2035,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="60" t="s">
@@ -2050,7 +2070,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="60" t="s">
@@ -2085,7 +2105,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="60" t="s">
@@ -2120,7 +2140,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="60" t="s">
@@ -2155,7 +2175,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="60" t="s">
@@ -2190,7 +2210,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="61" t="s">
@@ -2227,7 +2247,7 @@
       <c r="L41" s="52"/>
       <c r="M41" s="79"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41983</v>
       </c>
@@ -2264,7 +2284,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="48" t="s">
         <v>33</v>
@@ -2301,8 +2321,9 @@
         <v>4.99</v>
       </c>
       <c r="M43" s="80"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43" s="49"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="60" t="s">
@@ -2337,7 +2358,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="60" t="s">
@@ -2372,7 +2393,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="60" t="s">
@@ -2407,7 +2428,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="60" t="s">
@@ -2442,7 +2463,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="60" t="s">
@@ -2477,7 +2498,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="61" t="s">
@@ -2514,7 +2535,7 @@
       <c r="L49" s="52"/>
       <c r="M49" s="79"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>41984</v>
       </c>
@@ -2551,7 +2572,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="60" t="s">
@@ -2586,7 +2607,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="60" t="s">
@@ -2621,7 +2642,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="60" t="s">
@@ -2656,7 +2677,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="60" t="s">
@@ -2691,7 +2712,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="60" t="s">
@@ -2726,7 +2747,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="60" t="s">
@@ -2761,7 +2782,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="60" t="s">
@@ -2796,7 +2817,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="53" t="s">
@@ -2830,8 +2851,9 @@
       </c>
       <c r="L58" s="54"/>
       <c r="M58" s="79"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58" s="49"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41985</v>
       </c>
@@ -2868,7 +2890,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="63" t="s">
@@ -2903,7 +2925,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="63" t="s">
@@ -2938,7 +2960,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="61" t="s">
@@ -2975,7 +2997,7 @@
       <c r="L62" s="52"/>
       <c r="M62" s="79"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41988</v>
       </c>
@@ -3012,7 +3034,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="62" t="s">
@@ -3047,8 +3069,9 @@
         <v>4.99</v>
       </c>
       <c r="M64" s="80"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O64" s="49"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="60" t="s">
@@ -3083,7 +3106,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="60" t="s">
@@ -3118,7 +3141,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="53" t="s">
@@ -3152,8 +3175,9 @@
       </c>
       <c r="L67" s="54"/>
       <c r="M67" s="79"/>
-    </row>
-    <row r="68" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="49"/>
+    </row>
+    <row r="68" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>41989</v>
       </c>
@@ -3190,8 +3214,9 @@
         <v>4.99</v>
       </c>
       <c r="M68" s="81"/>
-    </row>
-    <row r="69" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="20"/>
+    </row>
+    <row r="69" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="60" t="s">
@@ -3226,8 +3251,9 @@
         <v>4.99</v>
       </c>
       <c r="M69" s="81"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O69" s="20"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="60" t="s">
@@ -3262,7 +3288,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="60" t="s">
@@ -3297,7 +3323,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="60" t="s">
@@ -3332,8 +3358,9 @@
         <v>4.99</v>
       </c>
       <c r="M72" s="81"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O72" s="20"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="60" t="s">
@@ -3368,7 +3395,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="61" t="s">
@@ -3405,7 +3432,7 @@
       <c r="L74" s="52"/>
       <c r="M74" s="79"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41990</v>
       </c>
@@ -3442,7 +3469,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="63" t="s">
@@ -3477,7 +3504,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="63" t="s">
@@ -3512,8 +3539,9 @@
         <v>4.99</v>
       </c>
       <c r="M77" s="81"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O77" s="20"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="63" t="s">
@@ -3548,7 +3576,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="61" t="s">
@@ -3585,7 +3613,7 @@
       <c r="L79" s="52"/>
       <c r="M79" s="79"/>
     </row>
-    <row r="80" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>41991</v>
       </c>
@@ -3622,8 +3650,9 @@
         <v>4.99</v>
       </c>
       <c r="M80" s="81"/>
-    </row>
-    <row r="81" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="20"/>
+    </row>
+    <row r="81" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="63" t="s">
@@ -3658,8 +3687,9 @@
         <v>4.99</v>
       </c>
       <c r="M81" s="81"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O81" s="20"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="63" t="s">
@@ -3694,7 +3724,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="63" t="s">
@@ -3729,8 +3759,9 @@
         <v>4.99</v>
       </c>
       <c r="M83" s="81"/>
-    </row>
-    <row r="84" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="20"/>
+    </row>
+    <row r="84" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="63" t="s">
@@ -3765,8 +3796,9 @@
         <v>4.99</v>
       </c>
       <c r="M84" s="81"/>
-    </row>
-    <row r="85" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="20"/>
+    </row>
+    <row r="85" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="63" t="s">
@@ -3801,8 +3833,9 @@
         <v>4.99</v>
       </c>
       <c r="M85" s="81"/>
-    </row>
-    <row r="86" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="20"/>
+    </row>
+    <row r="86" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="63" t="s">
@@ -3837,8 +3870,9 @@
         <v>4.99</v>
       </c>
       <c r="M86" s="81"/>
-    </row>
-    <row r="87" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="20"/>
+    </row>
+    <row r="87" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="46"/>
       <c r="B87" s="46"/>
       <c r="C87" s="61" t="s">
@@ -3874,8 +3908,9 @@
       </c>
       <c r="L87" s="52"/>
       <c r="M87" s="79"/>
-    </row>
-    <row r="88" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="20"/>
+    </row>
+    <row r="88" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>41992</v>
       </c>
@@ -3913,8 +3948,9 @@
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="81"/>
-    </row>
-    <row r="89" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="20"/>
+    </row>
+    <row r="89" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="63" t="s">
@@ -3949,8 +3985,9 @@
         <v>4.99</v>
       </c>
       <c r="M89" s="81"/>
-    </row>
-    <row r="90" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="20"/>
+    </row>
+    <row r="90" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="63" t="s">
@@ -3985,8 +4022,9 @@
         <v>4.99</v>
       </c>
       <c r="M90" s="81"/>
-    </row>
-    <row r="91" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="20"/>
+    </row>
+    <row r="91" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="63" t="s">
@@ -4021,8 +4059,9 @@
         <v>4.99</v>
       </c>
       <c r="M91" s="81"/>
-    </row>
-    <row r="92" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="20"/>
+    </row>
+    <row r="92" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="63" t="s">
@@ -4057,8 +4096,9 @@
         <v>4.99</v>
       </c>
       <c r="M92" s="81"/>
-    </row>
-    <row r="93" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="20"/>
+    </row>
+    <row r="93" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="64" t="s">
@@ -4091,8 +4131,9 @@
         <v>4.99</v>
       </c>
       <c r="M93" s="81"/>
-    </row>
-    <row r="94" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="20"/>
+    </row>
+    <row r="94" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="63" t="s">
@@ -4127,8 +4168,9 @@
         <v>4.99</v>
       </c>
       <c r="M94" s="81"/>
-    </row>
-    <row r="95" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="20"/>
+    </row>
+    <row r="95" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="46"/>
       <c r="B95" s="46"/>
       <c r="C95" s="65" t="s">
@@ -4162,8 +4204,9 @@
       </c>
       <c r="L95" s="54"/>
       <c r="M95" s="79"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O95" s="20"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>357</v>
       </c>
@@ -4201,7 +4244,7 @@
       </c>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="63" t="s">
@@ -4236,7 +4279,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="63" t="s">
@@ -4271,7 +4314,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="63" t="s">
@@ -4306,7 +4349,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="61" t="s">
@@ -4343,7 +4386,7 @@
       <c r="L100" s="52"/>
       <c r="M100" s="79"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>42361</v>
       </c>
@@ -4381,7 +4424,7 @@
       </c>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="63" t="s">
@@ -4416,7 +4459,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="63" t="s">
@@ -4451,8 +4494,9 @@
         <v>4.99</v>
       </c>
       <c r="M103" s="81"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O103" s="20"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="63" t="s">
@@ -4485,7 +4529,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="46"/>
       <c r="B105" s="46"/>
       <c r="C105" s="73" t="s">
@@ -4521,8 +4565,9 @@
       </c>
       <c r="L105" s="54"/>
       <c r="M105" s="79"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O105" s="20"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>42362</v>
       </c>
@@ -4559,7 +4604,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>42364</v>
       </c>
@@ -4596,7 +4641,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>42367</v>
       </c>
@@ -4633,7 +4678,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="63" t="s">
@@ -4668,7 +4713,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>42368</v>
       </c>
@@ -4705,7 +4750,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>42369</v>
       </c>
@@ -4742,7 +4787,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="63" t="s">
@@ -4777,7 +4822,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="61" t="s">
@@ -4814,7 +4859,7 @@
       <c r="L113" s="52"/>
       <c r="M113" s="79"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>42006</v>
       </c>
@@ -4852,7 +4897,7 @@
       </c>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="63" t="s">
@@ -4887,7 +4932,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="63" t="s">
@@ -4920,7 +4965,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="63" t="s">
@@ -4955,7 +5000,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="61" t="s">
@@ -4992,7 +5037,7 @@
       <c r="L118" s="52"/>
       <c r="M118" s="79"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>42009</v>
       </c>
@@ -5033,7 +5078,7 @@
         <v>290.08000000000129</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
         <v>34</v>
@@ -5068,8 +5113,9 @@
         <v>9.99</v>
       </c>
       <c r="M120" s="81"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O120" s="20"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>34</v>
@@ -5104,7 +5150,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
         <v>33</v>
@@ -5141,7 +5187,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
         <v>33</v>
@@ -5176,7 +5222,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
         <v>33</v>
@@ -5213,7 +5259,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="22"/>
       <c r="B125" s="22" t="s">
         <v>33</v>
@@ -5252,7 +5298,7 @@
       <c r="L125" s="52"/>
       <c r="M125" s="79"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>42011</v>
       </c>
@@ -5295,7 +5341,7 @@
         <v>210.10000000000218</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>33</v>
@@ -5332,7 +5378,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>33</v>
@@ -7750,7 +7796,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
         <v>33</v>
@@ -7787,7 +7833,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
         <v>33</v>
@@ -7824,7 +7870,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
         <v>33</v>
@@ -7864,7 +7910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="22"/>
       <c r="B196" s="22" t="s">
         <v>33</v>
@@ -7903,7 +7949,7 @@
       <c r="L196" s="52"/>
       <c r="M196" s="79"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="82">
         <v>42033</v>
       </c>
@@ -7944,7 +7990,7 @@
       <c r="L197" s="87"/>
       <c r="M197" s="88"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>42034</v>
       </c>
@@ -7983,7 +8029,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
         <v>33</v>
@@ -8020,15 +8066,15 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3" t="s">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" s="22"/>
+      <c r="B200" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C200" s="63" t="s">
+      <c r="C200" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D200" s="63">
+      <c r="D200" s="61">
         <v>500</v>
       </c>
       <c r="E200" s="41">
@@ -8037,54 +8083,83 @@
       <c r="F200" s="41">
         <v>2.91</v>
       </c>
-      <c r="G200" s="1">
+      <c r="G200" s="23">
         <f t="shared" si="14"/>
         <v>1434.99</v>
       </c>
-      <c r="H200" s="2">
+      <c r="H200" s="24">
         <f t="shared" si="15"/>
         <v>1450.01</v>
       </c>
-      <c r="I200" s="20">
+      <c r="I200" s="34">
         <f t="shared" si="12"/>
         <v>15.019999999999982</v>
       </c>
-      <c r="J200" s="2">
+      <c r="J200" s="24">
         <f t="shared" si="13"/>
         <v>5.0000000000000266E-2</v>
       </c>
-      <c r="K200" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="60"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="41"/>
-      <c r="F201" s="41"/>
+      <c r="K200" s="23">
+        <v>4.99</v>
+      </c>
+      <c r="L200" s="52"/>
+      <c r="M200" s="79"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>42037</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D201" s="63">
+        <v>1000</v>
+      </c>
+      <c r="E201" s="42">
+        <v>2.67</v>
+      </c>
+      <c r="F201" s="42">
+        <v>2.74</v>
+      </c>
       <c r="G201" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2674.99</v>
       </c>
       <c r="H201" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2735.01</v>
       </c>
       <c r="I201" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>60.020000000000437</v>
       </c>
       <c r="J201" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.0000000000000284E-2</v>
       </c>
       <c r="K201" s="1">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M201" s="10">
+        <v>1.2615000000000001</v>
+      </c>
+      <c r="N201" s="2">
+        <f>((D201*E201)+K201)*M201</f>
+        <v>3374.4998849999997</v>
+      </c>
+      <c r="O201" s="1">
+        <f>((D201*F201)-K201)*M201</f>
+        <v>3450.2151150000004</v>
+      </c>
+      <c r="P201" s="2">
+        <f>O201-N201</f>
+        <v>75.715230000000702</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="60"/>
@@ -8111,7 +8186,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="60"/>
@@ -8138,7 +8213,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="60"/>
@@ -8165,7 +8240,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="60"/>
@@ -8192,7 +8267,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="60"/>
@@ -8219,7 +8294,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="60"/>
@@ -8246,7 +8321,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="60"/>
@@ -9975,7 +10050,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>AccountType</formula1>
     </dataValidation>

--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="55">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -200,6 +200,18 @@
   <si>
     <t>Pending</t>
   </si>
+  <si>
+    <t>BNK.TO</t>
+  </si>
+  <si>
+    <t>Last Cash</t>
+  </si>
+  <si>
+    <t>TFSA</t>
+  </si>
+  <si>
+    <t>Bet On</t>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +280,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +312,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +435,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -480,18 +504,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -505,9 +523,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -528,9 +543,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -538,20 +550,38 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
@@ -859,36 +889,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O500"/>
+  <dimension ref="A1:P500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="5" topLeftCell="O196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="5" topLeftCell="O195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H198" sqref="H198"/>
+      <selection pane="bottomRight" activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="28" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="77" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="24"/>
@@ -903,10 +934,12 @@
       <c r="M1" s="20"/>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="C2" s="83" t="s">
+        <v>54</v>
+      </c>
       <c r="D2" s="24"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -919,12 +952,12 @@
       <c r="M2" s="20"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="52"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
       <c r="H3" s="25"/>
@@ -935,43 +968,46 @@
       <c r="M3" s="20"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="51" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="22">
         <f>SUM(M6:M271)</f>
-        <v>6936.7711080000736</v>
+        <v>7730.9389640000754</v>
       </c>
       <c r="N4" s="19"/>
-    </row>
-    <row r="5" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="P4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -980,7 +1016,7 @@
       <c r="G5" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="36" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="32" t="s">
@@ -989,40 +1025,43 @@
       <c r="J5" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="55" t="s">
+      <c r="K5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="P5" s="78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
         <v>41950</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="42">
         <v>1000</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>12.9</v>
       </c>
       <c r="F6" s="6">
         <v>9.99</v>
       </c>
       <c r="G6" s="28"/>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>13.02</v>
       </c>
       <c r="I6" s="6">
@@ -1045,28 +1084,29 @@
         <f t="shared" ref="N6:N69" si="3">IF(H6&gt;0,H6-E6,0)</f>
         <v>0.11999999999999922</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
         <v>41950</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="42">
         <v>1000</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>13.3</v>
       </c>
       <c r="F7" s="6">
         <v>9.99</v>
       </c>
       <c r="G7" s="28"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="6">
         <v>9.99</v>
       </c>
@@ -1087,28 +1127,29 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
         <v>41955</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="44">
         <v>1000</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>12.83</v>
       </c>
       <c r="F8" s="27">
         <v>9.99</v>
       </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="27">
         <v>9.99</v>
       </c>
@@ -1129,26 +1170,27 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43" t="s">
+      <c r="P8" s="79"/>
+    </row>
+    <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="42">
         <v>800</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>12.15</v>
       </c>
       <c r="F9" s="6">
         <v>9.99</v>
       </c>
       <c r="G9" s="28"/>
-      <c r="H9" s="38"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="6">
         <v>9.99</v>
       </c>
@@ -1169,26 +1211,27 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
         <v>41974</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="42">
         <v>1000</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>12.44</v>
       </c>
       <c r="F10" s="6">
         <v>4.99</v>
       </c>
       <c r="G10" s="28"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="6">
         <v>4.99</v>
       </c>
@@ -1209,24 +1252,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44" t="s">
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="42">
         <v>1000</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>12.42</v>
       </c>
       <c r="F11" s="6">
         <v>4.99</v>
       </c>
       <c r="G11" s="28"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="6">
         <v>4.99</v>
       </c>
@@ -1247,24 +1291,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44" t="s">
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="42">
         <v>1000</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>11.9</v>
       </c>
       <c r="F12" s="6">
         <v>4.99</v>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="6">
         <v>4.99</v>
       </c>
@@ -1285,25 +1330,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
         <v>41975</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="42">
         <v>1000</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>9.61</v>
       </c>
       <c r="F13" s="6">
         <v>4.99</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <v>9.7100000000000009</v>
       </c>
       <c r="I13" s="6">
@@ -1326,22 +1372,22 @@
         <v>0.10000000000000142</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="42">
         <v>2000</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>3.78</v>
       </c>
       <c r="F14" s="6">
         <v>4.99</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <v>3.52</v>
       </c>
       <c r="I14" s="6">
@@ -1364,22 +1410,22 @@
         <v>-0.25999999999999979</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="42">
         <v>1000</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>3.45</v>
       </c>
       <c r="F15" s="6">
         <v>4.99</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="37">
         <v>3.46</v>
       </c>
       <c r="I15" s="6">
@@ -1402,24 +1448,24 @@
         <v>9.9999999999997868E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
         <v>41976</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="42">
         <v>1000</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>3.75</v>
       </c>
       <c r="F16" s="6">
         <v>4.99</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>3.78</v>
       </c>
       <c r="I16" s="6">
@@ -1443,21 +1489,21 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="42">
         <v>1000</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>3.94</v>
       </c>
       <c r="F17" s="6">
         <v>4.99</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="37">
         <v>3.99</v>
       </c>
       <c r="I17" s="6">
@@ -1481,21 +1527,21 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="42">
         <v>1000</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>3.98</v>
       </c>
       <c r="F18" s="6">
         <v>4.99</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="37">
         <v>4.07</v>
       </c>
       <c r="I18" s="6">
@@ -1519,23 +1565,23 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="41">
         <v>41977</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="42">
         <v>1000</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>3.75</v>
       </c>
       <c r="F19" s="6">
         <v>4.99</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>3.81</v>
       </c>
       <c r="I19" s="6">
@@ -1559,21 +1605,21 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="42">
         <v>1000</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>8.3800000000000008</v>
       </c>
       <c r="F20" s="6">
         <v>4.99</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="37">
         <v>8.44</v>
       </c>
       <c r="I20" s="6">
@@ -1597,21 +1643,21 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="42">
         <v>1000</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <v>8.33</v>
       </c>
       <c r="F21" s="6">
         <v>4.99</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="37">
         <v>8.42</v>
       </c>
       <c r="I21" s="6">
@@ -1635,21 +1681,21 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="42">
         <v>1500</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="37">
         <v>3.41</v>
       </c>
       <c r="F22" s="6">
         <v>4.99</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="37">
         <v>3.42</v>
       </c>
       <c r="I22" s="6">
@@ -1673,23 +1719,23 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+      <c r="A23" s="41">
         <v>41978</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="42">
         <v>1000</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="37">
         <v>8.32</v>
       </c>
       <c r="F23" s="6">
         <v>4.99</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="37">
         <v>8.64</v>
       </c>
       <c r="I23" s="6">
@@ -1713,21 +1759,21 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="42">
         <v>1000</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="37">
         <v>8.8800000000000008</v>
       </c>
       <c r="F24" s="6">
         <v>4.99</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <v>8.9600000000000009</v>
       </c>
       <c r="I24" s="6">
@@ -1751,21 +1797,21 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="42">
         <v>1000</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <v>8.99</v>
       </c>
       <c r="F25" s="6">
         <v>4.99</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="37">
         <v>9</v>
       </c>
       <c r="I25" s="6">
@@ -1789,21 +1835,21 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="42">
         <v>1000</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <v>8.9499999999999993</v>
       </c>
       <c r="F26" s="6">
         <v>4.99</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="37">
         <v>9</v>
       </c>
       <c r="I26" s="6">
@@ -1827,21 +1873,21 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="42">
         <v>1000</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="37">
         <v>7.43</v>
       </c>
       <c r="F27" s="6">
         <v>4.99</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <v>7.18</v>
       </c>
       <c r="I27" s="6">
@@ -1865,21 +1911,21 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="42">
         <v>1000</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="37">
         <v>7.01</v>
       </c>
       <c r="F28" s="6">
         <v>4.99</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="37">
         <v>7.07</v>
       </c>
       <c r="I28" s="6">
@@ -1903,21 +1949,21 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="42">
         <v>1000</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="37">
         <v>3.05</v>
       </c>
       <c r="F29" s="6">
         <v>4.99</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="37">
         <v>3.12</v>
       </c>
       <c r="I29" s="6">
@@ -1941,21 +1987,21 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="42">
         <v>1500</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="37">
         <v>3.07</v>
       </c>
       <c r="F30" s="6">
         <v>4.99</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="37">
         <v>3.11</v>
       </c>
       <c r="I30" s="6">
@@ -1979,23 +2025,23 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="41">
         <v>41979</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="42">
         <v>1000</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="37">
         <v>7.12</v>
       </c>
       <c r="F31" s="6">
         <v>4.99</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="37">
         <v>7.48</v>
       </c>
       <c r="I31" s="6">
@@ -2019,21 +2065,21 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="42">
         <v>1000</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <v>7.47</v>
       </c>
       <c r="F32" s="6">
         <v>4.99</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="37">
         <v>7.61</v>
       </c>
       <c r="I32" s="6">
@@ -2056,22 +2102,22 @@
         <v>0.14000000000000057</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="42">
         <v>1000</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <v>8.27</v>
       </c>
       <c r="F33" s="6">
         <v>4.99</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="37">
         <v>8.2899999999999991</v>
       </c>
       <c r="I33" s="6">
@@ -2094,22 +2140,22 @@
         <v>1.9999999999999574E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="42">
         <v>1500</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <v>3.05</v>
       </c>
       <c r="F34" s="6">
         <v>4.99</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="37">
         <v>3.14</v>
       </c>
       <c r="I34" s="6">
@@ -2132,24 +2178,24 @@
         <v>9.0000000000000302E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="41">
         <v>41982</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="42">
         <v>1500</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="37">
         <v>3.22</v>
       </c>
       <c r="F35" s="6">
         <v>4.99</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="37">
         <v>3.61</v>
       </c>
       <c r="I35" s="6">
@@ -2172,22 +2218,22 @@
         <v>0.38999999999999968</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="42">
         <v>1000</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <v>8.17</v>
       </c>
       <c r="F36" s="6">
         <v>4.99</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="37">
         <v>8.4</v>
       </c>
       <c r="I36" s="6">
@@ -2210,22 +2256,22 @@
         <v>0.23000000000000043</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="42">
         <v>1500</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="37">
         <v>3.69</v>
       </c>
       <c r="F37" s="6">
         <v>4.99</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="37">
         <v>3.75</v>
       </c>
       <c r="I37" s="6">
@@ -2248,22 +2294,22 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="42">
         <v>1500</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="37">
         <v>3.77</v>
       </c>
       <c r="F38" s="6">
         <v>4.99</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="37">
         <v>3.69</v>
       </c>
       <c r="I38" s="6">
@@ -2286,22 +2332,22 @@
         <v>-8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="44" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="42">
         <v>1000</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="37">
         <v>7.44</v>
       </c>
       <c r="F39" s="6">
         <v>4.99</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="37">
         <v>7.48</v>
       </c>
       <c r="I39" s="6">
@@ -2324,22 +2370,22 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="42">
         <v>1500</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <v>3.6</v>
       </c>
       <c r="F40" s="6">
         <v>4.99</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="37">
         <v>3.66</v>
       </c>
       <c r="I40" s="6">
@@ -2362,22 +2408,22 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="42">
         <v>1000</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="37">
         <v>7.37</v>
       </c>
       <c r="F41" s="6">
         <v>4.99</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="37">
         <v>7.42</v>
       </c>
       <c r="I41" s="6">
@@ -2400,24 +2446,24 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="41">
         <v>41983</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="42">
         <v>1000</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="37">
         <v>8.3800000000000008</v>
       </c>
       <c r="F42" s="6">
         <v>4.99</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="37">
         <v>8.44</v>
       </c>
       <c r="I42" s="6">
@@ -2440,25 +2486,25 @@
         <v>5.9999999999998721E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47" t="s">
+    <row r="43" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="46">
         <v>1000</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="37">
         <v>5.91</v>
       </c>
       <c r="F43" s="21">
         <v>4.99</v>
       </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="38">
+      <c r="H43" s="37">
         <v>6.06</v>
       </c>
       <c r="I43" s="21">
@@ -2481,23 +2527,24 @@
         <f t="shared" si="3"/>
         <v>0.14999999999999947</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44" t="s">
+      <c r="P43" s="80"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="42">
         <v>1500</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="37">
         <v>3.46</v>
       </c>
       <c r="F44" s="6">
         <v>4.99</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="37">
         <v>3.36</v>
       </c>
       <c r="I44" s="6">
@@ -2520,22 +2567,22 @@
         <v>-0.10000000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="42">
         <v>1000</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="37">
         <v>8.59</v>
       </c>
       <c r="F45" s="6">
         <v>4.99</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="39">
         <v>8.67</v>
       </c>
       <c r="I45" s="6">
@@ -2559,22 +2606,22 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="42">
         <v>1000</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="37">
         <v>7.21</v>
       </c>
       <c r="F46" s="6">
         <v>4.99</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="39">
         <v>7.29</v>
       </c>
       <c r="I46" s="6">
@@ -2598,23 +2645,23 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="44" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="42">
         <v>1500</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="39">
         <v>3.46</v>
       </c>
       <c r="F47" s="6">
         <v>4.99</v>
       </c>
       <c r="G47" s="30"/>
-      <c r="H47" s="38">
+      <c r="H47" s="37">
         <v>2.91</v>
       </c>
       <c r="I47" s="6">
@@ -2637,22 +2684,22 @@
         <v>-0.54999999999999982</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="44" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="42">
         <v>900</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="37">
         <v>3.21</v>
       </c>
       <c r="F48" s="6">
         <v>4.99</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="37">
         <v>3.25</v>
       </c>
       <c r="I48" s="6">
@@ -2675,22 +2722,22 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="44" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="42">
         <v>900</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="37">
         <v>3.23</v>
       </c>
       <c r="F49" s="6">
         <v>4.99</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49" s="37">
         <v>3.28</v>
       </c>
       <c r="I49" s="6">
@@ -2713,24 +2760,24 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="41">
         <v>41984</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="42">
         <v>1000</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="37">
         <v>8.58</v>
       </c>
       <c r="F50" s="6">
         <v>4.99</v>
       </c>
-      <c r="H50" s="57">
+      <c r="H50" s="54">
         <v>8.82</v>
       </c>
       <c r="I50" s="6">
@@ -2754,22 +2801,22 @@
         <v>0.24000000000000021</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="42">
         <v>1000</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="37">
         <v>3</v>
       </c>
       <c r="F51" s="6">
         <v>4.99</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51" s="37">
         <v>3.05</v>
       </c>
       <c r="I51" s="6">
@@ -2792,22 +2839,22 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="44" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="42">
         <v>1000</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="37">
         <v>3.15</v>
       </c>
       <c r="F52" s="6">
         <v>4.99</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="37">
         <v>3.05</v>
       </c>
       <c r="I52" s="6">
@@ -2830,22 +2877,22 @@
         <v>-0.10000000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="44" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D53" s="42">
         <v>2000</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="37">
         <v>3.15</v>
       </c>
       <c r="F53" s="6">
         <v>4.99</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="37">
         <v>3.15</v>
       </c>
       <c r="I53" s="6">
@@ -2868,22 +2915,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="44" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="42">
         <v>1000</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="37">
         <v>8.27</v>
       </c>
       <c r="F54" s="6">
         <v>4.99</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54" s="37">
         <v>8.2799999999999994</v>
       </c>
       <c r="I54" s="6">
@@ -2906,22 +2953,22 @@
         <v>9.9999999999997868E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="42">
         <v>1000</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="37">
         <v>7.57</v>
       </c>
       <c r="F55" s="6">
         <v>4.99</v>
       </c>
-      <c r="H55" s="40">
+      <c r="H55" s="39">
         <v>7.62</v>
       </c>
       <c r="I55" s="6">
@@ -2945,23 +2992,23 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="44" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="44">
+      <c r="D56" s="42">
         <v>1000</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="39">
         <v>7.55</v>
       </c>
       <c r="F56" s="6">
         <v>4.99</v>
       </c>
       <c r="G56" s="30"/>
-      <c r="H56" s="38">
+      <c r="H56" s="37">
         <v>7.51</v>
       </c>
       <c r="I56" s="6">
@@ -2984,23 +3031,23 @@
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="44" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="42">
         <v>1000</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="39">
         <v>2.97</v>
       </c>
       <c r="F57" s="6">
         <v>4.99</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="40">
+      <c r="H57" s="39">
         <v>3.12</v>
       </c>
       <c r="I57" s="6">
@@ -3024,23 +3071,23 @@
         <v>0.14999999999999991</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="41" t="s">
+    <row r="58" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="46">
         <v>1000</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="37">
         <v>3.59</v>
       </c>
       <c r="F58" s="21">
         <v>4.99</v>
       </c>
       <c r="G58" s="28"/>
-      <c r="H58" s="38"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="21">
         <v>4.99</v>
       </c>
@@ -3061,25 +3108,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+      <c r="P58" s="80"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="41">
         <v>41985</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="44">
+      <c r="D59" s="42">
         <v>1000</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="37">
         <v>3.81</v>
       </c>
       <c r="F59" s="6">
         <v>4.99</v>
       </c>
-      <c r="H59" s="38">
+      <c r="H59" s="37">
         <v>3.86</v>
       </c>
       <c r="I59" s="6">
@@ -3102,22 +3150,22 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="42">
         <v>1000</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60" s="37">
         <v>7.19</v>
       </c>
       <c r="F60" s="6">
         <v>4.99</v>
       </c>
-      <c r="H60" s="38">
+      <c r="H60" s="37">
         <v>7.25</v>
       </c>
       <c r="I60" s="6">
@@ -3140,23 +3188,23 @@
         <v>5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="44" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="42">
         <v>1000</v>
       </c>
-      <c r="E61" s="40">
+      <c r="E61" s="39">
         <v>7.17</v>
       </c>
       <c r="F61" s="6">
         <v>4.99</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="40">
+      <c r="H61" s="39">
         <v>7.21</v>
       </c>
       <c r="I61" s="6">
@@ -3180,22 +3228,22 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="44">
+      <c r="D62" s="42">
         <v>1000</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="37">
         <v>8.75</v>
       </c>
       <c r="F62" s="6">
         <v>4.99</v>
       </c>
-      <c r="H62" s="38">
+      <c r="H62" s="37">
         <v>8.85</v>
       </c>
       <c r="I62" s="6">
@@ -3218,24 +3266,24 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="43">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="41">
         <v>41988</v>
       </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="44" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="44">
+      <c r="D63" s="42">
         <v>1500</v>
       </c>
-      <c r="E63" s="38">
+      <c r="E63" s="37">
         <v>2.46</v>
       </c>
       <c r="F63" s="6">
         <v>4.99</v>
       </c>
-      <c r="H63" s="38">
+      <c r="H63" s="37">
         <v>2.57</v>
       </c>
       <c r="I63" s="6">
@@ -3258,23 +3306,23 @@
         <v>0.10999999999999988</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="48" t="s">
+    <row r="64" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="46">
         <v>1000</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="37">
         <v>3.13</v>
       </c>
       <c r="F64" s="21">
         <v>4.99</v>
       </c>
       <c r="G64" s="28"/>
-      <c r="H64" s="38">
+      <c r="H64" s="37">
         <v>3.01</v>
       </c>
       <c r="I64" s="21">
@@ -3297,23 +3345,24 @@
         <f t="shared" si="3"/>
         <v>-0.12000000000000011</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="44" t="s">
+      <c r="P64" s="80"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="42">
         <v>1500</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65" s="37">
         <v>2.5299999999999998</v>
       </c>
       <c r="F65" s="21">
         <v>4.99</v>
       </c>
-      <c r="H65" s="38">
+      <c r="H65" s="37">
         <v>2.57</v>
       </c>
       <c r="I65" s="21">
@@ -3336,22 +3385,22 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="44" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="42">
         <v>1500</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66" s="37">
         <v>2.54</v>
       </c>
       <c r="F66" s="6">
         <v>4.99</v>
       </c>
-      <c r="H66" s="38">
+      <c r="H66" s="37">
         <v>2.44</v>
       </c>
       <c r="I66" s="6">
@@ -3374,23 +3423,23 @@
         <v>-0.10000000000000009</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="41" t="s">
+    <row r="67" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="48">
+      <c r="D67" s="46">
         <v>1000</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="37">
         <v>8.6999999999999993</v>
       </c>
       <c r="F67" s="21">
         <v>4.99</v>
       </c>
       <c r="G67" s="28"/>
-      <c r="H67" s="38"/>
+      <c r="H67" s="37"/>
       <c r="I67" s="21">
         <v>4.99</v>
       </c>
@@ -3411,26 +3460,27 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43">
+      <c r="P67" s="80"/>
+    </row>
+    <row r="68" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41">
         <v>41989</v>
       </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="44" t="s">
+      <c r="B68" s="41"/>
+      <c r="C68" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="42">
         <v>1000</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="37">
         <v>8.25</v>
       </c>
       <c r="F68" s="6">
         <v>4.99</v>
       </c>
       <c r="G68" s="28"/>
-      <c r="H68" s="38">
+      <c r="H68" s="37">
         <v>8.31</v>
       </c>
       <c r="I68" s="6">
@@ -3453,24 +3503,25 @@
         <f t="shared" si="3"/>
         <v>6.0000000000000497E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="44" t="s">
+      <c r="P68" s="81"/>
+    </row>
+    <row r="69" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="42">
         <v>1000</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E69" s="37">
         <v>2.81</v>
       </c>
       <c r="F69" s="6">
         <v>4.99</v>
       </c>
       <c r="G69" s="28"/>
-      <c r="H69" s="38">
+      <c r="H69" s="37">
         <v>2.99</v>
       </c>
       <c r="I69" s="6">
@@ -3493,23 +3544,24 @@
         <f t="shared" si="3"/>
         <v>0.18000000000000016</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="44" t="s">
+      <c r="P69" s="81"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="42">
         <v>1500</v>
       </c>
-      <c r="E70" s="38">
+      <c r="E70" s="37">
         <v>2.2799999999999998</v>
       </c>
       <c r="F70" s="6">
         <v>4.99</v>
       </c>
-      <c r="H70" s="38">
+      <c r="H70" s="37">
         <v>1.88</v>
       </c>
       <c r="I70" s="6">
@@ -3532,22 +3584,22 @@
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="44" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="44">
+      <c r="D71" s="42">
         <v>1500</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="37">
         <v>1.99</v>
       </c>
       <c r="F71" s="6">
         <v>4.99</v>
       </c>
-      <c r="H71" s="38">
+      <c r="H71" s="37">
         <v>2.0099999999999998</v>
       </c>
       <c r="I71" s="6">
@@ -3570,23 +3622,23 @@
         <v>1.9999999999999796E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="44" t="s">
+    <row r="72" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="42">
         <v>1000</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="37">
         <v>8.2100000000000009</v>
       </c>
       <c r="F72" s="6">
         <v>4.99</v>
       </c>
       <c r="G72" s="28"/>
-      <c r="H72" s="38">
+      <c r="H72" s="37">
         <v>8.26</v>
       </c>
       <c r="I72" s="6">
@@ -3609,23 +3661,24 @@
         <f t="shared" si="7"/>
         <v>4.9999999999998934E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="44" t="s">
+      <c r="P72" s="81"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="42">
         <v>1500</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="37">
         <v>2</v>
       </c>
       <c r="F73" s="6">
         <v>4.99</v>
       </c>
-      <c r="H73" s="38">
+      <c r="H73" s="37">
         <v>2.02</v>
       </c>
       <c r="I73" s="6">
@@ -3648,22 +3701,22 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="44" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="42">
         <v>1500</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74" s="37">
         <v>1.97</v>
       </c>
       <c r="F74" s="6">
         <v>4.99</v>
       </c>
-      <c r="H74" s="38">
+      <c r="H74" s="37">
         <v>2.0299999999999998</v>
       </c>
       <c r="I74" s="6">
@@ -3686,24 +3739,24 @@
         <v>5.9999999999999831E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="43">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="41">
         <v>41990</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="44" t="s">
+      <c r="B75" s="41"/>
+      <c r="C75" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="44">
+      <c r="D75" s="42">
         <v>1000</v>
       </c>
-      <c r="E75" s="38">
+      <c r="E75" s="37">
         <v>8.3000000000000007</v>
       </c>
       <c r="F75" s="6">
         <v>4.99</v>
       </c>
-      <c r="H75" s="38">
+      <c r="H75" s="37">
         <v>8.4</v>
       </c>
       <c r="I75" s="6">
@@ -3726,22 +3779,22 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="44" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="44">
+      <c r="D76" s="42">
         <v>1000</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="37">
         <v>4.53</v>
       </c>
       <c r="F76" s="6">
         <v>4.99</v>
       </c>
-      <c r="H76" s="38">
+      <c r="H76" s="37">
         <v>4.59</v>
       </c>
       <c r="I76" s="6">
@@ -3764,23 +3817,23 @@
         <v>5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="44" t="s">
+    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="42">
         <v>1000</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="37">
         <v>7.34</v>
       </c>
       <c r="F77" s="6">
         <v>4.99</v>
       </c>
       <c r="G77" s="28"/>
-      <c r="H77" s="38">
+      <c r="H77" s="37">
         <v>7.39</v>
       </c>
       <c r="I77" s="6">
@@ -3803,23 +3856,24 @@
         <f t="shared" si="7"/>
         <v>4.9999999999999822E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="44" t="s">
+      <c r="P77" s="81"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="42">
         <v>1000</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="37">
         <v>4.6500000000000004</v>
       </c>
       <c r="F78" s="6">
         <v>4.99</v>
       </c>
-      <c r="H78" s="38">
+      <c r="H78" s="37">
         <v>4.7699999999999996</v>
       </c>
       <c r="I78" s="6">
@@ -3842,22 +3896,22 @@
         <v>0.11999999999999922</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="44" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="44">
+      <c r="D79" s="42">
         <v>1000</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="37">
         <v>4.67</v>
       </c>
       <c r="F79" s="6">
         <v>4.99</v>
       </c>
-      <c r="H79" s="38">
+      <c r="H79" s="37">
         <v>4.71</v>
       </c>
       <c r="I79" s="6">
@@ -3880,25 +3934,25 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43">
+    <row r="80" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="41">
         <v>41991</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="44" t="s">
+      <c r="B80" s="41"/>
+      <c r="C80" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="44">
+      <c r="D80" s="42">
         <v>1000</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="37">
         <v>3.22</v>
       </c>
       <c r="F80" s="6">
         <v>4.99</v>
       </c>
       <c r="G80" s="28"/>
-      <c r="H80" s="38">
+      <c r="H80" s="37">
         <v>3.32</v>
       </c>
       <c r="I80" s="6">
@@ -3921,24 +3975,25 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="44" t="s">
+      <c r="P80" s="81"/>
+    </row>
+    <row r="81" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="42">
         <v>1000</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="37">
         <v>5.04</v>
       </c>
       <c r="F81" s="6">
         <v>4.99</v>
       </c>
       <c r="G81" s="28"/>
-      <c r="H81" s="38">
+      <c r="H81" s="37">
         <v>5.18</v>
       </c>
       <c r="I81" s="6">
@@ -3961,23 +4016,24 @@
         <f t="shared" si="7"/>
         <v>0.13999999999999968</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="44" t="s">
+      <c r="P81" s="81"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D82" s="42">
         <v>1000</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="37">
         <v>8.36</v>
       </c>
       <c r="F82" s="6">
         <v>4.99</v>
       </c>
-      <c r="H82" s="38">
+      <c r="H82" s="37">
         <v>8.3800000000000008</v>
       </c>
       <c r="I82" s="6">
@@ -4000,23 +4056,23 @@
         <v>2.000000000000135E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="44" t="s">
+    <row r="83" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="44">
+      <c r="D83" s="42">
         <v>1000</v>
       </c>
-      <c r="E83" s="38">
+      <c r="E83" s="37">
         <v>4.9400000000000004</v>
       </c>
       <c r="F83" s="6">
         <v>4.99</v>
       </c>
       <c r="G83" s="28"/>
-      <c r="H83" s="38">
+      <c r="H83" s="37">
         <v>5.04</v>
       </c>
       <c r="I83" s="6">
@@ -4039,24 +4095,25 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="44" t="s">
+      <c r="P83" s="81"/>
+    </row>
+    <row r="84" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="44">
+      <c r="D84" s="42">
         <v>1000</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="37">
         <v>8.24</v>
       </c>
       <c r="F84" s="6">
         <v>4.99</v>
       </c>
       <c r="G84" s="28"/>
-      <c r="H84" s="38">
+      <c r="H84" s="37">
         <v>8.2799999999999994</v>
       </c>
       <c r="I84" s="6">
@@ -4079,24 +4136,25 @@
         <f t="shared" si="7"/>
         <v>3.9999999999999147E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="44" t="s">
+      <c r="P84" s="81"/>
+    </row>
+    <row r="85" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="42">
         <v>1000</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="37">
         <v>2.94</v>
       </c>
       <c r="F85" s="6">
         <v>4.99</v>
       </c>
       <c r="G85" s="28"/>
-      <c r="H85" s="38">
+      <c r="H85" s="37">
         <v>3.09</v>
       </c>
       <c r="I85" s="6">
@@ -4119,24 +4177,25 @@
         <f t="shared" si="7"/>
         <v>0.14999999999999991</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="44" t="s">
+      <c r="P85" s="81"/>
+    </row>
+    <row r="86" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="42">
         <v>1000</v>
       </c>
-      <c r="E86" s="38">
+      <c r="E86" s="37">
         <v>8.26</v>
       </c>
       <c r="F86" s="6">
         <v>4.99</v>
       </c>
       <c r="G86" s="28"/>
-      <c r="H86" s="38">
+      <c r="H86" s="37">
         <v>8.32</v>
       </c>
       <c r="I86" s="6">
@@ -4159,24 +4218,25 @@
         <f t="shared" si="7"/>
         <v>6.0000000000000497E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="44" t="s">
+      <c r="P86" s="81"/>
+    </row>
+    <row r="87" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D87" s="42">
         <v>1500</v>
       </c>
-      <c r="E87" s="38">
+      <c r="E87" s="37">
         <v>2.54</v>
       </c>
       <c r="F87" s="6">
         <v>4.99</v>
       </c>
       <c r="G87" s="28"/>
-      <c r="H87" s="38">
+      <c r="H87" s="37">
         <v>2.58</v>
       </c>
       <c r="I87" s="6">
@@ -4199,26 +4259,27 @@
         <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="43">
+      <c r="P87" s="81"/>
+    </row>
+    <row r="88" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41">
         <v>41992</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="44" t="s">
+      <c r="B88" s="41"/>
+      <c r="C88" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="44">
+      <c r="D88" s="42">
         <v>1000</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="37">
         <v>7.59</v>
       </c>
       <c r="F88" s="6">
         <v>4.99</v>
       </c>
       <c r="G88" s="28"/>
-      <c r="H88" s="38">
+      <c r="H88" s="37">
         <v>7.71</v>
       </c>
       <c r="I88" s="6">
@@ -4241,24 +4302,25 @@
         <f t="shared" si="7"/>
         <v>0.12000000000000011</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="44" t="s">
+      <c r="P88" s="81"/>
+    </row>
+    <row r="89" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="41"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="44">
+      <c r="D89" s="42">
         <v>1000</v>
       </c>
-      <c r="E89" s="38">
+      <c r="E89" s="37">
         <v>5.16</v>
       </c>
       <c r="F89" s="6">
         <v>4.99</v>
       </c>
       <c r="G89" s="28"/>
-      <c r="H89" s="38">
+      <c r="H89" s="37">
         <v>5.32</v>
       </c>
       <c r="I89" s="6">
@@ -4281,24 +4343,25 @@
         <f t="shared" si="7"/>
         <v>0.16000000000000014</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="44" t="s">
+      <c r="P89" s="81"/>
+    </row>
+    <row r="90" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="44">
+      <c r="D90" s="42">
         <v>1000</v>
       </c>
-      <c r="E90" s="38">
+      <c r="E90" s="37">
         <v>5.3</v>
       </c>
       <c r="F90" s="6">
         <v>4.99</v>
       </c>
       <c r="G90" s="28"/>
-      <c r="H90" s="38">
+      <c r="H90" s="37">
         <v>5.37</v>
       </c>
       <c r="I90" s="6">
@@ -4321,24 +4384,25 @@
         <f t="shared" si="7"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="44" t="s">
+      <c r="P90" s="81"/>
+    </row>
+    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="44">
+      <c r="D91" s="42">
         <v>1000</v>
       </c>
-      <c r="E91" s="38">
+      <c r="E91" s="37">
         <v>3.08</v>
       </c>
       <c r="F91" s="6">
         <v>4.99</v>
       </c>
       <c r="G91" s="28"/>
-      <c r="H91" s="38">
+      <c r="H91" s="37">
         <v>3.12</v>
       </c>
       <c r="I91" s="6">
@@ -4361,24 +4425,25 @@
         <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="44" t="s">
+      <c r="P91" s="81"/>
+    </row>
+    <row r="92" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="44">
+      <c r="D92" s="42">
         <v>1500</v>
       </c>
-      <c r="E92" s="38">
+      <c r="E92" s="37">
         <v>2.58</v>
       </c>
       <c r="F92" s="6">
         <v>4.99</v>
       </c>
       <c r="G92" s="28"/>
-      <c r="H92" s="38">
+      <c r="H92" s="37">
         <v>2.5099999999999998</v>
       </c>
       <c r="I92" s="6">
@@ -4401,24 +4466,25 @@
         <f t="shared" si="7"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="41" t="s">
+      <c r="P92" s="81"/>
+    </row>
+    <row r="93" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="44">
+      <c r="D93" s="42">
         <v>1000</v>
       </c>
-      <c r="E93" s="38">
+      <c r="E93" s="37">
         <v>7.65</v>
       </c>
       <c r="F93" s="6">
         <v>4.99</v>
       </c>
       <c r="G93" s="28"/>
-      <c r="H93" s="38"/>
+      <c r="H93" s="37"/>
       <c r="I93" s="6">
         <v>4.99</v>
       </c>
@@ -4439,24 +4505,25 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="44" t="s">
+      <c r="P93" s="81"/>
+    </row>
+    <row r="94" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="42">
         <v>1000</v>
       </c>
-      <c r="E94" s="38">
+      <c r="E94" s="37">
         <v>7.46</v>
       </c>
       <c r="F94" s="6">
         <v>4.99</v>
       </c>
       <c r="G94" s="28"/>
-      <c r="H94" s="38">
+      <c r="H94" s="37">
         <v>7.48</v>
       </c>
       <c r="I94" s="6">
@@ -4479,24 +4546,25 @@
         <f t="shared" si="7"/>
         <v>2.0000000000000462E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="41" t="s">
+      <c r="P94" s="81"/>
+    </row>
+    <row r="95" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="44">
+      <c r="D95" s="42">
         <v>2000</v>
       </c>
-      <c r="E95" s="38">
+      <c r="E95" s="37">
         <v>3.32</v>
       </c>
       <c r="F95" s="6">
         <v>4.99</v>
       </c>
       <c r="G95" s="28"/>
-      <c r="H95" s="38"/>
+      <c r="H95" s="37"/>
       <c r="I95" s="6">
         <v>4.99</v>
       </c>
@@ -4517,25 +4585,26 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="43">
+      <c r="P95" s="81"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="41">
         <v>357</v>
       </c>
-      <c r="B96" s="43"/>
-      <c r="C96" s="44" t="s">
+      <c r="B96" s="41"/>
+      <c r="C96" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D96" s="44">
+      <c r="D96" s="42">
         <v>1000</v>
       </c>
-      <c r="E96" s="38">
+      <c r="E96" s="37">
         <v>6.25</v>
       </c>
       <c r="F96" s="6">
         <v>4.99</v>
       </c>
-      <c r="H96" s="38">
+      <c r="H96" s="37">
         <v>6.31</v>
       </c>
       <c r="I96" s="6">
@@ -4558,22 +4627,22 @@
         <v>5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="44" t="s">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="44">
+      <c r="D97" s="42">
         <v>1000</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E97" s="37">
         <v>6.27</v>
       </c>
       <c r="F97" s="6">
         <v>4.99</v>
       </c>
-      <c r="H97" s="38">
+      <c r="H97" s="37">
         <v>6.34</v>
       </c>
       <c r="I97" s="6">
@@ -4596,22 +4665,22 @@
         <v>7.0000000000000284E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="44" t="s">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="44">
+      <c r="D98" s="42">
         <v>1000</v>
       </c>
-      <c r="E98" s="38">
+      <c r="E98" s="37">
         <v>6.38</v>
       </c>
       <c r="F98" s="6">
         <v>4.99</v>
       </c>
-      <c r="H98" s="38">
+      <c r="H98" s="37">
         <v>6.46</v>
       </c>
       <c r="I98" s="6">
@@ -4634,22 +4703,22 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="44" t="s">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="41"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="44">
+      <c r="D99" s="42">
         <v>1000</v>
       </c>
-      <c r="E99" s="38">
+      <c r="E99" s="37">
         <v>6.44</v>
       </c>
       <c r="F99" s="6">
         <v>4.99</v>
       </c>
-      <c r="H99" s="38">
+      <c r="H99" s="37">
         <v>6.54</v>
       </c>
       <c r="I99" s="6">
@@ -4672,22 +4741,22 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="44" t="s">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D100" s="44">
+      <c r="D100" s="42">
         <v>1000</v>
       </c>
-      <c r="E100" s="38">
+      <c r="E100" s="37">
         <v>6.39</v>
       </c>
       <c r="F100" s="6">
         <v>4.99</v>
       </c>
-      <c r="H100" s="38">
+      <c r="H100" s="37">
         <v>6.17</v>
       </c>
       <c r="I100" s="6">
@@ -4710,24 +4779,24 @@
         <v>-0.21999999999999975</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="41">
         <v>42361</v>
       </c>
-      <c r="B101" s="43"/>
-      <c r="C101" s="44" t="s">
+      <c r="B101" s="41"/>
+      <c r="C101" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="44">
+      <c r="D101" s="42">
         <v>1000</v>
       </c>
-      <c r="E101" s="38">
+      <c r="E101" s="37">
         <v>6.1</v>
       </c>
       <c r="F101" s="6">
         <v>4.99</v>
       </c>
-      <c r="H101" s="38">
+      <c r="H101" s="37">
         <v>6</v>
       </c>
       <c r="I101" s="6">
@@ -4750,22 +4819,22 @@
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="44" t="s">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D102" s="44">
+      <c r="D102" s="42">
         <v>1000</v>
       </c>
-      <c r="E102" s="38">
+      <c r="E102" s="37">
         <v>2.34</v>
       </c>
       <c r="F102" s="6">
         <v>4.99</v>
       </c>
-      <c r="H102" s="38">
+      <c r="H102" s="37">
         <v>2.35</v>
       </c>
       <c r="I102" s="6">
@@ -4788,23 +4857,23 @@
         <v>1.0000000000000231E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="44" t="s">
+    <row r="103" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="41"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="44">
+      <c r="D103" s="42">
         <v>1000</v>
       </c>
-      <c r="E103" s="38">
+      <c r="E103" s="37">
         <v>6.14</v>
       </c>
       <c r="F103" s="6">
         <v>4.99</v>
       </c>
       <c r="G103" s="28"/>
-      <c r="H103" s="38">
+      <c r="H103" s="37">
         <v>6.16</v>
       </c>
       <c r="I103" s="6">
@@ -4827,20 +4896,21 @@
         <f t="shared" si="7"/>
         <v>2.0000000000000462E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="44" t="s">
+      <c r="P103" s="81"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="41"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D104" s="44">
+      <c r="D104" s="42">
         <v>1000</v>
       </c>
       <c r="F104" s="6">
         <v>4.99</v>
       </c>
-      <c r="H104" s="38">
+      <c r="H104" s="37">
         <v>0.34</v>
       </c>
       <c r="I104" s="6">
@@ -4863,23 +4933,23 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="44" t="s">
+    <row r="105" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="41"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D105" s="44">
+      <c r="D105" s="42">
         <v>1000</v>
       </c>
-      <c r="E105" s="38">
+      <c r="E105" s="37">
         <v>6.24</v>
       </c>
       <c r="F105" s="6">
         <v>4.99</v>
       </c>
       <c r="G105" s="28"/>
-      <c r="H105" s="38">
+      <c r="H105" s="37">
         <v>6.06</v>
       </c>
       <c r="I105" s="6">
@@ -4902,25 +4972,26 @@
         <f t="shared" si="7"/>
         <v>-0.1800000000000006</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="43">
+      <c r="P105" s="81"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="41">
         <v>42362</v>
       </c>
-      <c r="B106" s="43"/>
-      <c r="C106" s="44" t="s">
+      <c r="B106" s="41"/>
+      <c r="C106" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D106" s="44">
+      <c r="D106" s="42">
         <v>1500</v>
       </c>
-      <c r="E106" s="38">
+      <c r="E106" s="37">
         <v>2.41</v>
       </c>
       <c r="F106" s="6">
         <v>4.99</v>
       </c>
-      <c r="H106" s="38">
+      <c r="H106" s="37">
         <v>2.4500000000000002</v>
       </c>
       <c r="I106" s="6">
@@ -4943,24 +5014,24 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="43">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="41">
         <v>42364</v>
       </c>
-      <c r="B107" s="43"/>
-      <c r="C107" s="44" t="s">
+      <c r="B107" s="41"/>
+      <c r="C107" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="44">
+      <c r="D107" s="42">
         <v>1500</v>
       </c>
-      <c r="E107" s="38">
+      <c r="E107" s="37">
         <v>2.44</v>
       </c>
       <c r="F107" s="6">
         <v>4.99</v>
       </c>
-      <c r="H107" s="38">
+      <c r="H107" s="37">
         <v>2.4700000000000002</v>
       </c>
       <c r="I107" s="6">
@@ -4983,24 +5054,24 @@
         <v>3.0000000000000249E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="43">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="41">
         <v>42367</v>
       </c>
-      <c r="B108" s="43"/>
-      <c r="C108" s="44" t="s">
+      <c r="B108" s="41"/>
+      <c r="C108" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D108" s="44">
+      <c r="D108" s="42">
         <v>1500</v>
       </c>
-      <c r="E108" s="38">
+      <c r="E108" s="37">
         <v>2.4300000000000002</v>
       </c>
       <c r="F108" s="6">
         <v>4.99</v>
       </c>
-      <c r="H108" s="38">
+      <c r="H108" s="37">
         <v>2.4500000000000002</v>
       </c>
       <c r="I108" s="6">
@@ -5023,22 +5094,22 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="44" t="s">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D109" s="44">
+      <c r="D109" s="42">
         <v>1500</v>
       </c>
-      <c r="E109" s="38">
+      <c r="E109" s="37">
         <v>2.42</v>
       </c>
       <c r="F109" s="6">
         <v>4.99</v>
       </c>
-      <c r="H109" s="38">
+      <c r="H109" s="37">
         <v>2.56</v>
       </c>
       <c r="I109" s="6">
@@ -5061,24 +5132,24 @@
         <v>0.14000000000000012</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="43">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="41">
         <v>42368</v>
       </c>
-      <c r="B110" s="43"/>
-      <c r="C110" s="44" t="s">
+      <c r="B110" s="41"/>
+      <c r="C110" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D110" s="44">
+      <c r="D110" s="42">
         <v>1000</v>
       </c>
-      <c r="E110" s="38">
+      <c r="E110" s="37">
         <v>4.79</v>
       </c>
       <c r="F110" s="6">
         <v>4.99</v>
       </c>
-      <c r="H110" s="38">
+      <c r="H110" s="37">
         <v>4.8099999999999996</v>
       </c>
       <c r="I110" s="6">
@@ -5101,24 +5172,24 @@
         <v>1.9999999999999574E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="43">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="41">
         <v>42369</v>
       </c>
-      <c r="B111" s="43"/>
-      <c r="C111" s="44" t="s">
+      <c r="B111" s="41"/>
+      <c r="C111" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D111" s="44">
+      <c r="D111" s="42">
         <v>500</v>
       </c>
-      <c r="E111" s="38">
+      <c r="E111" s="37">
         <v>4.38</v>
       </c>
       <c r="F111" s="6">
         <v>4.99</v>
       </c>
-      <c r="H111" s="38">
+      <c r="H111" s="37">
         <v>4.41</v>
       </c>
       <c r="I111" s="6">
@@ -5141,22 +5212,22 @@
         <v>3.0000000000000249E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="44" t="s">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="41"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="44">
+      <c r="D112" s="42">
         <v>1000</v>
       </c>
-      <c r="E112" s="38">
+      <c r="E112" s="37">
         <v>2.69</v>
       </c>
       <c r="F112" s="6">
         <v>4.99</v>
       </c>
-      <c r="H112" s="38">
+      <c r="H112" s="37">
         <v>2.75</v>
       </c>
       <c r="I112" s="6">
@@ -5179,22 +5250,22 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="44" t="s">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="41"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="44">
+      <c r="D113" s="42">
         <v>500</v>
       </c>
-      <c r="E113" s="38">
+      <c r="E113" s="37">
         <v>3.99</v>
       </c>
       <c r="F113" s="6">
         <v>4.99</v>
       </c>
-      <c r="H113" s="38">
+      <c r="H113" s="37">
         <v>4.21</v>
       </c>
       <c r="I113" s="6">
@@ -5217,24 +5288,24 @@
         <v>0.21999999999999975</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="43">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="41">
         <v>42006</v>
       </c>
-      <c r="B114" s="43"/>
-      <c r="C114" s="44" t="s">
+      <c r="B114" s="41"/>
+      <c r="C114" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="44">
+      <c r="D114" s="42">
         <v>1000</v>
       </c>
-      <c r="E114" s="38">
+      <c r="E114" s="37">
         <v>4.4000000000000004</v>
       </c>
       <c r="F114" s="6">
         <v>4.99</v>
       </c>
-      <c r="H114" s="38">
+      <c r="H114" s="37">
         <v>4.4400000000000004</v>
       </c>
       <c r="I114" s="6">
@@ -5257,22 +5328,22 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="44" t="s">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="41"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="44">
+      <c r="D115" s="42">
         <v>1000</v>
       </c>
-      <c r="E115" s="38">
+      <c r="E115" s="37">
         <v>4.5</v>
       </c>
       <c r="F115" s="6">
         <v>4.99</v>
       </c>
-      <c r="H115" s="38">
+      <c r="H115" s="37">
         <v>4.55</v>
       </c>
       <c r="I115" s="6">
@@ -5295,16 +5366,16 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="44" t="s">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="41"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D116" s="44">
+      <c r="D116" s="42">
         <v>1000</v>
       </c>
-      <c r="E116" s="38">
+      <c r="E116" s="37">
         <v>2.72</v>
       </c>
       <c r="F116" s="6">
@@ -5330,22 +5401,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="44" t="s">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="44">
+      <c r="D117" s="42">
         <v>1000</v>
       </c>
-      <c r="E117" s="38">
+      <c r="E117" s="37">
         <v>5.26</v>
       </c>
       <c r="F117" s="6">
         <v>4.99</v>
       </c>
-      <c r="H117" s="38">
+      <c r="H117" s="37">
         <v>5.36</v>
       </c>
       <c r="I117" s="6">
@@ -5368,22 +5439,22 @@
         <v>0.10000000000000053</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="43"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="44" t="s">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="41"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D118" s="44">
+      <c r="D118" s="42">
         <v>500</v>
       </c>
-      <c r="E118" s="38">
+      <c r="E118" s="37">
         <v>4.2</v>
       </c>
       <c r="F118" s="6">
         <v>4.99</v>
       </c>
-      <c r="H118" s="38">
+      <c r="H118" s="37">
         <v>4.2300000000000004</v>
       </c>
       <c r="I118" s="6">
@@ -5406,24 +5477,24 @@
         <v>3.0000000000000249E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="43">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="41">
         <v>42009</v>
       </c>
-      <c r="B119" s="43"/>
-      <c r="C119" s="44" t="s">
+      <c r="B119" s="41"/>
+      <c r="C119" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D119" s="44">
+      <c r="D119" s="42">
         <v>500</v>
       </c>
-      <c r="E119" s="38">
+      <c r="E119" s="37">
         <v>4.07</v>
       </c>
       <c r="F119" s="6">
         <v>4.99</v>
       </c>
-      <c r="H119" s="38">
+      <c r="H119" s="37">
         <v>4.21</v>
       </c>
       <c r="I119" s="6">
@@ -5446,25 +5517,25 @@
         <v>0.13999999999999968</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
-      <c r="B120" s="43" t="s">
+    <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="41"/>
+      <c r="B120" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C120" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="44">
+      <c r="D120" s="42">
         <v>1000</v>
       </c>
-      <c r="E120" s="38">
+      <c r="E120" s="37">
         <v>5.63</v>
       </c>
       <c r="F120" s="6">
         <v>9.99</v>
       </c>
       <c r="G120" s="28"/>
-      <c r="H120" s="38"/>
+      <c r="H120" s="37"/>
       <c r="I120" s="6">
         <v>9.99</v>
       </c>
@@ -5485,19 +5556,20 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="43"/>
-      <c r="B121" s="43" t="s">
+      <c r="P120" s="81"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="41"/>
+      <c r="B121" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C121" s="41" t="s">
+      <c r="C121" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="44">
+      <c r="D121" s="42">
         <v>1000</v>
       </c>
-      <c r="E121" s="38">
+      <c r="E121" s="37">
         <v>5.63</v>
       </c>
       <c r="F121" s="6">
@@ -5523,24 +5595,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
-      <c r="B122" s="43" t="s">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+      <c r="B122" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C122" s="44" t="s">
+      <c r="C122" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="44">
+      <c r="D122" s="42">
         <v>1000</v>
       </c>
-      <c r="E122" s="38">
+      <c r="E122" s="37">
         <v>5.91</v>
       </c>
       <c r="F122" s="6">
         <v>4.99</v>
       </c>
-      <c r="H122" s="38">
+      <c r="H122" s="37">
         <v>6.06</v>
       </c>
       <c r="I122" s="6">
@@ -5563,18 +5635,18 @@
         <v>0.14999999999999947</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
-      <c r="B123" s="43" t="s">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="41"/>
+      <c r="B123" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C123" s="44" t="s">
+      <c r="C123" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="44">
+      <c r="D123" s="42">
         <v>1000</v>
       </c>
-      <c r="E123" s="38">
+      <c r="E123" s="37">
         <v>12.83</v>
       </c>
       <c r="F123" s="6">
@@ -5600,24 +5672,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="43"/>
-      <c r="B124" s="43" t="s">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="41"/>
+      <c r="B124" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="44" t="s">
+      <c r="C124" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="44">
+      <c r="D124" s="42">
         <v>1000</v>
       </c>
-      <c r="E124" s="38">
+      <c r="E124" s="37">
         <v>4.8499999999999996</v>
       </c>
       <c r="F124" s="6">
         <v>4.99</v>
       </c>
-      <c r="H124" s="38">
+      <c r="H124" s="37">
         <v>4.9000000000000004</v>
       </c>
       <c r="I124" s="6">
@@ -5640,24 +5712,24 @@
         <v>5.0000000000000711E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="43" t="s">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+      <c r="B125" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C125" s="44" t="s">
+      <c r="C125" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="44">
+      <c r="D125" s="42">
         <v>1000</v>
       </c>
-      <c r="E125" s="38">
+      <c r="E125" s="37">
         <v>2.2000000000000002</v>
       </c>
       <c r="F125" s="6">
         <v>4.99</v>
       </c>
-      <c r="H125" s="38">
+      <c r="H125" s="37">
         <v>2.2599999999999998</v>
       </c>
       <c r="I125" s="6">
@@ -5680,26 +5752,26 @@
         <v>5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="43">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="41">
         <v>42011</v>
       </c>
-      <c r="B126" s="43" t="s">
+      <c r="B126" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C126" s="44" t="s">
+      <c r="C126" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="44">
+      <c r="D126" s="42">
         <v>1000</v>
       </c>
-      <c r="E126" s="38">
+      <c r="E126" s="37">
         <v>6.15</v>
       </c>
       <c r="F126" s="6">
         <v>4.99</v>
       </c>
-      <c r="H126" s="38">
+      <c r="H126" s="37">
         <v>6.27</v>
       </c>
       <c r="I126" s="6">
@@ -5722,24 +5794,24 @@
         <v>0.11999999999999922</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="43"/>
-      <c r="B127" s="43" t="s">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="41"/>
+      <c r="B127" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C127" s="44" t="s">
+      <c r="C127" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="44">
+      <c r="D127" s="42">
         <v>1000</v>
       </c>
-      <c r="E127" s="38">
+      <c r="E127" s="37">
         <v>6.21</v>
       </c>
       <c r="F127" s="6">
         <v>4.99</v>
       </c>
-      <c r="H127" s="38">
+      <c r="H127" s="37">
         <v>6.32</v>
       </c>
       <c r="I127" s="6">
@@ -5762,24 +5834,24 @@
         <v>0.11000000000000032</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43" t="s">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="41"/>
+      <c r="B128" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="44" t="s">
+      <c r="C128" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D128" s="44">
+      <c r="D128" s="42">
         <v>1000</v>
       </c>
-      <c r="E128" s="38">
+      <c r="E128" s="37">
         <v>2.2400000000000002</v>
       </c>
       <c r="F128" s="6">
         <v>4.99</v>
       </c>
-      <c r="H128" s="38">
+      <c r="H128" s="37">
         <v>2.25</v>
       </c>
       <c r="I128" s="6">
@@ -5803,23 +5875,23 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="43"/>
-      <c r="B129" s="43" t="s">
+      <c r="A129" s="41"/>
+      <c r="B129" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="44" t="s">
+      <c r="C129" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D129" s="44">
+      <c r="D129" s="42">
         <v>1000</v>
       </c>
-      <c r="E129" s="38">
+      <c r="E129" s="37">
         <v>6.41</v>
       </c>
       <c r="F129" s="6">
         <v>4.99</v>
       </c>
-      <c r="H129" s="38">
+      <c r="H129" s="37">
         <v>6.46</v>
       </c>
       <c r="I129" s="6">
@@ -5843,21 +5915,21 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
-      <c r="B130" s="43"/>
-      <c r="C130" s="44" t="s">
+      <c r="A130" s="41"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="44">
+      <c r="D130" s="42">
         <v>1000</v>
       </c>
-      <c r="E130" s="38">
+      <c r="E130" s="37">
         <v>4.95</v>
       </c>
       <c r="F130" s="6">
         <v>4.99</v>
       </c>
-      <c r="H130" s="38">
+      <c r="H130" s="37">
         <v>4.92</v>
       </c>
       <c r="I130" s="6">
@@ -5881,23 +5953,23 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="43">
+      <c r="A131" s="41">
         <v>42012</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="44" t="s">
+      <c r="B131" s="41"/>
+      <c r="C131" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="44">
+      <c r="D131" s="42">
         <v>1000</v>
       </c>
-      <c r="E131" s="38">
+      <c r="E131" s="37">
         <v>6.31</v>
       </c>
       <c r="F131" s="6">
         <v>4.99</v>
       </c>
-      <c r="H131" s="38">
+      <c r="H131" s="37">
         <v>6.36</v>
       </c>
       <c r="I131" s="6">
@@ -5921,21 +5993,21 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="44" t="s">
+      <c r="A132" s="41"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="44">
+      <c r="D132" s="42">
         <v>1000</v>
       </c>
-      <c r="E132" s="38">
+      <c r="E132" s="37">
         <v>6.26</v>
       </c>
       <c r="F132" s="6">
         <v>4.99</v>
       </c>
-      <c r="H132" s="38">
+      <c r="H132" s="37">
         <v>6.28</v>
       </c>
       <c r="I132" s="6">
@@ -5959,21 +6031,21 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="43"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="44" t="s">
+      <c r="A133" s="41"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D133" s="44">
+      <c r="D133" s="42">
         <v>1000</v>
       </c>
-      <c r="E133" s="38">
+      <c r="E133" s="37">
         <v>4.9000000000000004</v>
       </c>
       <c r="F133" s="6">
         <v>4.99</v>
       </c>
-      <c r="H133" s="38">
+      <c r="H133" s="37">
         <v>5.0599999999999996</v>
       </c>
       <c r="I133" s="6">
@@ -5997,21 +6069,21 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="44" t="s">
+      <c r="A134" s="41"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="44">
+      <c r="D134" s="42">
         <v>1000</v>
       </c>
-      <c r="E134" s="38">
+      <c r="E134" s="37">
         <v>5.0599999999999996</v>
       </c>
       <c r="F134" s="6">
         <v>4.99</v>
       </c>
-      <c r="H134" s="38">
+      <c r="H134" s="37">
         <v>5.09</v>
       </c>
       <c r="I134" s="6">
@@ -6035,21 +6107,21 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43"/>
-      <c r="C135" s="44" t="s">
+      <c r="A135" s="41"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D135" s="44">
+      <c r="D135" s="42">
         <v>500</v>
       </c>
-      <c r="E135" s="38">
+      <c r="E135" s="37">
         <v>3.41</v>
       </c>
       <c r="F135" s="6">
         <v>4.99</v>
       </c>
-      <c r="H135" s="38">
+      <c r="H135" s="37">
         <v>3.57</v>
       </c>
       <c r="I135" s="6">
@@ -6073,21 +6145,21 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="44" t="s">
+      <c r="A136" s="41"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="44">
+      <c r="D136" s="42">
         <v>1000</v>
       </c>
-      <c r="E136" s="38">
+      <c r="E136" s="37">
         <v>6.15</v>
       </c>
       <c r="F136" s="6">
         <v>4.99</v>
       </c>
-      <c r="H136" s="38">
+      <c r="H136" s="37">
         <v>6.39</v>
       </c>
       <c r="I136" s="6">
@@ -6111,23 +6183,23 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="43">
+      <c r="A137" s="41">
         <v>42013</v>
       </c>
-      <c r="B137" s="43"/>
-      <c r="C137" s="44" t="s">
+      <c r="B137" s="41"/>
+      <c r="C137" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D137" s="44">
+      <c r="D137" s="42">
         <v>500</v>
       </c>
-      <c r="E137" s="38">
+      <c r="E137" s="37">
         <v>3.37</v>
       </c>
       <c r="F137" s="6">
         <v>4.99</v>
       </c>
-      <c r="H137" s="38">
+      <c r="H137" s="37">
         <v>3.48</v>
       </c>
       <c r="I137" s="6">
@@ -6151,21 +6223,21 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="44" t="s">
+      <c r="A138" s="41"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="44">
+      <c r="D138" s="42">
         <v>500</v>
       </c>
-      <c r="E138" s="38">
+      <c r="E138" s="37">
         <v>4.07</v>
       </c>
       <c r="F138" s="6">
         <v>4.99</v>
       </c>
-      <c r="H138" s="38">
+      <c r="H138" s="37">
         <v>3.26</v>
       </c>
       <c r="I138" s="6">
@@ -6189,21 +6261,21 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="44" t="s">
+      <c r="A139" s="41"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D139" s="44">
+      <c r="D139" s="42">
         <v>1000</v>
       </c>
-      <c r="E139" s="38">
+      <c r="E139" s="37">
         <v>5.04</v>
       </c>
       <c r="F139" s="6">
         <v>4.99</v>
       </c>
-      <c r="H139" s="38">
+      <c r="H139" s="37">
         <v>5.2</v>
       </c>
       <c r="I139" s="6">
@@ -6227,21 +6299,21 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="44" t="s">
+      <c r="A140" s="41"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D140" s="44">
+      <c r="D140" s="42">
         <v>500</v>
       </c>
-      <c r="E140" s="38">
+      <c r="E140" s="37">
         <v>4.2</v>
       </c>
       <c r="F140" s="6">
         <v>4.99</v>
       </c>
-      <c r="H140" s="38">
+      <c r="H140" s="37">
         <v>4.42</v>
       </c>
       <c r="I140" s="6">
@@ -6265,21 +6337,21 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
-      <c r="C141" s="44" t="s">
+      <c r="A141" s="41"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D141" s="44">
+      <c r="D141" s="42">
         <v>1000</v>
       </c>
-      <c r="E141" s="38">
+      <c r="E141" s="37">
         <v>2.93</v>
       </c>
       <c r="F141" s="6">
         <v>4.99</v>
       </c>
-      <c r="H141" s="38">
+      <c r="H141" s="37">
         <v>2.94</v>
       </c>
       <c r="I141" s="6">
@@ -6303,23 +6375,23 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="43">
+      <c r="A142" s="41">
         <v>42016</v>
       </c>
-      <c r="B142" s="43"/>
-      <c r="C142" s="44" t="s">
+      <c r="B142" s="41"/>
+      <c r="C142" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D142" s="44">
+      <c r="D142" s="42">
         <v>500</v>
       </c>
-      <c r="E142" s="38">
+      <c r="E142" s="37">
         <v>3.65</v>
       </c>
       <c r="F142" s="6">
         <v>4.99</v>
       </c>
-      <c r="H142" s="38">
+      <c r="H142" s="37">
         <v>3.73</v>
       </c>
       <c r="I142" s="6">
@@ -6343,21 +6415,21 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="43"/>
-      <c r="B143" s="43"/>
-      <c r="C143" s="44" t="s">
+      <c r="A143" s="41"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="44">
+      <c r="D143" s="42">
         <v>500</v>
       </c>
-      <c r="E143" s="38">
+      <c r="E143" s="37">
         <v>7.18</v>
       </c>
       <c r="F143" s="6">
         <v>4.99</v>
       </c>
-      <c r="H143" s="38">
+      <c r="H143" s="37">
         <v>7.24</v>
       </c>
       <c r="I143" s="6">
@@ -6381,23 +6453,23 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="43"/>
-      <c r="B144" s="43" t="s">
+      <c r="A144" s="41"/>
+      <c r="B144" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C144" s="44" t="s">
+      <c r="C144" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D144" s="44">
+      <c r="D144" s="42">
         <v>1000</v>
       </c>
-      <c r="E144" s="38">
+      <c r="E144" s="37">
         <v>4.63</v>
       </c>
       <c r="F144" s="6">
         <v>4.99</v>
       </c>
-      <c r="H144" s="38">
+      <c r="H144" s="37">
         <v>4.8</v>
       </c>
       <c r="I144" s="6">
@@ -6421,21 +6493,21 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="43"/>
-      <c r="B145" s="43"/>
-      <c r="C145" s="44" t="s">
+      <c r="A145" s="41"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="44">
+      <c r="D145" s="42">
         <v>500</v>
       </c>
-      <c r="E145" s="38">
+      <c r="E145" s="37">
         <v>7.18</v>
       </c>
       <c r="F145" s="6">
         <v>4.99</v>
       </c>
-      <c r="H145" s="38">
+      <c r="H145" s="37">
         <v>7.14</v>
       </c>
       <c r="I145" s="6">
@@ -6459,23 +6531,23 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="43">
+      <c r="A146" s="41">
         <v>42017</v>
       </c>
-      <c r="B146" s="43"/>
-      <c r="C146" s="44" t="s">
+      <c r="B146" s="41"/>
+      <c r="C146" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="44">
+      <c r="D146" s="42">
         <v>500</v>
       </c>
-      <c r="E146" s="38">
+      <c r="E146" s="37">
         <v>7.08</v>
       </c>
       <c r="F146" s="6">
         <v>4.99</v>
       </c>
-      <c r="H146" s="38">
+      <c r="H146" s="37">
         <v>7.14</v>
       </c>
       <c r="I146" s="6">
@@ -6499,23 +6571,23 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
-      <c r="B147" s="43" t="s">
+      <c r="A147" s="41"/>
+      <c r="B147" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C147" s="44" t="s">
+      <c r="C147" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D147" s="44">
+      <c r="D147" s="42">
         <v>700</v>
       </c>
-      <c r="E147" s="38">
+      <c r="E147" s="37">
         <v>6.86</v>
       </c>
       <c r="F147" s="6">
         <v>4.99</v>
       </c>
-      <c r="H147" s="38">
+      <c r="H147" s="37">
         <v>6.96</v>
       </c>
       <c r="I147" s="6">
@@ -6539,23 +6611,23 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="43"/>
-      <c r="B148" s="43" t="s">
+      <c r="A148" s="41"/>
+      <c r="B148" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C148" s="44" t="s">
+      <c r="C148" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="44">
+      <c r="D148" s="42">
         <v>700</v>
       </c>
-      <c r="E148" s="38">
+      <c r="E148" s="37">
         <v>6.86</v>
       </c>
       <c r="F148" s="6">
         <v>4.99</v>
       </c>
-      <c r="H148" s="38">
+      <c r="H148" s="37">
         <v>7.16</v>
       </c>
       <c r="I148" s="6">
@@ -6579,21 +6651,21 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="44" t="s">
+      <c r="A149" s="41"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D149" s="44">
+      <c r="D149" s="42">
         <v>500</v>
       </c>
-      <c r="E149" s="38">
+      <c r="E149" s="37">
         <v>3.1</v>
       </c>
       <c r="F149" s="6">
         <v>7.49</v>
       </c>
-      <c r="H149" s="38">
+      <c r="H149" s="37">
         <v>3.26</v>
       </c>
       <c r="I149" s="6">
@@ -6617,23 +6689,23 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="43">
+      <c r="A150" s="41">
         <v>42018</v>
       </c>
-      <c r="B150" s="43"/>
-      <c r="C150" s="44" t="s">
+      <c r="B150" s="41"/>
+      <c r="C150" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="44">
+      <c r="D150" s="42">
         <v>1000</v>
       </c>
-      <c r="E150" s="38">
+      <c r="E150" s="37">
         <v>4.5</v>
       </c>
       <c r="F150" s="6">
         <v>4.99</v>
       </c>
-      <c r="H150" s="38">
+      <c r="H150" s="37">
         <v>4.55</v>
       </c>
       <c r="I150" s="6">
@@ -6657,21 +6729,21 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="43"/>
-      <c r="B151" s="43"/>
-      <c r="C151" s="44" t="s">
+      <c r="A151" s="41"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D151" s="44">
+      <c r="D151" s="42">
         <v>1000</v>
       </c>
-      <c r="E151" s="38">
+      <c r="E151" s="37">
         <v>4.62</v>
       </c>
       <c r="F151" s="6">
         <v>4.99</v>
       </c>
-      <c r="H151" s="38">
+      <c r="H151" s="37">
         <v>4.63</v>
       </c>
       <c r="I151" s="6">
@@ -6695,21 +6767,21 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="43"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="44" t="s">
+      <c r="A152" s="41"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D152" s="44">
+      <c r="D152" s="42">
         <v>500</v>
       </c>
-      <c r="E152" s="38">
+      <c r="E152" s="37">
         <v>4.55</v>
       </c>
       <c r="F152" s="6">
         <v>4.99</v>
       </c>
-      <c r="H152" s="38">
+      <c r="H152" s="37">
         <v>4.62</v>
       </c>
       <c r="I152" s="6">
@@ -6733,21 +6805,21 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="43"/>
-      <c r="B153" s="43"/>
-      <c r="C153" s="44" t="s">
+      <c r="A153" s="41"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D153" s="44">
+      <c r="D153" s="42">
         <v>500</v>
       </c>
-      <c r="E153" s="38">
+      <c r="E153" s="37">
         <v>2.91</v>
       </c>
       <c r="F153" s="6">
         <v>4.99</v>
       </c>
-      <c r="H153" s="38">
+      <c r="H153" s="37">
         <v>3.01</v>
       </c>
       <c r="I153" s="6">
@@ -6771,21 +6843,21 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="43"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="44" t="s">
+      <c r="A154" s="41"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D154" s="44">
+      <c r="D154" s="42">
         <v>1000</v>
       </c>
-      <c r="E154" s="38">
+      <c r="E154" s="37">
         <v>3.02</v>
       </c>
       <c r="F154" s="6">
         <v>4.99</v>
       </c>
-      <c r="H154" s="38">
+      <c r="H154" s="37">
         <v>3.03</v>
       </c>
       <c r="I154" s="6">
@@ -6809,21 +6881,21 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="43"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="44" t="s">
+      <c r="A155" s="41"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D155" s="44">
+      <c r="D155" s="42">
         <v>1000</v>
       </c>
-      <c r="E155" s="38">
+      <c r="E155" s="37">
         <v>3.32</v>
       </c>
       <c r="F155" s="6">
         <v>4.99</v>
       </c>
-      <c r="H155" s="38">
+      <c r="H155" s="37">
         <v>3.47</v>
       </c>
       <c r="I155" s="6">
@@ -6847,21 +6919,21 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="43"/>
-      <c r="B156" s="43"/>
-      <c r="C156" s="44" t="s">
+      <c r="A156" s="41"/>
+      <c r="B156" s="41"/>
+      <c r="C156" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D156" s="44">
+      <c r="D156" s="42">
         <v>1000</v>
       </c>
-      <c r="E156" s="38">
+      <c r="E156" s="37">
         <v>5.18</v>
       </c>
       <c r="F156" s="6">
         <v>4.99</v>
       </c>
-      <c r="H156" s="38">
+      <c r="H156" s="37">
         <v>5.2</v>
       </c>
       <c r="I156" s="6">
@@ -6885,28 +6957,28 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="43"/>
-      <c r="B157" s="43"/>
-      <c r="C157" s="44" t="s">
+      <c r="A157" s="41"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D157" s="44">
+      <c r="D157" s="42">
         <v>1000</v>
       </c>
-      <c r="E157" s="66">
+      <c r="E157" s="62">
         <v>5.18</v>
       </c>
-      <c r="F157" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G157" s="68"/>
-      <c r="H157" s="66">
+      <c r="F157" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G157" s="64"/>
+      <c r="H157" s="62">
         <v>5.19</v>
       </c>
-      <c r="I157" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J157" s="68"/>
+      <c r="I157" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J157" s="64"/>
       <c r="K157" s="11">
         <f t="shared" si="8"/>
         <v>5184.99</v>
@@ -6925,61 +6997,61 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="74">
+      <c r="A158" s="69">
         <v>42019</v>
       </c>
-      <c r="B158" s="74"/>
-      <c r="C158" s="76" t="s">
+      <c r="B158" s="69"/>
+      <c r="C158" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D158" s="76">
+      <c r="D158" s="70">
         <v>500</v>
       </c>
-      <c r="E158" s="38">
+      <c r="E158" s="37">
         <v>5.19</v>
       </c>
       <c r="F158" s="6">
         <v>4.99</v>
       </c>
-      <c r="H158" s="38">
+      <c r="H158" s="37">
         <v>5.42</v>
       </c>
       <c r="I158" s="6">
         <v>4.99</v>
       </c>
-      <c r="K158" s="77">
+      <c r="K158" s="71">
         <f t="shared" si="8"/>
         <v>2599.9899999999998</v>
       </c>
-      <c r="L158" s="78">
+      <c r="L158" s="72">
         <f t="shared" si="9"/>
         <v>2705.01</v>
       </c>
-      <c r="M158" s="77">
+      <c r="M158" s="71">
         <f t="shared" si="10"/>
         <v>105.02000000000044</v>
       </c>
-      <c r="N158" s="78">
+      <c r="N158" s="72">
         <f t="shared" si="11"/>
         <v>0.22999999999999954</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="43"/>
-      <c r="B159" s="43"/>
-      <c r="C159" s="44" t="s">
+      <c r="A159" s="41"/>
+      <c r="B159" s="41"/>
+      <c r="C159" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D159" s="44">
+      <c r="D159" s="42">
         <v>500</v>
       </c>
-      <c r="E159" s="38">
+      <c r="E159" s="37">
         <v>5.09</v>
       </c>
       <c r="F159" s="6">
         <v>4.99</v>
       </c>
-      <c r="H159" s="38">
+      <c r="H159" s="37">
         <v>5.37</v>
       </c>
       <c r="I159" s="6">
@@ -7003,15 +7075,15 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="43"/>
-      <c r="B160" s="43"/>
-      <c r="C160" s="41" t="s">
+      <c r="A160" s="41"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="44">
+      <c r="D160" s="42">
         <v>500</v>
       </c>
-      <c r="E160" s="38">
+      <c r="E160" s="37">
         <v>5.21</v>
       </c>
       <c r="F160" s="6">
@@ -7038,15 +7110,15 @@
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="41" t="s">
+      <c r="A161" s="41"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D161" s="44">
+      <c r="D161" s="42">
         <v>500</v>
       </c>
-      <c r="E161" s="38">
+      <c r="E161" s="37">
         <v>5.03</v>
       </c>
       <c r="F161" s="6">
@@ -7073,21 +7145,21 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="43"/>
-      <c r="B162" s="43"/>
-      <c r="C162" s="44" t="s">
+      <c r="A162" s="41"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D162" s="44">
+      <c r="D162" s="42">
         <v>500</v>
       </c>
-      <c r="E162" s="38">
+      <c r="E162" s="37">
         <v>4.5999999999999996</v>
       </c>
       <c r="F162" s="6">
         <v>4.99</v>
       </c>
-      <c r="H162" s="38">
+      <c r="H162" s="37">
         <v>4.71</v>
       </c>
       <c r="I162" s="6">
@@ -7111,21 +7183,21 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="43"/>
-      <c r="B163" s="43"/>
-      <c r="C163" s="44" t="s">
+      <c r="A163" s="41"/>
+      <c r="B163" s="41"/>
+      <c r="C163" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D163" s="44">
+      <c r="D163" s="42">
         <v>800</v>
       </c>
-      <c r="E163" s="38">
+      <c r="E163" s="37">
         <v>5.44</v>
       </c>
       <c r="F163" s="6">
         <v>4.99</v>
       </c>
-      <c r="H163" s="38">
+      <c r="H163" s="37">
         <v>5.5</v>
       </c>
       <c r="I163" s="6">
@@ -7149,21 +7221,21 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="43"/>
-      <c r="B164" s="43"/>
-      <c r="C164" s="44" t="s">
+      <c r="A164" s="41"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D164" s="44">
+      <c r="D164" s="42">
         <v>800</v>
       </c>
-      <c r="E164" s="38">
+      <c r="E164" s="37">
         <v>5.62</v>
       </c>
       <c r="F164" s="6">
         <v>4.99</v>
       </c>
-      <c r="H164" s="38">
+      <c r="H164" s="37">
         <v>5.71</v>
       </c>
       <c r="I164" s="6">
@@ -7187,30 +7259,30 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="43"/>
-      <c r="B165" s="43" t="s">
+      <c r="A165" s="41"/>
+      <c r="B165" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C165" s="41" t="s">
+      <c r="C165" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D165" s="44">
+      <c r="D165" s="42">
         <v>800</v>
       </c>
-      <c r="E165" s="66">
+      <c r="E165" s="62">
         <v>5.79</v>
       </c>
-      <c r="F165" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G165" s="68"/>
-      <c r="H165" s="66">
+      <c r="F165" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G165" s="64"/>
+      <c r="H165" s="62">
         <v>5.15</v>
       </c>
-      <c r="I165" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J165" s="68"/>
+      <c r="I165" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J165" s="64"/>
       <c r="K165" s="11">
         <f t="shared" si="8"/>
         <v>4636.99</v>
@@ -7229,68 +7301,68 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="74">
+      <c r="A166" s="69">
         <v>42020</v>
       </c>
-      <c r="B166" s="74"/>
-      <c r="C166" s="75" t="s">
+      <c r="B166" s="69"/>
+      <c r="C166" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D166" s="76">
+      <c r="D166" s="70">
         <v>1000</v>
       </c>
-      <c r="E166" s="38">
+      <c r="E166" s="37">
         <v>3.47</v>
       </c>
       <c r="F166" s="6">
         <v>4.99</v>
       </c>
-      <c r="H166" s="38">
+      <c r="H166" s="37">
         <v>3.41</v>
       </c>
       <c r="I166" s="6">
         <v>4.99</v>
       </c>
-      <c r="K166" s="77">
+      <c r="K166" s="71">
         <f t="shared" si="8"/>
         <v>3474.99</v>
       </c>
-      <c r="L166" s="78">
+      <c r="L166" s="72">
         <f t="shared" si="9"/>
         <v>3405.01</v>
       </c>
-      <c r="M166" s="77">
+      <c r="M166" s="71">
         <f t="shared" si="10"/>
         <v>-69.979999999999563</v>
       </c>
-      <c r="N166" s="78">
+      <c r="N166" s="72">
         <f t="shared" si="11"/>
         <v>-6.0000000000000053E-2</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="43"/>
-      <c r="B167" s="43"/>
-      <c r="C167" s="44" t="s">
+      <c r="A167" s="41"/>
+      <c r="B167" s="41"/>
+      <c r="C167" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D167" s="44">
+      <c r="D167" s="42">
         <v>500</v>
       </c>
-      <c r="E167" s="66">
+      <c r="E167" s="62">
         <v>7.5</v>
       </c>
-      <c r="F167" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G167" s="68"/>
-      <c r="H167" s="66">
+      <c r="F167" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G167" s="64"/>
+      <c r="H167" s="62">
         <v>7.55</v>
       </c>
-      <c r="I167" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J167" s="68"/>
+      <c r="I167" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J167" s="64"/>
       <c r="K167" s="11">
         <f t="shared" si="8"/>
         <v>3754.99</v>
@@ -7309,65 +7381,65 @@
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="74">
+      <c r="A168" s="69">
         <v>42023</v>
       </c>
-      <c r="B168" s="74" t="s">
+      <c r="B168" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="76" t="s">
+      <c r="C168" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D168" s="76">
+      <c r="D168" s="70">
         <v>1800</v>
       </c>
-      <c r="E168" s="38">
+      <c r="E168" s="37">
         <v>5.1100000000000003</v>
       </c>
       <c r="F168" s="6">
         <v>4.99</v>
       </c>
-      <c r="H168" s="38">
+      <c r="H168" s="37">
         <v>5.14</v>
       </c>
       <c r="I168" s="6">
         <v>4.99</v>
       </c>
-      <c r="K168" s="77">
+      <c r="K168" s="71">
         <f t="shared" si="8"/>
         <v>9202.99</v>
       </c>
-      <c r="L168" s="78">
+      <c r="L168" s="72">
         <f t="shared" si="9"/>
         <v>9247.01</v>
       </c>
-      <c r="M168" s="77">
+      <c r="M168" s="71">
         <f t="shared" si="10"/>
         <v>44.020000000000437</v>
       </c>
-      <c r="N168" s="78">
+      <c r="N168" s="72">
         <f t="shared" si="11"/>
         <v>2.9999999999999361E-2</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="43"/>
-      <c r="B169" s="43" t="s">
+      <c r="A169" s="41"/>
+      <c r="B169" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C169" s="44" t="s">
+      <c r="C169" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D169" s="44">
+      <c r="D169" s="42">
         <v>500</v>
       </c>
-      <c r="E169" s="38">
+      <c r="E169" s="37">
         <v>7.54</v>
       </c>
       <c r="F169" s="6">
         <v>4.99</v>
       </c>
-      <c r="H169" s="38">
+      <c r="H169" s="37">
         <v>7.61</v>
       </c>
       <c r="I169" s="6">
@@ -7391,30 +7463,30 @@
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="43"/>
-      <c r="B170" s="43" t="s">
+      <c r="A170" s="41"/>
+      <c r="B170" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C170" s="44" t="s">
+      <c r="C170" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="44">
+      <c r="D170" s="42">
         <v>1000</v>
       </c>
-      <c r="E170" s="66">
+      <c r="E170" s="62">
         <v>7.65</v>
       </c>
-      <c r="F170" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G170" s="68"/>
-      <c r="H170" s="66">
+      <c r="F170" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G170" s="64"/>
+      <c r="H170" s="62">
         <v>8.15</v>
       </c>
-      <c r="I170" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J170" s="68"/>
+      <c r="I170" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J170" s="64"/>
       <c r="K170" s="11">
         <f t="shared" si="8"/>
         <v>7654.99</v>
@@ -7433,65 +7505,65 @@
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="74">
+      <c r="A171" s="69">
         <v>42024</v>
       </c>
-      <c r="B171" s="74" t="s">
+      <c r="B171" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C171" s="76" t="s">
+      <c r="C171" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D171" s="76">
+      <c r="D171" s="70">
         <v>1000</v>
       </c>
-      <c r="E171" s="38">
+      <c r="E171" s="37">
         <v>5.96</v>
       </c>
       <c r="F171" s="6">
         <v>4.99</v>
       </c>
-      <c r="H171" s="38">
+      <c r="H171" s="37">
         <v>5.97</v>
       </c>
       <c r="I171" s="6">
         <v>4.99</v>
       </c>
-      <c r="K171" s="77">
+      <c r="K171" s="71">
         <f t="shared" si="8"/>
         <v>5964.99</v>
       </c>
-      <c r="L171" s="78">
+      <c r="L171" s="72">
         <f t="shared" si="9"/>
         <v>5965.01</v>
       </c>
-      <c r="M171" s="77">
+      <c r="M171" s="71">
         <f t="shared" si="10"/>
         <v>2.0000000000436557E-2</v>
       </c>
-      <c r="N171" s="78">
+      <c r="N171" s="72">
         <f t="shared" si="11"/>
         <v>9.9999999999997868E-3</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="43"/>
-      <c r="B172" s="43" t="s">
+      <c r="A172" s="41"/>
+      <c r="B172" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C172" s="44" t="s">
+      <c r="C172" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D172" s="44">
+      <c r="D172" s="42">
         <v>500</v>
       </c>
-      <c r="E172" s="38">
+      <c r="E172" s="37">
         <v>8.3000000000000007</v>
       </c>
       <c r="F172" s="6">
         <v>4.99</v>
       </c>
-      <c r="H172" s="38">
+      <c r="H172" s="37">
         <v>8.23</v>
       </c>
       <c r="I172" s="6">
@@ -7515,23 +7587,23 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="43"/>
-      <c r="B173" s="43" t="s">
+      <c r="A173" s="41"/>
+      <c r="B173" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C173" s="44" t="s">
+      <c r="C173" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D173" s="44">
+      <c r="D173" s="42">
         <v>500</v>
       </c>
-      <c r="E173" s="38">
+      <c r="E173" s="37">
         <v>8.25</v>
       </c>
       <c r="F173" s="6">
         <v>4.99</v>
       </c>
-      <c r="H173" s="38">
+      <c r="H173" s="37">
         <v>8.34</v>
       </c>
       <c r="I173" s="6">
@@ -7555,17 +7627,17 @@
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="43"/>
-      <c r="B174" s="43" t="s">
+      <c r="A174" s="41"/>
+      <c r="B174" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C174" s="44" t="s">
+      <c r="C174" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D174" s="44">
+      <c r="D174" s="42">
         <v>1000</v>
       </c>
-      <c r="E174" s="38">
+      <c r="E174" s="37">
         <v>3.49</v>
       </c>
       <c r="F174" s="6">
@@ -7574,7 +7646,7 @@
       <c r="G174" s="28">
         <v>1.2067000000000001</v>
       </c>
-      <c r="H174" s="38">
+      <c r="H174" s="37">
         <v>3.7</v>
       </c>
       <c r="I174" s="6">
@@ -7601,32 +7673,32 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="43"/>
-      <c r="B175" s="43" t="s">
+      <c r="A175" s="41"/>
+      <c r="B175" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C175" s="44" t="s">
+      <c r="C175" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D175" s="44">
+      <c r="D175" s="42">
         <v>350</v>
       </c>
-      <c r="E175" s="66">
+      <c r="E175" s="62">
         <v>2.98</v>
       </c>
-      <c r="F175" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G175" s="68">
+      <c r="F175" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G175" s="64">
         <v>1.2067000000000001</v>
       </c>
-      <c r="H175" s="66">
+      <c r="H175" s="62">
         <v>3.11</v>
       </c>
-      <c r="I175" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J175" s="68">
+      <c r="I175" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J175" s="64">
         <v>1.2067000000000001</v>
       </c>
       <c r="K175" s="11">
@@ -7647,63 +7719,63 @@
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="74">
+      <c r="A176" s="69">
         <v>42025</v>
       </c>
-      <c r="B176" s="74" t="s">
+      <c r="B176" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C176" s="76" t="s">
+      <c r="C176" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="76">
+      <c r="D176" s="70">
         <v>350</v>
       </c>
-      <c r="E176" s="38">
+      <c r="E176" s="37">
         <v>3.05</v>
       </c>
       <c r="F176" s="6">
         <v>4.99</v>
       </c>
-      <c r="H176" s="38">
+      <c r="H176" s="37">
         <v>3.09</v>
       </c>
       <c r="I176" s="6">
         <v>4.99</v>
       </c>
-      <c r="K176" s="77">
+      <c r="K176" s="71">
         <f t="shared" si="8"/>
         <v>1072.49</v>
       </c>
-      <c r="L176" s="78">
+      <c r="L176" s="72">
         <f t="shared" si="9"/>
         <v>1076.51</v>
       </c>
-      <c r="M176" s="77">
+      <c r="M176" s="71">
         <f t="shared" si="10"/>
         <v>4.0199999999999818</v>
       </c>
-      <c r="N176" s="78">
+      <c r="N176" s="72">
         <f t="shared" si="11"/>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="43"/>
-      <c r="B177" s="43"/>
-      <c r="C177" s="44" t="s">
+      <c r="A177" s="41"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D177" s="44">
+      <c r="D177" s="42">
         <v>500</v>
       </c>
-      <c r="E177" s="38">
+      <c r="E177" s="37">
         <v>3.05</v>
       </c>
       <c r="F177" s="6">
         <v>4.99</v>
       </c>
-      <c r="H177" s="38">
+      <c r="H177" s="37">
         <v>3.12</v>
       </c>
       <c r="I177" s="6">
@@ -7727,21 +7799,21 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="43"/>
-      <c r="B178" s="43"/>
-      <c r="C178" s="44" t="s">
+      <c r="A178" s="41"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D178" s="44">
+      <c r="D178" s="42">
         <v>500</v>
       </c>
-      <c r="E178" s="38">
+      <c r="E178" s="37">
         <v>3.65</v>
       </c>
       <c r="F178" s="6">
         <v>4.99</v>
       </c>
-      <c r="H178" s="38">
+      <c r="H178" s="37">
         <v>3.72</v>
       </c>
       <c r="I178" s="6">
@@ -7765,28 +7837,28 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="43"/>
-      <c r="B179" s="43"/>
-      <c r="C179" s="44" t="s">
+      <c r="A179" s="41"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D179" s="44">
+      <c r="D179" s="42">
         <v>500</v>
       </c>
-      <c r="E179" s="66">
+      <c r="E179" s="62">
         <v>8.42</v>
       </c>
-      <c r="F179" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G179" s="68"/>
-      <c r="H179" s="66">
+      <c r="F179" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G179" s="64"/>
+      <c r="H179" s="62">
         <v>8.51</v>
       </c>
-      <c r="I179" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J179" s="68"/>
+      <c r="I179" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J179" s="64"/>
       <c r="K179" s="11">
         <f t="shared" si="8"/>
         <v>4214.99</v>
@@ -7805,65 +7877,65 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="74">
+      <c r="A180" s="69">
         <v>42026</v>
       </c>
-      <c r="B180" s="74" t="s">
+      <c r="B180" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C180" s="76" t="s">
+      <c r="C180" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D180" s="76">
+      <c r="D180" s="70">
         <v>500</v>
       </c>
-      <c r="E180" s="38">
+      <c r="E180" s="37">
         <v>3</v>
       </c>
       <c r="F180" s="6">
         <v>4.99</v>
       </c>
-      <c r="H180" s="38">
+      <c r="H180" s="37">
         <v>3.03</v>
       </c>
       <c r="I180" s="6">
         <v>4.99</v>
       </c>
-      <c r="K180" s="77">
+      <c r="K180" s="71">
         <f t="shared" si="8"/>
         <v>1504.99</v>
       </c>
-      <c r="L180" s="78">
+      <c r="L180" s="72">
         <f t="shared" si="9"/>
         <v>1510.01</v>
       </c>
-      <c r="M180" s="77">
+      <c r="M180" s="71">
         <f t="shared" si="10"/>
         <v>5.0199999999999818</v>
       </c>
-      <c r="N180" s="78">
+      <c r="N180" s="72">
         <f t="shared" si="11"/>
         <v>2.9999999999999805E-2</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="43"/>
-      <c r="B181" s="43" t="s">
+      <c r="A181" s="41"/>
+      <c r="B181" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C181" s="44" t="s">
+      <c r="C181" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D181" s="44">
+      <c r="D181" s="42">
         <v>500</v>
       </c>
-      <c r="E181" s="38">
+      <c r="E181" s="37">
         <v>3.25</v>
       </c>
       <c r="F181" s="6">
         <v>7.49</v>
       </c>
-      <c r="H181" s="38">
+      <c r="H181" s="37">
         <v>3.62</v>
       </c>
       <c r="I181" s="6">
@@ -7887,30 +7959,30 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="43"/>
-      <c r="B182" s="43" t="s">
+      <c r="A182" s="41"/>
+      <c r="B182" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="44" t="s">
+      <c r="C182" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D182" s="44">
+      <c r="D182" s="42">
         <v>500</v>
       </c>
-      <c r="E182" s="66">
+      <c r="E182" s="62">
         <v>2.79</v>
       </c>
-      <c r="F182" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G182" s="68"/>
-      <c r="H182" s="66">
+      <c r="F182" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G182" s="64"/>
+      <c r="H182" s="62">
         <v>3.03</v>
       </c>
-      <c r="I182" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J182" s="68"/>
+      <c r="I182" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J182" s="64"/>
       <c r="K182" s="11">
         <f t="shared" si="8"/>
         <v>1399.99</v>
@@ -7929,72 +8001,72 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="74">
+      <c r="A183" s="69">
         <v>23</v>
       </c>
-      <c r="B183" s="74" t="s">
+      <c r="B183" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C183" s="76" t="s">
+      <c r="C183" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="76">
+      <c r="D183" s="70">
         <v>500</v>
       </c>
-      <c r="E183" s="38">
+      <c r="E183" s="37">
         <v>8.2100000000000009</v>
       </c>
       <c r="F183" s="6">
         <v>4.99</v>
       </c>
-      <c r="H183" s="38">
+      <c r="H183" s="37">
         <v>8.48</v>
       </c>
       <c r="I183" s="6">
         <v>4.99</v>
       </c>
-      <c r="K183" s="77">
+      <c r="K183" s="71">
         <f t="shared" si="8"/>
         <v>4109.99</v>
       </c>
-      <c r="L183" s="78">
+      <c r="L183" s="72">
         <f t="shared" si="9"/>
         <v>4235.01</v>
       </c>
-      <c r="M183" s="77">
+      <c r="M183" s="71">
         <f t="shared" si="10"/>
         <v>125.02000000000044</v>
       </c>
-      <c r="N183" s="78">
+      <c r="N183" s="72">
         <f t="shared" si="11"/>
         <v>0.26999999999999957</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="43"/>
-      <c r="B184" s="43" t="s">
+      <c r="A184" s="41"/>
+      <c r="B184" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C184" s="44" t="s">
+      <c r="C184" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D184" s="44">
+      <c r="D184" s="42">
         <v>500</v>
       </c>
-      <c r="E184" s="66">
+      <c r="E184" s="62">
         <v>7.99</v>
       </c>
-      <c r="F184" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G184" s="68"/>
-      <c r="H184" s="66">
+      <c r="F184" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G184" s="64"/>
+      <c r="H184" s="62">
         <v>8.2100000000000009</v>
       </c>
-      <c r="I184" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J184" s="68"/>
+      <c r="I184" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J184" s="64"/>
       <c r="K184" s="11">
         <f t="shared" si="8"/>
         <v>3999.99</v>
@@ -8013,70 +8085,70 @@
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="74">
+      <c r="A185" s="69">
         <v>42030</v>
       </c>
-      <c r="B185" s="74" t="s">
+      <c r="B185" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C185" s="76" t="s">
+      <c r="C185" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="76">
+      <c r="D185" s="70">
         <v>500</v>
       </c>
-      <c r="E185" s="38">
+      <c r="E185" s="37">
         <v>3.49</v>
       </c>
       <c r="F185" s="6">
         <v>4.99</v>
       </c>
-      <c r="H185" s="38">
+      <c r="H185" s="37">
         <v>3.58</v>
       </c>
       <c r="I185" s="6">
         <v>4.99</v>
       </c>
-      <c r="K185" s="77">
+      <c r="K185" s="71">
         <f t="shared" si="8"/>
         <v>1749.99</v>
       </c>
-      <c r="L185" s="78">
+      <c r="L185" s="72">
         <f t="shared" si="9"/>
         <v>1785.01</v>
       </c>
-      <c r="M185" s="77">
+      <c r="M185" s="71">
         <f t="shared" si="10"/>
         <v>35.019999999999982</v>
       </c>
-      <c r="N185" s="78">
+      <c r="N185" s="72">
         <f t="shared" si="11"/>
         <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="43"/>
-      <c r="B186" s="43" t="s">
+      <c r="A186" s="41"/>
+      <c r="B186" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C186" s="41" t="s">
+      <c r="C186" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D186" s="44">
+      <c r="D186" s="42">
         <v>500</v>
       </c>
-      <c r="E186" s="66">
+      <c r="E186" s="62">
         <v>3.51</v>
       </c>
-      <c r="F186" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G186" s="68"/>
-      <c r="H186" s="66"/>
-      <c r="I186" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J186" s="68"/>
+      <c r="F186" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G186" s="64"/>
+      <c r="H186" s="62"/>
+      <c r="I186" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J186" s="64"/>
       <c r="K186" s="11">
         <f t="shared" si="8"/>
         <v>1759.99</v>
@@ -8095,72 +8167,72 @@
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="74">
+      <c r="A187" s="69">
         <v>42031</v>
       </c>
-      <c r="B187" s="74" t="s">
+      <c r="B187" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C187" s="76" t="s">
+      <c r="C187" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D187" s="76">
+      <c r="D187" s="70">
         <v>500</v>
       </c>
-      <c r="E187" s="38">
+      <c r="E187" s="37">
         <v>8.48</v>
       </c>
       <c r="F187" s="6">
         <v>4.99</v>
       </c>
-      <c r="H187" s="38">
+      <c r="H187" s="37">
         <v>8.65</v>
       </c>
       <c r="I187" s="6">
         <v>4.99</v>
       </c>
-      <c r="K187" s="77">
+      <c r="K187" s="71">
         <f t="shared" si="8"/>
         <v>4244.99</v>
       </c>
-      <c r="L187" s="78">
+      <c r="L187" s="72">
         <f t="shared" si="9"/>
         <v>4320.01</v>
       </c>
-      <c r="M187" s="77">
+      <c r="M187" s="71">
         <f t="shared" si="10"/>
         <v>75.020000000000437</v>
       </c>
-      <c r="N187" s="78">
+      <c r="N187" s="72">
         <f t="shared" si="11"/>
         <v>0.16999999999999993</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="43"/>
-      <c r="B188" s="43" t="s">
+      <c r="A188" s="41"/>
+      <c r="B188" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C188" s="44" t="s">
+      <c r="C188" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="44">
+      <c r="D188" s="42">
         <v>500</v>
       </c>
-      <c r="E188" s="66">
+      <c r="E188" s="62">
         <v>8.5399999999999991</v>
       </c>
-      <c r="F188" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G188" s="68"/>
-      <c r="H188" s="66">
+      <c r="F188" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G188" s="64"/>
+      <c r="H188" s="62">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I188" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J188" s="68"/>
+      <c r="I188" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J188" s="64"/>
       <c r="K188" s="11">
         <f t="shared" si="8"/>
         <v>4274.99</v>
@@ -8179,65 +8251,65 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="74">
+      <c r="A189" s="69">
         <v>42032</v>
       </c>
-      <c r="B189" s="74" t="s">
+      <c r="B189" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C189" s="76" t="s">
+      <c r="C189" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D189" s="76">
+      <c r="D189" s="70">
         <v>500</v>
       </c>
-      <c r="E189" s="38">
+      <c r="E189" s="37">
         <v>3.25</v>
       </c>
       <c r="F189" s="6">
         <v>4.99</v>
       </c>
-      <c r="H189" s="38">
+      <c r="H189" s="37">
         <v>3.28</v>
       </c>
       <c r="I189" s="6">
         <v>4.99</v>
       </c>
-      <c r="K189" s="77">
+      <c r="K189" s="71">
         <f t="shared" si="8"/>
         <v>1629.99</v>
       </c>
-      <c r="L189" s="78">
+      <c r="L189" s="72">
         <f t="shared" si="9"/>
         <v>1635.01</v>
       </c>
-      <c r="M189" s="77">
+      <c r="M189" s="71">
         <f t="shared" si="10"/>
         <v>5.0199999999999818</v>
       </c>
-      <c r="N189" s="78">
+      <c r="N189" s="72">
         <f t="shared" si="11"/>
         <v>2.9999999999999805E-2</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="43"/>
-      <c r="B190" s="43" t="s">
+      <c r="A190" s="41"/>
+      <c r="B190" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C190" s="44" t="s">
+      <c r="C190" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D190" s="44">
+      <c r="D190" s="42">
         <v>500</v>
       </c>
-      <c r="E190" s="38">
+      <c r="E190" s="37">
         <v>2.58</v>
       </c>
       <c r="F190" s="6">
         <v>4.99</v>
       </c>
-      <c r="H190" s="38">
+      <c r="H190" s="37">
         <v>2.65</v>
       </c>
       <c r="I190" s="6">
@@ -8261,23 +8333,23 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="43"/>
-      <c r="B191" s="43" t="s">
+      <c r="A191" s="41"/>
+      <c r="B191" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C191" s="44" t="s">
+      <c r="C191" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D191" s="44">
+      <c r="D191" s="42">
         <v>500</v>
       </c>
-      <c r="E191" s="38">
+      <c r="E191" s="37">
         <v>8.5500000000000007</v>
       </c>
       <c r="F191" s="6">
         <v>4.99</v>
       </c>
-      <c r="H191" s="38">
+      <c r="H191" s="37">
         <v>8.6199999999999992</v>
       </c>
       <c r="I191" s="6">
@@ -8301,23 +8373,23 @@
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="43"/>
-      <c r="B192" s="43" t="s">
+      <c r="A192" s="41"/>
+      <c r="B192" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C192" s="44" t="s">
+      <c r="C192" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D192" s="44">
+      <c r="D192" s="42">
         <v>500</v>
       </c>
-      <c r="E192" s="38">
+      <c r="E192" s="37">
         <v>2.62</v>
       </c>
       <c r="F192" s="6">
         <v>4.99</v>
       </c>
-      <c r="H192" s="38">
+      <c r="H192" s="37">
         <v>2.74</v>
       </c>
       <c r="I192" s="6">
@@ -8340,24 +8412,24 @@
         <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A193" s="43"/>
-      <c r="B193" s="43" t="s">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" s="41"/>
+      <c r="B193" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C193" s="44" t="s">
+      <c r="C193" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D193" s="44">
+      <c r="D193" s="42">
         <v>500</v>
       </c>
-      <c r="E193" s="38">
+      <c r="E193" s="37">
         <v>8.56</v>
       </c>
       <c r="F193" s="6">
         <v>4.99</v>
       </c>
-      <c r="H193" s="38">
+      <c r="H193" s="37">
         <v>8.61</v>
       </c>
       <c r="I193" s="6">
@@ -8380,24 +8452,24 @@
         <v>4.9999999999998934E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A194" s="43"/>
-      <c r="B194" s="43" t="s">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" s="41"/>
+      <c r="B194" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="44" t="s">
+      <c r="C194" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D194" s="44">
+      <c r="D194" s="42">
         <v>500</v>
       </c>
-      <c r="E194" s="38">
+      <c r="E194" s="37">
         <v>2.4700000000000002</v>
       </c>
       <c r="F194" s="6">
         <v>4.99</v>
       </c>
-      <c r="H194" s="38">
+      <c r="H194" s="37">
         <v>2.4900000000000002</v>
       </c>
       <c r="I194" s="6">
@@ -8420,24 +8492,24 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" s="43"/>
-      <c r="B195" s="43" t="s">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195" s="41"/>
+      <c r="B195" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C195" s="44" t="s">
+      <c r="C195" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D195" s="44">
+      <c r="D195" s="42">
         <v>500</v>
       </c>
-      <c r="E195" s="38">
+      <c r="E195" s="37">
         <v>8.56</v>
       </c>
       <c r="F195" s="6">
         <v>4.99</v>
       </c>
-      <c r="H195" s="38">
+      <c r="H195" s="37">
         <v>8.69</v>
       </c>
       <c r="I195" s="6">
@@ -8460,31 +8532,31 @@
         <v>0.12999999999999901</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A196" s="43"/>
-      <c r="B196" s="43" t="s">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" s="41"/>
+      <c r="B196" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C196" s="44" t="s">
+      <c r="C196" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D196" s="44">
+      <c r="D196" s="42">
         <v>400</v>
       </c>
-      <c r="E196" s="66">
+      <c r="E196" s="62">
         <v>8.32</v>
       </c>
-      <c r="F196" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G196" s="68"/>
-      <c r="H196" s="66">
+      <c r="F196" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G196" s="64"/>
+      <c r="H196" s="62">
         <v>8.4499999999999993</v>
       </c>
-      <c r="I196" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J196" s="68"/>
+      <c r="I196" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J196" s="64"/>
       <c r="K196" s="11">
         <f t="shared" si="8"/>
         <v>3332.99</v>
@@ -8502,62 +8574,62 @@
         <v>0.12999999999999901</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A197" s="69">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="65">
         <v>42033</v>
       </c>
-      <c r="B197" s="69" t="s">
+      <c r="B197" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C197" s="71" t="s">
+      <c r="C197" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D197" s="71">
+      <c r="D197" s="66">
         <v>500</v>
       </c>
-      <c r="E197" s="38">
+      <c r="E197" s="37">
         <v>2.8</v>
       </c>
       <c r="F197" s="6">
         <v>4.99</v>
       </c>
-      <c r="H197" s="38">
+      <c r="H197" s="37">
         <v>2.85</v>
       </c>
       <c r="I197" s="6">
         <v>4.99</v>
       </c>
-      <c r="K197" s="72">
+      <c r="K197" s="67">
         <f t="shared" si="8"/>
         <v>1404.99</v>
       </c>
-      <c r="L197" s="73">
+      <c r="L197" s="68">
         <f t="shared" si="9"/>
         <v>1420.01</v>
       </c>
-      <c r="M197" s="72">
+      <c r="M197" s="67">
         <f t="shared" si="10"/>
         <v>15.019999999999982</v>
       </c>
-      <c r="N197" s="73">
+      <c r="N197" s="68">
         <f t="shared" si="11"/>
         <v>5.0000000000000266E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" s="74">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" s="69">
         <v>42034</v>
       </c>
-      <c r="B198" s="74" t="s">
+      <c r="B198" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C198" s="75" t="s">
+      <c r="C198" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="76">
+      <c r="D198" s="70">
         <v>500</v>
       </c>
-      <c r="E198" s="38">
+      <c r="E198" s="37">
         <v>2.76</v>
       </c>
       <c r="F198" s="6">
@@ -8566,41 +8638,41 @@
       <c r="I198" s="6">
         <v>4.99</v>
       </c>
-      <c r="K198" s="77">
+      <c r="K198" s="71">
         <f t="shared" ref="K198:K200" si="12">IF(D198&gt;0,IF(G198&gt;0,((D198*E198)+F198)*G198,(D198*E198)+F198),0)</f>
         <v>1384.99</v>
       </c>
-      <c r="L198" s="78">
+      <c r="L198" s="72">
         <f t="shared" ref="L198:L200" si="13">IF(H198&gt;0,IF(J198&gt;0,((D198*H198)-I198)*J198,(D198*H198)-I198),0)</f>
         <v>0</v>
       </c>
-      <c r="M198" s="77">
+      <c r="M198" s="71">
         <f t="shared" ref="M198:M200" si="14">IF(H198&gt;0,L198-K198,0)</f>
         <v>0</v>
       </c>
-      <c r="N198" s="78">
+      <c r="N198" s="72">
         <f t="shared" ref="N198:N200" si="15">IF(H198&gt;0,H198-E198,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A199" s="43"/>
-      <c r="B199" s="43" t="s">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" s="41"/>
+      <c r="B199" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C199" s="44" t="s">
+      <c r="C199" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D199" s="44">
+      <c r="D199" s="42">
         <v>500</v>
       </c>
-      <c r="E199" s="38">
+      <c r="E199" s="37">
         <v>2.76</v>
       </c>
       <c r="F199" s="6">
         <v>4.99</v>
       </c>
-      <c r="H199" s="38">
+      <c r="H199" s="37">
         <v>2.84</v>
       </c>
       <c r="I199" s="6">
@@ -8623,31 +8695,31 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A200" s="43"/>
-      <c r="B200" s="43" t="s">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" s="41"/>
+      <c r="B200" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C200" s="44" t="s">
+      <c r="C200" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D200" s="44">
+      <c r="D200" s="42">
         <v>500</v>
       </c>
-      <c r="E200" s="66">
+      <c r="E200" s="62">
         <v>2.86</v>
       </c>
-      <c r="F200" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="G200" s="68"/>
-      <c r="H200" s="66">
+      <c r="F200" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="G200" s="64"/>
+      <c r="H200" s="62">
         <v>2.91</v>
       </c>
-      <c r="I200" s="67">
-        <v>4.99</v>
-      </c>
-      <c r="J200" s="68"/>
+      <c r="I200" s="63">
+        <v>4.99</v>
+      </c>
+      <c r="J200" s="64"/>
       <c r="K200" s="11">
         <f t="shared" si="12"/>
         <v>1434.99</v>
@@ -8665,20 +8737,20 @@
         <v>5.0000000000000266E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="69">
+    <row r="201" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="65">
         <v>42037</v>
       </c>
-      <c r="B201" s="69" t="s">
+      <c r="B201" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C201" s="70" t="s">
+      <c r="C201" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D201" s="71">
+      <c r="D201" s="66">
         <v>1000</v>
       </c>
-      <c r="E201" s="38">
+      <c r="E201" s="37">
         <v>2.67</v>
       </c>
       <c r="F201" s="6">
@@ -8687,61 +8759,62 @@
       <c r="G201" s="28">
         <v>1.2615000000000001</v>
       </c>
-      <c r="H201" s="38"/>
+      <c r="H201" s="37"/>
       <c r="I201" s="6">
         <v>4.99</v>
       </c>
       <c r="J201" s="28">
         <v>1.2615000000000001</v>
       </c>
-      <c r="K201" s="72">
+      <c r="K201" s="67">
         <f>IF(D201&gt;0,IF(G201&gt;0,((D201*E201)+F201)*G201,(D201*E201)+F201),0)</f>
         <v>3374.4998849999997</v>
       </c>
-      <c r="L201" s="73">
+      <c r="L201" s="68">
         <f>IF(H201&gt;0,IF(J201&gt;0,((D201*H201)-I201)*J201,(D201*H201)-I201),0)</f>
         <v>0</v>
       </c>
-      <c r="M201" s="72">
+      <c r="M201" s="67">
         <f>IF(H201&gt;0,L201-K201,0)</f>
         <v>0</v>
       </c>
-      <c r="N201" s="73">
+      <c r="N201" s="68">
         <f>IF(H201&gt;0,H201-E201,0)</f>
         <v>0</v>
       </c>
-      <c r="O201" s="79">
+      <c r="O201" s="73">
         <f>SUM(M201)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A202" s="43">
+      <c r="P201" s="81"/>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" s="41">
         <v>42038</v>
       </c>
-      <c r="B202" s="43" t="s">
+      <c r="B202" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="C202" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D202" s="44">
+      <c r="D202" s="42">
         <v>500</v>
       </c>
-      <c r="E202" s="58">
+      <c r="E202" s="55">
         <v>8.35</v>
       </c>
-      <c r="F202" s="59">
-        <v>4.99</v>
-      </c>
-      <c r="G202" s="60"/>
-      <c r="H202" s="58">
+      <c r="F202" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="G202" s="57"/>
+      <c r="H202" s="55">
         <v>8.3699999999999992</v>
       </c>
-      <c r="I202" s="59">
-        <v>4.99</v>
-      </c>
-      <c r="J202" s="60"/>
+      <c r="I202" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="J202" s="57"/>
       <c r="K202" s="11">
         <f t="shared" ref="K202:K265" si="16">IF(D202&gt;0,IF(G202&gt;0,((D202*E202)+F202)*G202,(D202*E202)+F202),0)</f>
         <v>4179.99</v>
@@ -8759,22 +8832,25 @@
         <v>1.9999999999999574E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A203" s="43"/>
-      <c r="B203" s="43" t="s">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="41"/>
+      <c r="B203" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C203" s="41" t="s">
+      <c r="C203" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D203" s="44">
+      <c r="D203" s="42">
         <v>500</v>
       </c>
-      <c r="E203" s="38">
+      <c r="E203" s="37">
         <v>8.1199999999999992</v>
       </c>
       <c r="F203" s="6">
         <v>4.99</v>
+      </c>
+      <c r="H203" s="37">
+        <v>8.42</v>
       </c>
       <c r="I203" s="6">
         <v>4.99</v>
@@ -8785,35 +8861,35 @@
       </c>
       <c r="L203" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4205.01</v>
       </c>
       <c r="M203" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>140.02000000000089</v>
       </c>
       <c r="N203" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A204" s="43"/>
-      <c r="B204" s="43" t="s">
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="41"/>
+      <c r="B204" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C204" s="44" t="s">
+      <c r="C204" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D204" s="44">
+      <c r="D204" s="42">
         <v>250</v>
       </c>
-      <c r="E204" s="38">
+      <c r="E204" s="37">
         <v>8.6300000000000008</v>
       </c>
       <c r="F204" s="6">
         <v>4.99</v>
       </c>
-      <c r="H204" s="38">
+      <c r="H204" s="37">
         <v>9.85</v>
       </c>
       <c r="I204" s="6">
@@ -8836,18 +8912,18 @@
         <v>1.2199999999999989</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A205" s="43"/>
-      <c r="B205" s="43" t="s">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" s="41"/>
+      <c r="B205" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="49" t="s">
+      <c r="C205" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D205" s="44">
+      <c r="D205" s="42">
         <v>500</v>
       </c>
-      <c r="E205" s="38">
+      <c r="E205" s="37">
         <v>3.86</v>
       </c>
       <c r="F205" s="6">
@@ -8856,7 +8932,7 @@
       <c r="G205" s="28">
         <v>1.2495000000000001</v>
       </c>
-      <c r="H205" s="38">
+      <c r="H205" s="37">
         <v>3.96</v>
       </c>
       <c r="I205" s="6">
@@ -8882,18 +8958,18 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A206" s="43"/>
-      <c r="B206" s="43" t="s">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" s="41"/>
+      <c r="B206" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C206" s="41" t="s">
+      <c r="C206" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D206" s="44">
+      <c r="D206" s="42">
         <v>500</v>
       </c>
-      <c r="E206" s="38">
+      <c r="E206" s="37">
         <v>4.04</v>
       </c>
       <c r="F206" s="6">
@@ -8925,141 +9001,204 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A207" s="61"/>
-      <c r="B207" s="61" t="s">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="58"/>
+      <c r="B207" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C207" s="62" t="s">
+      <c r="C207" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D207" s="63">
+      <c r="D207" s="59">
         <v>500</v>
       </c>
-      <c r="E207" s="38">
+      <c r="E207" s="37">
         <v>8.09</v>
       </c>
       <c r="F207" s="6">
         <v>4.99</v>
       </c>
+      <c r="H207" s="37">
+        <v>8.42</v>
+      </c>
       <c r="I207" s="6">
         <v>4.99</v>
       </c>
-      <c r="K207" s="64">
+      <c r="K207" s="60">
         <f t="shared" si="16"/>
         <v>4049.99</v>
       </c>
-      <c r="L207" s="65">
+      <c r="L207" s="61">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M207" s="64">
+        <v>4205.01</v>
+      </c>
+      <c r="M207" s="60">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N207" s="65">
+        <v>155.02000000000044</v>
+      </c>
+      <c r="N207" s="61">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="O207" s="2">
         <f>SUM(M202:M207)</f>
-        <v>345.04499000000078</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A208" s="43"/>
-      <c r="B208" s="43"/>
-      <c r="E208" s="58"/>
-      <c r="F208" s="59">
-        <v>4.99</v>
-      </c>
-      <c r="G208" s="60"/>
-      <c r="H208" s="58"/>
-      <c r="I208" s="59">
-        <v>4.99</v>
-      </c>
-      <c r="J208" s="60"/>
+        <v>640.08499000000211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" s="41">
+        <v>42039</v>
+      </c>
+      <c r="B208" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="42">
+        <v>500</v>
+      </c>
+      <c r="E208" s="55">
+        <v>3.41</v>
+      </c>
+      <c r="F208" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="G208" s="57">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="H208" s="55">
+        <v>3.69</v>
+      </c>
+      <c r="I208" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="J208" s="28">
+        <v>1.244</v>
+      </c>
       <c r="K208" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2128.9375500000001</v>
       </c>
       <c r="L208" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2288.97244</v>
       </c>
       <c r="M208" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>160.0348899999999</v>
       </c>
       <c r="N208" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="43"/>
-      <c r="B209" s="43"/>
+        <v>0.2799999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="41"/>
+      <c r="B209" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C209" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D209" s="42">
+        <v>500</v>
+      </c>
+      <c r="E209" s="37">
+        <v>3.18</v>
+      </c>
       <c r="F209" s="6">
         <v>4.99</v>
+      </c>
+      <c r="H209" s="37">
+        <v>3.19</v>
       </c>
       <c r="I209" s="6">
         <v>4.99</v>
       </c>
       <c r="K209" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1594.99</v>
       </c>
       <c r="L209" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1590.01</v>
       </c>
       <c r="M209" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-4.9800000000000182</v>
       </c>
       <c r="N209" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="43"/>
-      <c r="B210" s="43"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="41"/>
+      <c r="B210" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="42">
+        <v>500</v>
+      </c>
+      <c r="E210" s="37">
+        <v>8.25</v>
+      </c>
       <c r="F210" s="6">
         <v>4.99</v>
+      </c>
+      <c r="H210" s="37">
+        <v>8.41</v>
       </c>
       <c r="I210" s="6">
         <v>4.99</v>
       </c>
       <c r="K210" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4129.99</v>
       </c>
       <c r="L210" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4200.01</v>
       </c>
       <c r="M210" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>70.020000000000437</v>
       </c>
       <c r="N210" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" s="43"/>
-      <c r="B211" s="43"/>
+        <v>0.16000000000000014</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="41"/>
+      <c r="B211" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C211" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D211" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E211" s="37">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="F211" s="6">
         <v>4.99</v>
+      </c>
+      <c r="G211" s="28">
+        <v>1.2544999999999999</v>
       </c>
       <c r="I211" s="6">
         <v>4.99</v>
       </c>
       <c r="K211" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>357.51995499999998</v>
       </c>
       <c r="L211" s="10">
         <f t="shared" si="17"/>
@@ -9074,148 +9213,263 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="43"/>
-      <c r="B212" s="43"/>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="41"/>
+      <c r="B212" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D212" s="42">
+        <v>500</v>
+      </c>
+      <c r="E212" s="37">
+        <v>3.24</v>
+      </c>
       <c r="F212" s="6">
         <v>4.99</v>
       </c>
+      <c r="G212" s="28">
+        <v>1.2544999999999999</v>
+      </c>
+      <c r="H212" s="37">
+        <v>3.35</v>
+      </c>
       <c r="I212" s="6">
         <v>4.99</v>
+      </c>
+      <c r="J212" s="28">
+        <v>1.2515000000000001</v>
       </c>
       <c r="K212" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2038.549955</v>
       </c>
       <c r="L212" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2090.017515</v>
       </c>
       <c r="M212" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>51.467560000000049</v>
       </c>
       <c r="N212" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213" s="43"/>
-      <c r="B213" s="43"/>
+        <v>0.10999999999999988</v>
+      </c>
+      <c r="P212" s="1">
+        <v>1882.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" s="58"/>
+      <c r="B213" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D213" s="59">
+        <v>500</v>
+      </c>
+      <c r="E213" s="37">
+        <v>3.07</v>
+      </c>
       <c r="F213" s="6">
         <v>4.99</v>
       </c>
+      <c r="H213" s="37">
+        <v>3.23</v>
+      </c>
       <c r="I213" s="6">
         <v>4.99</v>
       </c>
-      <c r="K213" s="11">
+      <c r="K213" s="60">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L213" s="10">
+        <v>1539.99</v>
+      </c>
+      <c r="L213" s="61">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M213" s="11">
+        <v>1610.01</v>
+      </c>
+      <c r="M213" s="60">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N213" s="10">
+        <v>70.019999999999982</v>
+      </c>
+      <c r="N213" s="61">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A214" s="43"/>
-      <c r="B214" s="43"/>
-      <c r="F214" s="6">
-        <v>4.99</v>
-      </c>
-      <c r="I214" s="6">
-        <v>4.99</v>
-      </c>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="O213" s="2">
+        <f>SUM(M208:M213)</f>
+        <v>346.56245000000035</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="41">
+        <v>42040</v>
+      </c>
+      <c r="B214" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="42">
+        <v>500</v>
+      </c>
+      <c r="E214" s="55">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F214" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="G214" s="57"/>
+      <c r="H214" s="55">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="I214" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="J214" s="57"/>
       <c r="K214" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4154.99</v>
       </c>
       <c r="L214" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4230.01</v>
       </c>
       <c r="M214" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>75.020000000000437</v>
       </c>
       <c r="N214" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" s="43"/>
-      <c r="B215" s="43"/>
+        <v>0.16999999999999993</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="58"/>
+      <c r="B215" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C215" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" s="59">
+        <v>500</v>
+      </c>
+      <c r="E215" s="37">
+        <v>2.6</v>
+      </c>
       <c r="F215" s="6">
         <v>4.99</v>
       </c>
+      <c r="G215" s="28">
+        <v>1.2435</v>
+      </c>
       <c r="I215" s="6">
         <v>4.99</v>
       </c>
-      <c r="K215" s="11">
+      <c r="J215" s="28">
+        <v>1.2435</v>
+      </c>
+      <c r="K215" s="60">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L215" s="10">
+        <v>1622.7550650000001</v>
+      </c>
+      <c r="L215" s="61">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M215" s="11">
+      <c r="M215" s="60">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N215" s="10">
+      <c r="N215" s="61">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" s="43"/>
-      <c r="B216" s="43"/>
-      <c r="F216" s="6">
-        <v>4.99</v>
-      </c>
-      <c r="I216" s="6">
-        <v>4.99</v>
-      </c>
+      <c r="O215" s="2">
+        <f>SUM(M214:M215)</f>
+        <v>75.020000000000437</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" s="41">
+        <v>42041</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="42">
+        <v>500</v>
+      </c>
+      <c r="E216" s="55">
+        <v>7.91</v>
+      </c>
+      <c r="F216" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="G216" s="57"/>
+      <c r="H216" s="55">
+        <v>7.94</v>
+      </c>
+      <c r="I216" s="56">
+        <v>4.99</v>
+      </c>
+      <c r="J216" s="57"/>
       <c r="K216" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3959.99</v>
       </c>
       <c r="L216" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3965.01</v>
       </c>
       <c r="M216" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5.0200000000004366</v>
       </c>
       <c r="N216" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A217" s="43"/>
-      <c r="B217" s="43"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" s="41"/>
+      <c r="B217" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C217" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" s="42">
+        <v>500</v>
+      </c>
+      <c r="E217" s="37">
+        <v>2.4700000000000002</v>
+      </c>
       <c r="F217" s="6">
         <v>4.99</v>
       </c>
+      <c r="G217" s="28">
+        <v>1.244</v>
+      </c>
       <c r="I217" s="6">
         <v>4.99</v>
+      </c>
+      <c r="J217" s="28">
+        <v>1.244</v>
       </c>
       <c r="K217" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1542.54756</v>
       </c>
       <c r="L217" s="10">
         <f t="shared" si="17"/>
@@ -9230,44 +9484,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A218" s="43"/>
-      <c r="B218" s="43"/>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="41"/>
+      <c r="B218" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C218" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D218" s="42">
+        <v>500</v>
+      </c>
+      <c r="E218" s="37">
+        <v>2.81</v>
+      </c>
       <c r="F218" s="6">
         <v>4.99</v>
       </c>
+      <c r="G218" s="28">
+        <v>1.244</v>
+      </c>
+      <c r="H218" s="37">
+        <v>2.86</v>
+      </c>
       <c r="I218" s="6">
         <v>4.99</v>
+      </c>
+      <c r="J218" s="28">
+        <v>1.244</v>
       </c>
       <c r="K218" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1754.02756</v>
       </c>
       <c r="L218" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1772.71244</v>
       </c>
       <c r="M218" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>18.684880000000021</v>
       </c>
       <c r="N218" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A219" s="43"/>
-      <c r="B219" s="43"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" s="41"/>
+      <c r="B219" s="41"/>
+      <c r="C219" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D219" s="42">
+        <v>500</v>
+      </c>
+      <c r="E219" s="37">
+        <v>3.75</v>
+      </c>
       <c r="F219" s="6">
         <v>4.99</v>
+      </c>
+      <c r="G219" s="28">
+        <v>1.2513000000000001</v>
       </c>
       <c r="I219" s="6">
         <v>4.99</v>
       </c>
       <c r="K219" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2352.4314870000003</v>
       </c>
       <c r="L219" s="10">
         <f t="shared" si="17"/>
@@ -9282,61 +9568,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A220" s="43"/>
-      <c r="B220" s="43"/>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" s="41"/>
+      <c r="B220" s="41"/>
+      <c r="C220" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D220" s="42">
+        <v>500</v>
+      </c>
+      <c r="E220" s="37">
+        <v>3.62</v>
+      </c>
       <c r="F220" s="6">
         <v>4.99</v>
       </c>
+      <c r="G220" s="28">
+        <v>1.2513000000000001</v>
+      </c>
+      <c r="H220" s="37">
+        <v>3.71</v>
+      </c>
       <c r="I220" s="6">
         <v>4.99</v>
+      </c>
+      <c r="J220" s="28">
+        <v>1.2513000000000001</v>
       </c>
       <c r="K220" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2271.0969870000004</v>
       </c>
       <c r="L220" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2314.9175130000003</v>
       </c>
       <c r="M220" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>43.820525999999973</v>
       </c>
       <c r="N220" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A221" s="43"/>
-      <c r="B221" s="43"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" s="41"/>
+      <c r="B221" s="41"/>
+      <c r="C221" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D221" s="42">
+        <v>500</v>
+      </c>
+      <c r="E221" s="37">
+        <v>3.25</v>
+      </c>
       <c r="F221" s="6">
         <v>4.99</v>
+      </c>
+      <c r="H221" s="37">
+        <v>3.29</v>
       </c>
       <c r="I221" s="6">
         <v>4.99</v>
       </c>
       <c r="K221" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1629.99</v>
       </c>
       <c r="L221" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1640.01</v>
       </c>
       <c r="M221" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10.019999999999982</v>
       </c>
       <c r="N221" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A222" s="43"/>
-      <c r="B222" s="43"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="O221" s="2">
+        <f>SUM(M216:M221)</f>
+        <v>77.545406000000412</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" s="41"/>
+      <c r="B222" s="41"/>
       <c r="F222" s="6">
         <v>4.99</v>
       </c>
@@ -9360,9 +9680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223" s="43"/>
-      <c r="B223" s="43"/>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" s="41"/>
+      <c r="B223" s="41"/>
       <c r="F223" s="6">
         <v>4.99</v>
       </c>
@@ -9386,9 +9706,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A224" s="43"/>
-      <c r="B224" s="43"/>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="41"/>
+      <c r="B224" s="41"/>
       <c r="F224" s="6">
         <v>4.99</v>
       </c>
@@ -9413,8 +9733,8 @@
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" s="43"/>
-      <c r="B225" s="43"/>
+      <c r="A225" s="41"/>
+      <c r="B225" s="41"/>
       <c r="F225" s="6">
         <v>4.99</v>
       </c>
@@ -9439,8 +9759,8 @@
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="43"/>
-      <c r="B226" s="43"/>
+      <c r="A226" s="41"/>
+      <c r="B226" s="41"/>
       <c r="F226" s="6">
         <v>4.99</v>
       </c>
@@ -9465,8 +9785,8 @@
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="43"/>
-      <c r="B227" s="43"/>
+      <c r="A227" s="41"/>
+      <c r="B227" s="41"/>
       <c r="F227" s="6">
         <v>4.99</v>
       </c>
@@ -9491,8 +9811,8 @@
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="43"/>
-      <c r="B228" s="43"/>
+      <c r="A228" s="41"/>
+      <c r="B228" s="41"/>
       <c r="F228" s="6">
         <v>4.99</v>
       </c>
@@ -9517,8 +9837,8 @@
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="43"/>
-      <c r="B229" s="43"/>
+      <c r="A229" s="41"/>
+      <c r="B229" s="41"/>
       <c r="F229" s="6">
         <v>4.99</v>
       </c>
@@ -9543,8 +9863,8 @@
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="43"/>
-      <c r="B230" s="43"/>
+      <c r="A230" s="41"/>
+      <c r="B230" s="41"/>
       <c r="F230" s="6">
         <v>4.99</v>
       </c>
@@ -9569,8 +9889,8 @@
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="43"/>
-      <c r="B231" s="43"/>
+      <c r="A231" s="41"/>
+      <c r="B231" s="41"/>
       <c r="F231" s="6">
         <v>4.99</v>
       </c>
@@ -9595,8 +9915,8 @@
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="43"/>
-      <c r="B232" s="43"/>
+      <c r="A232" s="41"/>
+      <c r="B232" s="41"/>
       <c r="F232" s="6">
         <v>4.99</v>
       </c>
@@ -9621,8 +9941,8 @@
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="43"/>
-      <c r="B233" s="43"/>
+      <c r="A233" s="41"/>
+      <c r="B233" s="41"/>
       <c r="F233" s="6">
         <v>4.99</v>
       </c>
@@ -9647,8 +9967,8 @@
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234" s="43"/>
-      <c r="B234" s="43"/>
+      <c r="A234" s="41"/>
+      <c r="B234" s="41"/>
       <c r="F234" s="6">
         <v>4.99</v>
       </c>
@@ -9673,8 +9993,8 @@
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="43"/>
-      <c r="B235" s="43"/>
+      <c r="A235" s="41"/>
+      <c r="B235" s="41"/>
       <c r="F235" s="6">
         <v>4.99</v>
       </c>
@@ -9699,8 +10019,8 @@
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="43"/>
-      <c r="B236" s="43"/>
+      <c r="A236" s="41"/>
+      <c r="B236" s="41"/>
       <c r="F236" s="6">
         <v>4.99</v>
       </c>
@@ -9725,8 +10045,8 @@
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="43"/>
-      <c r="B237" s="43"/>
+      <c r="A237" s="41"/>
+      <c r="B237" s="41"/>
       <c r="F237" s="6">
         <v>4.99</v>
       </c>
@@ -9751,8 +10071,8 @@
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="43"/>
-      <c r="B238" s="43"/>
+      <c r="A238" s="41"/>
+      <c r="B238" s="41"/>
       <c r="F238" s="6">
         <v>4.99</v>
       </c>
@@ -9777,8 +10097,8 @@
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="43"/>
-      <c r="B239" s="43"/>
+      <c r="A239" s="41"/>
+      <c r="B239" s="41"/>
       <c r="F239" s="6">
         <v>4.99</v>
       </c>
@@ -9803,8 +10123,8 @@
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240" s="43"/>
-      <c r="B240" s="43"/>
+      <c r="A240" s="41"/>
+      <c r="B240" s="41"/>
       <c r="F240" s="6">
         <v>4.99</v>
       </c>
@@ -9829,8 +10149,8 @@
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="43"/>
-      <c r="B241" s="43"/>
+      <c r="A241" s="41"/>
+      <c r="B241" s="41"/>
       <c r="F241" s="6">
         <v>4.99</v>
       </c>
@@ -9855,8 +10175,8 @@
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A242" s="43"/>
-      <c r="B242" s="43"/>
+      <c r="A242" s="41"/>
+      <c r="B242" s="41"/>
       <c r="F242" s="6">
         <v>4.99</v>
       </c>
@@ -9881,8 +10201,8 @@
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A243" s="43"/>
-      <c r="B243" s="43"/>
+      <c r="A243" s="41"/>
+      <c r="B243" s="41"/>
       <c r="F243" s="6">
         <v>4.99</v>
       </c>
@@ -9907,8 +10227,8 @@
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A244" s="43"/>
-      <c r="B244" s="43"/>
+      <c r="A244" s="41"/>
+      <c r="B244" s="41"/>
       <c r="F244" s="6">
         <v>4.99</v>
       </c>
@@ -9933,8 +10253,8 @@
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A245" s="43"/>
-      <c r="B245" s="43"/>
+      <c r="A245" s="41"/>
+      <c r="B245" s="41"/>
       <c r="F245" s="6">
         <v>4.99</v>
       </c>
@@ -9959,8 +10279,8 @@
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A246" s="43"/>
-      <c r="B246" s="43"/>
+      <c r="A246" s="41"/>
+      <c r="B246" s="41"/>
       <c r="F246" s="6">
         <v>4.99</v>
       </c>
@@ -9985,8 +10305,8 @@
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A247" s="43"/>
-      <c r="B247" s="43"/>
+      <c r="A247" s="41"/>
+      <c r="B247" s="41"/>
       <c r="F247" s="6">
         <v>4.99</v>
       </c>
@@ -10011,8 +10331,8 @@
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A248" s="43"/>
-      <c r="B248" s="43"/>
+      <c r="A248" s="41"/>
+      <c r="B248" s="41"/>
       <c r="F248" s="6">
         <v>4.99</v>
       </c>
@@ -10037,8 +10357,8 @@
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A249" s="43"/>
-      <c r="B249" s="43"/>
+      <c r="A249" s="41"/>
+      <c r="B249" s="41"/>
       <c r="F249" s="6">
         <v>4.99</v>
       </c>
@@ -10063,8 +10383,8 @@
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A250" s="43"/>
-      <c r="B250" s="43"/>
+      <c r="A250" s="41"/>
+      <c r="B250" s="41"/>
       <c r="F250" s="6">
         <v>4.99</v>
       </c>
@@ -10089,8 +10409,8 @@
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A251" s="43"/>
-      <c r="B251" s="43"/>
+      <c r="A251" s="41"/>
+      <c r="B251" s="41"/>
       <c r="F251" s="6">
         <v>4.99</v>
       </c>
@@ -10115,8 +10435,8 @@
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A252" s="43"/>
-      <c r="B252" s="43"/>
+      <c r="A252" s="41"/>
+      <c r="B252" s="41"/>
       <c r="F252" s="6">
         <v>4.99</v>
       </c>
@@ -10141,8 +10461,8 @@
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A253" s="43"/>
-      <c r="B253" s="43"/>
+      <c r="A253" s="41"/>
+      <c r="B253" s="41"/>
       <c r="F253" s="6">
         <v>4.99</v>
       </c>
@@ -10167,8 +10487,8 @@
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A254" s="43"/>
-      <c r="B254" s="43"/>
+      <c r="A254" s="41"/>
+      <c r="B254" s="41"/>
       <c r="F254" s="6">
         <v>4.99</v>
       </c>
@@ -10193,8 +10513,8 @@
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A255" s="43"/>
-      <c r="B255" s="43"/>
+      <c r="A255" s="41"/>
+      <c r="B255" s="41"/>
       <c r="F255" s="6">
         <v>4.99</v>
       </c>
@@ -10219,8 +10539,8 @@
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A256" s="43"/>
-      <c r="B256" s="43"/>
+      <c r="A256" s="41"/>
+      <c r="B256" s="41"/>
       <c r="F256" s="6">
         <v>4.99</v>
       </c>
@@ -10245,8 +10565,8 @@
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A257" s="43"/>
-      <c r="B257" s="43"/>
+      <c r="A257" s="41"/>
+      <c r="B257" s="41"/>
       <c r="F257" s="6">
         <v>4.99</v>
       </c>
@@ -10271,8 +10591,8 @@
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A258" s="43"/>
-      <c r="B258" s="43"/>
+      <c r="A258" s="41"/>
+      <c r="B258" s="41"/>
       <c r="F258" s="6">
         <v>4.99</v>
       </c>
@@ -10297,8 +10617,8 @@
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A259" s="43"/>
-      <c r="B259" s="43"/>
+      <c r="A259" s="41"/>
+      <c r="B259" s="41"/>
       <c r="F259" s="6">
         <v>4.99</v>
       </c>
@@ -10323,8 +10643,8 @@
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A260" s="43"/>
-      <c r="B260" s="43"/>
+      <c r="A260" s="41"/>
+      <c r="B260" s="41"/>
       <c r="F260" s="6">
         <v>4.99</v>
       </c>
@@ -10349,8 +10669,8 @@
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A261" s="43"/>
-      <c r="B261" s="43"/>
+      <c r="A261" s="41"/>
+      <c r="B261" s="41"/>
       <c r="F261" s="6">
         <v>4.99</v>
       </c>
@@ -10375,8 +10695,8 @@
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A262" s="43"/>
-      <c r="B262" s="43"/>
+      <c r="A262" s="41"/>
+      <c r="B262" s="41"/>
       <c r="F262" s="6">
         <v>4.99</v>
       </c>
@@ -10401,8 +10721,8 @@
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A263" s="43"/>
-      <c r="B263" s="43"/>
+      <c r="A263" s="41"/>
+      <c r="B263" s="41"/>
       <c r="F263" s="6">
         <v>4.99</v>
       </c>
@@ -10427,8 +10747,8 @@
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A264" s="43"/>
-      <c r="B264" s="43"/>
+      <c r="A264" s="41"/>
+      <c r="B264" s="41"/>
       <c r="F264" s="6">
         <v>4.99</v>
       </c>
@@ -10453,8 +10773,8 @@
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A265" s="43"/>
-      <c r="B265" s="43"/>
+      <c r="A265" s="41"/>
+      <c r="B265" s="41"/>
       <c r="F265" s="6">
         <v>4.99</v>
       </c>
@@ -10479,8 +10799,8 @@
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A266" s="43"/>
-      <c r="B266" s="43"/>
+      <c r="A266" s="41"/>
+      <c r="B266" s="41"/>
       <c r="F266" s="6">
         <v>4.99</v>
       </c>
@@ -10505,8 +10825,8 @@
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A267" s="43"/>
-      <c r="B267" s="43"/>
+      <c r="A267" s="41"/>
+      <c r="B267" s="41"/>
       <c r="F267" s="6">
         <v>4.99</v>
       </c>
@@ -10531,8 +10851,8 @@
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A268" s="43"/>
-      <c r="B268" s="43"/>
+      <c r="A268" s="41"/>
+      <c r="B268" s="41"/>
       <c r="F268" s="6">
         <v>4.99</v>
       </c>
@@ -10557,8 +10877,8 @@
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A269" s="43"/>
-      <c r="B269" s="43"/>
+      <c r="A269" s="41"/>
+      <c r="B269" s="41"/>
       <c r="F269" s="6">
         <v>4.99</v>
       </c>
@@ -10583,8 +10903,8 @@
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A270" s="43"/>
-      <c r="B270" s="43"/>
+      <c r="A270" s="41"/>
+      <c r="B270" s="41"/>
       <c r="F270" s="6">
         <v>4.99</v>
       </c>
@@ -10609,8 +10929,8 @@
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A271" s="43"/>
-      <c r="B271" s="43"/>
+      <c r="A271" s="41"/>
+      <c r="B271" s="41"/>
       <c r="F271" s="6">
         <v>4.99</v>
       </c>

--- a/StockNumber.xlsx
+++ b/StockNumber.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="19215" windowHeight="1110" tabRatio="574"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="19215" windowHeight="1170" tabRatio="574"/>
   </bookViews>
   <sheets>
     <sheet name="Extrem Trading" sheetId="5" r:id="rId1"/>
@@ -95,27 +95,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="C198" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="115">
   <si>
     <t>Buy Cost</t>
   </si>
@@ -455,14 +440,21 @@
   <si>
     <t>IMG.TO</t>
   </si>
+  <si>
+    <t>Sell Date</t>
+  </si>
+  <si>
+    <t>Day Gain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -722,7 +714,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -853,12 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -902,6 +888,22 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
@@ -909,15 +911,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1220,13 +1214,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:O500"/>
+  <dimension ref="A1:P500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="5" topLeftCell="O214" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="5" topLeftCell="O135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H234" sqref="H234"/>
+      <selection pane="bottomRight" activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,9 +1238,10 @@
     <col min="11" max="12" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="74" t="s">
@@ -1269,7 +1264,7 @@
       </c>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="75" t="s">
@@ -1287,10 +1282,10 @@
       <c r="M2" s="19"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="23"/>
@@ -1305,30 +1300,32 @@
       <c r="M3" s="19"/>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="34"/>
       <c r="D4" s="49"/>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="L4" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="M4" s="21">
         <f>SUM(M6:M271)</f>
-        <v>8612.7088480000784</v>
+        <v>9893.5505520000806</v>
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>8</v>
       </c>
@@ -1371,8 +1368,14 @@
       <c r="N5" s="51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>41950</v>
       </c>
@@ -1415,8 +1418,9 @@
         <f t="shared" ref="N6:N69" si="3">IF(H6&gt;0,H6-E6,0)</f>
         <v>0.11999999999999922</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="97"/>
+    </row>
+    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>41950</v>
       </c>
@@ -1457,8 +1461,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="97"/>
+    </row>
+    <row r="8" spans="1:16" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>41955</v>
       </c>
@@ -1499,8 +1504,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="98"/>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="40" t="s">
         <v>32</v>
@@ -1539,8 +1545,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="97"/>
+    </row>
+    <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>41974</v>
       </c>
@@ -1579,8 +1586,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="97"/>
+    </row>
+    <row r="11" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="41" t="s">
@@ -1617,8 +1625,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="97"/>
+    </row>
+    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
@@ -1655,8 +1664,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="97"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>41975</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>0.10000000000000142</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="41" t="s">
@@ -1734,7 +1744,7 @@
         <v>-0.25999999999999979</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="41" t="s">
@@ -1772,7 +1782,7 @@
         <v>9.9999999999997868E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>41976</v>
       </c>
@@ -2426,7 +2436,7 @@
         <v>0.14000000000000057</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="41" t="s">
@@ -2464,7 +2474,7 @@
         <v>1.9999999999999574E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="41" t="s">
@@ -2502,7 +2512,7 @@
         <v>9.0000000000000302E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>41982</v>
       </c>
@@ -2542,7 +2552,7 @@
         <v>0.38999999999999968</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="41" t="s">
@@ -2580,7 +2590,7 @@
         <v>0.23000000000000043</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="41" t="s">
@@ -2618,7 +2628,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="41" t="s">
@@ -2656,7 +2666,7 @@
         <v>-8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="41" t="s">
@@ -2694,7 +2704,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="41" t="s">
@@ -2732,7 +2742,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="41" t="s">
@@ -2770,7 +2780,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>41983</v>
       </c>
@@ -2810,7 +2820,7 @@
         <v>5.9999999999998721E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" s="44" t="s">
         <v>31</v>
@@ -2851,8 +2861,9 @@
         <f t="shared" si="3"/>
         <v>0.14999999999999947</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P43" s="99"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="41" t="s">
@@ -2890,7 +2901,7 @@
         <v>-0.10000000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="40"/>
       <c r="C45" s="41" t="s">
@@ -2929,7 +2940,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
       <c r="C46" s="41" t="s">
@@ -2968,7 +2979,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="41" t="s">
@@ -3007,7 +3018,7 @@
         <v>-0.54999999999999982</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="40"/>
       <c r="C48" s="41" t="s">
@@ -3045,7 +3056,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="41" t="s">
@@ -3083,7 +3094,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>41984</v>
       </c>
@@ -3124,7 +3135,7 @@
         <v>0.24000000000000021</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="41" t="s">
@@ -3162,7 +3173,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="40"/>
       <c r="C52" s="41" t="s">
@@ -3200,7 +3211,7 @@
         <v>-0.10000000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="41" t="s">
@@ -3238,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="41" t="s">
@@ -3276,7 +3287,7 @@
         <v>9.9999999999997868E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="40"/>
       <c r="C55" s="41" t="s">
@@ -3315,7 +3326,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="40"/>
       <c r="C56" s="41" t="s">
@@ -3354,7 +3365,7 @@
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="40"/>
       <c r="C57" s="41" t="s">
@@ -3394,7 +3405,7 @@
         <v>0.14999999999999991</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="74" t="s">
@@ -3431,8 +3442,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P58" s="99"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>41985</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="40"/>
       <c r="C60" s="41" t="s">
@@ -3510,7 +3522,7 @@
         <v>5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="40"/>
       <c r="C61" s="41" t="s">
@@ -3550,7 +3562,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="40"/>
       <c r="C62" s="41" t="s">
@@ -3588,7 +3600,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>41988</v>
       </c>
@@ -3628,7 +3640,7 @@
         <v>0.10999999999999988</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="45" t="s">
@@ -3667,8 +3679,9 @@
         <f t="shared" si="3"/>
         <v>-0.12000000000000011</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P64" s="99"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="40"/>
       <c r="C65" s="41" t="s">
@@ -3706,7 +3719,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="40"/>
       <c r="C66" s="41" t="s">
@@ -3744,7 +3757,7 @@
         <v>-0.10000000000000009</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="74" t="s">
@@ -3781,8 +3794,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="99"/>
+    </row>
+    <row r="68" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>41989</v>
       </c>
@@ -3823,8 +3837,9 @@
         <f t="shared" si="3"/>
         <v>6.0000000000000497E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="97"/>
+    </row>
+    <row r="69" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="40"/>
       <c r="C69" s="41" t="s">
@@ -3863,8 +3878,9 @@
         <f t="shared" si="3"/>
         <v>0.18000000000000016</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P69" s="97"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="40"/>
       <c r="C70" s="41" t="s">
@@ -3902,7 +3918,7 @@
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="40"/>
       <c r="C71" s="41" t="s">
@@ -3940,7 +3956,7 @@
         <v>1.9999999999999796E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="40"/>
       <c r="C72" s="41" t="s">
@@ -3979,8 +3995,9 @@
         <f t="shared" si="7"/>
         <v>4.9999999999998934E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P72" s="97"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="40"/>
       <c r="C73" s="41" t="s">
@@ -4018,7 +4035,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="40"/>
       <c r="C74" s="41" t="s">
@@ -4056,7 +4073,7 @@
         <v>5.9999999999999831E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>41990</v>
       </c>
@@ -4096,7 +4113,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="40"/>
       <c r="C76" s="41" t="s">
@@ -4134,7 +4151,7 @@
         <v>5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="40"/>
       <c r="C77" s="41" t="s">
@@ -4173,8 +4190,9 @@
         <f t="shared" si="7"/>
         <v>4.9999999999999822E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P77" s="97"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="40"/>
       <c r="C78" s="41" t="s">
@@ -4212,7 +4230,7 @@
         <v>0.11999999999999922</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="40"/>
       <c r="C79" s="41" t="s">
@@ -4250,7 +4268,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>41991</v>
       </c>
@@ -4291,8 +4309,9 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="97"/>
+    </row>
+    <row r="81" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="40"/>
       <c r="C81" s="41" t="s">
@@ -4331,8 +4350,9 @@
         <f t="shared" si="7"/>
         <v>0.13999999999999968</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P81" s="97"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="40"/>
       <c r="C82" s="41" t="s">
@@ -4370,7 +4390,7 @@
         <v>2.000000000000135E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="40"/>
       <c r="C83" s="41" t="s">
@@ -4409,8 +4429,9 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P83" s="97"/>
+    </row>
+    <row r="84" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="40"/>
       <c r="C84" s="41" t="s">
@@ -4449,8 +4470,9 @@
         <f t="shared" si="7"/>
         <v>3.9999999999999147E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P84" s="97"/>
+    </row>
+    <row r="85" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="40"/>
       <c r="C85" s="41" t="s">
@@ -4489,8 +4511,9 @@
         <f t="shared" si="7"/>
         <v>0.14999999999999991</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P85" s="97"/>
+    </row>
+    <row r="86" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="40"/>
       <c r="C86" s="41" t="s">
@@ -4529,8 +4552,9 @@
         <f t="shared" si="7"/>
         <v>6.0000000000000497E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P86" s="97"/>
+    </row>
+    <row r="87" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="40"/>
       <c r="C87" s="41" t="s">
@@ -4569,8 +4593,9 @@
         <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P87" s="97"/>
+    </row>
+    <row r="88" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>41992</v>
       </c>
@@ -4611,8 +4636,9 @@
         <f t="shared" si="7"/>
         <v>0.12000000000000011</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P88" s="97"/>
+    </row>
+    <row r="89" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="40"/>
       <c r="C89" s="41" t="s">
@@ -4651,8 +4677,9 @@
         <f t="shared" si="7"/>
         <v>0.16000000000000014</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P89" s="97"/>
+    </row>
+    <row r="90" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="40"/>
       <c r="C90" s="41" t="s">
@@ -4691,8 +4718,9 @@
         <f t="shared" si="7"/>
         <v>7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P90" s="97"/>
+    </row>
+    <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="40"/>
       <c r="C91" s="41" t="s">
@@ -4731,8 +4759,9 @@
         <f t="shared" si="7"/>
         <v>4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P91" s="97"/>
+    </row>
+    <row r="92" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="40"/>
       <c r="C92" s="41" t="s">
@@ -4771,8 +4800,9 @@
         <f t="shared" si="7"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P92" s="97"/>
+    </row>
+    <row r="93" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="40"/>
       <c r="C93" s="74" t="s">
@@ -4809,8 +4839,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P93" s="97"/>
+    </row>
+    <row r="94" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="40"/>
       <c r="C94" s="41" t="s">
@@ -4849,8 +4880,9 @@
         <f t="shared" si="7"/>
         <v>2.0000000000000462E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P94" s="97"/>
+    </row>
+    <row r="95" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="40"/>
       <c r="C95" s="74" t="s">
@@ -4887,8 +4919,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P95" s="97"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>357</v>
       </c>
@@ -4928,7 +4961,7 @@
         <v>5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="40"/>
       <c r="C97" s="41" t="s">
@@ -4966,7 +4999,7 @@
         <v>7.0000000000000284E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="40"/>
       <c r="C98" s="41" t="s">
@@ -5004,7 +5037,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="40"/>
       <c r="C99" s="41" t="s">
@@ -5042,7 +5075,7 @@
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="40"/>
       <c r="C100" s="41" t="s">
@@ -5080,7 +5113,7 @@
         <v>-0.21999999999999975</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>42361</v>
       </c>
@@ -5120,7 +5153,7 @@
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="40"/>
       <c r="C102" s="41" t="s">
@@ -5158,7 +5191,7 @@
         <v>1.0000000000000231E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="40"/>
       <c r="C103" s="41" t="s">
@@ -5197,8 +5230,9 @@
         <f t="shared" si="7"/>
         <v>2.0000000000000462E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P103" s="97"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="40"/>
       <c r="C104" s="41" t="s">
@@ -5233,7 +5267,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="40"/>
       <c r="C105" s="41" t="s">
@@ -5272,8 +5306,9 @@
         <f t="shared" si="7"/>
         <v>-0.1800000000000006</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P105" s="97"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>42362</v>
       </c>
@@ -5313,7 +5348,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>42364</v>
       </c>
@@ -5353,7 +5388,7 @@
         <v>3.0000000000000249E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>42367</v>
       </c>
@@ -5393,7 +5428,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="40"/>
       <c r="C109" s="41" t="s">
@@ -5431,7 +5466,7 @@
         <v>0.14000000000000012</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>42368</v>
       </c>
@@ -5471,7 +5506,7 @@
         <v>1.9999999999999574E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>42369</v>
       </c>
@@ -5511,7 +5546,7 @@
         <v>3.0000000000000249E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="40"/>
       <c r="C112" s="41" t="s">
@@ -5549,7 +5584,7 @@
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="40"/>
       <c r="C113" s="41" t="s">
@@ -5587,7 +5622,7 @@
         <v>0.21999999999999975</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>42006</v>
       </c>
@@ -5627,7 +5662,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="40"/>
       <c r="C115" s="41" t="s">
@@ -5665,7 +5700,7 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="40"/>
       <c r="C116" s="41" t="s">
@@ -5700,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="40"/>
       <c r="C117" s="41" t="s">
@@ -5738,7 +5773,7 @@
         <v>0.10000000000000053</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="40"/>
       <c r="C118" s="41" t="s">
@@ -5776,7 +5811,7 @@
         <v>3.0000000000000249E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>42009</v>
       </c>
@@ -5816,7 +5851,7 @@
         <v>0.13999999999999968</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="40" t="s">
         <v>32</v>
@@ -5855,8 +5890,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P120" s="97"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="40" t="s">
         <v>32</v>
@@ -5893,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="40" t="s">
         <v>31</v>
@@ -5933,7 +5969,7 @@
         <v>0.14999999999999947</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="40" t="s">
         <v>31</v>
@@ -5970,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="40" t="s">
         <v>31</v>
@@ -6010,7 +6046,7 @@
         <v>5.0000000000000711E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="40" t="s">
         <v>31</v>
@@ -6050,7 +6086,7 @@
         <v>5.9999999999999609E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>42011</v>
       </c>
@@ -6092,7 +6128,7 @@
         <v>0.11999999999999922</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="40" t="s">
         <v>31</v>
@@ -6132,7 +6168,7 @@
         <v>0.11000000000000032</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="40" t="s">
         <v>31</v>
@@ -8716,7 +8752,7 @@
         <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="40" t="s">
         <v>31</v>
@@ -8756,7 +8792,7 @@
         <v>4.9999999999998934E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="40" t="s">
         <v>31</v>
@@ -8796,7 +8832,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="40" t="s">
         <v>31</v>
@@ -8836,7 +8872,7 @@
         <v>0.12999999999999901</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="40" t="s">
         <v>31</v>
@@ -8878,7 +8914,7 @@
         <v>0.12999999999999901</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="64">
         <v>42033</v>
       </c>
@@ -8920,14 +8956,14 @@
         <v>5.0000000000000266E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="68">
         <v>42034</v>
       </c>
       <c r="B198" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C198" s="74" t="s">
+      <c r="C198" s="46" t="s">
         <v>41</v>
       </c>
       <c r="D198" s="69">
@@ -8940,10 +8976,10 @@
         <v>4.99</v>
       </c>
       <c r="H198" s="36">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="I198" s="6">
-        <v>4.99</v>
+        <v>7.49</v>
       </c>
       <c r="K198" s="70">
         <f t="shared" ref="K198:K200" si="12">IF(D198&gt;0,IF(G198&gt;0,((D198*E198)+F198)*G198,(D198*E198)+F198),0)</f>
@@ -8951,18 +8987,21 @@
       </c>
       <c r="L198" s="71">
         <f t="shared" ref="L198:L200" si="13">IF(H198&gt;0,IF(J198&gt;0,((D198*H198)-I198)*J198,(D198*H198)-I198),0)</f>
-        <v>1535.01</v>
+        <v>1557.51</v>
       </c>
       <c r="M198" s="70">
         <f t="shared" ref="M198:M200" si="14">IF(H198&gt;0,L198-K198,0)</f>
-        <v>150.01999999999998</v>
+        <v>172.51999999999998</v>
       </c>
       <c r="N198" s="71">
         <f t="shared" ref="N198:N200" si="15">IF(H198&gt;0,H198-E198,0)</f>
-        <v>0.32000000000000028</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="P198" s="95">
+        <v>42052</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="40" t="s">
         <v>31</v>
@@ -9002,7 +9041,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="40" t="s">
         <v>31</v>
@@ -9044,7 +9083,7 @@
         <v>5.0000000000000266E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="64">
         <v>42037</v>
       </c>
@@ -9093,8 +9132,9 @@
         <f>SUM(M201)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P201" s="97"/>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>42038</v>
       </c>
@@ -9138,7 +9178,7 @@
         <v>1.9999999999999574E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="40" t="s">
         <v>31</v>
@@ -9178,7 +9218,7 @@
         <v>0.30000000000000071</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="40" t="s">
         <v>31</v>
@@ -9218,7 +9258,7 @@
         <v>1.2199999999999989</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="40" t="s">
         <v>31</v>
@@ -9264,7 +9304,7 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="40" t="s">
         <v>31</v>
@@ -9285,10 +9325,10 @@
         <v>1.24</v>
       </c>
       <c r="I206" s="6">
-        <v>7.49</v>
+        <v>4.99</v>
       </c>
       <c r="J206" s="27">
-        <v>1.24</v>
+        <v>1.2442</v>
       </c>
       <c r="K206" s="11">
         <f t="shared" si="16"/>
@@ -9306,8 +9346,11 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P206" s="95">
+        <v>42052</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="57"/>
       <c r="B207" s="57" t="s">
         <v>31</v>
@@ -9351,7 +9394,7 @@
         <v>640.08499000000211</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>42039</v>
       </c>
@@ -9998,13 +10041,13 @@
         <v>1.2504999999999999</v>
       </c>
       <c r="H222" s="54">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="I222" s="55">
         <v>4.99</v>
       </c>
-      <c r="J222" s="56">
-        <v>1.2504999999999999</v>
+      <c r="J222" s="27">
+        <v>1.2442</v>
       </c>
       <c r="K222" s="11">
         <f t="shared" si="16"/>
@@ -10012,15 +10055,15 @@
       </c>
       <c r="L222" s="10">
         <f t="shared" si="17"/>
-        <v>1331.7950049999999</v>
+        <v>1573.925442</v>
       </c>
       <c r="M222" s="11">
         <f t="shared" si="18"/>
-        <v>12.530009999999947</v>
+        <v>254.66044699999998</v>
       </c>
       <c r="N222" s="10">
         <f t="shared" si="19"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
@@ -10107,7 +10150,7 @@
         <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="40" t="s">
         <v>31</v>
@@ -10153,7 +10196,7 @@
         <v>0.12999999999999989</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="40" t="s">
         <v>31</v>
@@ -10173,11 +10216,14 @@
       <c r="G226" s="27">
         <v>1.2477</v>
       </c>
+      <c r="H226" s="36">
+        <v>3.93</v>
+      </c>
       <c r="I226" s="6">
         <v>4.99</v>
       </c>
       <c r="J226" s="27">
-        <v>1.2455000000000001</v>
+        <v>1.2442</v>
       </c>
       <c r="K226" s="11">
         <f t="shared" si="16"/>
@@ -10185,18 +10231,18 @@
       </c>
       <c r="L226" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2438.6444419999998</v>
       </c>
       <c r="M226" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>199.03541899999982</v>
       </c>
       <c r="N226" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.35000000000000009</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="57"/>
       <c r="B227" s="57" t="s">
         <v>31</v>
@@ -10216,11 +10262,14 @@
       <c r="G227" s="27">
         <v>1.2535000000000001</v>
       </c>
+      <c r="H227" s="36">
+        <v>3.93</v>
+      </c>
       <c r="I227" s="6">
         <v>4.99</v>
       </c>
       <c r="J227" s="27">
-        <v>1.2455000000000001</v>
+        <v>1.2442</v>
       </c>
       <c r="K227" s="59">
         <f t="shared" si="16"/>
@@ -10228,22 +10277,22 @@
       </c>
       <c r="L227" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2438.6444419999998</v>
       </c>
       <c r="M227" s="59">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>301.4394769999999</v>
       </c>
       <c r="N227" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.53000000000000025</v>
       </c>
       <c r="O227" s="2">
         <f>SUM(M224:M227)</f>
-        <v>111.3251820000005</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+        <v>611.80007800000021</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42046</v>
       </c>
@@ -10287,7 +10336,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="40" t="s">
         <v>45</v>
@@ -10327,7 +10376,7 @@
         <v>0.17999999999999972</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="57"/>
       <c r="B230" s="57" t="s">
         <v>31</v>
@@ -10371,14 +10420,14 @@
         <v>247.58000000000038</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42048</v>
       </c>
       <c r="B231" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C231" s="23" t="s">
+      <c r="C231" s="100" t="s">
         <v>112</v>
       </c>
       <c r="D231" s="41">
@@ -10415,7 +10464,7 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="40" t="s">
         <v>45</v>
@@ -10455,15 +10504,15 @@
         <v>3.0000000000000249E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A233" s="40"/>
-      <c r="B233" s="40" t="s">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="57"/>
+      <c r="B233" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C233" s="74" t="s">
+      <c r="C233" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D233" s="41">
+      <c r="D233" s="58">
         <v>500</v>
       </c>
       <c r="E233" s="36">
@@ -10476,136 +10525,211 @@
         <v>1.2455000000000001</v>
       </c>
       <c r="H233" s="36">
-        <v>3.84</v>
+        <v>4</v>
       </c>
       <c r="I233" s="6">
         <v>4.99</v>
       </c>
       <c r="J233" s="27">
-        <v>1.2455000000000001</v>
-      </c>
-      <c r="K233" s="11">
+        <v>1.2442</v>
+      </c>
+      <c r="K233" s="59">
         <f t="shared" si="16"/>
         <v>2279.2525450000003</v>
       </c>
-      <c r="L233" s="10">
+      <c r="L233" s="60">
         <f t="shared" si="17"/>
-        <v>2385.1449550000002</v>
-      </c>
-      <c r="M233" s="11">
+        <v>2482.1914419999998</v>
+      </c>
+      <c r="M233" s="59">
         <f t="shared" si="18"/>
-        <v>105.89240999999993</v>
-      </c>
-      <c r="N233" s="10">
+        <v>202.93889699999954</v>
+      </c>
+      <c r="N233" s="60">
         <f t="shared" si="19"/>
-        <v>0.18999999999999995</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A234" s="40"/>
-      <c r="B234" s="40"/>
-      <c r="F234" s="6">
-        <v>4.99</v>
-      </c>
-      <c r="I234" s="6">
-        <v>4.99</v>
-      </c>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="O233" s="2">
+        <f>SUM(M231:M233)</f>
+        <v>229.97889700000042</v>
+      </c>
+      <c r="P233" s="95">
+        <v>42052</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="40">
+        <v>42052</v>
+      </c>
+      <c r="B234" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C234" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D234" s="41">
+        <v>500</v>
+      </c>
+      <c r="E234" s="54">
+        <v>3.41</v>
+      </c>
+      <c r="F234" s="55">
+        <v>4.99</v>
+      </c>
+      <c r="G234" s="56"/>
+      <c r="H234" s="54">
+        <v>3.73</v>
+      </c>
+      <c r="I234" s="55">
+        <v>4.99</v>
+      </c>
+      <c r="J234" s="56"/>
       <c r="K234" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1709.99</v>
       </c>
       <c r="L234" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1860.01</v>
       </c>
       <c r="M234" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>150.01999999999998</v>
       </c>
       <c r="N234" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A235" s="40"/>
-      <c r="B235" s="40"/>
+        <v>0.31999999999999984</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="57"/>
+      <c r="B235" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C235" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D235" s="58">
+        <v>500</v>
+      </c>
+      <c r="E235" s="36">
+        <v>2.73</v>
+      </c>
       <c r="F235" s="6">
         <v>4.99</v>
       </c>
+      <c r="H235" s="36">
+        <v>2.96</v>
+      </c>
       <c r="I235" s="6">
         <v>4.99</v>
       </c>
-      <c r="K235" s="11">
+      <c r="K235" s="59">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L235" s="10">
+        <v>1369.99</v>
+      </c>
+      <c r="L235" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M235" s="11">
+        <v>1475.01</v>
+      </c>
+      <c r="M235" s="59">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N235" s="10">
+        <v>105.01999999999998</v>
+      </c>
+      <c r="N235" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="O235" s="2">
+        <f>SUM(M234:M235)</f>
+        <v>255.03999999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="40"/>
-      <c r="F236" s="6">
-        <v>4.99</v>
-      </c>
-      <c r="I236" s="6">
-        <v>4.99</v>
-      </c>
+      <c r="C236" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D236" s="41">
+        <v>500</v>
+      </c>
+      <c r="E236" s="54">
+        <v>2.86</v>
+      </c>
+      <c r="F236" s="55">
+        <v>7.49</v>
+      </c>
+      <c r="G236" s="56"/>
+      <c r="H236" s="54">
+        <v>3.15</v>
+      </c>
+      <c r="I236" s="55">
+        <v>4.99</v>
+      </c>
+      <c r="J236" s="56"/>
       <c r="K236" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1437.49</v>
       </c>
       <c r="L236" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1570.01</v>
       </c>
       <c r="M236" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>132.51999999999998</v>
       </c>
       <c r="N236" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="40"/>
+      <c r="C237" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D237" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E237" s="36">
+        <v>3.81</v>
+      </c>
       <c r="F237" s="6">
-        <v>4.99</v>
+        <v>7.49</v>
+      </c>
+      <c r="G237" s="27">
+        <v>1.2442</v>
+      </c>
+      <c r="H237" s="36">
+        <v>3.85</v>
       </c>
       <c r="I237" s="6">
-        <v>4.99</v>
+        <v>7.49</v>
+      </c>
+      <c r="J237" s="27">
+        <v>1.2442</v>
       </c>
       <c r="K237" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4749.7210579999992</v>
       </c>
       <c r="L237" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4780.850942</v>
       </c>
       <c r="M237" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>31.129884000000857</v>
       </c>
       <c r="N237" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="40"/>
       <c r="F238" s="6">
@@ -10631,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="40"/>
       <c r="F239" s="6">
@@ -10657,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="40"/>
       <c r="F240" s="6">
@@ -16990,7 +17114,7 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>AccountType</formula1>
     </dataValidation>
@@ -17302,738 +17426,738 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="79" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="79"/>
+    <col min="1" max="1" width="10.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="82">
+      <c r="D1" s="80">
         <f>SUM(D3,D5:D7,D9:D16,D18,D20:D31)</f>
         <v>87144.15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="81" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="80">
+      <c r="A3" s="78">
         <v>42126</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="83">
         <f>RIGHT(C3,LEN(C3)-3)*1</f>
         <v>100</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="79">
         <v>82901096</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="91">
         <f t="shared" ref="D4:D31" si="0">RIGHT(C4,LEN(C4)-3)*1</f>
         <v>9869.56</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="84" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="80">
+      <c r="A5" s="78">
         <v>42125</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="83">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="79">
         <v>8511595</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="83">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="79">
         <v>99493224</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="83">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="79">
         <v>85614049</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+    <row r="8" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="91">
         <f t="shared" si="0"/>
         <v>7700</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="84" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="A9" s="78">
         <v>41984</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="83">
         <f t="shared" si="0"/>
         <v>1477.8</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="79">
         <v>91780306</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="80">
+      <c r="A10" s="78">
         <v>41831</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="83">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="79">
         <v>83107662</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="80">
+      <c r="A11" s="78">
         <v>41770</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="83">
         <f t="shared" si="0"/>
         <v>930.4</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="79">
         <v>77895701</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="83">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="79">
         <v>63397915</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="83">
         <f t="shared" si="0"/>
         <v>4558</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="79">
         <v>45992283</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="83">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="79">
         <v>30726689</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="80">
+      <c r="A15" s="78">
         <v>41922</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="83">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="79">
         <v>22677100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="80">
+      <c r="A16" s="78">
         <v>41708</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="83">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="79">
         <v>7885444</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="91">
         <f t="shared" si="0"/>
         <v>97.2</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="84">
         <v>3577085</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88">
+    <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
         <v>41946</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="83">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="89">
+      <c r="G18" s="87">
         <v>85575528</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+    <row r="19" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
         <v>41732</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="91">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="84">
         <v>70771631</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="83">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="81">
+      <c r="G20" s="79">
         <v>39931421</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="83">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="81">
+      <c r="G21" s="79">
         <v>22091148</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="80">
+      <c r="A22" s="78">
         <v>41590</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="83">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="79">
         <v>9790485</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="83">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="79">
         <v>50191476</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="85">
+      <c r="D24" s="83">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="E24" s="81" t="s">
+      <c r="E24" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="79">
         <v>92332537</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="80">
+      <c r="A25" s="78">
         <v>41343</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="85">
+      <c r="D25" s="83">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="79">
         <v>58349829</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="80">
+      <c r="A26" s="78">
         <v>41403</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="83">
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="79">
         <v>98120336</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="85">
+      <c r="D27" s="83">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="79">
         <v>86954006</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="80">
+      <c r="A28" s="78">
         <v>41337</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="83">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="81" t="s">
+      <c r="F28" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="79">
         <v>61812234</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="80">
+      <c r="A29" s="78">
         <v>41038</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="85">
+      <c r="D29" s="83">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="79">
         <v>48294475</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="83">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="92">
+      <c r="G30" s="90">
         <v>50803038</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="85">
+      <c r="D31" s="83">
         <f t="shared" si="0"/>
         <v>9777.9500000000007</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="90">
         <v>50803038</v>
       </c>
     </row>
